--- a/conformancelib/testdata/PIV-I_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I_ICAM_Test_Cards.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GSA\GSA_GIT\piv-conformance-swing\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF15AD76-B1F2-4FD1-B36F-6893B946943D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5D85D1-4438-4497-96B6-A7473503BAE8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="870" windowWidth="26025" windowHeight="14550" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3652" uniqueCount="1262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3644" uniqueCount="1265">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -3269,9 +3269,6 @@
     <t>8</t>
   </si>
   <si>
-    <t>1.3.6.1.1.16.4</t>
-  </si>
-  <si>
     <t>OID for entryUUID</t>
   </si>
   <si>
@@ -3819,6 +3816,18 @@
   </si>
   <si>
     <t>Combined Steps (optional)</t>
+  </si>
+  <si>
+    <t>PKIX.27</t>
+  </si>
+  <si>
+    <t>PKIX.28</t>
+  </si>
+  <si>
+    <t>PKIX_Test_27</t>
+  </si>
+  <si>
+    <t>PKIX_Test_28</t>
   </si>
 </sst>
 </file>
@@ -8336,9 +8345,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G467"/>
+  <dimension ref="A1:G464"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A329" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A350" sqref="A350:XFD350"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
@@ -8366,10 +8377,10 @@
         <v>55</v>
       </c>
       <c r="E1" s="37" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="F1" s="37" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -8405,10 +8416,10 @@
         <v>56</v>
       </c>
       <c r="B4" s="41" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C4" s="40" t="s">
         <v>1083</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>1084</v>
       </c>
       <c r="D4" s="40"/>
       <c r="E4" s="40"/>
@@ -8429,7 +8440,7 @@
       </c>
       <c r="E5" s="41"/>
       <c r="F5" s="41" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8447,7 +8458,7 @@
       </c>
       <c r="E6" s="41"/>
       <c r="F6" s="41" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8465,7 +8476,7 @@
       </c>
       <c r="E7" s="41"/>
       <c r="F7" s="41" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8483,7 +8494,7 @@
       </c>
       <c r="E8" s="41"/>
       <c r="F8" s="41" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -8501,7 +8512,7 @@
       </c>
       <c r="E9" s="41"/>
       <c r="F9" s="41" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -8519,7 +8530,7 @@
       </c>
       <c r="E10" s="41"/>
       <c r="F10" s="41" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -8537,7 +8548,7 @@
       </c>
       <c r="E11" s="41"/>
       <c r="F11" s="41" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -8555,7 +8566,7 @@
       </c>
       <c r="E12" s="41"/>
       <c r="F12" s="41" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -8573,7 +8584,7 @@
       </c>
       <c r="E13" s="41"/>
       <c r="F13" s="41" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -8591,7 +8602,7 @@
       </c>
       <c r="E14" s="41"/>
       <c r="F14" s="41" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -8609,7 +8620,7 @@
       </c>
       <c r="E15" s="41"/>
       <c r="F15" s="41" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -8631,10 +8642,10 @@
         <v>56</v>
       </c>
       <c r="B17" s="41" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D17" s="40"/>
       <c r="E17" s="40"/>
@@ -8655,7 +8666,7 @@
       </c>
       <c r="E18" s="41"/>
       <c r="F18" s="41" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -8673,7 +8684,7 @@
       </c>
       <c r="E19" s="41"/>
       <c r="F19" s="41" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -8691,7 +8702,7 @@
       </c>
       <c r="E20" s="41"/>
       <c r="F20" s="41" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -8709,7 +8720,7 @@
       </c>
       <c r="E21" s="41"/>
       <c r="F21" s="41" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -8727,7 +8738,7 @@
       </c>
       <c r="E22" s="41"/>
       <c r="F22" s="41" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -8738,14 +8749,14 @@
         <v>98</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D23" s="41" t="s">
         <v>100</v>
       </c>
       <c r="E23" s="41"/>
       <c r="F23" s="41" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -8756,14 +8767,14 @@
         <v>101</v>
       </c>
       <c r="C24" s="42" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D24" s="42" t="s">
         <v>1089</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>1090</v>
       </c>
       <c r="E24" s="42"/>
       <c r="F24" s="42" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -8781,7 +8792,7 @@
       </c>
       <c r="E25" s="41"/>
       <c r="F25" s="41" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -8792,14 +8803,14 @@
         <v>107</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D26" s="41" t="s">
         <v>106</v>
       </c>
       <c r="E26" s="41"/>
       <c r="F26" s="41" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -8810,14 +8821,14 @@
         <v>110</v>
       </c>
       <c r="C27" s="42" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D27" s="42" t="s">
         <v>1091</v>
-      </c>
-      <c r="D27" s="42" t="s">
-        <v>1092</v>
       </c>
       <c r="E27" s="42"/>
       <c r="F27" s="42" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -8828,14 +8839,14 @@
         <v>113</v>
       </c>
       <c r="C28" s="42" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D28" s="42" t="s">
         <v>1093</v>
-      </c>
-      <c r="D28" s="42" t="s">
-        <v>1094</v>
       </c>
       <c r="E28" s="42"/>
       <c r="F28" s="42" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -8843,33 +8854,33 @@
         <v>56</v>
       </c>
       <c r="B29" s="42" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C29" s="42" t="s">
         <v>1095</v>
       </c>
-      <c r="C29" s="42" t="s">
+      <c r="D29" s="42" t="s">
         <v>1096</v>
-      </c>
-      <c r="D29" s="42" t="s">
-        <v>1097</v>
       </c>
       <c r="E29" s="42"/>
       <c r="F29" s="42" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="42"/>
       <c r="B30" s="42" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C30" s="42" t="s">
         <v>1098</v>
       </c>
-      <c r="C30" s="42" t="s">
+      <c r="D30" s="42" t="s">
         <v>1099</v>
-      </c>
-      <c r="D30" s="42" t="s">
-        <v>1100</v>
       </c>
       <c r="E30" s="42"/>
       <c r="F30" s="42" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -8877,17 +8888,17 @@
         <v>56</v>
       </c>
       <c r="B31" s="41" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C31" s="41" t="s">
         <v>1101</v>
-      </c>
-      <c r="C31" s="41" t="s">
-        <v>1102</v>
       </c>
       <c r="D31" s="41" t="s">
         <v>109</v>
       </c>
       <c r="E31" s="41"/>
       <c r="F31" s="41" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -8895,7 +8906,7 @@
         <v>56</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C32" s="41" t="s">
         <v>111</v>
@@ -8905,7 +8916,7 @@
       </c>
       <c r="E32" s="41"/>
       <c r="F32" s="41" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -8913,17 +8924,17 @@
         <v>56</v>
       </c>
       <c r="B33" s="42" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C33" s="42" t="s">
         <v>1104</v>
       </c>
-      <c r="C33" s="42" t="s">
+      <c r="D33" s="42" t="s">
         <v>1105</v>
-      </c>
-      <c r="D33" s="42" t="s">
-        <v>1106</v>
       </c>
       <c r="E33" s="42"/>
       <c r="F33" s="42" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -8931,17 +8942,17 @@
         <v>56</v>
       </c>
       <c r="B34" s="42" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C34" s="42" t="s">
         <v>1107</v>
       </c>
-      <c r="C34" s="42" t="s">
+      <c r="D34" s="42" t="s">
         <v>1108</v>
-      </c>
-      <c r="D34" s="42" t="s">
-        <v>1109</v>
       </c>
       <c r="E34" s="42"/>
       <c r="F34" s="42" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -8949,17 +8960,17 @@
         <v>56</v>
       </c>
       <c r="B35" s="42" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C35" s="42" t="s">
         <v>1110</v>
       </c>
-      <c r="C35" s="42" t="s">
+      <c r="D35" s="42" t="s">
         <v>1111</v>
-      </c>
-      <c r="D35" s="42" t="s">
-        <v>1112</v>
       </c>
       <c r="E35" s="42"/>
       <c r="F35" s="42" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -8967,17 +8978,17 @@
         <v>56</v>
       </c>
       <c r="B36" s="42" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C36" s="42" t="s">
         <v>1113</v>
       </c>
-      <c r="C36" s="42" t="s">
+      <c r="D36" s="42" t="s">
         <v>1114</v>
-      </c>
-      <c r="D36" s="42" t="s">
-        <v>1115</v>
       </c>
       <c r="E36" s="42"/>
       <c r="F36" s="42" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -8985,7 +8996,7 @@
         <v>56</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C37" s="41" t="s">
         <v>114</v>
@@ -8995,7 +9006,7 @@
       </c>
       <c r="E37" s="41"/>
       <c r="F37" s="41" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -9013,7 +9024,7 @@
       </c>
       <c r="E38" s="41"/>
       <c r="F38" s="41" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -9031,7 +9042,7 @@
       </c>
       <c r="E39" s="41"/>
       <c r="F39" s="41" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="30">
@@ -9049,7 +9060,7 @@
       </c>
       <c r="E40" s="41"/>
       <c r="F40" s="41" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -9067,7 +9078,7 @@
       </c>
       <c r="E41" s="41"/>
       <c r="F41" s="41" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -9075,7 +9086,7 @@
         <v>127</v>
       </c>
       <c r="B42" s="41" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C42" s="41" t="s">
         <v>129</v>
@@ -9085,7 +9096,7 @@
       </c>
       <c r="E42" s="41"/>
       <c r="F42" s="41" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -9107,10 +9118,10 @@
         <v>56</v>
       </c>
       <c r="B44" s="41" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D44" s="40"/>
       <c r="E44" s="40"/>
@@ -9131,7 +9142,7 @@
       </c>
       <c r="E45" s="41"/>
       <c r="F45" s="41" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -9149,7 +9160,7 @@
       </c>
       <c r="E46" s="41"/>
       <c r="F46" s="41" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -9167,7 +9178,7 @@
       </c>
       <c r="E47" s="41"/>
       <c r="F47" s="41" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -9185,7 +9196,7 @@
       </c>
       <c r="E48" s="41"/>
       <c r="F48" s="41" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="30">
@@ -9199,11 +9210,11 @@
         <v>136</v>
       </c>
       <c r="D49" s="41" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E49" s="41"/>
       <c r="F49" s="41" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -9221,7 +9232,7 @@
       </c>
       <c r="E50" s="41"/>
       <c r="F50" s="41" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -9239,7 +9250,7 @@
       </c>
       <c r="E51" s="41"/>
       <c r="F51" s="41" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -9257,7 +9268,7 @@
       </c>
       <c r="E52" s="41"/>
       <c r="F52" s="41" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -9275,7 +9286,7 @@
       </c>
       <c r="E53" s="41"/>
       <c r="F53" s="41" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -9283,7 +9294,7 @@
         <v>127</v>
       </c>
       <c r="B54" s="41" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C54" s="41" t="s">
         <v>129</v>
@@ -9293,7 +9304,7 @@
       </c>
       <c r="E54" s="41"/>
       <c r="F54" s="41" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -9315,10 +9326,10 @@
         <v>56</v>
       </c>
       <c r="B56" s="41" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D56" s="40"/>
       <c r="E56" s="40"/>
@@ -9339,7 +9350,7 @@
       </c>
       <c r="E57" s="41"/>
       <c r="F57" s="41" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -9357,7 +9368,7 @@
       </c>
       <c r="E58" s="41"/>
       <c r="F58" s="41" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -9375,7 +9386,7 @@
       </c>
       <c r="E59" s="41"/>
       <c r="F59" s="41" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -9393,7 +9404,7 @@
       </c>
       <c r="E60" s="41"/>
       <c r="F60" s="41" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -9411,7 +9422,7 @@
       </c>
       <c r="E61" s="41"/>
       <c r="F61" s="41" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -9429,7 +9440,7 @@
       </c>
       <c r="E62" s="41"/>
       <c r="F62" s="41" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -9447,7 +9458,7 @@
       </c>
       <c r="E63" s="41"/>
       <c r="F63" s="41" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -9465,7 +9476,7 @@
       </c>
       <c r="E64" s="41"/>
       <c r="F64" s="41" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -9483,7 +9494,7 @@
       </c>
       <c r="E65" s="41"/>
       <c r="F65" s="41" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -9505,10 +9516,10 @@
         <v>56</v>
       </c>
       <c r="B67" s="41" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D67" s="40"/>
       <c r="E67" s="40"/>
@@ -9529,7 +9540,7 @@
       </c>
       <c r="E68" s="41"/>
       <c r="F68" s="41" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -9547,7 +9558,7 @@
       </c>
       <c r="E69" s="41"/>
       <c r="F69" s="41" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -9565,7 +9576,7 @@
       </c>
       <c r="E70" s="41"/>
       <c r="F70" s="41" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -9583,7 +9594,7 @@
       </c>
       <c r="E71" s="41"/>
       <c r="F71" s="41" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -9601,7 +9612,7 @@
       </c>
       <c r="E72" s="41"/>
       <c r="F72" s="41" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -9619,7 +9630,7 @@
       </c>
       <c r="E73" s="41"/>
       <c r="F73" s="41" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -9630,14 +9641,14 @@
         <v>172</v>
       </c>
       <c r="C74" s="42" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D74" s="42" t="s">
         <v>1125</v>
-      </c>
-      <c r="D74" s="42" t="s">
-        <v>1126</v>
       </c>
       <c r="E74" s="42"/>
       <c r="F74" s="42" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -9648,14 +9659,14 @@
         <v>175</v>
       </c>
       <c r="C75" s="42" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D75" s="42" t="s">
         <v>1127</v>
-      </c>
-      <c r="D75" s="42" t="s">
-        <v>1128</v>
       </c>
       <c r="E75" s="42"/>
       <c r="F75" s="42" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -9673,7 +9684,7 @@
       </c>
       <c r="E76" s="41"/>
       <c r="F76" s="41" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -9681,7 +9692,7 @@
         <v>56</v>
       </c>
       <c r="B77" s="41" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C77" s="41" t="s">
         <v>176</v>
@@ -9691,7 +9702,7 @@
       </c>
       <c r="E77" s="41"/>
       <c r="F77" s="41" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -9699,7 +9710,7 @@
         <v>56</v>
       </c>
       <c r="B78" s="41" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C78" s="41" t="s">
         <v>179</v>
@@ -9709,7 +9720,7 @@
       </c>
       <c r="E78" s="41"/>
       <c r="F78" s="41" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -9717,7 +9728,7 @@
         <v>127</v>
       </c>
       <c r="B79" s="41" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C79" s="41" t="s">
         <v>129</v>
@@ -9727,7 +9738,7 @@
       </c>
       <c r="E79" s="41"/>
       <c r="F79" s="41" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -9735,7 +9746,7 @@
         <v>56</v>
       </c>
       <c r="B80" s="41" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C80" s="40" t="s">
         <v>6</v>
@@ -9749,10 +9760,10 @@
         <v>56</v>
       </c>
       <c r="B81" s="41" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D81" s="40"/>
       <c r="E81" s="40"/>
@@ -9773,7 +9784,7 @@
       </c>
       <c r="E82" s="41"/>
       <c r="F82" s="41" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -9791,7 +9802,7 @@
       </c>
       <c r="E83" s="41"/>
       <c r="F83" s="41" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -9809,7 +9820,7 @@
       </c>
       <c r="E84" s="41"/>
       <c r="F84" s="41" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -9827,7 +9838,7 @@
       </c>
       <c r="E85" s="41"/>
       <c r="F85" s="41" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -9845,7 +9856,7 @@
       </c>
       <c r="E86" s="41"/>
       <c r="F86" s="41" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -9863,7 +9874,7 @@
       </c>
       <c r="E87" s="41"/>
       <c r="F87" s="41" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -9881,7 +9892,7 @@
       </c>
       <c r="E88" s="41"/>
       <c r="F88" s="41" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -9889,7 +9900,7 @@
         <v>127</v>
       </c>
       <c r="B89" s="41" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C89" s="41" t="s">
         <v>129</v>
@@ -9899,7 +9910,7 @@
       </c>
       <c r="E89" s="41"/>
       <c r="F89" s="41" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -9921,10 +9932,10 @@
         <v>56</v>
       </c>
       <c r="B91" s="41" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C91" s="40" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D91" s="40"/>
       <c r="E91" s="40"/>
@@ -9945,7 +9956,7 @@
       </c>
       <c r="E92" s="41"/>
       <c r="F92" s="41" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -9963,7 +9974,7 @@
       </c>
       <c r="E93" s="41"/>
       <c r="F93" s="41" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -9981,7 +9992,7 @@
       </c>
       <c r="E94" s="41"/>
       <c r="F94" s="41" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -9999,7 +10010,7 @@
       </c>
       <c r="E95" s="41"/>
       <c r="F95" s="41" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="30">
@@ -10013,11 +10024,11 @@
         <v>136</v>
       </c>
       <c r="D96" s="41" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E96" s="41"/>
       <c r="F96" s="41" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -10035,7 +10046,7 @@
       </c>
       <c r="E97" s="41"/>
       <c r="F97" s="41" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -10053,7 +10064,7 @@
       </c>
       <c r="E98" s="41"/>
       <c r="F98" s="41" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -10071,7 +10082,7 @@
       </c>
       <c r="E99" s="41"/>
       <c r="F99" s="41" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -10089,7 +10100,7 @@
       </c>
       <c r="E100" s="41"/>
       <c r="F100" s="41" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -10097,7 +10108,7 @@
         <v>127</v>
       </c>
       <c r="B101" s="41" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C101" s="41" t="s">
         <v>129</v>
@@ -10107,7 +10118,7 @@
       </c>
       <c r="E101" s="41"/>
       <c r="F101" s="41" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -10129,10 +10140,10 @@
         <v>56</v>
       </c>
       <c r="B103" s="41" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C103" s="40" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D103" s="40"/>
       <c r="E103" s="40"/>
@@ -10153,7 +10164,7 @@
       </c>
       <c r="E104" s="41"/>
       <c r="F104" s="41" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -10171,7 +10182,7 @@
       </c>
       <c r="E105" s="41"/>
       <c r="F105" s="41" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -10189,7 +10200,7 @@
       </c>
       <c r="E106" s="41"/>
       <c r="F106" s="41" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -10207,7 +10218,7 @@
       </c>
       <c r="E107" s="41"/>
       <c r="F107" s="41" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="30">
@@ -10221,11 +10232,11 @@
         <v>136</v>
       </c>
       <c r="D108" s="41" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E108" s="41"/>
       <c r="F108" s="41" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -10243,7 +10254,7 @@
       </c>
       <c r="E109" s="41"/>
       <c r="F109" s="41" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -10261,7 +10272,7 @@
       </c>
       <c r="E110" s="41"/>
       <c r="F110" s="41" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -10279,7 +10290,7 @@
       </c>
       <c r="E111" s="41"/>
       <c r="F111" s="41" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -10297,7 +10308,7 @@
       </c>
       <c r="E112" s="41"/>
       <c r="F112" s="41" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -10305,7 +10316,7 @@
         <v>127</v>
       </c>
       <c r="B113" s="41" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C113" s="41" t="s">
         <v>129</v>
@@ -10315,7 +10326,7 @@
       </c>
       <c r="E113" s="41"/>
       <c r="F113" s="41" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -10337,10 +10348,10 @@
         <v>56</v>
       </c>
       <c r="B115" s="41" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C115" s="40" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D115" s="40"/>
       <c r="E115" s="40"/>
@@ -10361,7 +10372,7 @@
       </c>
       <c r="E116" s="41"/>
       <c r="F116" s="41" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -10379,7 +10390,7 @@
       </c>
       <c r="E117" s="41"/>
       <c r="F117" s="41" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -10397,7 +10408,7 @@
       </c>
       <c r="E118" s="41"/>
       <c r="F118" s="41" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -10415,7 +10426,7 @@
       </c>
       <c r="E119" s="41"/>
       <c r="F119" s="41" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="30">
@@ -10429,11 +10440,11 @@
         <v>136</v>
       </c>
       <c r="D120" s="41" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E120" s="41"/>
       <c r="F120" s="41" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -10451,7 +10462,7 @@
       </c>
       <c r="E121" s="41"/>
       <c r="F121" s="41" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -10469,7 +10480,7 @@
       </c>
       <c r="E122" s="41"/>
       <c r="F122" s="41" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -10487,7 +10498,7 @@
       </c>
       <c r="E123" s="41"/>
       <c r="F123" s="41" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -10505,7 +10516,7 @@
       </c>
       <c r="E124" s="41"/>
       <c r="F124" s="41" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -10513,7 +10524,7 @@
         <v>127</v>
       </c>
       <c r="B125" s="41" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C125" s="41" t="s">
         <v>129</v>
@@ -10523,7 +10534,7 @@
       </c>
       <c r="E125" s="41"/>
       <c r="F125" s="41" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -10531,7 +10542,7 @@
         <v>56</v>
       </c>
       <c r="B126" s="41" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C126" s="40" t="s">
         <v>10</v>
@@ -10545,10 +10556,10 @@
         <v>56</v>
       </c>
       <c r="B127" s="41" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C127" s="40" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D127" s="40"/>
       <c r="E127" s="40"/>
@@ -10569,7 +10580,7 @@
       </c>
       <c r="E128" s="41"/>
       <c r="F128" s="41" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -10587,7 +10598,7 @@
       </c>
       <c r="E129" s="41"/>
       <c r="F129" s="41" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -10605,7 +10616,7 @@
       </c>
       <c r="E130" s="41"/>
       <c r="F130" s="41" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -10623,7 +10634,7 @@
       </c>
       <c r="E131" s="41"/>
       <c r="F131" s="41" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -10641,7 +10652,7 @@
       </c>
       <c r="E132" s="41"/>
       <c r="F132" s="41" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -10652,14 +10663,14 @@
         <v>238</v>
       </c>
       <c r="C133" s="41" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="D133" s="41" t="s">
         <v>240</v>
       </c>
       <c r="E133" s="41"/>
       <c r="F133" s="41" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -10670,14 +10681,14 @@
         <v>241</v>
       </c>
       <c r="C134" s="42" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D134" s="42" t="s">
         <v>1149</v>
-      </c>
-      <c r="D134" s="42" t="s">
-        <v>1150</v>
       </c>
       <c r="E134" s="42"/>
       <c r="F134" s="42" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -10695,7 +10706,7 @@
       </c>
       <c r="E135" s="41"/>
       <c r="F135" s="41" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -10703,7 +10714,7 @@
         <v>56</v>
       </c>
       <c r="B136" s="41" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C136" s="41" t="s">
         <v>245</v>
@@ -10713,7 +10724,7 @@
       </c>
       <c r="E136" s="41"/>
       <c r="F136" s="41" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -10735,10 +10746,10 @@
         <v>56</v>
       </c>
       <c r="B138" s="41" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C138" s="40" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D138" s="40"/>
       <c r="E138" s="40"/>
@@ -10759,7 +10770,7 @@
       </c>
       <c r="E139" s="41"/>
       <c r="F139" s="41" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -10777,7 +10788,7 @@
       </c>
       <c r="E140" s="41"/>
       <c r="F140" s="41" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -10795,7 +10806,7 @@
       </c>
       <c r="E141" s="41"/>
       <c r="F141" s="41" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -10813,7 +10824,7 @@
       </c>
       <c r="E142" s="41"/>
       <c r="F142" s="41" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -10824,14 +10835,14 @@
         <v>255</v>
       </c>
       <c r="C143" s="41" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D143" s="41" t="s">
         <v>257</v>
       </c>
       <c r="E143" s="41"/>
       <c r="F143" s="41" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -10842,14 +10853,14 @@
         <v>258</v>
       </c>
       <c r="C144" s="41" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D144" s="41" t="s">
         <v>254</v>
       </c>
       <c r="E144" s="41"/>
       <c r="F144" s="41" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -10860,14 +10871,14 @@
         <v>260</v>
       </c>
       <c r="C145" s="42" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D145" s="42" t="s">
         <v>1156</v>
-      </c>
-      <c r="D145" s="42" t="s">
-        <v>1157</v>
       </c>
       <c r="E145" s="42"/>
       <c r="F145" s="42" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="30">
@@ -10875,17 +10886,17 @@
         <v>56</v>
       </c>
       <c r="B146" s="41" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C146" s="41" t="s">
         <v>259</v>
       </c>
       <c r="D146" s="41" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E146" s="41"/>
       <c r="F146" s="41" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="30">
@@ -10893,7 +10904,7 @@
         <v>56</v>
       </c>
       <c r="B147" s="41" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C147" s="41" t="s">
         <v>261</v>
@@ -10903,7 +10914,7 @@
       </c>
       <c r="E147" s="41"/>
       <c r="F147" s="41" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="30">
@@ -10911,17 +10922,17 @@
         <v>127</v>
       </c>
       <c r="B148" s="41" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C148" s="41" t="s">
         <v>129</v>
       </c>
       <c r="D148" s="41" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E148" s="41"/>
       <c r="F148" s="41" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -10929,7 +10940,7 @@
         <v>127</v>
       </c>
       <c r="B149" s="41" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C149" s="41" t="s">
         <v>265</v>
@@ -10939,7 +10950,7 @@
       </c>
       <c r="E149" s="41"/>
       <c r="F149" s="41" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -10981,7 +10992,7 @@
         <v>14</v>
       </c>
       <c r="D152" s="41" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E152" s="41"/>
       <c r="F152" s="41"/>
@@ -10997,7 +11008,7 @@
         <v>15</v>
       </c>
       <c r="D153" s="41" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E153" s="41"/>
       <c r="F153" s="41"/>
@@ -11013,7 +11024,7 @@
         <v>269</v>
       </c>
       <c r="D154" s="41" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E154" s="41"/>
       <c r="F154" s="41"/>
@@ -11065,7 +11076,7 @@
         <v>56</v>
       </c>
       <c r="B158" s="38" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C158" s="39" t="s">
         <v>19</v>
@@ -11126,7 +11137,7 @@
         <v>273</v>
       </c>
       <c r="C162" s="41" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D162" s="41">
         <v>76.2</v>
@@ -11158,10 +11169,10 @@
         <v>277</v>
       </c>
       <c r="C164" s="41" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D164" s="41" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="E164" s="41"/>
       <c r="F164" s="41"/>
@@ -11171,7 +11182,7 @@
         <v>56</v>
       </c>
       <c r="B165" s="41" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C165" s="41" t="s">
         <v>281</v>
@@ -11204,7 +11215,7 @@
         <v>280</v>
       </c>
       <c r="C167" s="41" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D167" s="41" t="s">
         <v>837</v>
@@ -11829,7 +11840,7 @@
         <v>56</v>
       </c>
       <c r="B207" s="41" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C207" s="41" t="s">
         <v>289</v>
@@ -12087,7 +12098,7 @@
         <v>1050</v>
       </c>
       <c r="D223" s="41" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E223" s="41"/>
       <c r="F223" s="41"/>
@@ -12103,7 +12114,7 @@
         <v>367</v>
       </c>
       <c r="D224" s="41" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E224" s="41"/>
       <c r="F224" s="41"/>
@@ -12509,7 +12520,7 @@
         <v>56</v>
       </c>
       <c r="B251" s="38" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C251" s="39" t="s">
         <v>35</v>
@@ -12666,7 +12677,7 @@
         <v>434</v>
       </c>
       <c r="C261" s="46" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D261" s="41" t="s">
         <v>436</v>
@@ -12679,13 +12690,13 @@
         <v>56</v>
       </c>
       <c r="B262" s="41" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C262" s="46" t="s">
         <v>1166</v>
       </c>
-      <c r="C262" s="46" t="s">
+      <c r="D262" s="41" t="s">
         <v>1167</v>
-      </c>
-      <c r="D262" s="41" t="s">
-        <v>1168</v>
       </c>
       <c r="E262" s="46"/>
       <c r="F262" s="41"/>
@@ -12743,7 +12754,7 @@
         <v>56</v>
       </c>
       <c r="B266" s="41" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C266" s="46" t="s">
         <v>447</v>
@@ -12937,7 +12948,7 @@
         <v>469</v>
       </c>
       <c r="D278" s="41" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="E278" s="46"/>
       <c r="F278" s="41"/>
@@ -13021,7 +13032,7 @@
       </c>
       <c r="E283" s="46"/>
       <c r="F283" s="41" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="284" spans="1:6" ht="30">
@@ -13039,7 +13050,7 @@
       </c>
       <c r="E284" s="46"/>
       <c r="F284" s="41" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -13225,7 +13236,7 @@
         <v>469</v>
       </c>
       <c r="D296" s="41" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="E296" s="46"/>
       <c r="F296" s="41"/>
@@ -13309,7 +13320,7 @@
       </c>
       <c r="E301" s="46"/>
       <c r="F301" s="41" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="302" spans="1:6" ht="30">
@@ -13327,7 +13338,7 @@
       </c>
       <c r="E302" s="46"/>
       <c r="F302" s="41" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -13629,7 +13640,7 @@
         <v>56</v>
       </c>
       <c r="B322" s="41" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C322" s="41" t="s">
         <v>462</v>
@@ -13645,7 +13656,7 @@
         <v>56</v>
       </c>
       <c r="B323" s="41" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C323" s="41" t="s">
         <v>464</v>
@@ -13683,7 +13694,7 @@
         <v>469</v>
       </c>
       <c r="D325" s="41" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="E325" s="41"/>
       <c r="F325" s="41"/>
@@ -13757,7 +13768,7 @@
         <v>56</v>
       </c>
       <c r="B330" s="41" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C330" s="41" t="s">
         <v>480</v>
@@ -13767,7 +13778,7 @@
       </c>
       <c r="E330" s="41"/>
       <c r="F330" s="41" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="331" spans="1:6" ht="30">
@@ -13775,7 +13786,7 @@
         <v>56</v>
       </c>
       <c r="B331" s="41" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C331" s="41" t="s">
         <v>483</v>
@@ -13785,7 +13796,7 @@
       </c>
       <c r="E331" s="41"/>
       <c r="F331" s="41" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -13793,7 +13804,7 @@
         <v>56</v>
       </c>
       <c r="B332" s="38" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C332" s="51" t="s">
         <v>40</v>
@@ -13845,7 +13856,7 @@
       </c>
       <c r="E335" s="46"/>
       <c r="F335" s="41" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -13863,7 +13874,7 @@
       </c>
       <c r="E336" s="46"/>
       <c r="F336" s="41" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -13874,14 +13885,14 @@
         <v>548</v>
       </c>
       <c r="C337" s="46" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="D337" s="41">
         <v>78.099999999999994</v>
       </c>
       <c r="E337" s="46"/>
       <c r="F337" s="41" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -13913,7 +13924,7 @@
       </c>
       <c r="E339" s="46"/>
       <c r="F339" s="41" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -13931,7 +13942,7 @@
       </c>
       <c r="E340" s="46"/>
       <c r="F340" s="41" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -13949,7 +13960,7 @@
       </c>
       <c r="E341" s="41"/>
       <c r="F341" s="41" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -13967,7 +13978,7 @@
       </c>
       <c r="E342" s="46"/>
       <c r="F342" s="41" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -13999,7 +14010,7 @@
       </c>
       <c r="E344" s="46"/>
       <c r="F344" s="41" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -14017,7 +14028,7 @@
       </c>
       <c r="E345" s="46"/>
       <c r="F345" s="41" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -14035,7 +14046,7 @@
       </c>
       <c r="E346" s="46"/>
       <c r="F346" s="41" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -14053,7 +14064,7 @@
       </c>
       <c r="E347" s="46"/>
       <c r="F347" s="41" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -14075,53 +14086,53 @@
         <v>56</v>
       </c>
       <c r="B349" s="41" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C349" s="46" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D349" s="41" t="s">
-        <v>582</v>
+        <v>1261</v>
       </c>
       <c r="E349" s="46"/>
       <c r="F349" s="41" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6" ht="30">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6">
       <c r="A350" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B350" s="41" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="C350" s="46" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="D350" s="41" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="E350" s="46"/>
       <c r="F350" s="41" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6" ht="30">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6">
       <c r="A351" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B351" s="41" t="s">
-        <v>587</v>
-      </c>
-      <c r="C351" s="41" t="s">
-        <v>588</v>
+        <v>592</v>
+      </c>
+      <c r="C351" s="46" t="s">
+        <v>593</v>
       </c>
       <c r="D351" s="41" t="s">
-        <v>1159</v>
-      </c>
-      <c r="E351" s="41"/>
+        <v>594</v>
+      </c>
+      <c r="E351" s="46"/>
       <c r="F351" s="41" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -14129,35 +14140,31 @@
         <v>56</v>
       </c>
       <c r="B352" s="41" t="s">
-        <v>589</v>
-      </c>
-      <c r="C352" s="46" t="s">
-        <v>590</v>
-      </c>
-      <c r="D352" s="41" t="s">
-        <v>591</v>
-      </c>
-      <c r="E352" s="46"/>
-      <c r="F352" s="41" t="s">
-        <v>1119</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="C352" s="43" t="s">
+        <v>596</v>
+      </c>
+      <c r="D352" s="43"/>
+      <c r="E352" s="43"/>
+      <c r="F352" s="43"/>
     </row>
     <row r="353" spans="1:6">
       <c r="A353" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B353" s="41" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="C353" s="46" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="D353" s="41" t="s">
-        <v>594</v>
-      </c>
-      <c r="E353" s="46"/>
+        <v>573</v>
+      </c>
+      <c r="E353" s="41"/>
       <c r="F353" s="41" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -14165,49 +14172,49 @@
         <v>56</v>
       </c>
       <c r="B354" s="41" t="s">
-        <v>595</v>
-      </c>
-      <c r="C354" s="43" t="s">
-        <v>596</v>
-      </c>
-      <c r="D354" s="43"/>
-      <c r="E354" s="43"/>
-      <c r="F354" s="43"/>
+        <v>599</v>
+      </c>
+      <c r="C354" s="41" t="s">
+        <v>600</v>
+      </c>
+      <c r="D354" s="41" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E354" s="41"/>
+      <c r="F354" s="41" t="s">
+        <v>1118</v>
+      </c>
     </row>
     <row r="355" spans="1:6">
       <c r="A355" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B355" s="41" t="s">
-        <v>597</v>
-      </c>
-      <c r="C355" s="46" t="s">
-        <v>598</v>
-      </c>
-      <c r="D355" s="41" t="s">
-        <v>573</v>
-      </c>
-      <c r="E355" s="41"/>
-      <c r="F355" s="41" t="s">
-        <v>1119</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="C355" s="43" t="s">
+        <v>602</v>
+      </c>
+      <c r="D355" s="43"/>
+      <c r="E355" s="43"/>
+      <c r="F355" s="43"/>
     </row>
     <row r="356" spans="1:6">
       <c r="A356" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B356" s="41" t="s">
-        <v>599</v>
-      </c>
-      <c r="C356" s="41" t="s">
-        <v>600</v>
+        <v>603</v>
+      </c>
+      <c r="C356" s="46" t="s">
+        <v>566</v>
       </c>
       <c r="D356" s="41" t="s">
-        <v>1057</v>
-      </c>
-      <c r="E356" s="41"/>
+        <v>567</v>
+      </c>
+      <c r="E356" s="46"/>
       <c r="F356" s="41" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -14215,31 +14222,35 @@
         <v>56</v>
       </c>
       <c r="B357" s="41" t="s">
-        <v>601</v>
-      </c>
-      <c r="C357" s="43" t="s">
-        <v>602</v>
-      </c>
-      <c r="D357" s="43"/>
-      <c r="E357" s="43"/>
-      <c r="F357" s="43"/>
+        <v>604</v>
+      </c>
+      <c r="C357" s="46" t="s">
+        <v>605</v>
+      </c>
+      <c r="D357" s="41" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E357" s="46"/>
+      <c r="F357" s="41" t="s">
+        <v>1118</v>
+      </c>
     </row>
     <row r="358" spans="1:6">
       <c r="A358" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B358" s="41" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="C358" s="46" t="s">
-        <v>566</v>
+        <v>607</v>
       </c>
       <c r="D358" s="41" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="E358" s="46"/>
       <c r="F358" s="41" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="359" spans="1:6">
@@ -14247,17 +14258,17 @@
         <v>56</v>
       </c>
       <c r="B359" s="41" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="C359" s="46" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="D359" s="41" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="E359" s="46"/>
       <c r="F359" s="41" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="360" spans="1:6">
@@ -14265,99 +14276,99 @@
         <v>56</v>
       </c>
       <c r="B360" s="41" t="s">
-        <v>606</v>
-      </c>
-      <c r="C360" s="46" t="s">
-        <v>607</v>
+        <v>610</v>
+      </c>
+      <c r="C360" s="41" t="s">
+        <v>611</v>
       </c>
       <c r="D360" s="41" t="s">
-        <v>573</v>
-      </c>
-      <c r="E360" s="46"/>
+        <v>1058</v>
+      </c>
+      <c r="E360" s="41"/>
       <c r="F360" s="41" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="361" spans="1:6">
       <c r="A361" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B361" s="41" t="s">
-        <v>608</v>
-      </c>
-      <c r="C361" s="46" t="s">
-        <v>609</v>
-      </c>
-      <c r="D361" s="41" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E361" s="46"/>
-      <c r="F361" s="41" t="s">
-        <v>1119</v>
-      </c>
+      <c r="B361" s="41">
+        <v>11.2</v>
+      </c>
+      <c r="C361" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D361" s="43"/>
+      <c r="E361" s="43"/>
+      <c r="F361" s="43"/>
     </row>
     <row r="362" spans="1:6">
       <c r="A362" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B362" s="41" t="s">
-        <v>610</v>
-      </c>
-      <c r="C362" s="41" t="s">
-        <v>611</v>
-      </c>
-      <c r="D362" s="41" t="s">
-        <v>1058</v>
-      </c>
-      <c r="E362" s="41"/>
-      <c r="F362" s="41" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6">
+        <v>612</v>
+      </c>
+      <c r="C362" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D362" s="43"/>
+      <c r="E362" s="43"/>
+      <c r="F362" s="43"/>
+    </row>
+    <row r="363" spans="1:6" ht="45">
       <c r="A363" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B363" s="41">
-        <v>11.2</v>
-      </c>
-      <c r="C363" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="D363" s="43"/>
-      <c r="E363" s="43"/>
-      <c r="F363" s="43"/>
+      <c r="B363" s="41" t="s">
+        <v>613</v>
+      </c>
+      <c r="C363" s="46" t="s">
+        <v>545</v>
+      </c>
+      <c r="D363" s="41" t="s">
+        <v>996</v>
+      </c>
+      <c r="E363" s="46"/>
+      <c r="F363" s="41" t="s">
+        <v>1136</v>
+      </c>
     </row>
     <row r="364" spans="1:6">
       <c r="A364" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B364" s="41" t="s">
-        <v>612</v>
-      </c>
-      <c r="C364" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="D364" s="43"/>
-      <c r="E364" s="43"/>
-      <c r="F364" s="43"/>
-    </row>
-    <row r="365" spans="1:6" ht="45">
+        <v>614</v>
+      </c>
+      <c r="C364" s="46" t="s">
+        <v>615</v>
+      </c>
+      <c r="D364" s="41" t="s">
+        <v>993</v>
+      </c>
+      <c r="E364" s="46"/>
+      <c r="F364" s="41" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6">
       <c r="A365" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B365" s="41" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="C365" s="46" t="s">
-        <v>545</v>
-      </c>
-      <c r="D365" s="41" t="s">
-        <v>996</v>
+        <v>549</v>
+      </c>
+      <c r="D365" s="41">
+        <v>78.099999999999994</v>
       </c>
       <c r="E365" s="46"/>
       <c r="F365" s="41" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="366" spans="1:6">
@@ -14365,81 +14376,81 @@
         <v>56</v>
       </c>
       <c r="B366" s="41" t="s">
-        <v>614</v>
-      </c>
-      <c r="C366" s="46" t="s">
-        <v>615</v>
-      </c>
-      <c r="D366" s="41" t="s">
-        <v>993</v>
-      </c>
-      <c r="E366" s="46"/>
-      <c r="F366" s="41" t="s">
-        <v>1137</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="C366" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D366" s="43"/>
+      <c r="E366" s="43"/>
+      <c r="F366" s="43"/>
     </row>
     <row r="367" spans="1:6">
       <c r="A367" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B367" s="41" t="s">
-        <v>616</v>
-      </c>
-      <c r="C367" s="46" t="s">
-        <v>549</v>
-      </c>
-      <c r="D367" s="41">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E367" s="46"/>
-      <c r="F367" s="41" t="s">
-        <v>1137</v>
-      </c>
+        <v>618</v>
+      </c>
+      <c r="C367" s="43" t="s">
+        <v>619</v>
+      </c>
+      <c r="D367" s="43"/>
+      <c r="E367" s="43"/>
+      <c r="F367" s="43"/>
     </row>
     <row r="368" spans="1:6">
       <c r="A368" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B368" s="41" t="s">
-        <v>617</v>
-      </c>
-      <c r="C368" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="D368" s="43"/>
-      <c r="E368" s="43"/>
-      <c r="F368" s="43"/>
+        <v>620</v>
+      </c>
+      <c r="C368" s="41" t="s">
+        <v>621</v>
+      </c>
+      <c r="D368" s="41" t="s">
+        <v>622</v>
+      </c>
+      <c r="E368" s="46"/>
+      <c r="F368" s="41" t="s">
+        <v>1136</v>
+      </c>
     </row>
     <row r="369" spans="1:6">
       <c r="A369" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B369" s="41" t="s">
-        <v>618</v>
-      </c>
-      <c r="C369" s="43" t="s">
-        <v>619</v>
-      </c>
-      <c r="D369" s="43"/>
-      <c r="E369" s="43"/>
-      <c r="F369" s="43"/>
+        <v>623</v>
+      </c>
+      <c r="C369" s="46" t="s">
+        <v>624</v>
+      </c>
+      <c r="D369" s="41" t="s">
+        <v>625</v>
+      </c>
+      <c r="E369" s="46"/>
+      <c r="F369" s="41" t="s">
+        <v>1136</v>
+      </c>
     </row>
     <row r="370" spans="1:6">
       <c r="A370" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B370" s="41" t="s">
-        <v>620</v>
-      </c>
-      <c r="C370" s="41" t="s">
-        <v>621</v>
+        <v>626</v>
+      </c>
+      <c r="C370" s="46" t="s">
+        <v>627</v>
       </c>
       <c r="D370" s="41" t="s">
-        <v>622</v>
+        <v>579</v>
       </c>
       <c r="E370" s="46"/>
       <c r="F370" s="41" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -14447,17 +14458,17 @@
         <v>56</v>
       </c>
       <c r="B371" s="41" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="C371" s="46" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="D371" s="41" t="s">
-        <v>625</v>
+        <v>591</v>
       </c>
       <c r="E371" s="46"/>
       <c r="F371" s="41" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -14465,35 +14476,35 @@
         <v>56</v>
       </c>
       <c r="B372" s="41" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="C372" s="46" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="D372" s="41" t="s">
-        <v>579</v>
+        <v>594</v>
       </c>
       <c r="E372" s="46"/>
       <c r="F372" s="41" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="373" spans="1:6">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" ht="30">
       <c r="A373" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B373" s="41" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="C373" s="46" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="D373" s="41" t="s">
-        <v>591</v>
+        <v>562</v>
       </c>
       <c r="E373" s="46"/>
       <c r="F373" s="41" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="374" spans="1:6">
@@ -14501,35 +14512,31 @@
         <v>56</v>
       </c>
       <c r="B374" s="41" t="s">
-        <v>630</v>
-      </c>
-      <c r="C374" s="46" t="s">
-        <v>631</v>
-      </c>
-      <c r="D374" s="41" t="s">
-        <v>594</v>
-      </c>
-      <c r="E374" s="46"/>
-      <c r="F374" s="41" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="375" spans="1:6" ht="30">
+        <v>634</v>
+      </c>
+      <c r="C374" s="43" t="s">
+        <v>596</v>
+      </c>
+      <c r="D374" s="43"/>
+      <c r="E374" s="43"/>
+      <c r="F374" s="43"/>
+    </row>
+    <row r="375" spans="1:6">
       <c r="A375" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B375" s="41" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="C375" s="46" t="s">
-        <v>633</v>
+        <v>598</v>
       </c>
       <c r="D375" s="41" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="E375" s="46"/>
       <c r="F375" s="41" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="376" spans="1:6">
@@ -14537,49 +14544,49 @@
         <v>56</v>
       </c>
       <c r="B376" s="41" t="s">
-        <v>634</v>
-      </c>
-      <c r="C376" s="43" t="s">
-        <v>596</v>
-      </c>
-      <c r="D376" s="43"/>
-      <c r="E376" s="43"/>
-      <c r="F376" s="43"/>
+        <v>636</v>
+      </c>
+      <c r="C376" s="41" t="s">
+        <v>600</v>
+      </c>
+      <c r="D376" s="41" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E376" s="41"/>
+      <c r="F376" s="41" t="s">
+        <v>1136</v>
+      </c>
     </row>
     <row r="377" spans="1:6">
       <c r="A377" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B377" s="41" t="s">
-        <v>635</v>
-      </c>
-      <c r="C377" s="46" t="s">
-        <v>598</v>
-      </c>
-      <c r="D377" s="41" t="s">
-        <v>573</v>
-      </c>
-      <c r="E377" s="46"/>
-      <c r="F377" s="41" t="s">
-        <v>1137</v>
-      </c>
+        <v>637</v>
+      </c>
+      <c r="C377" s="43" t="s">
+        <v>602</v>
+      </c>
+      <c r="D377" s="43"/>
+      <c r="E377" s="43"/>
+      <c r="F377" s="43"/>
     </row>
     <row r="378" spans="1:6">
       <c r="A378" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B378" s="41" t="s">
-        <v>636</v>
-      </c>
-      <c r="C378" s="41" t="s">
-        <v>600</v>
+        <v>638</v>
+      </c>
+      <c r="C378" s="46" t="s">
+        <v>566</v>
       </c>
       <c r="D378" s="41" t="s">
-        <v>1057</v>
-      </c>
-      <c r="E378" s="41"/>
+        <v>567</v>
+      </c>
+      <c r="E378" s="46"/>
       <c r="F378" s="41" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="379" spans="1:6">
@@ -14587,31 +14594,35 @@
         <v>56</v>
       </c>
       <c r="B379" s="41" t="s">
-        <v>637</v>
-      </c>
-      <c r="C379" s="43" t="s">
-        <v>602</v>
-      </c>
-      <c r="D379" s="43"/>
-      <c r="E379" s="43"/>
-      <c r="F379" s="43"/>
+        <v>639</v>
+      </c>
+      <c r="C379" s="46" t="s">
+        <v>640</v>
+      </c>
+      <c r="D379" s="41" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E379" s="46"/>
+      <c r="F379" s="41" t="s">
+        <v>1136</v>
+      </c>
     </row>
     <row r="380" spans="1:6">
       <c r="A380" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B380" s="41" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="C380" s="46" t="s">
-        <v>566</v>
+        <v>607</v>
       </c>
       <c r="D380" s="41" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="E380" s="46"/>
       <c r="F380" s="41" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="381" spans="1:6">
@@ -14619,17 +14630,17 @@
         <v>56</v>
       </c>
       <c r="B381" s="41" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="C381" s="46" t="s">
-        <v>640</v>
+        <v>609</v>
       </c>
       <c r="D381" s="41" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E381" s="46"/>
+        <v>1060</v>
+      </c>
+      <c r="E381" s="41"/>
       <c r="F381" s="41" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="382" spans="1:6">
@@ -14637,99 +14648,99 @@
         <v>56</v>
       </c>
       <c r="B382" s="41" t="s">
-        <v>641</v>
-      </c>
-      <c r="C382" s="46" t="s">
-        <v>607</v>
+        <v>643</v>
+      </c>
+      <c r="C382" s="41" t="s">
+        <v>611</v>
       </c>
       <c r="D382" s="41" t="s">
-        <v>573</v>
-      </c>
-      <c r="E382" s="46"/>
+        <v>1058</v>
+      </c>
+      <c r="E382" s="41"/>
       <c r="F382" s="41" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="383" spans="1:6">
       <c r="A383" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B383" s="41" t="s">
-        <v>642</v>
-      </c>
-      <c r="C383" s="46" t="s">
-        <v>609</v>
-      </c>
-      <c r="D383" s="41" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E383" s="41"/>
-      <c r="F383" s="41" t="s">
-        <v>1137</v>
-      </c>
+      <c r="B383" s="41">
+        <v>11.3</v>
+      </c>
+      <c r="C383" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D383" s="43"/>
+      <c r="E383" s="43"/>
+      <c r="F383" s="43"/>
     </row>
     <row r="384" spans="1:6">
       <c r="A384" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B384" s="41" t="s">
-        <v>643</v>
-      </c>
-      <c r="C384" s="41" t="s">
-        <v>611</v>
-      </c>
-      <c r="D384" s="41" t="s">
-        <v>1058</v>
-      </c>
-      <c r="E384" s="41"/>
-      <c r="F384" s="41" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="385" spans="1:6">
+        <v>644</v>
+      </c>
+      <c r="C384" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D384" s="43"/>
+      <c r="E384" s="43"/>
+      <c r="F384" s="43"/>
+    </row>
+    <row r="385" spans="1:6" ht="45">
       <c r="A385" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B385" s="41">
-        <v>11.3</v>
-      </c>
-      <c r="C385" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="D385" s="43"/>
-      <c r="E385" s="43"/>
-      <c r="F385" s="43"/>
+      <c r="B385" s="41" t="s">
+        <v>645</v>
+      </c>
+      <c r="C385" s="46" t="s">
+        <v>646</v>
+      </c>
+      <c r="D385" s="41">
+        <v>78.3</v>
+      </c>
+      <c r="E385" s="46"/>
+      <c r="F385" s="41" t="s">
+        <v>1139</v>
+      </c>
     </row>
     <row r="386" spans="1:6">
       <c r="A386" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B386" s="41" t="s">
-        <v>644</v>
-      </c>
-      <c r="C386" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="D386" s="43"/>
-      <c r="E386" s="43"/>
-      <c r="F386" s="43"/>
-    </row>
-    <row r="387" spans="1:6" ht="45">
+        <v>647</v>
+      </c>
+      <c r="C386" s="41" t="s">
+        <v>648</v>
+      </c>
+      <c r="D386" s="41" t="s">
+        <v>993</v>
+      </c>
+      <c r="E386" s="41"/>
+      <c r="F386" s="41" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6">
       <c r="A387" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B387" s="41" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="C387" s="46" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="D387" s="41">
-        <v>78.3</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="E387" s="46"/>
       <c r="F387" s="41" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="388" spans="1:6">
@@ -14737,81 +14748,81 @@
         <v>56</v>
       </c>
       <c r="B388" s="41" t="s">
-        <v>647</v>
-      </c>
-      <c r="C388" s="41" t="s">
-        <v>648</v>
-      </c>
-      <c r="D388" s="41" t="s">
-        <v>993</v>
-      </c>
-      <c r="E388" s="41"/>
-      <c r="F388" s="41" t="s">
-        <v>1140</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="C388" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D388" s="43"/>
+      <c r="E388" s="43"/>
+      <c r="F388" s="43"/>
     </row>
     <row r="389" spans="1:6">
       <c r="A389" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B389" s="41" t="s">
-        <v>649</v>
-      </c>
-      <c r="C389" s="46" t="s">
-        <v>650</v>
-      </c>
-      <c r="D389" s="41">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E389" s="46"/>
-      <c r="F389" s="41" t="s">
-        <v>1140</v>
-      </c>
+        <v>652</v>
+      </c>
+      <c r="C389" s="43" t="s">
+        <v>619</v>
+      </c>
+      <c r="D389" s="43"/>
+      <c r="E389" s="43"/>
+      <c r="F389" s="43"/>
     </row>
     <row r="390" spans="1:6">
       <c r="A390" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B390" s="41" t="s">
-        <v>651</v>
-      </c>
-      <c r="C390" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="D390" s="43"/>
-      <c r="E390" s="43"/>
-      <c r="F390" s="43"/>
+        <v>653</v>
+      </c>
+      <c r="C390" s="46" t="s">
+        <v>654</v>
+      </c>
+      <c r="D390" s="41" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E390" s="46"/>
+      <c r="F390" s="41" t="s">
+        <v>1139</v>
+      </c>
     </row>
     <row r="391" spans="1:6">
       <c r="A391" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B391" s="41" t="s">
-        <v>652</v>
-      </c>
-      <c r="C391" s="43" t="s">
-        <v>619</v>
-      </c>
-      <c r="D391" s="43"/>
-      <c r="E391" s="43"/>
-      <c r="F391" s="43"/>
+        <v>655</v>
+      </c>
+      <c r="C391" s="46" t="s">
+        <v>656</v>
+      </c>
+      <c r="D391" s="41" t="s">
+        <v>657</v>
+      </c>
+      <c r="E391" s="46"/>
+      <c r="F391" s="41" t="s">
+        <v>1139</v>
+      </c>
     </row>
     <row r="392" spans="1:6">
       <c r="A392" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B392" s="41" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="C392" s="46" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="D392" s="41" t="s">
-        <v>1029</v>
+        <v>556</v>
       </c>
       <c r="E392" s="46"/>
       <c r="F392" s="41" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="393" spans="1:6">
@@ -14819,17 +14830,17 @@
         <v>56</v>
       </c>
       <c r="B393" s="41" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="C393" s="46" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="D393" s="41" t="s">
-        <v>657</v>
+        <v>579</v>
       </c>
       <c r="E393" s="46"/>
       <c r="F393" s="41" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="394" spans="1:6">
@@ -14837,35 +14848,35 @@
         <v>56</v>
       </c>
       <c r="B394" s="41" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="C394" s="46" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="D394" s="41" t="s">
-        <v>556</v>
+        <v>594</v>
       </c>
       <c r="E394" s="46"/>
       <c r="F394" s="41" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="395" spans="1:6">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" ht="30">
       <c r="A395" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B395" s="41" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="C395" s="46" t="s">
-        <v>661</v>
+        <v>633</v>
       </c>
       <c r="D395" s="41" t="s">
-        <v>579</v>
+        <v>562</v>
       </c>
       <c r="E395" s="46"/>
       <c r="F395" s="41" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="396" spans="1:6">
@@ -14873,35 +14884,31 @@
         <v>56</v>
       </c>
       <c r="B396" s="41" t="s">
-        <v>662</v>
-      </c>
-      <c r="C396" s="46" t="s">
-        <v>663</v>
-      </c>
-      <c r="D396" s="41" t="s">
-        <v>594</v>
-      </c>
-      <c r="E396" s="46"/>
-      <c r="F396" s="41" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="397" spans="1:6" ht="30">
+        <v>665</v>
+      </c>
+      <c r="C396" s="43" t="s">
+        <v>596</v>
+      </c>
+      <c r="D396" s="43"/>
+      <c r="E396" s="43"/>
+      <c r="F396" s="43"/>
+    </row>
+    <row r="397" spans="1:6">
       <c r="A397" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B397" s="41" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C397" s="46" t="s">
-        <v>633</v>
+        <v>598</v>
       </c>
       <c r="D397" s="41" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="E397" s="46"/>
       <c r="F397" s="41" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="398" spans="1:6">
@@ -14909,49 +14916,49 @@
         <v>56</v>
       </c>
       <c r="B398" s="41" t="s">
-        <v>665</v>
-      </c>
-      <c r="C398" s="43" t="s">
-        <v>596</v>
-      </c>
-      <c r="D398" s="43"/>
-      <c r="E398" s="43"/>
-      <c r="F398" s="43"/>
+        <v>667</v>
+      </c>
+      <c r="C398" s="41" t="s">
+        <v>600</v>
+      </c>
+      <c r="D398" s="41" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E398" s="41"/>
+      <c r="F398" s="41" t="s">
+        <v>1139</v>
+      </c>
     </row>
     <row r="399" spans="1:6">
       <c r="A399" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B399" s="41" t="s">
-        <v>666</v>
-      </c>
-      <c r="C399" s="46" t="s">
-        <v>598</v>
-      </c>
-      <c r="D399" s="41" t="s">
-        <v>573</v>
-      </c>
-      <c r="E399" s="46"/>
-      <c r="F399" s="41" t="s">
-        <v>1140</v>
-      </c>
+        <v>668</v>
+      </c>
+      <c r="C399" s="43" t="s">
+        <v>602</v>
+      </c>
+      <c r="D399" s="43"/>
+      <c r="E399" s="43"/>
+      <c r="F399" s="43"/>
     </row>
     <row r="400" spans="1:6">
       <c r="A400" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B400" s="41" t="s">
-        <v>667</v>
-      </c>
-      <c r="C400" s="41" t="s">
-        <v>600</v>
+        <v>669</v>
+      </c>
+      <c r="C400" s="46" t="s">
+        <v>566</v>
       </c>
       <c r="D400" s="41" t="s">
-        <v>1057</v>
-      </c>
-      <c r="E400" s="41"/>
+        <v>567</v>
+      </c>
+      <c r="E400" s="46"/>
       <c r="F400" s="41" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="401" spans="1:6">
@@ -14959,31 +14966,35 @@
         <v>56</v>
       </c>
       <c r="B401" s="41" t="s">
-        <v>668</v>
-      </c>
-      <c r="C401" s="43" t="s">
-        <v>602</v>
-      </c>
-      <c r="D401" s="43"/>
-      <c r="E401" s="43"/>
-      <c r="F401" s="43"/>
+        <v>670</v>
+      </c>
+      <c r="C401" s="46" t="s">
+        <v>640</v>
+      </c>
+      <c r="D401" s="41" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E401" s="46"/>
+      <c r="F401" s="41" t="s">
+        <v>1139</v>
+      </c>
     </row>
     <row r="402" spans="1:6">
       <c r="A402" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B402" s="41" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C402" s="46" t="s">
-        <v>566</v>
+        <v>607</v>
       </c>
       <c r="D402" s="41" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="E402" s="46"/>
       <c r="F402" s="41" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="403" spans="1:6">
@@ -14991,17 +15002,17 @@
         <v>56</v>
       </c>
       <c r="B403" s="41" t="s">
-        <v>670</v>
-      </c>
-      <c r="C403" s="46" t="s">
-        <v>640</v>
+        <v>672</v>
+      </c>
+      <c r="C403" s="41" t="s">
+        <v>609</v>
       </c>
       <c r="D403" s="41" t="s">
-        <v>1062</v>
-      </c>
-      <c r="E403" s="46"/>
+        <v>1060</v>
+      </c>
+      <c r="E403" s="41"/>
       <c r="F403" s="41" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="404" spans="1:6">
@@ -15009,99 +15020,99 @@
         <v>56</v>
       </c>
       <c r="B404" s="41" t="s">
-        <v>671</v>
-      </c>
-      <c r="C404" s="46" t="s">
-        <v>607</v>
+        <v>673</v>
+      </c>
+      <c r="C404" s="41" t="s">
+        <v>611</v>
       </c>
       <c r="D404" s="41" t="s">
-        <v>573</v>
-      </c>
-      <c r="E404" s="46"/>
+        <v>1058</v>
+      </c>
+      <c r="E404" s="41"/>
       <c r="F404" s="41" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="405" spans="1:6">
       <c r="A405" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B405" s="41" t="s">
-        <v>672</v>
-      </c>
-      <c r="C405" s="41" t="s">
-        <v>609</v>
-      </c>
-      <c r="D405" s="41" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E405" s="41"/>
-      <c r="F405" s="41" t="s">
-        <v>1140</v>
-      </c>
+      <c r="B405" s="41">
+        <v>11.4</v>
+      </c>
+      <c r="C405" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D405" s="43"/>
+      <c r="E405" s="43"/>
+      <c r="F405" s="43"/>
     </row>
     <row r="406" spans="1:6">
       <c r="A406" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B406" s="41" t="s">
-        <v>673</v>
-      </c>
-      <c r="C406" s="41" t="s">
-        <v>611</v>
-      </c>
-      <c r="D406" s="41" t="s">
-        <v>1058</v>
-      </c>
-      <c r="E406" s="41"/>
-      <c r="F406" s="41" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="407" spans="1:6">
+        <v>674</v>
+      </c>
+      <c r="C406" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D406" s="43"/>
+      <c r="E406" s="43"/>
+      <c r="F406" s="43"/>
+    </row>
+    <row r="407" spans="1:6" ht="45">
       <c r="A407" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B407" s="41">
-        <v>11.4</v>
-      </c>
-      <c r="C407" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="D407" s="43"/>
-      <c r="E407" s="43"/>
-      <c r="F407" s="43"/>
+      <c r="B407" s="41" t="s">
+        <v>675</v>
+      </c>
+      <c r="C407" s="46" t="s">
+        <v>646</v>
+      </c>
+      <c r="D407" s="41">
+        <v>78.3</v>
+      </c>
+      <c r="E407" s="46"/>
+      <c r="F407" s="41" t="s">
+        <v>1142</v>
+      </c>
     </row>
     <row r="408" spans="1:6">
       <c r="A408" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B408" s="41" t="s">
-        <v>674</v>
-      </c>
-      <c r="C408" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="D408" s="43"/>
-      <c r="E408" s="43"/>
-      <c r="F408" s="43"/>
-    </row>
-    <row r="409" spans="1:6" ht="45">
+        <v>676</v>
+      </c>
+      <c r="C408" s="46" t="s">
+        <v>677</v>
+      </c>
+      <c r="D408" s="41">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E408" s="46"/>
+      <c r="F408" s="41" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6">
       <c r="A409" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B409" s="41" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="C409" s="46" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="D409" s="41">
-        <v>78.3</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="E409" s="46"/>
       <c r="F409" s="41" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="410" spans="1:6">
@@ -15109,81 +15120,81 @@
         <v>56</v>
       </c>
       <c r="B410" s="41" t="s">
-        <v>676</v>
-      </c>
-      <c r="C410" s="46" t="s">
-        <v>677</v>
-      </c>
-      <c r="D410" s="41">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E410" s="46"/>
-      <c r="F410" s="41" t="s">
-        <v>1143</v>
-      </c>
+        <v>679</v>
+      </c>
+      <c r="C410" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D410" s="43"/>
+      <c r="E410" s="43"/>
+      <c r="F410" s="43"/>
     </row>
     <row r="411" spans="1:6">
       <c r="A411" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B411" s="41" t="s">
-        <v>678</v>
-      </c>
-      <c r="C411" s="46" t="s">
-        <v>650</v>
-      </c>
-      <c r="D411" s="41">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E411" s="46"/>
-      <c r="F411" s="41" t="s">
-        <v>1143</v>
-      </c>
+        <v>680</v>
+      </c>
+      <c r="C411" s="43" t="s">
+        <v>619</v>
+      </c>
+      <c r="D411" s="43"/>
+      <c r="E411" s="43"/>
+      <c r="F411" s="43"/>
     </row>
     <row r="412" spans="1:6">
       <c r="A412" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B412" s="41" t="s">
-        <v>679</v>
-      </c>
-      <c r="C412" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="D412" s="43"/>
-      <c r="E412" s="43"/>
-      <c r="F412" s="43"/>
+        <v>681</v>
+      </c>
+      <c r="C412" s="41" t="s">
+        <v>621</v>
+      </c>
+      <c r="D412" s="41" t="s">
+        <v>622</v>
+      </c>
+      <c r="E412" s="41"/>
+      <c r="F412" s="41" t="s">
+        <v>1142</v>
+      </c>
     </row>
     <row r="413" spans="1:6">
       <c r="A413" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B413" s="41" t="s">
-        <v>680</v>
-      </c>
-      <c r="C413" s="43" t="s">
-        <v>619</v>
-      </c>
-      <c r="D413" s="43"/>
-      <c r="E413" s="43"/>
-      <c r="F413" s="43"/>
+        <v>682</v>
+      </c>
+      <c r="C413" s="46" t="s">
+        <v>683</v>
+      </c>
+      <c r="D413" s="41" t="s">
+        <v>553</v>
+      </c>
+      <c r="E413" s="46"/>
+      <c r="F413" s="41" t="s">
+        <v>1142</v>
+      </c>
     </row>
     <row r="414" spans="1:6">
       <c r="A414" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B414" s="41" t="s">
-        <v>681</v>
-      </c>
-      <c r="C414" s="41" t="s">
-        <v>621</v>
+        <v>684</v>
+      </c>
+      <c r="C414" s="46" t="s">
+        <v>685</v>
       </c>
       <c r="D414" s="41" t="s">
-        <v>622</v>
-      </c>
-      <c r="E414" s="41"/>
+        <v>556</v>
+      </c>
+      <c r="E414" s="46"/>
       <c r="F414" s="41" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="415" spans="1:6">
@@ -15191,17 +15202,17 @@
         <v>56</v>
       </c>
       <c r="B415" s="41" t="s">
-        <v>682</v>
-      </c>
-      <c r="C415" s="46" t="s">
-        <v>683</v>
+        <v>686</v>
+      </c>
+      <c r="C415" s="41" t="s">
+        <v>687</v>
       </c>
       <c r="D415" s="41" t="s">
-        <v>553</v>
-      </c>
-      <c r="E415" s="46"/>
+        <v>562</v>
+      </c>
+      <c r="E415" s="41"/>
       <c r="F415" s="41" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="416" spans="1:6">
@@ -15209,35 +15220,31 @@
         <v>56</v>
       </c>
       <c r="B416" s="41" t="s">
-        <v>684</v>
-      </c>
-      <c r="C416" s="46" t="s">
-        <v>685</v>
-      </c>
-      <c r="D416" s="41" t="s">
-        <v>556</v>
-      </c>
-      <c r="E416" s="46"/>
-      <c r="F416" s="41" t="s">
-        <v>1143</v>
-      </c>
+        <v>688</v>
+      </c>
+      <c r="C416" s="43" t="s">
+        <v>689</v>
+      </c>
+      <c r="D416" s="43"/>
+      <c r="E416" s="43"/>
+      <c r="F416" s="43"/>
     </row>
     <row r="417" spans="1:6">
       <c r="A417" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B417" s="41" t="s">
-        <v>686</v>
-      </c>
-      <c r="C417" s="41" t="s">
-        <v>687</v>
+        <v>690</v>
+      </c>
+      <c r="C417" s="59" t="s">
+        <v>1243</v>
       </c>
       <c r="D417" s="41" t="s">
-        <v>562</v>
+        <v>1034</v>
       </c>
       <c r="E417" s="41"/>
       <c r="F417" s="41" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="418" spans="1:6">
@@ -15245,31 +15252,35 @@
         <v>56</v>
       </c>
       <c r="B418" s="41" t="s">
-        <v>688</v>
-      </c>
-      <c r="C418" s="43" t="s">
-        <v>689</v>
-      </c>
-      <c r="D418" s="43"/>
-      <c r="E418" s="43"/>
-      <c r="F418" s="43"/>
+        <v>693</v>
+      </c>
+      <c r="C418" s="59" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D418" s="41" t="s">
+        <v>692</v>
+      </c>
+      <c r="E418" s="41"/>
+      <c r="F418" s="41" t="s">
+        <v>1142</v>
+      </c>
     </row>
     <row r="419" spans="1:6">
       <c r="A419" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B419" s="41" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="C419" s="59" t="s">
-        <v>1244</v>
+        <v>697</v>
       </c>
       <c r="D419" s="41" t="s">
-        <v>1034</v>
+        <v>695</v>
       </c>
       <c r="E419" s="41"/>
       <c r="F419" s="41" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="420" spans="1:6">
@@ -15277,35 +15288,31 @@
         <v>56</v>
       </c>
       <c r="B420" s="41" t="s">
-        <v>693</v>
-      </c>
-      <c r="C420" s="59" t="s">
-        <v>1245</v>
-      </c>
-      <c r="D420" s="41" t="s">
-        <v>692</v>
-      </c>
-      <c r="E420" s="41"/>
-      <c r="F420" s="41" t="s">
-        <v>1143</v>
-      </c>
+        <v>698</v>
+      </c>
+      <c r="C420" s="43" t="s">
+        <v>602</v>
+      </c>
+      <c r="D420" s="43"/>
+      <c r="E420" s="43"/>
+      <c r="F420" s="43"/>
     </row>
     <row r="421" spans="1:6">
       <c r="A421" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B421" s="41" t="s">
-        <v>696</v>
-      </c>
-      <c r="C421" s="59" t="s">
-        <v>697</v>
+        <v>699</v>
+      </c>
+      <c r="C421" s="46" t="s">
+        <v>566</v>
       </c>
       <c r="D421" s="41" t="s">
-        <v>695</v>
-      </c>
-      <c r="E421" s="41"/>
+        <v>567</v>
+      </c>
+      <c r="E421" s="46"/>
       <c r="F421" s="41" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="422" spans="1:6">
@@ -15313,31 +15320,35 @@
         <v>56</v>
       </c>
       <c r="B422" s="41" t="s">
-        <v>698</v>
-      </c>
-      <c r="C422" s="43" t="s">
-        <v>602</v>
-      </c>
-      <c r="D422" s="43"/>
-      <c r="E422" s="43"/>
-      <c r="F422" s="43"/>
+        <v>700</v>
+      </c>
+      <c r="C422" s="46" t="s">
+        <v>701</v>
+      </c>
+      <c r="D422" s="41" t="s">
+        <v>570</v>
+      </c>
+      <c r="E422" s="46"/>
+      <c r="F422" s="41" t="s">
+        <v>1142</v>
+      </c>
     </row>
     <row r="423" spans="1:6">
       <c r="A423" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B423" s="41" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="C423" s="46" t="s">
-        <v>566</v>
+        <v>607</v>
       </c>
       <c r="D423" s="41" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="E423" s="46"/>
       <c r="F423" s="41" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="424" spans="1:6">
@@ -15345,17 +15356,17 @@
         <v>56</v>
       </c>
       <c r="B424" s="41" t="s">
-        <v>700</v>
-      </c>
-      <c r="C424" s="46" t="s">
-        <v>701</v>
+        <v>703</v>
+      </c>
+      <c r="C424" s="41" t="s">
+        <v>609</v>
       </c>
       <c r="D424" s="41" t="s">
-        <v>570</v>
-      </c>
-      <c r="E424" s="46"/>
+        <v>573</v>
+      </c>
+      <c r="E424" s="41"/>
       <c r="F424" s="41" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="425" spans="1:6">
@@ -15363,17 +15374,17 @@
         <v>56</v>
       </c>
       <c r="B425" s="41" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="C425" s="46" t="s">
-        <v>607</v>
+        <v>661</v>
       </c>
       <c r="D425" s="41" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="E425" s="46"/>
       <c r="F425" s="41" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="426" spans="1:6">
@@ -15381,35 +15392,33 @@
         <v>56</v>
       </c>
       <c r="B426" s="41" t="s">
-        <v>703</v>
-      </c>
-      <c r="C426" s="41" t="s">
-        <v>609</v>
-      </c>
-      <c r="D426" s="41" t="s">
-        <v>573</v>
-      </c>
-      <c r="E426" s="41"/>
+        <v>706</v>
+      </c>
+      <c r="C426" s="43" t="s">
+        <v>581</v>
+      </c>
+      <c r="D426" s="43"/>
+      <c r="E426" s="43"/>
       <c r="F426" s="41" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="427" spans="1:6">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" ht="30">
       <c r="A427" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B427" s="41" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="C427" s="46" t="s">
-        <v>661</v>
+        <v>586</v>
       </c>
       <c r="D427" s="41" t="s">
-        <v>579</v>
+        <v>1261</v>
       </c>
       <c r="E427" s="46"/>
       <c r="F427" s="41" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="428" spans="1:6">
@@ -15417,51 +15426,51 @@
         <v>56</v>
       </c>
       <c r="B428" s="41" t="s">
-        <v>706</v>
-      </c>
-      <c r="C428" s="43" t="s">
-        <v>581</v>
-      </c>
-      <c r="D428" s="43"/>
-      <c r="E428" s="43"/>
+        <v>709</v>
+      </c>
+      <c r="C428" s="46" t="s">
+        <v>710</v>
+      </c>
+      <c r="D428" s="41" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E428" s="46"/>
       <c r="F428" s="41" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="429" spans="1:6" ht="30">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6">
       <c r="A429" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B429" s="41" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="C429" s="46" t="s">
-        <v>584</v>
+        <v>663</v>
       </c>
       <c r="D429" s="41" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="E429" s="46"/>
       <c r="F429" s="41" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="430" spans="1:6" ht="30">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6">
       <c r="A430" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B430" s="41" t="s">
-        <v>708</v>
-      </c>
-      <c r="C430" s="46" t="s">
-        <v>586</v>
-      </c>
-      <c r="D430" s="41" t="s">
-        <v>582</v>
-      </c>
-      <c r="E430" s="46"/>
+        <v>712</v>
+      </c>
+      <c r="C430" s="43" t="s">
+        <v>596</v>
+      </c>
+      <c r="D430" s="43"/>
+      <c r="E430" s="43"/>
       <c r="F430" s="41" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="431" spans="1:6">
@@ -15469,17 +15478,17 @@
         <v>56</v>
       </c>
       <c r="B431" s="41" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="C431" s="46" t="s">
-        <v>710</v>
+        <v>598</v>
       </c>
       <c r="D431" s="41" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="E431" s="46"/>
       <c r="F431" s="41" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="432" spans="1:6">
@@ -15487,17 +15496,17 @@
         <v>56</v>
       </c>
       <c r="B432" s="41" t="s">
-        <v>711</v>
-      </c>
-      <c r="C432" s="46" t="s">
-        <v>663</v>
+        <v>714</v>
+      </c>
+      <c r="C432" s="41" t="s">
+        <v>600</v>
       </c>
       <c r="D432" s="41" t="s">
-        <v>594</v>
-      </c>
-      <c r="E432" s="46"/>
+        <v>1057</v>
+      </c>
+      <c r="E432" s="41"/>
       <c r="F432" s="41" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="433" spans="1:6">
@@ -15505,15 +15514,15 @@
         <v>56</v>
       </c>
       <c r="B433" s="41" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="C433" s="43" t="s">
-        <v>596</v>
+        <v>1067</v>
       </c>
       <c r="D433" s="43"/>
       <c r="E433" s="43"/>
       <c r="F433" s="41" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="434" spans="1:6">
@@ -15521,35 +15530,33 @@
         <v>56</v>
       </c>
       <c r="B434" s="41" t="s">
-        <v>713</v>
-      </c>
-      <c r="C434" s="46" t="s">
-        <v>598</v>
+        <v>720</v>
+      </c>
+      <c r="C434" s="41" t="s">
+        <v>611</v>
       </c>
       <c r="D434" s="41" t="s">
-        <v>573</v>
-      </c>
-      <c r="E434" s="46"/>
+        <v>1058</v>
+      </c>
+      <c r="E434" s="41"/>
       <c r="F434" s="41" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="435" spans="1:6">
       <c r="A435" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B435" s="41" t="s">
-        <v>714</v>
-      </c>
-      <c r="C435" s="41" t="s">
-        <v>600</v>
-      </c>
-      <c r="D435" s="41" t="s">
-        <v>1057</v>
-      </c>
-      <c r="E435" s="41"/>
+      <c r="B435" s="41">
+        <v>11.5</v>
+      </c>
+      <c r="C435" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D435" s="43"/>
+      <c r="E435" s="40"/>
       <c r="F435" s="41" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="436" spans="1:6">
@@ -15557,15 +15564,15 @@
         <v>56</v>
       </c>
       <c r="B436" s="41" t="s">
-        <v>715</v>
-      </c>
-      <c r="C436" s="43" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D436" s="43"/>
-      <c r="E436" s="43"/>
+        <v>721</v>
+      </c>
+      <c r="C436" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D436" s="41"/>
+      <c r="E436" s="46"/>
       <c r="F436" s="41" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="437" spans="1:6">
@@ -15573,49 +15580,47 @@
         <v>56</v>
       </c>
       <c r="B437" s="41" t="s">
-        <v>720</v>
-      </c>
-      <c r="C437" s="41" t="s">
-        <v>611</v>
-      </c>
-      <c r="D437" s="41" t="s">
-        <v>1058</v>
-      </c>
-      <c r="E437" s="41"/>
+        <v>722</v>
+      </c>
+      <c r="C437" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D437" s="41"/>
+      <c r="E437" s="46"/>
       <c r="F437" s="41" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="438" spans="1:6">
       <c r="A438" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B438" s="41">
-        <v>11.5</v>
-      </c>
-      <c r="C438" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="D438" s="43"/>
-      <c r="E438" s="40"/>
+      <c r="B438" s="41" t="s">
+        <v>723</v>
+      </c>
+      <c r="C438" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="D438" s="41"/>
+      <c r="E438" s="46"/>
       <c r="F438" s="41" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="439" spans="1:6">
       <c r="A439" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B439" s="41" t="s">
-        <v>721</v>
-      </c>
-      <c r="C439" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="D439" s="41"/>
-      <c r="E439" s="46"/>
+      <c r="B439" s="41">
+        <v>11.6</v>
+      </c>
+      <c r="C439" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D439" s="43"/>
+      <c r="E439" s="40"/>
       <c r="F439" s="41" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="440" spans="1:6">
@@ -15623,15 +15628,15 @@
         <v>56</v>
       </c>
       <c r="B440" s="41" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C440" s="46" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D440" s="41"/>
       <c r="E440" s="46"/>
       <c r="F440" s="41" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="441" spans="1:6">
@@ -15639,15 +15644,15 @@
         <v>56</v>
       </c>
       <c r="B441" s="41" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="C441" s="46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D441" s="41"/>
       <c r="E441" s="46"/>
       <c r="F441" s="41" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="442" spans="1:6">
@@ -15655,129 +15660,127 @@
         <v>56</v>
       </c>
       <c r="B442" s="41">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="C442" s="40" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D442" s="43"/>
       <c r="E442" s="40"/>
-      <c r="F442" s="41" t="s">
-        <v>1143</v>
-      </c>
+      <c r="F442" s="43"/>
     </row>
     <row r="443" spans="1:6">
       <c r="A443" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B443" s="41" t="s">
-        <v>724</v>
-      </c>
-      <c r="C443" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="D443" s="41"/>
-      <c r="E443" s="46"/>
-      <c r="F443" s="41" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="444" spans="1:6">
+        <v>726</v>
+      </c>
+      <c r="C443" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D443" s="43"/>
+      <c r="E443" s="43"/>
+      <c r="F443" s="43"/>
+    </row>
+    <row r="444" spans="1:6" ht="45">
       <c r="A444" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B444" s="41" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C444" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="D444" s="41"/>
+        <v>646</v>
+      </c>
+      <c r="D444" s="41">
+        <v>78.3</v>
+      </c>
       <c r="E444" s="46"/>
       <c r="F444" s="41" t="s">
-        <v>1143</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="445" spans="1:6">
       <c r="A445" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B445" s="41">
-        <v>11.7</v>
-      </c>
-      <c r="C445" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="D445" s="43"/>
-      <c r="E445" s="40"/>
-      <c r="F445" s="43"/>
+      <c r="B445" s="41" t="s">
+        <v>728</v>
+      </c>
+      <c r="C445" s="46" t="s">
+        <v>677</v>
+      </c>
+      <c r="D445" s="41">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E445" s="46"/>
+      <c r="F445" s="41" t="s">
+        <v>1086</v>
+      </c>
     </row>
     <row r="446" spans="1:6">
       <c r="A446" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B446" s="41" t="s">
-        <v>726</v>
-      </c>
-      <c r="C446" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="D446" s="43"/>
-      <c r="E446" s="43"/>
-      <c r="F446" s="43"/>
-    </row>
-    <row r="447" spans="1:6" ht="45">
+        <v>729</v>
+      </c>
+      <c r="C446" s="46" t="s">
+        <v>650</v>
+      </c>
+      <c r="D446" s="41">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E446" s="46"/>
+      <c r="F446" s="41" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6">
       <c r="A447" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B447" s="41" t="s">
-        <v>727</v>
-      </c>
-      <c r="C447" s="46" t="s">
-        <v>646</v>
-      </c>
-      <c r="D447" s="41">
-        <v>78.3</v>
-      </c>
-      <c r="E447" s="46"/>
-      <c r="F447" s="41" t="s">
-        <v>1087</v>
-      </c>
+        <v>730</v>
+      </c>
+      <c r="C447" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D447" s="43"/>
+      <c r="E447" s="43"/>
+      <c r="F447" s="43"/>
     </row>
     <row r="448" spans="1:6">
       <c r="A448" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B448" s="41" t="s">
-        <v>728</v>
-      </c>
-      <c r="C448" s="46" t="s">
-        <v>677</v>
-      </c>
-      <c r="D448" s="41">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E448" s="46"/>
-      <c r="F448" s="41" t="s">
-        <v>1087</v>
-      </c>
+        <v>731</v>
+      </c>
+      <c r="C448" s="43" t="s">
+        <v>619</v>
+      </c>
+      <c r="D448" s="43"/>
+      <c r="E448" s="43"/>
+      <c r="F448" s="43"/>
     </row>
     <row r="449" spans="1:6">
       <c r="A449" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B449" s="41" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="C449" s="46" t="s">
-        <v>650</v>
-      </c>
-      <c r="D449" s="41">
-        <v>78.099999999999994</v>
+        <v>733</v>
+      </c>
+      <c r="D449" s="41" t="s">
+        <v>553</v>
       </c>
       <c r="E449" s="46"/>
       <c r="F449" s="41" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="450" spans="1:6">
@@ -15785,45 +15788,53 @@
         <v>56</v>
       </c>
       <c r="B450" s="41" t="s">
-        <v>730</v>
-      </c>
-      <c r="C450" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="D450" s="43"/>
-      <c r="E450" s="43"/>
-      <c r="F450" s="43"/>
+        <v>734</v>
+      </c>
+      <c r="C450" s="46" t="s">
+        <v>685</v>
+      </c>
+      <c r="D450" s="41" t="s">
+        <v>556</v>
+      </c>
+      <c r="E450" s="46"/>
+      <c r="F450" s="41" t="s">
+        <v>1086</v>
+      </c>
     </row>
     <row r="451" spans="1:6">
       <c r="A451" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B451" s="41" t="s">
-        <v>731</v>
-      </c>
-      <c r="C451" s="43" t="s">
-        <v>619</v>
-      </c>
-      <c r="D451" s="43"/>
-      <c r="E451" s="43"/>
-      <c r="F451" s="43"/>
+        <v>735</v>
+      </c>
+      <c r="C451" s="41" t="s">
+        <v>736</v>
+      </c>
+      <c r="D451" s="41" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E451" s="41"/>
+      <c r="F451" s="41" t="s">
+        <v>1086</v>
+      </c>
     </row>
     <row r="452" spans="1:6">
       <c r="A452" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B452" s="41" t="s">
-        <v>732</v>
-      </c>
-      <c r="C452" s="46" t="s">
-        <v>733</v>
+        <v>737</v>
+      </c>
+      <c r="C452" s="41" t="s">
+        <v>738</v>
       </c>
       <c r="D452" s="41" t="s">
-        <v>553</v>
-      </c>
-      <c r="E452" s="46"/>
+        <v>594</v>
+      </c>
+      <c r="E452" s="41"/>
       <c r="F452" s="41" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="453" spans="1:6">
@@ -15831,35 +15842,33 @@
         <v>56</v>
       </c>
       <c r="B453" s="41" t="s">
-        <v>734</v>
-      </c>
-      <c r="C453" s="46" t="s">
-        <v>685</v>
-      </c>
-      <c r="D453" s="41" t="s">
-        <v>556</v>
-      </c>
-      <c r="E453" s="46"/>
+        <v>739</v>
+      </c>
+      <c r="C453" s="41" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D453" s="41"/>
+      <c r="E453" s="41"/>
       <c r="F453" s="41" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="454" spans="1:6">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" ht="30">
       <c r="A454" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B454" s="41" t="s">
-        <v>735</v>
+        <v>1075</v>
       </c>
       <c r="C454" s="41" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="D454" s="41" t="s">
-        <v>1059</v>
+        <v>562</v>
       </c>
       <c r="E454" s="41"/>
       <c r="F454" s="41" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="455" spans="1:6">
@@ -15867,17 +15876,17 @@
         <v>56</v>
       </c>
       <c r="B455" s="41" t="s">
-        <v>737</v>
+        <v>1076</v>
       </c>
       <c r="C455" s="41" t="s">
-        <v>738</v>
+        <v>1073</v>
       </c>
       <c r="D455" s="41" t="s">
-        <v>594</v>
+        <v>695</v>
       </c>
       <c r="E455" s="41"/>
       <c r="F455" s="41" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="456" spans="1:6">
@@ -15885,33 +15894,31 @@
         <v>56</v>
       </c>
       <c r="B456" s="41" t="s">
-        <v>739</v>
-      </c>
-      <c r="C456" s="41" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D456" s="41"/>
-      <c r="E456" s="41"/>
-      <c r="F456" s="41" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="457" spans="1:6" ht="30">
+        <v>742</v>
+      </c>
+      <c r="C456" s="43" t="s">
+        <v>596</v>
+      </c>
+      <c r="D456" s="43"/>
+      <c r="E456" s="43"/>
+      <c r="F456" s="43"/>
+    </row>
+    <row r="457" spans="1:6">
       <c r="A457" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B457" s="41" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C457" s="41" t="s">
-        <v>740</v>
+        <v>743</v>
+      </c>
+      <c r="C457" s="46" t="s">
+        <v>598</v>
       </c>
       <c r="D457" s="41" t="s">
-        <v>562</v>
-      </c>
-      <c r="E457" s="41"/>
+        <v>573</v>
+      </c>
+      <c r="E457" s="46"/>
       <c r="F457" s="41" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="458" spans="1:6">
@@ -15919,17 +15926,17 @@
         <v>56</v>
       </c>
       <c r="B458" s="41" t="s">
-        <v>1076</v>
+        <v>744</v>
       </c>
       <c r="C458" s="41" t="s">
-        <v>1073</v>
+        <v>600</v>
       </c>
       <c r="D458" s="41" t="s">
-        <v>695</v>
+        <v>1057</v>
       </c>
       <c r="E458" s="41"/>
       <c r="F458" s="41" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="459" spans="1:6">
@@ -15937,10 +15944,10 @@
         <v>56</v>
       </c>
       <c r="B459" s="41" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="C459" s="43" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="D459" s="43"/>
       <c r="E459" s="43"/>
@@ -15951,17 +15958,17 @@
         <v>56</v>
       </c>
       <c r="B460" s="41" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="C460" s="46" t="s">
-        <v>598</v>
+        <v>566</v>
       </c>
       <c r="D460" s="41" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="E460" s="46"/>
       <c r="F460" s="41" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="461" spans="1:6">
@@ -15969,17 +15976,17 @@
         <v>56</v>
       </c>
       <c r="B461" s="41" t="s">
-        <v>744</v>
-      </c>
-      <c r="C461" s="41" t="s">
-        <v>600</v>
+        <v>747</v>
+      </c>
+      <c r="C461" s="46" t="s">
+        <v>640</v>
       </c>
       <c r="D461" s="41" t="s">
-        <v>1057</v>
-      </c>
-      <c r="E461" s="41"/>
+        <v>570</v>
+      </c>
+      <c r="E461" s="46"/>
       <c r="F461" s="41" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="462" spans="1:6">
@@ -15987,31 +15994,35 @@
         <v>56</v>
       </c>
       <c r="B462" s="41" t="s">
-        <v>745</v>
-      </c>
-      <c r="C462" s="43" t="s">
-        <v>602</v>
-      </c>
-      <c r="D462" s="43"/>
-      <c r="E462" s="43"/>
-      <c r="F462" s="43"/>
+        <v>748</v>
+      </c>
+      <c r="C462" s="46" t="s">
+        <v>607</v>
+      </c>
+      <c r="D462" s="41" t="s">
+        <v>573</v>
+      </c>
+      <c r="E462" s="46"/>
+      <c r="F462" s="41" t="s">
+        <v>1086</v>
+      </c>
     </row>
     <row r="463" spans="1:6">
       <c r="A463" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B463" s="41" t="s">
-        <v>746</v>
-      </c>
-      <c r="C463" s="46" t="s">
-        <v>566</v>
+        <v>749</v>
+      </c>
+      <c r="C463" s="41" t="s">
+        <v>609</v>
       </c>
       <c r="D463" s="41" t="s">
-        <v>567</v>
-      </c>
-      <c r="E463" s="46"/>
+        <v>1060</v>
+      </c>
+      <c r="E463" s="41"/>
       <c r="F463" s="41" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="464" spans="1:6">
@@ -16019,71 +16030,17 @@
         <v>56</v>
       </c>
       <c r="B464" s="41" t="s">
-        <v>747</v>
-      </c>
-      <c r="C464" s="46" t="s">
-        <v>640</v>
+        <v>1259</v>
+      </c>
+      <c r="C464" s="41" t="s">
+        <v>611</v>
       </c>
       <c r="D464" s="41" t="s">
-        <v>570</v>
-      </c>
-      <c r="E464" s="46"/>
+        <v>1058</v>
+      </c>
+      <c r="E464" s="41"/>
       <c r="F464" s="41" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="465" spans="1:6">
-      <c r="A465" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="B465" s="41" t="s">
-        <v>748</v>
-      </c>
-      <c r="C465" s="46" t="s">
-        <v>607</v>
-      </c>
-      <c r="D465" s="41" t="s">
-        <v>573</v>
-      </c>
-      <c r="E465" s="46"/>
-      <c r="F465" s="41" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="466" spans="1:6">
-      <c r="A466" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="B466" s="41" t="s">
-        <v>749</v>
-      </c>
-      <c r="C466" s="41" t="s">
-        <v>609</v>
-      </c>
-      <c r="D466" s="41" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E466" s="41"/>
-      <c r="F466" s="41" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="467" spans="1:6">
-      <c r="A467" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="B467" s="41" t="s">
-        <v>1260</v>
-      </c>
-      <c r="C467" s="41" t="s">
-        <v>611</v>
-      </c>
-      <c r="D467" s="41" t="s">
-        <v>1058</v>
-      </c>
-      <c r="E467" s="41"/>
-      <c r="F467" s="41" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
   </sheetData>
@@ -16582,7 +16539,7 @@
         <v>120</v>
       </c>
       <c r="E17" s="55" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>759</v>
@@ -17020,7 +16977,7 @@
         <v>824</v>
       </c>
       <c r="D40" s="55" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6" t="s">
@@ -17039,7 +16996,7 @@
         <v>825</v>
       </c>
       <c r="D41" s="54" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6" t="s">
@@ -17068,16 +17025,16 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="56" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B43" s="56" t="s">
         <v>782</v>
       </c>
       <c r="C43" s="56" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D43" s="56" t="s">
         <v>1178</v>
-      </c>
-      <c r="D43" s="56" t="s">
-        <v>1179</v>
       </c>
       <c r="E43" s="56"/>
       <c r="F43" s="56" t="s">
@@ -17087,16 +17044,16 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="56" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B44" s="56" t="s">
         <v>782</v>
       </c>
       <c r="C44" s="56" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D44" s="56" t="s">
         <v>1180</v>
-      </c>
-      <c r="D44" s="56" t="s">
-        <v>1181</v>
       </c>
       <c r="E44" s="56"/>
       <c r="F44" s="56" t="s">
@@ -17106,16 +17063,16 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="56" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B45" s="56" t="s">
         <v>782</v>
       </c>
       <c r="C45" s="56" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D45" s="56" t="s">
         <v>1182</v>
-      </c>
-      <c r="D45" s="56" t="s">
-        <v>1183</v>
       </c>
       <c r="E45" s="56"/>
       <c r="F45" s="56" t="s">
@@ -17125,16 +17082,16 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="56" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B46" s="56" t="s">
         <v>782</v>
       </c>
       <c r="C46" s="56" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D46" s="56" t="s">
         <v>1184</v>
-      </c>
-      <c r="D46" s="56" t="s">
-        <v>1185</v>
       </c>
       <c r="E46" s="56"/>
       <c r="F46" s="56" t="s">
@@ -17144,16 +17101,16 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="56" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="B47" s="56" t="s">
         <v>782</v>
       </c>
       <c r="C47" s="56" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D47" s="56" t="s">
         <v>1186</v>
-      </c>
-      <c r="D47" s="56" t="s">
-        <v>1187</v>
       </c>
       <c r="E47" s="56"/>
       <c r="F47" s="56" t="s">
@@ -17163,16 +17120,16 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="56" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B48" s="56" t="s">
         <v>782</v>
       </c>
       <c r="C48" s="56" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D48" s="56" t="s">
         <v>1188</v>
-      </c>
-      <c r="D48" s="56" t="s">
-        <v>1189</v>
       </c>
       <c r="E48" s="56"/>
       <c r="F48" s="56" t="s">
@@ -17182,16 +17139,16 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="56" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B49" s="56" t="s">
         <v>782</v>
       </c>
       <c r="C49" s="56" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D49" s="56" t="s">
         <v>1190</v>
-      </c>
-      <c r="D49" s="56" t="s">
-        <v>1191</v>
       </c>
       <c r="E49" s="56"/>
       <c r="F49" s="56" t="s">
@@ -17201,16 +17158,16 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="56" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B50" s="56" t="s">
         <v>782</v>
       </c>
       <c r="C50" s="56" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D50" s="56" t="s">
         <v>1192</v>
-      </c>
-      <c r="D50" s="56" t="s">
-        <v>1193</v>
       </c>
       <c r="E50" s="56"/>
       <c r="F50" s="56" t="s">
@@ -17220,16 +17177,16 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="56" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B51" s="56" t="s">
         <v>782</v>
       </c>
       <c r="C51" s="56" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D51" s="56" t="s">
         <v>1194</v>
-      </c>
-      <c r="D51" s="56" t="s">
-        <v>1195</v>
       </c>
       <c r="E51" s="56"/>
       <c r="F51" s="56" t="s">
@@ -17239,16 +17196,16 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="56" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B52" s="56" t="s">
         <v>808</v>
       </c>
       <c r="C52" s="56" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D52" s="56" t="s">
         <v>1196</v>
-      </c>
-      <c r="D52" s="56" t="s">
-        <v>1197</v>
       </c>
       <c r="E52" s="56"/>
       <c r="F52" s="56" t="s">
@@ -17258,16 +17215,16 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="56" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B53" s="56" t="s">
         <v>808</v>
       </c>
       <c r="C53" s="56" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D53" s="56" t="s">
         <v>1198</v>
-      </c>
-      <c r="D53" s="56" t="s">
-        <v>1199</v>
       </c>
       <c r="E53" s="56"/>
       <c r="F53" s="56" t="s">
@@ -17277,16 +17234,16 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="56" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B54" s="56" t="s">
         <v>816</v>
       </c>
       <c r="C54" s="56" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D54" s="56" t="s">
         <v>1200</v>
-      </c>
-      <c r="D54" s="56" t="s">
-        <v>1201</v>
       </c>
       <c r="E54" s="56"/>
       <c r="F54" s="56" t="s">
@@ -17296,16 +17253,16 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="56" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="B55" s="56" t="s">
         <v>1048</v>
       </c>
       <c r="C55" s="56" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D55" s="56" t="s">
         <v>1202</v>
-      </c>
-      <c r="D55" s="56" t="s">
-        <v>1203</v>
       </c>
       <c r="E55" s="56"/>
       <c r="F55" s="56" t="s">
@@ -17645,7 +17602,7 @@
         <v>832</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
@@ -18766,16 +18723,16 @@
     </row>
     <row r="50" spans="1:256">
       <c r="A50" s="55" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>829</v>
       </c>
       <c r="C50" s="6" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>1250</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>1251</v>
       </c>
     </row>
   </sheetData>
@@ -19060,7 +19017,7 @@
         <v>759</v>
       </c>
       <c r="G13" s="53" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="31.5" customHeight="1">
@@ -19096,13 +19053,13 @@
         <v>979</v>
       </c>
       <c r="E15" s="53" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="F15" s="53" t="s">
         <v>759</v>
       </c>
       <c r="G15" s="53" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="47.25" customHeight="1">
@@ -19138,13 +19095,13 @@
         <v>983</v>
       </c>
       <c r="E17" s="53" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="F17" s="53" t="s">
         <v>759</v>
       </c>
       <c r="G17" s="53" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="31.5" customHeight="1">
@@ -19261,16 +19218,16 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="56" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B24" s="56" t="s">
         <v>1208</v>
       </c>
-      <c r="B24" s="56" t="s">
+      <c r="C24" s="56" t="s">
         <v>1209</v>
       </c>
-      <c r="C24" s="56" t="s">
+      <c r="D24" s="56" t="s">
         <v>1210</v>
-      </c>
-      <c r="D24" s="56" t="s">
-        <v>1211</v>
       </c>
       <c r="E24" s="56"/>
       <c r="F24" s="56"/>
@@ -19278,16 +19235,16 @@
     </row>
     <row r="25" spans="1:7" ht="45">
       <c r="A25" s="56" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B25" s="56" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C25" s="56" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D25" s="56" t="s">
         <v>1212</v>
-      </c>
-      <c r="D25" s="56" t="s">
-        <v>1213</v>
       </c>
       <c r="E25" s="56"/>
       <c r="F25" s="56"/>
@@ -19295,16 +19252,16 @@
     </row>
     <row r="26" spans="1:7" ht="30">
       <c r="A26" s="56" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B26" s="56" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C26" s="56" t="s">
         <v>1214</v>
       </c>
-      <c r="B26" s="56" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C26" s="56" t="s">
+      <c r="D26" s="56" t="s">
         <v>1215</v>
-      </c>
-      <c r="D26" s="56" t="s">
-        <v>1216</v>
       </c>
       <c r="E26" s="56"/>
       <c r="F26" s="56"/>
@@ -19312,16 +19269,16 @@
     </row>
     <row r="27" spans="1:7" ht="30">
       <c r="A27" s="56" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B27" s="56" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C27" s="56" t="s">
         <v>1217</v>
       </c>
-      <c r="B27" s="56" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C27" s="56" t="s">
+      <c r="D27" s="56" t="s">
         <v>1218</v>
-      </c>
-      <c r="D27" s="56" t="s">
-        <v>1219</v>
       </c>
       <c r="E27" s="56"/>
       <c r="F27" s="56"/>
@@ -19329,16 +19286,16 @@
     </row>
     <row r="28" spans="1:7" ht="30">
       <c r="A28" s="56" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B28" s="56" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C28" s="56" t="s">
         <v>1220</v>
       </c>
-      <c r="B28" s="56" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C28" s="56" t="s">
+      <c r="D28" s="56" t="s">
         <v>1221</v>
-      </c>
-      <c r="D28" s="56" t="s">
-        <v>1222</v>
       </c>
       <c r="E28" s="56"/>
       <c r="F28" s="56"/>
@@ -19346,16 +19303,16 @@
     </row>
     <row r="29" spans="1:7" ht="30">
       <c r="A29" s="56" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B29" s="56" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C29" s="56" t="s">
         <v>1223</v>
       </c>
-      <c r="B29" s="56" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C29" s="56" t="s">
+      <c r="D29" s="56" t="s">
         <v>1224</v>
-      </c>
-      <c r="D29" s="56" t="s">
-        <v>1225</v>
       </c>
       <c r="E29" s="56"/>
       <c r="F29" s="56"/>
@@ -19363,16 +19320,16 @@
     </row>
     <row r="30" spans="1:7" ht="30">
       <c r="A30" s="56" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B30" s="56" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C30" s="56" t="s">
         <v>1226</v>
       </c>
-      <c r="B30" s="56" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C30" s="56" t="s">
+      <c r="D30" s="56" t="s">
         <v>1227</v>
-      </c>
-      <c r="D30" s="56" t="s">
-        <v>1228</v>
       </c>
       <c r="E30" s="56"/>
       <c r="F30" s="56"/>
@@ -19445,13 +19402,13 @@
         <v>993</v>
       </c>
       <c r="B2" s="52" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C2" s="52" t="s">
         <v>994</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E2" s="60"/>
       <c r="F2" s="55" t="s">
@@ -19465,16 +19422,16 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="53" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C3" s="53" t="s">
         <v>995</v>
       </c>
       <c r="D3" s="53" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E3" s="61"/>
       <c r="F3" s="6" t="s">
@@ -19491,13 +19448,13 @@
         <v>996</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C4" s="53" t="s">
         <v>997</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="E4" s="60"/>
       <c r="F4" s="6" t="s">
@@ -19521,10 +19478,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:IV27"/>
+  <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -19922,13 +19879,13 @@
         <v>1011</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>759</v>
       </c>
       <c r="G7" s="55" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="8" spans="1:256" ht="31.5" customHeight="1">
@@ -20039,14 +19996,12 @@
       <c r="D13" s="6" t="s">
         <v>1022</v>
       </c>
-      <c r="E13" s="21" t="s">
-        <v>1078</v>
-      </c>
+      <c r="E13" s="21"/>
       <c r="F13" s="6" t="s">
         <v>759</v>
       </c>
       <c r="G13" s="55" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="14" spans="1:256" ht="31.5" customHeight="1">
@@ -20067,7 +20022,7 @@
         <v>759</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="15" spans="1:256" ht="31.5" customHeight="1">
@@ -20160,13 +20115,13 @@
         <v>1036</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>759</v>
       </c>
       <c r="G19" s="55" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="20" spans="1:256" ht="17.100000000000001" customHeight="1">
@@ -20225,13 +20180,13 @@
         <v>1045</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>778</v>
       </c>
       <c r="G22" s="55" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="23" spans="1:256" s="36" customFormat="1" ht="31.5">
@@ -20780,7 +20735,7 @@
         <v>600</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -21566,6 +21521,40 @@
       <c r="IU27" s="35"/>
       <c r="IV27" s="35"/>
     </row>
+    <row r="28" spans="1:256" ht="60">
+      <c r="A28" s="6" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>999</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>586</v>
+      </c>
+      <c r="E28" s="30"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:256" ht="30">
+      <c r="A29" s="57" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>999</v>
+      </c>
+      <c r="C29" s="55" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>588</v>
+      </c>
+      <c r="E29" s="30"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -21870,13 +21859,13 @@
     </row>
     <row r="2" spans="1:256" ht="31.5">
       <c r="A2" s="54" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B2" s="54" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C2" s="54" t="s">
         <v>1236</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>1237</v>
       </c>
       <c r="D2" s="54" t="s">
         <v>1046</v>
@@ -21891,19 +21880,19 @@
     </row>
     <row r="3" spans="1:256" ht="31.5">
       <c r="A3" s="54" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>1238</v>
-      </c>
-      <c r="B3" s="54" t="s">
-        <v>1236</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>1239</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>1046</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>778</v>
@@ -21912,19 +21901,19 @@
     </row>
     <row r="4" spans="1:256" ht="31.5">
       <c r="A4" s="6" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>1241</v>
-      </c>
-      <c r="B4" s="54" t="s">
-        <v>1236</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>1242</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>1046</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>778</v>

--- a/conformancelib/testdata/PIV-I_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I_ICAM_Test_Cards.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GSA\GSA_GIT\piv-conformance-swing\conformancelib\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5D85D1-4438-4497-96B6-A7473503BAE8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47202FC2-972A-4DC6-849C-57E9C0B0C831}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="1995" windowWidth="28410" windowHeight="14550" tabRatio="500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SP 800-85B Reference" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3644" uniqueCount="1265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3646" uniqueCount="1267">
   <si>
     <t>BER_TLV_Test_Assertions</t>
   </si>
@@ -3828,6 +3828,12 @@
   </si>
   <si>
     <t>PKIX_Test_28</t>
+  </si>
+  <si>
+    <t>2.16.840.1.101.3.6.6</t>
+  </si>
+  <si>
+    <t>1.3.6.1.1.16.4</t>
   </si>
 </sst>
 </file>
@@ -4073,7 +4079,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4260,6 +4266,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8347,8 +8362,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G464"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A329" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A350" sqref="A350:XFD350"/>
+    <sheetView topLeftCell="A398" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C427" sqref="C427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -19480,8 +19495,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:G29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -19996,12 +20011,11 @@
       <c r="D13" s="6" t="s">
         <v>1022</v>
       </c>
-      <c r="E13" s="21"/>
+      <c r="E13" s="55" t="s">
+        <v>1265</v>
+      </c>
       <c r="F13" s="6" t="s">
         <v>759</v>
-      </c>
-      <c r="G13" s="55" t="s">
-        <v>1078</v>
       </c>
     </row>
     <row r="14" spans="1:256" ht="31.5" customHeight="1">
@@ -21521,39 +21535,43 @@
       <c r="IU27" s="35"/>
       <c r="IV27" s="35"/>
     </row>
-    <row r="28" spans="1:256" ht="60">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:256" ht="63">
+      <c r="A28" s="55" t="s">
         <v>1261</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="55" t="s">
         <v>999</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="55" t="s">
         <v>1263</v>
       </c>
-      <c r="D28" s="46" t="s">
+      <c r="D28" s="52" t="s">
         <v>586</v>
       </c>
-      <c r="E28" s="30"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-    </row>
-    <row r="29" spans="1:256" ht="30">
-      <c r="A29" s="57" t="s">
+      <c r="E28" s="66" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="29" spans="1:256" ht="31.5">
+      <c r="A29" s="65" t="s">
         <v>1262</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="55" t="s">
         <v>999</v>
       </c>
       <c r="C29" s="55" t="s">
         <v>1264</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="55" t="s">
         <v>588</v>
       </c>
-      <c r="E29" s="30"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/conformancelib/testdata/PIV-I_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I_ICAM_Test_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D940C3C-9918-4917-80B1-D47257A13F7F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67F48B7-E608-4F62-99E0-B62025A79A1B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="17070" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5820" yWindow="0" windowWidth="24000" windowHeight="16830" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="2" r:id="rId1"/>
@@ -3751,9 +3751,6 @@
     <t>Expiration Date is within the next 15 years</t>
   </si>
   <si>
-    <t>X509_CERTIFICATE_FOR_PIV_AUTHENTICATION_OID;2.16.840.1.101.3.2.1.48.248, X509_CERTIFICATE_FOR_DIGITAL_SIGNATURE_OID;2.16.840.1.101.3.2.1.48.251, X509_CERTIFICATE_FOR_KEY_MANAGEMENT_OID;2.16.840.1.101.3.2.1.48.250, X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID;2.16.840.1.101.3.2.1.48.249, CARD_HOLDER_UNIQUE_IDENTIFIER_OID;2.16.840.1.101.3.2.1.48.252</t>
-  </si>
-  <si>
     <t>8.2.2.16</t>
   </si>
   <si>
@@ -3824,6 +3821,9 @@
   </si>
   <si>
     <t>OID for entryUUID</t>
+  </si>
+  <si>
+    <t>X509_CERTIFICATE_FOR_PIV_AUTHENTICATION_OID:2.16.840.1.101.3.2.1.48.248, X509_CERTIFICATE_FOR_DIGITAL_SIGNATURE_OID:2.16.840.1.101.3.2.1.48.251, X509_CERTIFICATE_FOR_KEY_MANAGEMENT_OID:2.16.840.1.101.3.2.1.48.250, X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID:2.16.840.1.101.3.2.1.48.249, CARD_HOLDER_UNIQUE_IDENTIFIER_OID:2.16.840.1.101.3.2.1.48.252</t>
   </si>
 </sst>
 </file>
@@ -4640,7 +4640,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F473"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4682,7 +4682,7 @@
         <v>1196</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D2" s="32"/>
       <c r="E2" s="32"/>
@@ -5307,7 +5307,7 @@
         <v>54</v>
       </c>
       <c r="B38" s="37" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C38" s="37" t="s">
         <v>719</v>
@@ -5934,7 +5934,7 @@
         <v>154</v>
       </c>
       <c r="C74" s="37" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D74" s="37" t="s">
         <v>156</v>
@@ -5952,7 +5952,7 @@
         <v>157</v>
       </c>
       <c r="C75" s="39" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="D75" s="39" t="s">
         <v>1039</v>
@@ -5970,7 +5970,7 @@
         <v>160</v>
       </c>
       <c r="C76" s="39" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D76" s="39" t="s">
         <v>1040</v>
@@ -5988,7 +5988,7 @@
         <v>163</v>
       </c>
       <c r="C77" s="37" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D77" s="37" t="s">
         <v>159</v>
@@ -6006,7 +6006,7 @@
         <v>1041</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D78" s="37" t="s">
         <v>162</v>
@@ -6024,7 +6024,7 @@
         <v>1042</v>
       </c>
       <c r="C79" s="37" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D79" s="37" t="s">
         <v>165</v>
@@ -9696,7 +9696,7 @@
         <v>431</v>
       </c>
       <c r="C293" s="44" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D293" s="37" t="s">
         <v>432</v>
@@ -10012,7 +10012,7 @@
         <v>449</v>
       </c>
       <c r="C311" s="44" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="D311" s="37" t="s">
         <v>432</v>
@@ -10514,7 +10514,7 @@
         <v>1080</v>
       </c>
       <c r="C340" s="44" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D340" s="37" t="s">
         <v>432</v>
@@ -11568,7 +11568,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="403" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" s="38" t="s">
         <v>54</v>
       </c>
@@ -12162,7 +12162,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="438" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" s="38" t="s">
         <v>54</v>
       </c>
@@ -13252,7 +13252,7 @@
         <v>716</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>1237</v>
@@ -13750,7 +13750,7 @@
         <v>1084</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="E43" s="26"/>
       <c r="F43" s="4" t="s">
@@ -13769,7 +13769,7 @@
         <v>1085</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="E44" s="26"/>
       <c r="F44" s="4" t="s">
@@ -13788,7 +13788,7 @@
         <v>1086</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="E45" s="26"/>
       <c r="F45" s="4" t="s">
@@ -13807,7 +13807,7 @@
         <v>1087</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="E46" s="26"/>
       <c r="F46" s="4" t="s">
@@ -13826,7 +13826,7 @@
         <v>1088</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="E47" s="26"/>
       <c r="F47" s="4" t="s">
@@ -13845,7 +13845,7 @@
         <v>1089</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="E48" s="26"/>
       <c r="F48" s="4" t="s">
@@ -13864,7 +13864,7 @@
         <v>1090</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E49" s="26"/>
       <c r="F49" s="4" t="s">
@@ -13883,7 +13883,7 @@
         <v>1091</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E50" s="26"/>
       <c r="F50" s="4" t="s">
@@ -13902,7 +13902,7 @@
         <v>1092</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E51" s="26"/>
       <c r="F51" s="4" t="s">
@@ -13921,7 +13921,7 @@
         <v>1093</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="E52" s="26"/>
       <c r="F52" s="4" t="s">
@@ -13940,7 +13940,7 @@
         <v>1094</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="E53" s="26"/>
       <c r="F53" s="4" t="s">
@@ -13959,7 +13959,7 @@
         <v>1095</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="E54" s="26"/>
       <c r="F54" s="4" t="s">
@@ -17102,7 +17102,7 @@
         <v>685</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
@@ -17460,8 +17460,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -17859,7 +17859,7 @@
         <v>1156</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>1239</v>
+        <v>1263</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>685</v>
@@ -18157,7 +18157,7 @@
         <v>963</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>703</v>

--- a/conformancelib/testdata/PIV-I_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I_ICAM_Test_Cards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bob.fontana\Documents\GitRepos\piv-conformance\conformancelib\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7643BA78-431C-480E-B722-E24C7B6C980C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3363C45-81BA-4A29-927A-E498A7001CC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="16830" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="2" r:id="rId1"/>
@@ -4062,7 +4062,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4242,6 +4242,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4634,23 +4637,23 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F473"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A352" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C356" sqref="C356"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="34.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="69.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="30.625" style="48" customWidth="1"/>
-    <col min="6" max="6" width="84.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.19921875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="34.69921875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="69.59765625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.09765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30.59765625" style="48" customWidth="1"/>
+    <col min="6" max="6" width="84.59765625" style="2" customWidth="1"/>
     <col min="7" max="1025" width="8.5" style="5" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="34" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="34" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="54" t="s">
         <v>50</v>
       </c>
@@ -4670,7 +4673,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="55" t="s">
         <v>54</v>
       </c>
@@ -4684,7 +4687,7 @@
       <c r="E2" s="32"/>
       <c r="F2" s="32"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
         <v>54</v>
       </c>
@@ -4698,7 +4701,7 @@
       <c r="E3" s="32"/>
       <c r="F3" s="32"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="s">
         <v>54</v>
       </c>
@@ -4712,7 +4715,7 @@
       <c r="E4" s="32"/>
       <c r="F4" s="32"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="38" t="s">
         <v>54</v>
       </c>
@@ -4730,7 +4733,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="38" t="s">
         <v>54</v>
       </c>
@@ -4748,7 +4751,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="s">
         <v>54</v>
       </c>
@@ -4766,7 +4769,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A8" s="38" t="s">
         <v>54</v>
       </c>
@@ -4784,7 +4787,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="38" t="s">
         <v>54</v>
       </c>
@@ -4802,7 +4805,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
         <v>54</v>
       </c>
@@ -4820,7 +4823,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A11" s="38" t="s">
         <v>54</v>
       </c>
@@ -4838,7 +4841,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A12" s="38" t="s">
         <v>54</v>
       </c>
@@ -4856,7 +4859,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="38" t="s">
         <v>54</v>
       </c>
@@ -4874,7 +4877,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="38" t="s">
         <v>54</v>
       </c>
@@ -4892,7 +4895,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="38" t="s">
         <v>54</v>
       </c>
@@ -4910,7 +4913,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="38" t="s">
         <v>54</v>
       </c>
@@ -4924,7 +4927,7 @@
       <c r="E16" s="32"/>
       <c r="F16" s="32"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="38" t="s">
         <v>54</v>
       </c>
@@ -4938,7 +4941,7 @@
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="38" t="s">
         <v>54</v>
       </c>
@@ -4956,7 +4959,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="38" t="s">
         <v>54</v>
       </c>
@@ -4974,7 +4977,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="38" t="s">
         <v>54</v>
       </c>
@@ -4992,7 +4995,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A21" s="38" t="s">
         <v>54</v>
       </c>
@@ -5010,7 +5013,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="38" t="s">
         <v>54</v>
       </c>
@@ -5028,7 +5031,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="38" t="s">
         <v>54</v>
       </c>
@@ -5046,7 +5049,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="40" t="s">
         <v>54</v>
       </c>
@@ -5064,7 +5067,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A25" s="38" t="s">
         <v>54</v>
       </c>
@@ -5082,7 +5085,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="38" t="s">
         <v>54</v>
       </c>
@@ -5100,7 +5103,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="40" t="s">
         <v>54</v>
       </c>
@@ -5118,7 +5121,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="40" t="s">
         <v>54</v>
       </c>
@@ -5136,7 +5139,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="40" t="s">
         <v>54</v>
       </c>
@@ -5154,7 +5157,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="40" t="s">
         <v>54</v>
       </c>
@@ -5172,7 +5175,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="38" t="s">
         <v>54</v>
       </c>
@@ -5190,7 +5193,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A32" s="38" t="s">
         <v>54</v>
       </c>
@@ -5208,7 +5211,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="40" t="s">
         <v>54</v>
       </c>
@@ -5226,7 +5229,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="40" t="s">
         <v>54</v>
       </c>
@@ -5244,7 +5247,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="40" t="s">
         <v>54</v>
       </c>
@@ -5262,7 +5265,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="40" t="s">
         <v>54</v>
       </c>
@@ -5280,7 +5283,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="38" t="s">
         <v>54</v>
       </c>
@@ -5298,7 +5301,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A38" s="38" t="s">
         <v>54</v>
       </c>
@@ -5316,7 +5319,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="38" t="s">
         <v>54</v>
       </c>
@@ -5334,7 +5337,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="38" t="s">
         <v>54</v>
       </c>
@@ -5352,7 +5355,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A41" s="38" t="s">
         <v>54</v>
       </c>
@@ -5370,7 +5373,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="38" t="s">
         <v>54</v>
       </c>
@@ -5388,7 +5391,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="38" t="s">
         <v>118</v>
       </c>
@@ -5406,7 +5409,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="38" t="s">
         <v>54</v>
       </c>
@@ -5420,7 +5423,7 @@
       <c r="E44" s="32"/>
       <c r="F44" s="32"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="38" t="s">
         <v>54</v>
       </c>
@@ -5434,7 +5437,7 @@
       <c r="E45" s="32"/>
       <c r="F45" s="32"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="38" t="s">
         <v>54</v>
       </c>
@@ -5452,7 +5455,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="38" t="s">
         <v>54</v>
       </c>
@@ -5470,7 +5473,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="38" t="s">
         <v>54</v>
       </c>
@@ -5488,7 +5491,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A49" s="38" t="s">
         <v>54</v>
       </c>
@@ -5506,7 +5509,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A50" s="38" t="s">
         <v>54</v>
       </c>
@@ -5524,7 +5527,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="38" t="s">
         <v>54</v>
       </c>
@@ -5542,7 +5545,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="38" t="s">
         <v>54</v>
       </c>
@@ -5560,7 +5563,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="38" t="s">
         <v>54</v>
       </c>
@@ -5578,7 +5581,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="38" t="s">
         <v>54</v>
       </c>
@@ -5596,7 +5599,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="38" t="s">
         <v>118</v>
       </c>
@@ -5614,7 +5617,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="38" t="s">
         <v>54</v>
       </c>
@@ -5628,7 +5631,7 @@
       <c r="E56" s="32"/>
       <c r="F56" s="32"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="38" t="s">
         <v>54</v>
       </c>
@@ -5642,7 +5645,7 @@
       <c r="E57" s="32"/>
       <c r="F57" s="32"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="38" t="s">
         <v>54</v>
       </c>
@@ -5660,7 +5663,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="38" t="s">
         <v>54</v>
       </c>
@@ -5678,7 +5681,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="38" t="s">
         <v>54</v>
       </c>
@@ -5696,7 +5699,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A61" s="38" t="s">
         <v>54</v>
       </c>
@@ -5714,7 +5717,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A62" s="38" t="s">
         <v>54</v>
       </c>
@@ -5732,7 +5735,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="38" t="s">
         <v>54</v>
       </c>
@@ -5750,7 +5753,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="38" t="s">
         <v>54</v>
       </c>
@@ -5768,7 +5771,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A65" s="38" t="s">
         <v>54</v>
       </c>
@@ -5786,7 +5789,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="38" t="s">
         <v>54</v>
       </c>
@@ -5804,7 +5807,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="38" t="s">
         <v>54</v>
       </c>
@@ -5818,7 +5821,7 @@
       <c r="E67" s="32"/>
       <c r="F67" s="32"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="38" t="s">
         <v>54</v>
       </c>
@@ -5832,7 +5835,7 @@
       <c r="E68" s="32"/>
       <c r="F68" s="32"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="38" t="s">
         <v>54</v>
       </c>
@@ -5850,7 +5853,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="38" t="s">
         <v>54</v>
       </c>
@@ -5868,7 +5871,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="38" t="s">
         <v>54</v>
       </c>
@@ -5886,7 +5889,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A72" s="38" t="s">
         <v>54</v>
       </c>
@@ -5904,7 +5907,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="38" t="s">
         <v>54</v>
       </c>
@@ -5922,7 +5925,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="38" t="s">
         <v>54</v>
       </c>
@@ -5940,7 +5943,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="75" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="40" t="s">
         <v>54</v>
       </c>
@@ -5958,7 +5961,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="76" spans="1:6" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A76" s="40" t="s">
         <v>54</v>
       </c>
@@ -5976,7 +5979,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A77" s="38" t="s">
         <v>54</v>
       </c>
@@ -5994,7 +5997,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="38" t="s">
         <v>54</v>
       </c>
@@ -6012,7 +6015,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A79" s="38" t="s">
         <v>54</v>
       </c>
@@ -6030,7 +6033,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="38" t="s">
         <v>118</v>
       </c>
@@ -6048,7 +6051,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="38" t="s">
         <v>54</v>
       </c>
@@ -6062,7 +6065,7 @@
       <c r="E81" s="32"/>
       <c r="F81" s="32"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="38" t="s">
         <v>54</v>
       </c>
@@ -6076,7 +6079,7 @@
       <c r="E82" s="32"/>
       <c r="F82" s="32"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="38" t="s">
         <v>54</v>
       </c>
@@ -6094,7 +6097,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="38" t="s">
         <v>54</v>
       </c>
@@ -6112,7 +6115,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="38" t="s">
         <v>54</v>
       </c>
@@ -6130,7 +6133,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A86" s="38" t="s">
         <v>54</v>
       </c>
@@ -6148,7 +6151,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="38" t="s">
         <v>54</v>
       </c>
@@ -6166,7 +6169,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="38" t="s">
         <v>54</v>
       </c>
@@ -6184,7 +6187,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="38" t="s">
         <v>54</v>
       </c>
@@ -6202,7 +6205,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="38" t="s">
         <v>118</v>
       </c>
@@ -6220,7 +6223,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="38" t="s">
         <v>54</v>
       </c>
@@ -6234,7 +6237,7 @@
       <c r="E91" s="32"/>
       <c r="F91" s="32"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="38" t="s">
         <v>54</v>
       </c>
@@ -6248,7 +6251,7 @@
       <c r="E92" s="32"/>
       <c r="F92" s="32"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="38" t="s">
         <v>54</v>
       </c>
@@ -6266,7 +6269,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="38" t="s">
         <v>54</v>
       </c>
@@ -6284,7 +6287,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="38" t="s">
         <v>54</v>
       </c>
@@ -6302,7 +6305,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A96" s="38" t="s">
         <v>54</v>
       </c>
@@ -6320,7 +6323,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A97" s="38" t="s">
         <v>118</v>
       </c>
@@ -6338,7 +6341,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="38" t="s">
         <v>54</v>
       </c>
@@ -6356,7 +6359,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="38" t="s">
         <v>54</v>
       </c>
@@ -6374,7 +6377,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="38" t="s">
         <v>54</v>
       </c>
@@ -6392,7 +6395,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="38" t="s">
         <v>54</v>
       </c>
@@ -6410,7 +6413,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="38" t="s">
         <v>118</v>
       </c>
@@ -6428,7 +6431,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="38" t="s">
         <v>54</v>
       </c>
@@ -6442,7 +6445,7 @@
       <c r="E103" s="32"/>
       <c r="F103" s="32"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="38" t="s">
         <v>54</v>
       </c>
@@ -6456,7 +6459,7 @@
       <c r="E104" s="32"/>
       <c r="F104" s="32"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="38" t="s">
         <v>54</v>
       </c>
@@ -6474,7 +6477,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="38" t="s">
         <v>54</v>
       </c>
@@ -6492,7 +6495,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="38" t="s">
         <v>54</v>
       </c>
@@ -6510,7 +6513,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A108" s="38" t="s">
         <v>54</v>
       </c>
@@ -6528,7 +6531,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A109" s="38" t="s">
         <v>54</v>
       </c>
@@ -6546,7 +6549,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="38" t="s">
         <v>54</v>
       </c>
@@ -6564,7 +6567,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="38" t="s">
         <v>54</v>
       </c>
@@ -6582,7 +6585,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="38" t="s">
         <v>54</v>
       </c>
@@ -6600,7 +6603,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="38" t="s">
         <v>54</v>
       </c>
@@ -6618,7 +6621,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="38" t="s">
         <v>118</v>
       </c>
@@ -6636,7 +6639,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="38" t="s">
         <v>54</v>
       </c>
@@ -6650,7 +6653,7 @@
       <c r="E115" s="32"/>
       <c r="F115" s="32"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="38" t="s">
         <v>54</v>
       </c>
@@ -6664,7 +6667,7 @@
       <c r="E116" s="32"/>
       <c r="F116" s="32"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="38" t="s">
         <v>54</v>
       </c>
@@ -6682,7 +6685,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="38" t="s">
         <v>54</v>
       </c>
@@ -6700,7 +6703,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="38" t="s">
         <v>54</v>
       </c>
@@ -6718,7 +6721,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A120" s="38" t="s">
         <v>54</v>
       </c>
@@ -6736,7 +6739,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A121" s="38" t="s">
         <v>54</v>
       </c>
@@ -6754,7 +6757,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="38" t="s">
         <v>54</v>
       </c>
@@ -6772,7 +6775,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="38" t="s">
         <v>54</v>
       </c>
@@ -6790,7 +6793,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="38" t="s">
         <v>54</v>
       </c>
@@ -6808,7 +6811,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="38" t="s">
         <v>54</v>
       </c>
@@ -6826,7 +6829,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="38" t="s">
         <v>118</v>
       </c>
@@ -6844,7 +6847,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="38" t="s">
         <v>54</v>
       </c>
@@ -6858,7 +6861,7 @@
       <c r="E127" s="32"/>
       <c r="F127" s="32"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="38" t="s">
         <v>54</v>
       </c>
@@ -6872,7 +6875,7 @@
       <c r="E128" s="32"/>
       <c r="F128" s="32"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="38" t="s">
         <v>54</v>
       </c>
@@ -6890,7 +6893,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="38" t="s">
         <v>54</v>
       </c>
@@ -6908,7 +6911,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="38" t="s">
         <v>54</v>
       </c>
@@ -6926,7 +6929,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A132" s="38" t="s">
         <v>54</v>
       </c>
@@ -6944,7 +6947,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="38" t="s">
         <v>54</v>
       </c>
@@ -6962,7 +6965,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="38" t="s">
         <v>54</v>
       </c>
@@ -6980,7 +6983,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="135" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="40" t="s">
         <v>54</v>
       </c>
@@ -6998,7 +7001,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="38" t="s">
         <v>54</v>
       </c>
@@ -7016,7 +7019,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A137" s="38" t="s">
         <v>54</v>
       </c>
@@ -7034,7 +7037,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="38" t="s">
         <v>54</v>
       </c>
@@ -7048,7 +7051,7 @@
       <c r="E138" s="32"/>
       <c r="F138" s="32"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="38" t="s">
         <v>54</v>
       </c>
@@ -7062,7 +7065,7 @@
       <c r="E139" s="32"/>
       <c r="F139" s="32"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="38" t="s">
         <v>54</v>
       </c>
@@ -7080,7 +7083,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="38" t="s">
         <v>54</v>
       </c>
@@ -7098,7 +7101,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="38" t="s">
         <v>54</v>
       </c>
@@ -7116,7 +7119,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A143" s="38" t="s">
         <v>54</v>
       </c>
@@ -7134,7 +7137,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="38" t="s">
         <v>54</v>
       </c>
@@ -7152,7 +7155,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="38" t="s">
         <v>54</v>
       </c>
@@ -7170,7 +7173,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="146" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="40" t="s">
         <v>54</v>
       </c>
@@ -7188,7 +7191,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="38" t="s">
         <v>54</v>
       </c>
@@ -7206,7 +7209,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A148" s="38" t="s">
         <v>54</v>
       </c>
@@ -7224,7 +7227,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="38" t="s">
         <v>118</v>
       </c>
@@ -7242,7 +7245,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="38" t="s">
         <v>54</v>
       </c>
@@ -7256,7 +7259,7 @@
       <c r="E150" s="41"/>
       <c r="F150" s="32"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="38" t="s">
         <v>54</v>
       </c>
@@ -7270,7 +7273,7 @@
       <c r="E151" s="41"/>
       <c r="F151" s="32"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="38" t="s">
         <v>54</v>
       </c>
@@ -7286,7 +7289,7 @@
       <c r="E152" s="37"/>
       <c r="F152" s="37"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="38" t="s">
         <v>54</v>
       </c>
@@ -7302,7 +7305,7 @@
       <c r="E153" s="37"/>
       <c r="F153" s="37"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="38" t="s">
         <v>54</v>
       </c>
@@ -7318,7 +7321,7 @@
       <c r="E154" s="37"/>
       <c r="F154" s="37"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="38" t="s">
         <v>54</v>
       </c>
@@ -7332,7 +7335,7 @@
       <c r="E155" s="41"/>
       <c r="F155" s="41"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="38" t="s">
         <v>54</v>
       </c>
@@ -7346,7 +7349,7 @@
       <c r="E156" s="41"/>
       <c r="F156" s="41"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="38" t="s">
         <v>54</v>
       </c>
@@ -7360,7 +7363,7 @@
       <c r="E157" s="41"/>
       <c r="F157" s="41"/>
     </row>
-    <row r="158" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="38" t="s">
         <v>54</v>
       </c>
@@ -7374,7 +7377,7 @@
       <c r="E158" s="52"/>
       <c r="F158" s="41"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="31" t="s">
         <v>54</v>
       </c>
@@ -7388,7 +7391,7 @@
       <c r="E159" s="41"/>
       <c r="F159" s="41"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="31" t="s">
         <v>54</v>
       </c>
@@ -7402,7 +7405,7 @@
       <c r="E160" s="41"/>
       <c r="F160" s="41"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="31" t="s">
         <v>54</v>
       </c>
@@ -7420,7 +7423,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="31" t="s">
         <v>54</v>
       </c>
@@ -7438,7 +7441,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="31" t="s">
         <v>54</v>
       </c>
@@ -7456,7 +7459,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="31" t="s">
         <v>54</v>
       </c>
@@ -7474,7 +7477,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A165" s="38" t="s">
         <v>54</v>
       </c>
@@ -7492,7 +7495,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="38" t="s">
         <v>54</v>
       </c>
@@ -7506,7 +7509,7 @@
       <c r="E166" s="41"/>
       <c r="F166" s="41"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="31" t="s">
         <v>54</v>
       </c>
@@ -7524,7 +7527,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="38" t="s">
         <v>54</v>
       </c>
@@ -7542,7 +7545,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A169" s="38" t="s">
         <v>54</v>
       </c>
@@ -7560,7 +7563,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="38" t="s">
         <v>54</v>
       </c>
@@ -7578,7 +7581,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A171" s="38" t="s">
         <v>54</v>
       </c>
@@ -7596,7 +7599,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="38" t="s">
         <v>54</v>
       </c>
@@ -7614,7 +7617,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="38" t="s">
         <v>54</v>
       </c>
@@ -7632,7 +7635,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A174" s="38" t="s">
         <v>54</v>
       </c>
@@ -7650,7 +7653,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="38" t="s">
         <v>54</v>
       </c>
@@ -7668,7 +7671,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A176" s="38" t="s">
         <v>54</v>
       </c>
@@ -7686,7 +7689,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="38" t="s">
         <v>54</v>
       </c>
@@ -7704,7 +7707,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="38" t="s">
         <v>54</v>
       </c>
@@ -7718,7 +7721,7 @@
       <c r="E178" s="41"/>
       <c r="F178" s="41"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="38" t="s">
         <v>54</v>
       </c>
@@ -7732,7 +7735,7 @@
       <c r="E179" s="41"/>
       <c r="F179" s="41"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="38" t="s">
         <v>54</v>
       </c>
@@ -7750,7 +7753,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="38" t="s">
         <v>54</v>
       </c>
@@ -7768,7 +7771,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="38" t="s">
         <v>54</v>
       </c>
@@ -7786,7 +7789,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="38" t="s">
         <v>54</v>
       </c>
@@ -7804,7 +7807,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="38" t="s">
         <v>54</v>
       </c>
@@ -7818,7 +7821,7 @@
       <c r="E184" s="41"/>
       <c r="F184" s="41"/>
     </row>
-    <row r="185" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A185" s="38" t="s">
         <v>54</v>
       </c>
@@ -7836,7 +7839,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="38" t="s">
         <v>54</v>
       </c>
@@ -7854,7 +7857,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A187" s="38" t="s">
         <v>54</v>
       </c>
@@ -7872,7 +7875,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="38" t="s">
         <v>54</v>
       </c>
@@ -7890,7 +7893,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A189" s="38" t="s">
         <v>54</v>
       </c>
@@ -7908,7 +7911,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="38" t="s">
         <v>54</v>
       </c>
@@ -7926,7 +7929,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="38" t="s">
         <v>54</v>
       </c>
@@ -7944,7 +7947,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A192" s="38" t="s">
         <v>54</v>
       </c>
@@ -7962,7 +7965,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="38" t="s">
         <v>54</v>
       </c>
@@ -7980,7 +7983,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A194" s="38" t="s">
         <v>54</v>
       </c>
@@ -7998,7 +8001,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="38" t="s">
         <v>54</v>
       </c>
@@ -8016,7 +8019,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="38" t="s">
         <v>54</v>
       </c>
@@ -8030,7 +8033,7 @@
       <c r="E196" s="41"/>
       <c r="F196" s="41"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="38" t="s">
         <v>54</v>
       </c>
@@ -8044,7 +8047,7 @@
       <c r="E197" s="41"/>
       <c r="F197" s="41"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="38" t="s">
         <v>54</v>
       </c>
@@ -8062,7 +8065,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="38" t="s">
         <v>54</v>
       </c>
@@ -8080,7 +8083,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="38" t="s">
         <v>54</v>
       </c>
@@ -8098,7 +8101,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="38" t="s">
         <v>54</v>
       </c>
@@ -8116,7 +8119,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="38" t="s">
         <v>54</v>
       </c>
@@ -8130,7 +8133,7 @@
       <c r="E202" s="41"/>
       <c r="F202" s="41"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="38" t="s">
         <v>54</v>
       </c>
@@ -8148,7 +8151,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="38" t="s">
         <v>54</v>
       </c>
@@ -8166,7 +8169,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="38" t="s">
         <v>54</v>
       </c>
@@ -8184,7 +8187,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="38" t="s">
         <v>54</v>
       </c>
@@ -8202,7 +8205,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A207" s="38" t="s">
         <v>54</v>
       </c>
@@ -8220,7 +8223,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="38" t="s">
         <v>54</v>
       </c>
@@ -8238,7 +8241,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="38" t="s">
         <v>54</v>
       </c>
@@ -8256,7 +8259,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A210" s="38" t="s">
         <v>54</v>
       </c>
@@ -8274,7 +8277,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="38" t="s">
         <v>54</v>
       </c>
@@ -8292,7 +8295,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A212" s="38" t="s">
         <v>54</v>
       </c>
@@ -8310,7 +8313,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="38" t="s">
         <v>54</v>
       </c>
@@ -8328,7 +8331,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="38" t="s">
         <v>54</v>
       </c>
@@ -8342,7 +8345,7 @@
       <c r="E214" s="41"/>
       <c r="F214" s="41"/>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="38" t="s">
         <v>54</v>
       </c>
@@ -8356,7 +8359,7 @@
       <c r="E215" s="41"/>
       <c r="F215" s="41"/>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="38" t="s">
         <v>54</v>
       </c>
@@ -8374,7 +8377,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="38" t="s">
         <v>54</v>
       </c>
@@ -8392,7 +8395,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="38" t="s">
         <v>54</v>
       </c>
@@ -8410,7 +8413,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A219" s="38" t="s">
         <v>54</v>
       </c>
@@ -8428,7 +8431,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A220" s="38" t="s">
         <v>54</v>
       </c>
@@ -8446,7 +8449,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="38" t="s">
         <v>54</v>
       </c>
@@ -8464,7 +8467,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="38" t="s">
         <v>54</v>
       </c>
@@ -8482,7 +8485,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A223" s="38" t="s">
         <v>54</v>
       </c>
@@ -8500,7 +8503,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A224" s="38" t="s">
         <v>54</v>
       </c>
@@ -8518,7 +8521,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="38" t="s">
         <v>54</v>
       </c>
@@ -8536,7 +8539,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="38" t="s">
         <v>54</v>
       </c>
@@ -8554,7 +8557,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="38" t="s">
         <v>54</v>
       </c>
@@ -8572,7 +8575,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="38" t="s">
         <v>54</v>
       </c>
@@ -8586,7 +8589,7 @@
       <c r="E228" s="41"/>
       <c r="F228" s="41"/>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="38" t="s">
         <v>54</v>
       </c>
@@ -8604,7 +8607,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="38" t="s">
         <v>54</v>
       </c>
@@ -8622,7 +8625,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="38" t="s">
         <v>54</v>
       </c>
@@ -8640,7 +8643,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="38" t="s">
         <v>54</v>
       </c>
@@ -8658,7 +8661,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="38" t="s">
         <v>54</v>
       </c>
@@ -8676,7 +8679,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="38" t="s">
         <v>54</v>
       </c>
@@ -8694,7 +8697,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="38" t="s">
         <v>54</v>
       </c>
@@ -8712,7 +8715,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A236" s="38" t="s">
         <v>54</v>
       </c>
@@ -8730,7 +8733,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="38" t="s">
         <v>54</v>
       </c>
@@ -8748,7 +8751,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="38" t="s">
         <v>54</v>
       </c>
@@ -8766,7 +8769,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="38" t="s">
         <v>54</v>
       </c>
@@ -8784,7 +8787,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="38" t="s">
         <v>54</v>
       </c>
@@ -8798,7 +8801,7 @@
       <c r="E240" s="41"/>
       <c r="F240" s="41"/>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="38" t="s">
         <v>54</v>
       </c>
@@ -8816,7 +8819,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="38" t="s">
         <v>54</v>
       </c>
@@ -8834,7 +8837,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="38" t="s">
         <v>54</v>
       </c>
@@ -8848,7 +8851,7 @@
       <c r="E243" s="41"/>
       <c r="F243" s="41"/>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="38" t="s">
         <v>54</v>
       </c>
@@ -8864,7 +8867,7 @@
       <c r="E244" s="37"/>
       <c r="F244" s="37"/>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="38" t="s">
         <v>54</v>
       </c>
@@ -8878,7 +8881,7 @@
       <c r="E245" s="41"/>
       <c r="F245" s="41"/>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="38" t="s">
         <v>54</v>
       </c>
@@ -8892,7 +8895,7 @@
       <c r="E246" s="41"/>
       <c r="F246" s="41"/>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="38" t="s">
         <v>54</v>
       </c>
@@ -8910,7 +8913,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="38" t="s">
         <v>54</v>
       </c>
@@ -8928,7 +8931,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="38" t="s">
         <v>54</v>
       </c>
@@ -8946,7 +8949,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="38" t="s">
         <v>54</v>
       </c>
@@ -8964,7 +8967,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="38" t="s">
         <v>54</v>
       </c>
@@ -8978,7 +8981,7 @@
       <c r="E251" s="51"/>
       <c r="F251" s="51"/>
     </row>
-    <row r="252" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A252" s="38" t="s">
         <v>54</v>
       </c>
@@ -8996,7 +8999,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="253" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A253" s="38" t="s">
         <v>54</v>
       </c>
@@ -9014,7 +9017,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="254" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A254" s="38" t="s">
         <v>54</v>
       </c>
@@ -9032,7 +9035,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="255" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A255" s="38" t="s">
         <v>54</v>
       </c>
@@ -9050,7 +9053,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="38" t="s">
         <v>54</v>
       </c>
@@ -9064,7 +9067,7 @@
       <c r="E256" s="41"/>
       <c r="F256" s="41"/>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="38" t="s">
         <v>54</v>
       </c>
@@ -9080,7 +9083,7 @@
       <c r="E257" s="37"/>
       <c r="F257" s="37"/>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="38" t="s">
         <v>54</v>
       </c>
@@ -9096,7 +9099,7 @@
       <c r="E258" s="37"/>
       <c r="F258" s="37"/>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="38" t="s">
         <v>54</v>
       </c>
@@ -9110,7 +9113,7 @@
       <c r="E259" s="41"/>
       <c r="F259" s="41"/>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="38" t="s">
         <v>54</v>
       </c>
@@ -9124,7 +9127,7 @@
       <c r="E260" s="41"/>
       <c r="F260" s="41"/>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="38" t="s">
         <v>54</v>
       </c>
@@ -9138,7 +9141,7 @@
       <c r="E261" s="41"/>
       <c r="F261" s="41"/>
     </row>
-    <row r="262" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A262" s="38" t="s">
         <v>54</v>
       </c>
@@ -9156,7 +9159,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="38" t="s">
         <v>54</v>
       </c>
@@ -9174,7 +9177,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A264" s="38" t="s">
         <v>54</v>
       </c>
@@ -9192,7 +9195,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A265" s="38" t="s">
         <v>54</v>
       </c>
@@ -9210,7 +9213,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="38" t="s">
         <v>54</v>
       </c>
@@ -9228,7 +9231,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="38" t="s">
         <v>54</v>
       </c>
@@ -9246,7 +9249,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A268" s="38" t="s">
         <v>54</v>
       </c>
@@ -9264,7 +9267,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A269" s="38" t="s">
         <v>54</v>
       </c>
@@ -9282,7 +9285,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A270" s="38" t="s">
         <v>54</v>
       </c>
@@ -9300,7 +9303,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A271" s="38" t="s">
         <v>54</v>
       </c>
@@ -9318,7 +9321,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A272" s="38" t="s">
         <v>54</v>
       </c>
@@ -9336,7 +9339,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A273" s="38" t="s">
         <v>54</v>
       </c>
@@ -9354,7 +9357,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="38" t="s">
         <v>54</v>
       </c>
@@ -9372,7 +9375,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="38" t="s">
         <v>54</v>
       </c>
@@ -9386,7 +9389,7 @@
       <c r="E275" s="41"/>
       <c r="F275" s="41"/>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="38" t="s">
         <v>54</v>
       </c>
@@ -9400,7 +9403,7 @@
       <c r="E276" s="41"/>
       <c r="F276" s="41"/>
     </row>
-    <row r="277" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A277" s="38" t="s">
         <v>54</v>
       </c>
@@ -9418,7 +9421,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="38" t="s">
         <v>54</v>
       </c>
@@ -9436,7 +9439,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A279" s="38" t="s">
         <v>54</v>
       </c>
@@ -9454,7 +9457,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A280" s="38" t="s">
         <v>54</v>
       </c>
@@ -9472,7 +9475,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="38" t="s">
         <v>54</v>
       </c>
@@ -9490,7 +9493,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="38" t="s">
         <v>54</v>
       </c>
@@ -9508,7 +9511,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="38" t="s">
         <v>54</v>
       </c>
@@ -9526,7 +9529,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A284" s="38" t="s">
         <v>54</v>
       </c>
@@ -9544,7 +9547,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="38" t="s">
         <v>54</v>
       </c>
@@ -9558,7 +9561,7 @@
       <c r="E285" s="41"/>
       <c r="F285" s="41"/>
     </row>
-    <row r="286" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A286" s="38" t="s">
         <v>54</v>
       </c>
@@ -9576,7 +9579,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A287" s="38" t="s">
         <v>54</v>
       </c>
@@ -9594,7 +9597,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A288" s="38" t="s">
         <v>54</v>
       </c>
@@ -9612,7 +9615,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A289" s="38" t="s">
         <v>54</v>
       </c>
@@ -9630,7 +9633,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A290" s="38" t="s">
         <v>54</v>
       </c>
@@ -9648,7 +9651,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A291" s="56" t="s">
         <v>54</v>
       </c>
@@ -9666,7 +9669,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A292" s="38" t="s">
         <v>54</v>
       </c>
@@ -9684,7 +9687,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A293" s="38" t="s">
         <v>54</v>
       </c>
@@ -9702,7 +9705,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="38" t="s">
         <v>54</v>
       </c>
@@ -9716,7 +9719,7 @@
       <c r="E294" s="41"/>
       <c r="F294" s="41"/>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" s="38" t="s">
         <v>54</v>
       </c>
@@ -9730,7 +9733,7 @@
       <c r="E295" s="41"/>
       <c r="F295" s="41"/>
     </row>
-    <row r="296" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A296" s="38" t="s">
         <v>54</v>
       </c>
@@ -9748,7 +9751,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="38" t="s">
         <v>54</v>
       </c>
@@ -9766,7 +9769,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A298" s="38" t="s">
         <v>54</v>
       </c>
@@ -9784,7 +9787,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A299" s="38" t="s">
         <v>54</v>
       </c>
@@ -9802,7 +9805,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="38" t="s">
         <v>54</v>
       </c>
@@ -9820,7 +9823,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="38" t="s">
         <v>54</v>
       </c>
@@ -9838,7 +9841,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" s="38" t="s">
         <v>54</v>
       </c>
@@ -9856,7 +9859,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A303" s="38" t="s">
         <v>54</v>
       </c>
@@ -9874,7 +9877,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A304" s="38" t="s">
         <v>54</v>
       </c>
@@ -9892,7 +9895,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A305" s="38" t="s">
         <v>54</v>
       </c>
@@ -9910,7 +9913,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A306" s="38" t="s">
         <v>54</v>
       </c>
@@ -9928,7 +9931,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A307" s="38" t="s">
         <v>54</v>
       </c>
@@ -9946,7 +9949,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A308" s="38" t="s">
         <v>54</v>
       </c>
@@ -9964,7 +9967,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A309" s="56" t="s">
         <v>54</v>
       </c>
@@ -9982,7 +9985,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A310" s="38" t="s">
         <v>54</v>
       </c>
@@ -10000,7 +10003,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A311" s="38" t="s">
         <v>54</v>
       </c>
@@ -10018,7 +10021,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="38" t="s">
         <v>54</v>
       </c>
@@ -10032,7 +10035,7 @@
       <c r="E312" s="41"/>
       <c r="F312" s="41"/>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="38" t="s">
         <v>54</v>
       </c>
@@ -10046,7 +10049,7 @@
       <c r="E313" s="41"/>
       <c r="F313" s="41"/>
     </row>
-    <row r="314" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A314" s="38" t="s">
         <v>54</v>
       </c>
@@ -10064,7 +10067,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" s="38" t="s">
         <v>54</v>
       </c>
@@ -10078,7 +10081,7 @@
       <c r="E315" s="41"/>
       <c r="F315" s="41"/>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="38" t="s">
         <v>54</v>
       </c>
@@ -10096,7 +10099,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="38" t="s">
         <v>54</v>
       </c>
@@ -10114,7 +10117,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" s="38" t="s">
         <v>54</v>
       </c>
@@ -10132,7 +10135,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="319" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A319" s="38" t="s">
         <v>54</v>
       </c>
@@ -10150,7 +10153,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" s="38" t="s">
         <v>54</v>
       </c>
@@ -10168,7 +10171,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A321" s="38" t="s">
         <v>54</v>
       </c>
@@ -10186,7 +10189,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A322" s="38" t="s">
         <v>54</v>
       </c>
@@ -10204,7 +10207,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" s="38" t="s">
         <v>54</v>
       </c>
@@ -10218,7 +10221,7 @@
       <c r="E323" s="41"/>
       <c r="F323" s="41"/>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" s="38" t="s">
         <v>54</v>
       </c>
@@ -10232,7 +10235,7 @@
       <c r="E324" s="41"/>
       <c r="F324" s="41"/>
     </row>
-    <row r="325" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A325" s="38" t="s">
         <v>54</v>
       </c>
@@ -10250,7 +10253,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" s="38" t="s">
         <v>54</v>
       </c>
@@ -10268,7 +10271,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A327" s="38" t="s">
         <v>54</v>
       </c>
@@ -10286,7 +10289,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A328" s="38" t="s">
         <v>54</v>
       </c>
@@ -10304,7 +10307,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" s="38" t="s">
         <v>54</v>
       </c>
@@ -10322,7 +10325,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" s="38" t="s">
         <v>54</v>
       </c>
@@ -10340,7 +10343,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" s="38" t="s">
         <v>54</v>
       </c>
@@ -10358,7 +10361,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A332" s="38" t="s">
         <v>54</v>
       </c>
@@ -10376,7 +10379,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A333" s="38" t="s">
         <v>54</v>
       </c>
@@ -10394,7 +10397,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A334" s="38" t="s">
         <v>54</v>
       </c>
@@ -10412,7 +10415,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A335" s="38" t="s">
         <v>54</v>
       </c>
@@ -10430,7 +10433,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A336" s="38" t="s">
         <v>54</v>
       </c>
@@ -10448,7 +10451,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A337" s="38" t="s">
         <v>54</v>
       </c>
@@ -10466,7 +10469,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="338" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A338" s="56" t="s">
         <v>54</v>
       </c>
@@ -10484,7 +10487,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="339" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A339" s="38" t="s">
         <v>54</v>
       </c>
@@ -10502,7 +10505,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="340" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A340" s="38" t="s">
         <v>54</v>
       </c>
@@ -10520,7 +10523,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" s="38" t="s">
         <v>54</v>
       </c>
@@ -10534,7 +10537,7 @@
       <c r="E341" s="41"/>
       <c r="F341" s="41"/>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" s="38" t="s">
         <v>54</v>
       </c>
@@ -10548,7 +10551,7 @@
       <c r="E342" s="41"/>
       <c r="F342" s="41"/>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" s="38" t="s">
         <v>54</v>
       </c>
@@ -10562,7 +10565,7 @@
       <c r="E343" s="41"/>
       <c r="F343" s="41"/>
     </row>
-    <row r="344" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" ht="75" x14ac:dyDescent="0.3">
       <c r="A344" s="38" t="s">
         <v>54</v>
       </c>
@@ -10580,7 +10583,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="345" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A345" s="38" t="s">
         <v>54</v>
       </c>
@@ -10598,7 +10601,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="346" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A346" s="38" t="s">
         <v>54</v>
       </c>
@@ -10616,7 +10619,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" s="38" t="s">
         <v>54</v>
       </c>
@@ -10630,7 +10633,7 @@
       <c r="E347" s="41"/>
       <c r="F347" s="41"/>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" s="38" t="s">
         <v>54</v>
       </c>
@@ -10648,7 +10651,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" s="38" t="s">
         <v>54</v>
       </c>
@@ -10666,7 +10669,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" s="38" t="s">
         <v>54</v>
       </c>
@@ -10684,7 +10687,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="351" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A351" s="38" t="s">
         <v>54</v>
       </c>
@@ -10702,7 +10705,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" s="38" t="s">
         <v>54</v>
       </c>
@@ -10716,7 +10719,7 @@
       <c r="E352" s="41"/>
       <c r="F352" s="41"/>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" s="38" t="s">
         <v>54</v>
       </c>
@@ -10734,7 +10737,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" s="38" t="s">
         <v>54</v>
       </c>
@@ -10752,7 +10755,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" s="38" t="s">
         <v>54</v>
       </c>
@@ -10770,15 +10773,15 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="356" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A356" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B356" s="37" t="s">
         <v>515</v>
       </c>
-      <c r="C356" s="44" t="s">
-        <v>516</v>
+      <c r="C356" s="61" t="s">
+        <v>562</v>
       </c>
       <c r="D356" s="37" t="s">
         <v>517</v>
@@ -10788,7 +10791,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" s="38" t="s">
         <v>54</v>
       </c>
@@ -10802,7 +10805,7 @@
       <c r="E357" s="41"/>
       <c r="F357" s="41"/>
     </row>
-    <row r="358" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A358" s="38" t="s">
         <v>54</v>
       </c>
@@ -10820,7 +10823,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="359" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A359" s="38" t="s">
         <v>54</v>
       </c>
@@ -10838,7 +10841,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="360" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A360" s="38" t="s">
         <v>54</v>
       </c>
@@ -10856,7 +10859,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" s="38" t="s">
         <v>54</v>
       </c>
@@ -10870,7 +10873,7 @@
       <c r="E361" s="41"/>
       <c r="F361" s="41"/>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" s="38" t="s">
         <v>54</v>
       </c>
@@ -10888,7 +10891,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" s="38" t="s">
         <v>54</v>
       </c>
@@ -10906,7 +10909,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" s="38" t="s">
         <v>54</v>
       </c>
@@ -10920,7 +10923,7 @@
       <c r="E364" s="41"/>
       <c r="F364" s="41"/>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" s="38" t="s">
         <v>54</v>
       </c>
@@ -10938,7 +10941,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" s="38" t="s">
         <v>54</v>
       </c>
@@ -10956,7 +10959,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="367" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A367" s="38" t="s">
         <v>54</v>
       </c>
@@ -10974,7 +10977,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" s="38" t="s">
         <v>54</v>
       </c>
@@ -10992,7 +10995,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" s="38" t="s">
         <v>54</v>
       </c>
@@ -11010,7 +11013,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" s="38" t="s">
         <v>54</v>
       </c>
@@ -11024,7 +11027,7 @@
       <c r="E370" s="41"/>
       <c r="F370" s="41"/>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" s="38" t="s">
         <v>54</v>
       </c>
@@ -11038,7 +11041,7 @@
       <c r="E371" s="41"/>
       <c r="F371" s="41"/>
     </row>
-    <row r="372" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" ht="75" x14ac:dyDescent="0.3">
       <c r="A372" s="38" t="s">
         <v>54</v>
       </c>
@@ -11056,7 +11059,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="373" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A373" s="38" t="s">
         <v>54</v>
       </c>
@@ -11074,7 +11077,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" s="38" t="s">
         <v>54</v>
       </c>
@@ -11092,7 +11095,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375" s="38" t="s">
         <v>54</v>
       </c>
@@ -11106,7 +11109,7 @@
       <c r="E375" s="41"/>
       <c r="F375" s="41"/>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" s="38" t="s">
         <v>54</v>
       </c>
@@ -11120,7 +11123,7 @@
       <c r="E376" s="41"/>
       <c r="F376" s="41"/>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" s="38" t="s">
         <v>54</v>
       </c>
@@ -11138,7 +11141,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" s="38" t="s">
         <v>54</v>
       </c>
@@ -11156,7 +11159,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="379" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A379" s="38" t="s">
         <v>54</v>
       </c>
@@ -11174,7 +11177,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="380" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A380" s="38" t="s">
         <v>54</v>
       </c>
@@ -11192,7 +11195,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A381" s="38" t="s">
         <v>54</v>
       </c>
@@ -11210,7 +11213,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="382" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A382" s="38" t="s">
         <v>54</v>
       </c>
@@ -11228,7 +11231,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383" s="38" t="s">
         <v>54</v>
       </c>
@@ -11242,7 +11245,7 @@
       <c r="E383" s="41"/>
       <c r="F383" s="41"/>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" s="38" t="s">
         <v>54</v>
       </c>
@@ -11260,7 +11263,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" s="38" t="s">
         <v>54</v>
       </c>
@@ -11278,7 +11281,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" s="38" t="s">
         <v>54</v>
       </c>
@@ -11292,7 +11295,7 @@
       <c r="E386" s="41"/>
       <c r="F386" s="41"/>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" s="38" t="s">
         <v>54</v>
       </c>
@@ -11310,7 +11313,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" s="38" t="s">
         <v>54</v>
       </c>
@@ -11328,7 +11331,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="389" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A389" s="38" t="s">
         <v>54</v>
       </c>
@@ -11346,7 +11349,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390" s="38" t="s">
         <v>54</v>
       </c>
@@ -11364,7 +11367,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" s="38" t="s">
         <v>54</v>
       </c>
@@ -11382,7 +11385,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" s="38" t="s">
         <v>54</v>
       </c>
@@ -11396,7 +11399,7 @@
       <c r="E392" s="41"/>
       <c r="F392" s="41"/>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" s="38" t="s">
         <v>54</v>
       </c>
@@ -11410,7 +11413,7 @@
       <c r="E393" s="41"/>
       <c r="F393" s="41"/>
     </row>
-    <row r="394" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A394" s="38" t="s">
         <v>54</v>
       </c>
@@ -11428,7 +11431,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="395" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A395" s="38" t="s">
         <v>54</v>
       </c>
@@ -11446,7 +11449,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A396" s="38" t="s">
         <v>54</v>
       </c>
@@ -11464,7 +11467,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397" s="38" t="s">
         <v>54</v>
       </c>
@@ -11478,7 +11481,7 @@
       <c r="E397" s="41"/>
       <c r="F397" s="41"/>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398" s="38" t="s">
         <v>54</v>
       </c>
@@ -11492,7 +11495,7 @@
       <c r="E398" s="41"/>
       <c r="F398" s="41"/>
     </row>
-    <row r="399" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A399" s="38" t="s">
         <v>54</v>
       </c>
@@ -11510,7 +11513,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="400" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A400" s="38" t="s">
         <v>54</v>
       </c>
@@ -11528,7 +11531,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A401" s="38" t="s">
         <v>54</v>
       </c>
@@ -11546,7 +11549,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="402" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A402" s="38" t="s">
         <v>54</v>
       </c>
@@ -11564,7 +11567,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="403" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A403" s="38" t="s">
         <v>54</v>
       </c>
@@ -11582,7 +11585,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="404" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A404" s="38" t="s">
         <v>54</v>
       </c>
@@ -11600,7 +11603,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A405" s="38" t="s">
         <v>54</v>
       </c>
@@ -11614,7 +11617,7 @@
       <c r="E405" s="41"/>
       <c r="F405" s="41"/>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" s="38" t="s">
         <v>54</v>
       </c>
@@ -11632,7 +11635,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407" s="38" t="s">
         <v>54</v>
       </c>
@@ -11650,7 +11653,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A408" s="38" t="s">
         <v>54</v>
       </c>
@@ -11664,7 +11667,7 @@
       <c r="E408" s="41"/>
       <c r="F408" s="41"/>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A409" s="38" t="s">
         <v>54</v>
       </c>
@@ -11682,7 +11685,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" s="38" t="s">
         <v>54</v>
       </c>
@@ -11700,7 +11703,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="411" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A411" s="38" t="s">
         <v>54</v>
       </c>
@@ -11718,7 +11721,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A412" s="38" t="s">
         <v>54</v>
       </c>
@@ -11736,7 +11739,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A413" s="38" t="s">
         <v>54</v>
       </c>
@@ -11754,7 +11757,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A414" s="38" t="s">
         <v>54</v>
       </c>
@@ -11768,7 +11771,7 @@
       <c r="E414" s="41"/>
       <c r="F414" s="41"/>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A415" s="38" t="s">
         <v>54</v>
       </c>
@@ -11782,7 +11785,7 @@
       <c r="E415" s="41"/>
       <c r="F415" s="41"/>
     </row>
-    <row r="416" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A416" s="38" t="s">
         <v>54</v>
       </c>
@@ -11800,7 +11803,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="417" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A417" s="38" t="s">
         <v>54</v>
       </c>
@@ -11818,7 +11821,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A418" s="38" t="s">
         <v>54</v>
       </c>
@@ -11836,7 +11839,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A419" s="38" t="s">
         <v>54</v>
       </c>
@@ -11850,7 +11853,7 @@
       <c r="E419" s="41"/>
       <c r="F419" s="41"/>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A420" s="38" t="s">
         <v>54</v>
       </c>
@@ -11864,7 +11867,7 @@
       <c r="E420" s="41"/>
       <c r="F420" s="41"/>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421" s="38" t="s">
         <v>54</v>
       </c>
@@ -11882,7 +11885,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A422" s="38" t="s">
         <v>54</v>
       </c>
@@ -11900,7 +11903,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A423" s="38" t="s">
         <v>54</v>
       </c>
@@ -11918,7 +11921,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="424" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A424" s="38" t="s">
         <v>54</v>
       </c>
@@ -11936,7 +11939,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A425" s="38" t="s">
         <v>54</v>
       </c>
@@ -11950,7 +11953,7 @@
       <c r="E425" s="41"/>
       <c r="F425" s="41"/>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A426" s="38" t="s">
         <v>54</v>
       </c>
@@ -11968,7 +11971,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427" s="38" t="s">
         <v>54</v>
       </c>
@@ -11986,7 +11989,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A428" s="38" t="s">
         <v>54</v>
       </c>
@@ -12004,7 +12007,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A429" s="38" t="s">
         <v>54</v>
       </c>
@@ -12018,7 +12021,7 @@
       <c r="E429" s="41"/>
       <c r="F429" s="41"/>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A430" s="38" t="s">
         <v>54</v>
       </c>
@@ -12036,7 +12039,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A431" s="38" t="s">
         <v>54</v>
       </c>
@@ -12054,7 +12057,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="432" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A432" s="38" t="s">
         <v>54</v>
       </c>
@@ -12072,7 +12075,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A433" s="38" t="s">
         <v>54</v>
       </c>
@@ -12090,7 +12093,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="434" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A434" s="38" t="s">
         <v>54</v>
       </c>
@@ -12108,7 +12111,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A435" s="38" t="s">
         <v>54</v>
       </c>
@@ -12122,7 +12125,7 @@
       <c r="E435" s="41"/>
       <c r="F435" s="41"/>
     </row>
-    <row r="436" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A436" s="38" t="s">
         <v>54</v>
       </c>
@@ -12140,7 +12143,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A437" s="38" t="s">
         <v>54</v>
       </c>
@@ -12158,7 +12161,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="438" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A438" s="38" t="s">
         <v>54</v>
       </c>
@@ -12176,7 +12179,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A439" s="38" t="s">
         <v>54</v>
       </c>
@@ -12190,7 +12193,7 @@
       <c r="E439" s="41"/>
       <c r="F439" s="41"/>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A440" s="38" t="s">
         <v>54</v>
       </c>
@@ -12208,7 +12211,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441" s="38" t="s">
         <v>54</v>
       </c>
@@ -12226,7 +12229,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A442" s="38" t="s">
         <v>54</v>
       </c>
@@ -12240,7 +12243,7 @@
       <c r="E442" s="41"/>
       <c r="F442" s="41"/>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443" s="38" t="s">
         <v>54</v>
       </c>
@@ -12258,7 +12261,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A444" s="38" t="s">
         <v>54</v>
       </c>
@@ -12272,7 +12275,7 @@
       <c r="E444" s="41"/>
       <c r="F444" s="41"/>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A445" s="38" t="s">
         <v>54</v>
       </c>
@@ -12288,7 +12291,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A446" s="38" t="s">
         <v>54</v>
       </c>
@@ -12304,7 +12307,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A447" s="38" t="s">
         <v>54</v>
       </c>
@@ -12320,7 +12323,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A448" s="38" t="s">
         <v>54</v>
       </c>
@@ -12334,7 +12337,7 @@
       <c r="E448" s="32"/>
       <c r="F448" s="41"/>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A449" s="38" t="s">
         <v>54</v>
       </c>
@@ -12350,7 +12353,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A450" s="38" t="s">
         <v>54</v>
       </c>
@@ -12366,7 +12369,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A451" s="38" t="s">
         <v>54</v>
       </c>
@@ -12380,7 +12383,7 @@
       <c r="E451" s="41"/>
       <c r="F451" s="41"/>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A452" s="38" t="s">
         <v>54</v>
       </c>
@@ -12394,7 +12397,7 @@
       <c r="E452" s="41"/>
       <c r="F452" s="41"/>
     </row>
-    <row r="453" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A453" s="38" t="s">
         <v>54</v>
       </c>
@@ -12412,7 +12415,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="454" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A454" s="38" t="s">
         <v>54</v>
       </c>
@@ -12430,7 +12433,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A455" s="38" t="s">
         <v>54</v>
       </c>
@@ -12448,7 +12451,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A456" s="38" t="s">
         <v>54</v>
       </c>
@@ -12462,7 +12465,7 @@
       <c r="E456" s="41"/>
       <c r="F456" s="41"/>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A457" s="38" t="s">
         <v>54</v>
       </c>
@@ -12476,7 +12479,7 @@
       <c r="E457" s="41"/>
       <c r="F457" s="41"/>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A458" s="38" t="s">
         <v>54</v>
       </c>
@@ -12494,7 +12497,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A459" s="38" t="s">
         <v>54</v>
       </c>
@@ -12512,7 +12515,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A460" s="38" t="s">
         <v>54</v>
       </c>
@@ -12530,7 +12533,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="461" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A461" s="38" t="s">
         <v>54</v>
       </c>
@@ -12548,7 +12551,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A462" s="38" t="s">
         <v>54</v>
       </c>
@@ -12564,7 +12567,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="463" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A463" s="38" t="s">
         <v>54</v>
       </c>
@@ -12582,7 +12585,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A464" s="38" t="s">
         <v>54</v>
       </c>
@@ -12600,7 +12603,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A465" s="38" t="s">
         <v>54</v>
       </c>
@@ -12614,7 +12617,7 @@
       <c r="E465" s="41"/>
       <c r="F465" s="41"/>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A466" s="38" t="s">
         <v>54</v>
       </c>
@@ -12632,7 +12635,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A467" s="38" t="s">
         <v>54</v>
       </c>
@@ -12650,7 +12653,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A468" s="38" t="s">
         <v>54</v>
       </c>
@@ -12664,7 +12667,7 @@
       <c r="E468" s="41"/>
       <c r="F468" s="41"/>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A469" s="38" t="s">
         <v>54</v>
       </c>
@@ -12682,7 +12685,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A470" s="38" t="s">
         <v>54</v>
       </c>
@@ -12700,7 +12703,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="471" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A471" s="38" t="s">
         <v>54</v>
       </c>
@@ -12718,7 +12721,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A472" s="38" t="s">
         <v>54</v>
       </c>
@@ -12736,7 +12739,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A473" s="38" t="s">
         <v>54</v>
       </c>
@@ -12769,18 +12772,18 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="45.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="81.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="45.09765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.59765625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="81.3984375" style="2" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="2" customWidth="1"/>
-    <col min="8" max="1025" width="8.875" style="2" customWidth="1"/>
+    <col min="8" max="1025" width="8.8984375" style="2" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>676</v>
       </c>
@@ -12803,7 +12806,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
@@ -12822,7 +12825,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>59</v>
       </c>
@@ -12841,7 +12844,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>62</v>
       </c>
@@ -12860,7 +12863,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="126" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>65</v>
       </c>
@@ -12879,7 +12882,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>690</v>
       </c>
@@ -12914,20 +12917,20 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="68.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.8984375" style="2" customWidth="1"/>
     <col min="4" max="4" width="100" style="2" customWidth="1"/>
-    <col min="5" max="5" width="42.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="42.8984375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.8984375" style="2" customWidth="1"/>
     <col min="7" max="7" width="20" style="2" customWidth="1"/>
-    <col min="8" max="1025" width="8.875" style="2" customWidth="1"/>
+    <col min="8" max="1025" width="8.8984375" style="2" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>676</v>
       </c>
@@ -12950,7 +12953,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>68</v>
       </c>
@@ -12969,7 +12972,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>71</v>
       </c>
@@ -12988,7 +12991,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>74</v>
       </c>
@@ -13007,7 +13010,7 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>76</v>
       </c>
@@ -13026,7 +13029,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>78</v>
       </c>
@@ -13045,7 +13048,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>80</v>
       </c>
@@ -13064,7 +13067,7 @@
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>702</v>
       </c>
@@ -13083,7 +13086,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>89</v>
       </c>
@@ -13102,7 +13105,7 @@
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>107</v>
       </c>
@@ -13121,7 +13124,7 @@
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>92</v>
       </c>
@@ -13140,7 +13143,7 @@
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>95</v>
       </c>
@@ -13159,7 +13162,7 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>98</v>
       </c>
@@ -13178,7 +13181,7 @@
       </c>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>101</v>
       </c>
@@ -13197,7 +13200,7 @@
       </c>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>104</v>
       </c>
@@ -13216,7 +13219,7 @@
       </c>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>110</v>
       </c>
@@ -13235,7 +13238,7 @@
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>112</v>
       </c>
@@ -13256,7 +13259,7 @@
       </c>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>715</v>
       </c>
@@ -13275,7 +13278,7 @@
       </c>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:1025" s="60" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1025" s="60" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>125</v>
       </c>
@@ -14312,7 +14315,7 @@
       <c r="AMJ19" s="59"/>
       <c r="AMK19" s="59"/>
     </row>
-    <row r="20" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>128</v>
       </c>
@@ -14331,7 +14334,7 @@
       </c>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>131</v>
       </c>
@@ -14350,7 +14353,7 @@
       </c>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>134</v>
       </c>
@@ -14369,7 +14372,7 @@
       </c>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>137</v>
       </c>
@@ -14388,7 +14391,7 @@
       </c>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>83</v>
       </c>
@@ -14407,7 +14410,7 @@
       </c>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>117</v>
       </c>
@@ -14426,7 +14429,7 @@
       </c>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>173</v>
       </c>
@@ -14445,7 +14448,7 @@
       </c>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>176</v>
       </c>
@@ -14464,7 +14467,7 @@
       </c>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>152</v>
       </c>
@@ -14483,7 +14486,7 @@
       </c>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>155</v>
       </c>
@@ -14502,7 +14505,7 @@
       </c>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>158</v>
       </c>
@@ -14521,7 +14524,7 @@
       </c>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>161</v>
       </c>
@@ -14540,7 +14543,7 @@
       </c>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>164</v>
       </c>
@@ -14559,7 +14562,7 @@
       </c>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>170</v>
       </c>
@@ -14578,7 +14581,7 @@
       </c>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>209</v>
       </c>
@@ -14597,7 +14600,7 @@
       </c>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>212</v>
       </c>
@@ -14616,7 +14619,7 @@
       </c>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>215</v>
       </c>
@@ -14635,7 +14638,7 @@
       </c>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="78" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>218</v>
       </c>
@@ -14656,7 +14659,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>452</v>
       </c>
@@ -14675,7 +14678,7 @@
       </c>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>231</v>
       </c>
@@ -14694,7 +14697,7 @@
       </c>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>225</v>
       </c>
@@ -14713,7 +14716,7 @@
       </c>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>223</v>
       </c>
@@ -14732,7 +14735,7 @@
       </c>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>230</v>
       </c>
@@ -14751,7 +14754,7 @@
       </c>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="26" t="s">
         <v>1003</v>
       </c>
@@ -14770,7 +14773,7 @@
       </c>
       <c r="G43" s="26"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="26" t="s">
         <v>1005</v>
       </c>
@@ -14789,7 +14792,7 @@
       </c>
       <c r="G44" s="26"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
         <v>1007</v>
       </c>
@@ -14808,7 +14811,7 @@
       </c>
       <c r="G45" s="26"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="26" t="s">
         <v>1010</v>
       </c>
@@ -14827,7 +14830,7 @@
       </c>
       <c r="G46" s="26"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="26" t="s">
         <v>1012</v>
       </c>
@@ -14846,7 +14849,7 @@
       </c>
       <c r="G47" s="26"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="26" t="s">
         <v>1018</v>
       </c>
@@ -14865,7 +14868,7 @@
       </c>
       <c r="G48" s="26"/>
     </row>
-    <row r="49" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A49" s="26" t="s">
         <v>1021</v>
       </c>
@@ -14884,7 +14887,7 @@
       </c>
       <c r="G49" s="26"/>
     </row>
-    <row r="50" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A50" s="26" t="s">
         <v>1024</v>
       </c>
@@ -14903,7 +14906,7 @@
       </c>
       <c r="G50" s="26"/>
     </row>
-    <row r="51" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A51" s="26" t="s">
         <v>1027</v>
       </c>
@@ -14922,7 +14925,7 @@
       </c>
       <c r="G51" s="26"/>
     </row>
-    <row r="52" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A52" s="26" t="s">
         <v>1037</v>
       </c>
@@ -14941,7 +14944,7 @@
       </c>
       <c r="G52" s="26"/>
     </row>
-    <row r="53" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A53" s="26" t="s">
         <v>1038</v>
       </c>
@@ -14960,7 +14963,7 @@
       </c>
       <c r="G53" s="26"/>
     </row>
-    <row r="54" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A54" s="26" t="s">
         <v>1058</v>
       </c>
@@ -14979,7 +14982,7 @@
       </c>
       <c r="G54" s="26"/>
     </row>
-    <row r="55" spans="1:1025" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A55" s="26" t="s">
         <v>1065</v>
       </c>
@@ -14998,7 +15001,7 @@
       </c>
       <c r="G55" s="26"/>
     </row>
-    <row r="56" spans="1:1025" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1025" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="26" t="s">
         <v>1163</v>
       </c>
@@ -16053,19 +16056,19 @@
       <selection activeCell="N60" sqref="N60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="15" customWidth="1"/>
-    <col min="2" max="2" width="47.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="2" customWidth="1"/>
-    <col min="4" max="5" width="80.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.8984375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="47.3984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.8984375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="80.8984375" style="2" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="2" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="2" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="5" customWidth="1"/>
+    <col min="8" max="256" width="8.8984375" style="2" customWidth="1"/>
+    <col min="257" max="1025" width="8.8984375" style="5" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="10" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:256" s="10" customFormat="1" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>676</v>
       </c>
@@ -16337,7 +16340,7 @@
       <c r="IU1" s="9"/>
       <c r="IV1" s="9"/>
     </row>
-    <row r="2" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>750</v>
       </c>
@@ -16356,7 +16359,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>753</v>
       </c>
@@ -16375,7 +16378,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>755</v>
       </c>
@@ -16394,7 +16397,7 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>757</v>
       </c>
@@ -16413,7 +16416,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>759</v>
       </c>
@@ -16432,7 +16435,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>762</v>
       </c>
@@ -16451,7 +16454,7 @@
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>765</v>
       </c>
@@ -16470,7 +16473,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>768</v>
       </c>
@@ -16489,7 +16492,7 @@
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>771</v>
       </c>
@@ -16508,7 +16511,7 @@
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>773</v>
       </c>
@@ -16527,7 +16530,7 @@
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>775</v>
       </c>
@@ -16546,7 +16549,7 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>778</v>
       </c>
@@ -16565,7 +16568,7 @@
       </c>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>780</v>
       </c>
@@ -16584,7 +16587,7 @@
       </c>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>782</v>
       </c>
@@ -16603,7 +16606,7 @@
       </c>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
         <v>971</v>
       </c>
@@ -16622,7 +16625,7 @@
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>965</v>
       </c>
@@ -16641,7 +16644,7 @@
       </c>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>784</v>
       </c>
@@ -16660,7 +16663,7 @@
       </c>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>786</v>
       </c>
@@ -16679,7 +16682,7 @@
       </c>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>788</v>
       </c>
@@ -16698,7 +16701,7 @@
       </c>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>790</v>
       </c>
@@ -16717,7 +16720,7 @@
       </c>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>793</v>
       </c>
@@ -16736,7 +16739,7 @@
       </c>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>795</v>
       </c>
@@ -16755,7 +16758,7 @@
       </c>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>797</v>
       </c>
@@ -16774,7 +16777,7 @@
       </c>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>799</v>
       </c>
@@ -16793,7 +16796,7 @@
       </c>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>802</v>
       </c>
@@ -16812,7 +16815,7 @@
       </c>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>804</v>
       </c>
@@ -16831,7 +16834,7 @@
       </c>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>807</v>
       </c>
@@ -16850,7 +16853,7 @@
       </c>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>809</v>
       </c>
@@ -16869,7 +16872,7 @@
       </c>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>811</v>
       </c>
@@ -16888,7 +16891,7 @@
       </c>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>813</v>
       </c>
@@ -16907,7 +16910,7 @@
       </c>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>816</v>
       </c>
@@ -16926,7 +16929,7 @@
       </c>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>819</v>
       </c>
@@ -16945,7 +16948,7 @@
       </c>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>822</v>
       </c>
@@ -16964,7 +16967,7 @@
       </c>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>825</v>
       </c>
@@ -16983,7 +16986,7 @@
       </c>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>827</v>
       </c>
@@ -17002,7 +17005,7 @@
       </c>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>830</v>
       </c>
@@ -17021,7 +17024,7 @@
       </c>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>833</v>
       </c>
@@ -17040,7 +17043,7 @@
       </c>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>836</v>
       </c>
@@ -17059,7 +17062,7 @@
       </c>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>839</v>
       </c>
@@ -17078,7 +17081,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>843</v>
       </c>
@@ -17095,7 +17098,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>846</v>
       </c>
@@ -17112,7 +17115,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>849</v>
       </c>
@@ -17131,7 +17134,7 @@
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>853</v>
       </c>
@@ -17150,7 +17153,7 @@
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>857</v>
       </c>
@@ -17169,7 +17172,7 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
     </row>
-    <row r="46" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>861</v>
       </c>
@@ -17186,7 +17189,7 @@
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>864</v>
       </c>
@@ -17203,7 +17206,7 @@
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>867</v>
       </c>
@@ -17220,7 +17223,7 @@
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="1:256" s="17" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:256" s="17" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A49" s="30" t="s">
         <v>870</v>
       </c>
@@ -17486,7 +17489,7 @@
       <c r="IU49" s="16"/>
       <c r="IV49" s="16"/>
     </row>
-    <row r="50" spans="1:256" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:256" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="30" t="s">
         <v>1134</v>
       </c>
@@ -17768,21 +17771,21 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="33.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="44.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="41.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="44.3984375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="41.3984375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.59765625" style="2" customWidth="1"/>
     <col min="7" max="7" width="29" style="2" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="2" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="5" customWidth="1"/>
+    <col min="8" max="256" width="8.8984375" style="2" customWidth="1"/>
+    <col min="257" max="1025" width="8.8984375" style="5" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>676</v>
       </c>
@@ -17805,7 +17808,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>368</v>
       </c>
@@ -17824,7 +17827,7 @@
       </c>
       <c r="G2" s="21"/>
     </row>
-    <row r="3" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>371</v>
       </c>
@@ -17843,7 +17846,7 @@
       </c>
       <c r="G3" s="21"/>
     </row>
-    <row r="4" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>374</v>
       </c>
@@ -17862,7 +17865,7 @@
       </c>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>388</v>
       </c>
@@ -17881,7 +17884,7 @@
       </c>
       <c r="G5" s="21"/>
     </row>
-    <row r="6" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>377</v>
       </c>
@@ -17900,7 +17903,7 @@
       </c>
       <c r="G6" s="21"/>
     </row>
-    <row r="7" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>380</v>
       </c>
@@ -17919,7 +17922,7 @@
       </c>
       <c r="G7" s="21"/>
     </row>
-    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>383</v>
       </c>
@@ -17938,7 +17941,7 @@
       </c>
       <c r="G8" s="21"/>
     </row>
-    <row r="9" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>386</v>
       </c>
@@ -17957,7 +17960,7 @@
       </c>
       <c r="G9" s="21"/>
     </row>
-    <row r="10" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>391</v>
       </c>
@@ -17976,7 +17979,7 @@
       </c>
       <c r="G10" s="21"/>
     </row>
-    <row r="11" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>1230</v>
       </c>
@@ -17995,7 +17998,7 @@
       </c>
       <c r="G11" s="26"/>
     </row>
-    <row r="12" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
         <v>890</v>
       </c>
@@ -18014,7 +18017,7 @@
       </c>
       <c r="G12" s="21"/>
     </row>
-    <row r="13" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
         <v>394</v>
       </c>
@@ -18033,7 +18036,7 @@
       </c>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
         <v>396</v>
       </c>
@@ -18052,7 +18055,7 @@
       </c>
       <c r="G14" s="21"/>
     </row>
-    <row r="15" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>399</v>
       </c>
@@ -18071,7 +18074,7 @@
       </c>
       <c r="G15" s="21"/>
     </row>
-    <row r="16" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
         <v>429</v>
       </c>
@@ -18094,7 +18097,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>431</v>
       </c>
@@ -18117,7 +18120,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
         <v>457</v>
       </c>
@@ -18136,7 +18139,7 @@
       </c>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
         <v>460</v>
       </c>
@@ -18155,7 +18158,7 @@
       </c>
       <c r="G19" s="21"/>
     </row>
-    <row r="20" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>463</v>
       </c>
@@ -18174,7 +18177,7 @@
       </c>
       <c r="G20" s="21"/>
     </row>
-    <row r="21" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
         <v>466</v>
       </c>
@@ -18193,7 +18196,7 @@
       </c>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
         <v>470</v>
       </c>
@@ -18212,7 +18215,7 @@
       </c>
       <c r="G22" s="21"/>
     </row>
-    <row r="23" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
         <v>417</v>
       </c>
@@ -18229,7 +18232,7 @@
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="s">
         <v>1095</v>
       </c>
@@ -18246,7 +18249,7 @@
       <c r="F24" s="26"/>
       <c r="G24" s="26"/>
     </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
         <v>1073</v>
       </c>
@@ -18263,7 +18266,7 @@
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
     </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
         <v>1101</v>
       </c>
@@ -18280,7 +18283,7 @@
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
     </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
         <v>1104</v>
       </c>
@@ -18297,7 +18300,7 @@
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
     </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>1107</v>
       </c>
@@ -18314,7 +18317,7 @@
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
     </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="s">
         <v>1110</v>
       </c>
@@ -18331,7 +18334,7 @@
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
     </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="26" t="s">
         <v>1113</v>
       </c>
@@ -18366,19 +18369,19 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="54.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="2" customWidth="1"/>
-    <col min="4" max="5" width="75.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.8984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="54.59765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.8984375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="75.59765625" style="2" customWidth="1"/>
     <col min="6" max="7" width="10.5" style="2" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="2" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="5" customWidth="1"/>
+    <col min="8" max="256" width="8.8984375" style="2" customWidth="1"/>
+    <col min="257" max="1025" width="8.8984375" style="5" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>676</v>
       </c>
@@ -18401,7 +18404,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>909</v>
       </c>
@@ -18420,7 +18423,7 @@
       </c>
       <c r="G2" s="21"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>912</v>
       </c>
@@ -18439,7 +18442,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>914</v>
       </c>
@@ -18476,21 +18479,21 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" style="11" customWidth="1"/>
-    <col min="2" max="2" width="53.375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="53.3984375" style="6" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="6" customWidth="1"/>
     <col min="4" max="4" width="44.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="31.875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="31.8984375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.8984375" style="6" customWidth="1"/>
     <col min="7" max="7" width="44.5" style="6" customWidth="1"/>
-    <col min="8" max="256" width="8.875" style="6" customWidth="1"/>
-    <col min="257" max="1025" width="8.875" style="7" customWidth="1"/>
+    <col min="8" max="256" width="8.8984375" style="6" customWidth="1"/>
+    <col min="257" max="1025" width="8.8984375" style="7" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="13" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:256" s="13" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>676</v>
       </c>
@@ -18762,7 +18765,7 @@
       <c r="IU1" s="12"/>
       <c r="IV1" s="12"/>
     </row>
-    <row r="2" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>916</v>
       </c>
@@ -18781,7 +18784,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>557</v>
       </c>
@@ -18800,7 +18803,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>494</v>
       </c>
@@ -18819,7 +18822,7 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>497</v>
       </c>
@@ -18838,7 +18841,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>500</v>
       </c>
@@ -18857,7 +18860,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:256" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:256" ht="218.4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>503</v>
       </c>
@@ -18880,7 +18883,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="8" spans="1:256" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>508</v>
       </c>
@@ -18899,7 +18902,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>511</v>
       </c>
@@ -18918,7 +18921,7 @@
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>513</v>
       </c>
@@ -18937,7 +18940,7 @@
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>514</v>
       </c>
@@ -18956,7 +18959,7 @@
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:256" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:256" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>517</v>
       </c>
@@ -18975,7 +18978,7 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>520</v>
       </c>
@@ -18993,7 +18996,7 @@
       </c>
       <c r="G13" s="21"/>
     </row>
-    <row r="14" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>526</v>
       </c>
@@ -19014,7 +19017,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="15" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>529</v>
       </c>
@@ -19033,7 +19036,7 @@
       </c>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>560</v>
       </c>
@@ -19052,7 +19055,7 @@
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>946</v>
       </c>
@@ -19071,7 +19074,7 @@
       </c>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>592</v>
       </c>
@@ -19090,7 +19093,7 @@
       </c>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>951</v>
       </c>
@@ -19113,7 +19116,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="20" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>626</v>
       </c>
@@ -19132,7 +19135,7 @@
       </c>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>628</v>
       </c>
@@ -19155,7 +19158,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="22" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>959</v>
       </c>
@@ -19178,7 +19181,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="23" spans="1:256" s="17" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:256" s="17" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>978</v>
       </c>
@@ -19444,7 +19447,7 @@
       <c r="IU23" s="16"/>
       <c r="IV23" s="16"/>
     </row>
-    <row r="24" spans="1:256" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:256" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>976</v>
       </c>
@@ -19710,7 +19713,7 @@
       <c r="IU24" s="16"/>
       <c r="IV24" s="16"/>
     </row>
-    <row r="25" spans="1:256" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:256" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>973</v>
       </c>
@@ -19978,7 +19981,7 @@
       <c r="IU25" s="16"/>
       <c r="IV25" s="16"/>
     </row>
-    <row r="26" spans="1:256" s="17" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:256" s="17" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>974</v>
       </c>
@@ -20244,7 +20247,7 @@
       <c r="IU26" s="16"/>
       <c r="IV26" s="16"/>
     </row>
-    <row r="27" spans="1:256" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:256" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
         <v>975</v>
       </c>
@@ -20510,7 +20513,7 @@
       <c r="IU27" s="16"/>
       <c r="IV27" s="16"/>
     </row>
-    <row r="28" spans="1:256" ht="63" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:256" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>1146</v>
       </c>
@@ -20531,7 +20534,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="29" spans="1:256" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>1148</v>
       </c>
@@ -20564,19 +20567,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="53.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="53.3984375" style="5" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="5" customWidth="1"/>
     <col min="4" max="5" width="44.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.8984375" style="5" customWidth="1"/>
     <col min="7" max="7" width="44.5" style="5" customWidth="1"/>
-    <col min="8" max="1025" width="8.875" style="5" customWidth="1"/>
+    <col min="8" max="1025" width="8.8984375" style="5" customWidth="1"/>
     <col min="1026" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" s="10" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:256" s="10" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>676</v>
       </c>
@@ -20848,7 +20851,7 @@
       <c r="IU1" s="9"/>
       <c r="IV1" s="9"/>
     </row>
-    <row r="2" spans="1:256" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>1067</v>
       </c>
@@ -20869,7 +20872,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="3" spans="1:256" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>1125</v>
       </c>
@@ -20890,7 +20893,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:256" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>1128</v>
       </c>

--- a/conformancelib/testdata/PIV-I_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I_ICAM_Test_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C0FE48-0D31-4F3D-A432-9BDA64039A00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC640F20-3F0D-455B-890A-609B01538831}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2991" uniqueCount="1262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2991" uniqueCount="1261">
   <si>
     <t>Card Capabilities Container</t>
   </si>
@@ -3736,9 +3736,6 @@
     <t>digestAlgorithms field value of the SignedData is in accordance with Table 3-2 of SP 800-78.</t>
   </si>
   <si>
-    <t>CARD_HOLDER_UNIQUE_IDENTIFIER_OID:15</t>
-  </si>
-  <si>
     <t>Expiration Date is within the next 15 years</t>
   </si>
   <si>
@@ -3748,9 +3745,6 @@
     <t>BER-TLV Test Assertions</t>
   </si>
   <si>
-    <t>Expiration Date is within the next 5 years</t>
-  </si>
-  <si>
     <t>Printed Information Tags 0x01, 0x02, 0x05, 0x06 are present in that order</t>
   </si>
   <si>
@@ -3818,6 +3812,9 @@
   </si>
   <si>
     <t>CCC Tag 0xFE present and after any tags from 73-4.3 and 73-4.4</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
 </sst>
 </file>
@@ -4678,7 +4675,7 @@
         <v>1193</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D2" s="32"/>
       <c r="E2" s="32"/>
@@ -4864,7 +4861,7 @@
         <v>77</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="D13" s="37" t="s">
         <v>78</v>
@@ -5303,7 +5300,7 @@
         <v>54</v>
       </c>
       <c r="B38" s="37" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C38" s="37" t="s">
         <v>716</v>
@@ -5342,7 +5339,7 @@
         <v>111</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D40" s="37" t="s">
         <v>112</v>
@@ -5930,7 +5927,7 @@
         <v>153</v>
       </c>
       <c r="C74" s="37" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="D74" s="37" t="s">
         <v>155</v>
@@ -5948,7 +5945,7 @@
         <v>156</v>
       </c>
       <c r="C75" s="39" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="D75" s="39" t="s">
         <v>1036</v>
@@ -5966,7 +5963,7 @@
         <v>159</v>
       </c>
       <c r="C76" s="39" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="D76" s="39" t="s">
         <v>1037</v>
@@ -5984,7 +5981,7 @@
         <v>162</v>
       </c>
       <c r="C77" s="37" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="D77" s="37" t="s">
         <v>158</v>
@@ -6002,7 +5999,7 @@
         <v>1038</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="D78" s="37" t="s">
         <v>161</v>
@@ -6020,7 +6017,7 @@
         <v>1039</v>
       </c>
       <c r="C79" s="37" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="D79" s="37" t="s">
         <v>164</v>
@@ -9692,7 +9689,7 @@
         <v>430</v>
       </c>
       <c r="C293" s="44" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="D293" s="37" t="s">
         <v>431</v>
@@ -10008,7 +10005,7 @@
         <v>448</v>
       </c>
       <c r="C311" s="44" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="D311" s="37" t="s">
         <v>431</v>
@@ -10510,7 +10507,7 @@
         <v>1077</v>
       </c>
       <c r="C340" s="44" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="D340" s="37" t="s">
         <v>431</v>
@@ -11192,7 +11189,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="381" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381" s="38" t="s">
         <v>54</v>
       </c>
@@ -12912,7 +12909,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AMK56"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -13037,7 +13036,7 @@
         <v>698</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
@@ -13246,10 +13245,10 @@
         <v>713</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>1234</v>
+        <v>1260</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>683</v>
@@ -14762,7 +14761,7 @@
         <v>1081</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="E43" s="26"/>
       <c r="F43" s="4" t="s">
@@ -14781,7 +14780,7 @@
         <v>1082</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="E44" s="26"/>
       <c r="F44" s="4" t="s">
@@ -14800,7 +14799,7 @@
         <v>1083</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="E45" s="26"/>
       <c r="F45" s="4" t="s">
@@ -14819,7 +14818,7 @@
         <v>1084</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="E46" s="26"/>
       <c r="F46" s="4" t="s">
@@ -14838,7 +14837,7 @@
         <v>1085</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="E47" s="26"/>
       <c r="F47" s="4" t="s">
@@ -14857,7 +14856,7 @@
         <v>1086</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="E48" s="26"/>
       <c r="F48" s="4" t="s">
@@ -14876,7 +14875,7 @@
         <v>1087</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="E49" s="26"/>
       <c r="F49" s="4" t="s">
@@ -14895,7 +14894,7 @@
         <v>1088</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="E50" s="26"/>
       <c r="F50" s="4" t="s">
@@ -14914,7 +14913,7 @@
         <v>1089</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="E51" s="26"/>
       <c r="F51" s="4" t="s">
@@ -14933,7 +14932,7 @@
         <v>1090</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="E52" s="26"/>
       <c r="F52" s="4" t="s">
@@ -14952,7 +14951,7 @@
         <v>1091</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="E53" s="26"/>
       <c r="F53" s="4" t="s">
@@ -14971,7 +14970,7 @@
         <v>1092</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="E54" s="26"/>
       <c r="F54" s="4" t="s">
@@ -18114,7 +18113,7 @@
         <v>683</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -18472,7 +18471,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -18871,7 +18870,7 @@
         <v>1153</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>683</v>
@@ -19169,7 +19168,7 @@
         <v>960</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>700</v>

--- a/conformancelib/testdata/PIV-I_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I_ICAM_Test_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC640F20-3F0D-455B-890A-609B01538831}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3CE91E-CEBB-4B79-B5FA-8BAD986B5C77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="468" yWindow="0" windowWidth="23040" windowHeight="12360" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="2" r:id="rId1"/>
@@ -3454,9 +3454,6 @@
     <t>CARDHOLDER_IRIS_IMAGES_OID</t>
   </si>
   <si>
-    <t>CARD_HOLDER_UNIQUE_IDENTIFIER_OID:2.16.840.1.101.3.6.7,X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID:2.16.840.1.101.3.6.7</t>
-  </si>
-  <si>
     <t>2.5.29.31</t>
   </si>
   <si>
@@ -3815,6 +3812,9 @@
   </si>
   <si>
     <t>15</t>
+  </si>
+  <si>
+    <t>X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID:2.16.840.1.101.3.6.8,CARD_HOLDER_UNIQUE_IDENTIFIER_OID:2.16.840.1.101.3.8.7</t>
   </si>
 </sst>
 </file>
@@ -4661,7 +4661,7 @@
         <v>53</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F1" s="33" t="s">
         <v>994</v>
@@ -4672,10 +4672,10 @@
         <v>54</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D2" s="32"/>
       <c r="E2" s="32"/>
@@ -4686,7 +4686,7 @@
         <v>54</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>0</v>
@@ -4717,7 +4717,7 @@
         <v>55</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D5" s="37" t="s">
         <v>56</v>
@@ -4843,7 +4843,7 @@
         <v>75</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="D12" s="37" t="s">
         <v>76</v>
@@ -4861,7 +4861,7 @@
         <v>77</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D13" s="37" t="s">
         <v>78</v>
@@ -4897,7 +4897,7 @@
         <v>81</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>80</v>
@@ -4912,7 +4912,7 @@
         <v>54</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C16" s="32" t="s">
         <v>1</v>
@@ -4943,7 +4943,7 @@
         <v>84</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D18" s="37" t="s">
         <v>56</v>
@@ -5015,7 +5015,7 @@
         <v>88</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D22" s="37" t="s">
         <v>89</v>
@@ -5159,7 +5159,7 @@
         <v>1010</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="D30" s="39" t="s">
         <v>1011</v>
@@ -5300,7 +5300,7 @@
         <v>54</v>
       </c>
       <c r="B38" s="37" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C38" s="37" t="s">
         <v>716</v>
@@ -5339,7 +5339,7 @@
         <v>111</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D40" s="37" t="s">
         <v>112</v>
@@ -5408,10 +5408,10 @@
         <v>54</v>
       </c>
       <c r="B44" s="37" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C44" s="32" t="s">
         <v>1176</v>
-      </c>
-      <c r="C44" s="32" t="s">
-        <v>1177</v>
       </c>
       <c r="D44" s="32"/>
       <c r="E44" s="32"/>
@@ -5439,7 +5439,7 @@
         <v>120</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D46" s="37" t="s">
         <v>56</v>
@@ -5511,10 +5511,10 @@
         <v>124</v>
       </c>
       <c r="C50" s="37" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D50" s="37" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="E50" s="37"/>
       <c r="F50" s="37" t="s">
@@ -5616,7 +5616,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="37" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C56" s="32" t="s">
         <v>2</v>
@@ -5647,7 +5647,7 @@
         <v>138</v>
       </c>
       <c r="C58" s="37" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D58" s="37" t="s">
         <v>56</v>
@@ -5719,7 +5719,7 @@
         <v>142</v>
       </c>
       <c r="C62" s="37" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="D62" s="37" t="s">
         <v>117</v>
@@ -5806,7 +5806,7 @@
         <v>54</v>
       </c>
       <c r="B67" s="37" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C67" s="32" t="s">
         <v>3</v>
@@ -5837,7 +5837,7 @@
         <v>147</v>
       </c>
       <c r="C69" s="37" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D69" s="37" t="s">
         <v>56</v>
@@ -5909,7 +5909,7 @@
         <v>151</v>
       </c>
       <c r="C73" s="37" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D73" s="37" t="s">
         <v>152</v>
@@ -5927,7 +5927,7 @@
         <v>153</v>
       </c>
       <c r="C74" s="37" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D74" s="37" t="s">
         <v>155</v>
@@ -5945,7 +5945,7 @@
         <v>156</v>
       </c>
       <c r="C75" s="39" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D75" s="39" t="s">
         <v>1036</v>
@@ -5963,7 +5963,7 @@
         <v>159</v>
       </c>
       <c r="C76" s="39" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D76" s="39" t="s">
         <v>1037</v>
@@ -5981,7 +5981,7 @@
         <v>162</v>
       </c>
       <c r="C77" s="37" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="D77" s="37" t="s">
         <v>158</v>
@@ -5999,7 +5999,7 @@
         <v>1038</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D78" s="37" t="s">
         <v>161</v>
@@ -6017,7 +6017,7 @@
         <v>1039</v>
       </c>
       <c r="C79" s="37" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="D79" s="37" t="s">
         <v>164</v>
@@ -6050,7 +6050,7 @@
         <v>54</v>
       </c>
       <c r="B81" s="37" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C81" s="32" t="s">
         <v>4</v>
@@ -6081,7 +6081,7 @@
         <v>165</v>
       </c>
       <c r="C83" s="37" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D83" s="37" t="s">
         <v>56</v>
@@ -6153,7 +6153,7 @@
         <v>169</v>
       </c>
       <c r="C87" s="37" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="D87" s="37" t="s">
         <v>170</v>
@@ -6222,7 +6222,7 @@
         <v>54</v>
       </c>
       <c r="B91" s="37" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C91" s="32" t="s">
         <v>5</v>
@@ -6253,7 +6253,7 @@
         <v>177</v>
       </c>
       <c r="C93" s="37" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D93" s="37" t="s">
         <v>56</v>
@@ -6325,10 +6325,10 @@
         <v>181</v>
       </c>
       <c r="C97" s="37" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D97" s="37" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="E97" s="37"/>
       <c r="F97" s="37" t="s">
@@ -6430,7 +6430,7 @@
         <v>54</v>
       </c>
       <c r="B103" s="37" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C103" s="32" t="s">
         <v>6</v>
@@ -6461,7 +6461,7 @@
         <v>186</v>
       </c>
       <c r="C105" s="37" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D105" s="37" t="s">
         <v>56</v>
@@ -6533,10 +6533,10 @@
         <v>190</v>
       </c>
       <c r="C109" s="37" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D109" s="37" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="E109" s="37"/>
       <c r="F109" s="37" t="s">
@@ -6638,7 +6638,7 @@
         <v>54</v>
       </c>
       <c r="B115" s="37" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C115" s="32" t="s">
         <v>7</v>
@@ -6669,7 +6669,7 @@
         <v>195</v>
       </c>
       <c r="C117" s="37" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D117" s="37" t="s">
         <v>56</v>
@@ -6741,10 +6741,10 @@
         <v>199</v>
       </c>
       <c r="C121" s="37" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D121" s="37" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="E121" s="37"/>
       <c r="F121" s="37" t="s">
@@ -6846,7 +6846,7 @@
         <v>54</v>
       </c>
       <c r="B127" s="37" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C127" s="32" t="s">
         <v>8</v>
@@ -6877,7 +6877,7 @@
         <v>204</v>
       </c>
       <c r="C129" s="37" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D129" s="37" t="s">
         <v>56</v>
@@ -6949,7 +6949,7 @@
         <v>208</v>
       </c>
       <c r="C133" s="37" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D133" s="37" t="s">
         <v>209</v>
@@ -7036,7 +7036,7 @@
         <v>54</v>
       </c>
       <c r="B138" s="37" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C138" s="32" t="s">
         <v>9</v>
@@ -7067,7 +7067,7 @@
         <v>219</v>
       </c>
       <c r="C140" s="37" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D140" s="37" t="s">
         <v>56</v>
@@ -7229,7 +7229,7 @@
         <v>1068</v>
       </c>
       <c r="C149" s="37" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D149" s="37" t="s">
         <v>231</v>
@@ -7244,7 +7244,7 @@
         <v>54</v>
       </c>
       <c r="B150" s="37" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C150" s="32" t="s">
         <v>10</v>
@@ -7258,7 +7258,7 @@
         <v>54</v>
       </c>
       <c r="B151" s="37" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C151" s="32" t="s">
         <v>11</v>
@@ -7304,7 +7304,7 @@
         <v>54</v>
       </c>
       <c r="B154" s="37" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C154" s="37" t="s">
         <v>234</v>
@@ -7320,7 +7320,7 @@
         <v>54</v>
       </c>
       <c r="B155" s="37" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C155" s="41" t="s">
         <v>14</v>
@@ -7334,7 +7334,7 @@
         <v>54</v>
       </c>
       <c r="B156" s="37" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C156" s="41" t="s">
         <v>15</v>
@@ -7348,7 +7348,7 @@
         <v>54</v>
       </c>
       <c r="B157" s="37" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C157" s="41" t="s">
         <v>16</v>
@@ -7362,7 +7362,7 @@
         <v>54</v>
       </c>
       <c r="B158" s="35" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C158" s="36" t="s">
         <v>17</v>
@@ -7376,7 +7376,7 @@
         <v>54</v>
       </c>
       <c r="B159" s="37" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C159" s="32" t="s">
         <v>18</v>
@@ -7706,7 +7706,7 @@
         <v>54</v>
       </c>
       <c r="B178" s="37" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C178" s="43" t="s">
         <v>21</v>
@@ -8018,7 +8018,7 @@
         <v>54</v>
       </c>
       <c r="B196" s="37" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C196" s="32" t="s">
         <v>24</v>
@@ -8330,7 +8330,7 @@
         <v>54</v>
       </c>
       <c r="B214" s="37" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C214" s="43" t="s">
         <v>304</v>
@@ -8866,7 +8866,7 @@
         <v>54</v>
       </c>
       <c r="B245" s="37" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C245" s="41" t="s">
         <v>27</v>
@@ -8894,10 +8894,10 @@
         <v>54</v>
       </c>
       <c r="B247" s="37" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C247" s="44" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D247" s="37" t="s">
         <v>812</v>
@@ -8912,10 +8912,10 @@
         <v>54</v>
       </c>
       <c r="B248" s="37" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C248" s="44" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D248" s="37" t="s">
         <v>815</v>
@@ -8930,10 +8930,10 @@
         <v>54</v>
       </c>
       <c r="B249" s="37" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C249" s="44" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="D249" s="37" t="s">
         <v>818</v>
@@ -8948,10 +8948,10 @@
         <v>54</v>
       </c>
       <c r="B250" s="37" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C250" s="44" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D250" s="37" t="s">
         <v>821</v>
@@ -8980,10 +8980,10 @@
         <v>54</v>
       </c>
       <c r="B252" s="37" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C252" s="37" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D252" s="37" t="s">
         <v>1066</v>
@@ -8998,10 +8998,10 @@
         <v>54</v>
       </c>
       <c r="B253" s="37" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C253" s="37" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D253" s="37" t="s">
         <v>1066</v>
@@ -9016,10 +9016,10 @@
         <v>54</v>
       </c>
       <c r="B254" s="37" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C254" s="37" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="D254" s="37" t="s">
         <v>1066</v>
@@ -9034,10 +9034,10 @@
         <v>54</v>
       </c>
       <c r="B255" s="37" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C255" s="37" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D255" s="37" t="s">
         <v>1066</v>
@@ -9052,7 +9052,7 @@
         <v>54</v>
       </c>
       <c r="B256" s="37" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C256" s="32" t="s">
         <v>30</v>
@@ -9098,7 +9098,7 @@
         <v>54</v>
       </c>
       <c r="B259" s="35" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C259" s="36" t="s">
         <v>33</v>
@@ -9112,7 +9112,7 @@
         <v>54</v>
       </c>
       <c r="B260" s="37" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C260" s="32" t="s">
         <v>1</v>
@@ -9374,7 +9374,7 @@
         <v>54</v>
       </c>
       <c r="B275" s="37" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C275" s="32" t="s">
         <v>400</v>
@@ -9441,7 +9441,7 @@
         <v>406</v>
       </c>
       <c r="C279" s="44" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D279" s="37" t="s">
         <v>374</v>
@@ -9546,10 +9546,10 @@
         <v>54</v>
       </c>
       <c r="B285" s="37" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C285" s="41" t="s">
         <v>1149</v>
-      </c>
-      <c r="C285" s="41" t="s">
-        <v>1150</v>
       </c>
       <c r="D285" s="41"/>
       <c r="E285" s="41"/>
@@ -9563,7 +9563,7 @@
         <v>416</v>
       </c>
       <c r="C286" s="37" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="D286" s="37" t="s">
         <v>417</v>
@@ -9671,7 +9671,7 @@
         <v>427</v>
       </c>
       <c r="C292" s="37" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D292" s="37" t="s">
         <v>429</v>
@@ -9689,7 +9689,7 @@
         <v>430</v>
       </c>
       <c r="C293" s="44" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D293" s="37" t="s">
         <v>431</v>
@@ -9704,7 +9704,7 @@
         <v>54</v>
       </c>
       <c r="B294" s="37" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C294" s="32" t="s">
         <v>35</v>
@@ -9879,7 +9879,7 @@
         <v>441</v>
       </c>
       <c r="C304" s="37" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="D304" s="37" t="s">
         <v>417</v>
@@ -9987,7 +9987,7 @@
         <v>447</v>
       </c>
       <c r="C310" s="37" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D310" s="37" t="s">
         <v>429</v>
@@ -10005,7 +10005,7 @@
         <v>448</v>
       </c>
       <c r="C311" s="44" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="D311" s="37" t="s">
         <v>431</v>
@@ -10020,7 +10020,7 @@
         <v>54</v>
       </c>
       <c r="B312" s="37" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C312" s="32" t="s">
         <v>8</v>
@@ -10083,10 +10083,10 @@
         <v>454</v>
       </c>
       <c r="C316" s="37" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D316" s="37" t="s">
         <v>1228</v>
-      </c>
-      <c r="D316" s="37" t="s">
-        <v>1229</v>
       </c>
       <c r="E316" s="42"/>
       <c r="F316" s="37" t="s">
@@ -10173,7 +10173,7 @@
         <v>467</v>
       </c>
       <c r="C321" s="37" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="D321" s="37" t="s">
         <v>417</v>
@@ -10206,7 +10206,7 @@
         <v>54</v>
       </c>
       <c r="B323" s="37" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C323" s="45" t="s">
         <v>37</v>
@@ -10381,7 +10381,7 @@
         <v>478</v>
       </c>
       <c r="C333" s="37" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="D333" s="37" t="s">
         <v>417</v>
@@ -10489,7 +10489,7 @@
         <v>1076</v>
       </c>
       <c r="C339" s="37" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D339" s="37" t="s">
         <v>429</v>
@@ -10507,7 +10507,7 @@
         <v>1077</v>
       </c>
       <c r="C340" s="44" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D340" s="37" t="s">
         <v>431</v>
@@ -10522,7 +10522,7 @@
         <v>54</v>
       </c>
       <c r="B341" s="35" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C341" s="47" t="s">
         <v>38</v>
@@ -10810,7 +10810,7 @@
         <v>521</v>
       </c>
       <c r="D358" s="37" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="E358" s="37"/>
       <c r="F358" s="37" t="s">
@@ -12130,7 +12130,7 @@
         <v>521</v>
       </c>
       <c r="D436" s="37" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="E436" s="37"/>
       <c r="F436" s="37" t="s">
@@ -12148,7 +12148,7 @@
         <v>640</v>
       </c>
       <c r="D437" s="37" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="E437" s="37"/>
       <c r="F437" s="37" t="s">
@@ -12738,7 +12738,7 @@
         <v>54</v>
       </c>
       <c r="B473" s="37" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C473" s="37" t="s">
         <v>545</v>
@@ -12909,7 +12909,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AMK56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="D4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -13017,7 +13017,7 @@
         <v>697</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
@@ -13036,7 +13036,7 @@
         <v>698</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
@@ -13055,7 +13055,7 @@
         <v>699</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
@@ -13093,7 +13093,7 @@
         <v>705</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
@@ -13245,10 +13245,10 @@
         <v>713</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>683</v>
@@ -13285,7 +13285,7 @@
         <v>718</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="21" t="s">
@@ -14417,7 +14417,7 @@
         <v>725</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
@@ -14474,7 +14474,7 @@
         <v>730</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4" t="s">
@@ -14569,7 +14569,7 @@
         <v>736</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4" t="s">
@@ -14588,7 +14588,7 @@
         <v>738</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4" t="s">
@@ -14685,7 +14685,7 @@
         <v>744</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4" t="s">
@@ -14761,7 +14761,7 @@
         <v>1081</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="E43" s="26"/>
       <c r="F43" s="4" t="s">
@@ -14780,7 +14780,7 @@
         <v>1082</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="E44" s="26"/>
       <c r="F44" s="4" t="s">
@@ -14799,7 +14799,7 @@
         <v>1083</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="E45" s="26"/>
       <c r="F45" s="4" t="s">
@@ -14818,7 +14818,7 @@
         <v>1084</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="E46" s="26"/>
       <c r="F46" s="4" t="s">
@@ -14837,7 +14837,7 @@
         <v>1085</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="E47" s="26"/>
       <c r="F47" s="4" t="s">
@@ -14856,7 +14856,7 @@
         <v>1086</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="E48" s="26"/>
       <c r="F48" s="4" t="s">
@@ -14875,7 +14875,7 @@
         <v>1087</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="E49" s="26"/>
       <c r="F49" s="4" t="s">
@@ -14894,7 +14894,7 @@
         <v>1088</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="E50" s="26"/>
       <c r="F50" s="4" t="s">
@@ -14913,7 +14913,7 @@
         <v>1089</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="E51" s="26"/>
       <c r="F51" s="4" t="s">
@@ -14932,7 +14932,7 @@
         <v>1090</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="E52" s="26"/>
       <c r="F52" s="4" t="s">
@@ -14951,7 +14951,7 @@
         <v>1091</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="E53" s="26"/>
       <c r="F53" s="4" t="s">
@@ -14970,7 +14970,7 @@
         <v>1092</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="E54" s="26"/>
       <c r="F54" s="4" t="s">
@@ -14999,16 +14999,16 @@
     </row>
     <row r="56" spans="1:1025" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="26" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B56" s="26" t="s">
         <v>1162</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="C56" s="26" t="s">
         <v>1163</v>
       </c>
-      <c r="C56" s="26" t="s">
+      <c r="D56" s="30" t="s">
         <v>1164</v>
-      </c>
-      <c r="D56" s="30" t="s">
-        <v>1165</v>
       </c>
       <c r="E56" s="30"/>
       <c r="F56" s="4" t="s">
@@ -16974,7 +16974,7 @@
         <v>825</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4" t="s">
@@ -17496,7 +17496,7 @@
         <v>1134</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="E50" s="58"/>
       <c r="F50" s="58"/>
@@ -17977,13 +17977,13 @@
     </row>
     <row r="11" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="B11" s="26" t="s">
         <v>1095</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>872</v>
@@ -18005,7 +18005,7 @@
         <v>890</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="21" t="s">
@@ -18081,16 +18081,16 @@
         <v>896</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F16" s="21" t="s">
         <v>683</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
@@ -18113,7 +18113,7 @@
         <v>683</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -18222,7 +18222,7 @@
         <v>907</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
@@ -18471,8 +18471,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -18481,7 +18481,7 @@
     <col min="2" max="2" width="53.3984375" style="6" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="6" customWidth="1"/>
     <col min="4" max="4" width="44.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="31.8984375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="48.09765625" style="6" customWidth="1"/>
     <col min="6" max="6" width="11.8984375" style="6" customWidth="1"/>
     <col min="7" max="7" width="44.5" style="6" customWidth="1"/>
     <col min="8" max="256" width="8.8984375" style="6" customWidth="1"/>
@@ -18867,16 +18867,16 @@
         <v>927</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>683</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="8" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
@@ -19145,7 +19145,7 @@
         <v>956</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>1140</v>
+        <v>1260</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>683</v>
@@ -19168,7 +19168,7 @@
         <v>960</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>700</v>
@@ -19723,7 +19723,7 @@
         <v>534</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -20511,13 +20511,13 @@
     </row>
     <row r="28" spans="1:256" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>916</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>521</v>
@@ -20532,13 +20532,13 @@
     </row>
     <row r="29" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>916</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>522</v>

--- a/conformancelib/testdata/PIV-I_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I_ICAM_Test_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3CE91E-CEBB-4B79-B5FA-8BAD986B5C77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C0E768-AF14-4C56-9688-9EC5F8ED788B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="468" yWindow="0" windowWidth="23040" windowHeight="12360" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="564" yWindow="0" windowWidth="23040" windowHeight="12360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2991" uniqueCount="1261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2991" uniqueCount="1262">
   <si>
     <t>Card Capabilities Container</t>
   </si>
@@ -3815,6 +3815,9 @@
   </si>
   <si>
     <t>X509_CERTIFICATE_FOR_CARD_AUTHENTICATION_OID:2.16.840.1.101.3.6.8,CARD_HOLDER_UNIQUE_IDENTIFIER_OID:2.16.840.1.101.3.8.7</t>
+  </si>
+  <si>
+    <t>Message digest from signed attributes bag matches the digest over Facial Image biometric data (excluding contents of digital signature field)</t>
   </si>
 </sst>
 </file>
@@ -4631,8 +4634,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F473"/>
   <sheetViews>
-    <sheetView topLeftCell="A352" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C356" sqref="C356"/>
+    <sheetView tabSelected="1" topLeftCell="A301" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C306" sqref="C306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -9915,7 +9918,7 @@
         <v>443</v>
       </c>
       <c r="C306" s="37" t="s">
-        <v>421</v>
+        <v>1261</v>
       </c>
       <c r="D306" s="37" t="s">
         <v>889</v>
@@ -11189,7 +11192,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A381" s="38" t="s">
         <v>54</v>
       </c>
@@ -18471,7 +18474,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -18856,7 +18859,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:256" ht="218.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:256" ht="156" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>503</v>
       </c>

--- a/conformancelib/testdata/PIV-I_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I_ICAM_Test_Cards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C0E768-AF14-4C56-9688-9EC5F8ED788B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F8D649-74D8-4A32-A3E7-F9E3A04A873B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="564" yWindow="0" windowWidth="23040" windowHeight="12360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2991" uniqueCount="1262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2996" uniqueCount="1265">
   <si>
     <t>Card Capabilities Container</t>
   </si>
@@ -3818,6 +3818,15 @@
   </si>
   <si>
     <t>Message digest from signed attributes bag matches the digest over Facial Image biometric data (excluding contents of digital signature field)</t>
+  </si>
+  <si>
+    <t>digestAlgorithm field value of the SignerInfo is in accordance with Table 3-2 of SP 800-78</t>
+  </si>
+  <si>
+    <t>10.4.2.8</t>
+  </si>
+  <si>
+    <t>The signature in the SignerInfo corresponds to the signed security object and that it is it signed with the certificate that is used to sign the CHUID.</t>
   </si>
 </sst>
 </file>
@@ -3897,7 +3906,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3973,6 +3982,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
   </fills>
@@ -4059,7 +4080,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4242,6 +4263,21 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4632,10 +4668,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F473"/>
+  <dimension ref="A1:F474"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C306" sqref="C306"/>
+    <sheetView tabSelected="1" topLeftCell="A310" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A314" sqref="A314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -10019,10 +10055,10 @@
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A312" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B312" s="37" t="s">
+      <c r="A312" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="B312" s="51" t="s">
         <v>1188</v>
       </c>
       <c r="C312" s="32" t="s">
@@ -10033,10 +10069,10 @@
       <c r="F312" s="41"/>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A313" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B313" s="37" t="s">
+      <c r="A313" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="B313" s="51" t="s">
         <v>449</v>
       </c>
       <c r="C313" s="41" t="s">
@@ -10065,10 +10101,10 @@
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A315" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B315" s="37" t="s">
+      <c r="A315" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="B315" s="51" t="s">
         <v>453</v>
       </c>
       <c r="C315" s="41" t="s">
@@ -10176,7 +10212,7 @@
         <v>467</v>
       </c>
       <c r="C321" s="37" t="s">
-        <v>1230</v>
+        <v>1262</v>
       </c>
       <c r="D321" s="37" t="s">
         <v>417</v>
@@ -10204,82 +10240,82 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A323" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B323" s="37" t="s">
+    <row r="323" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+      <c r="A323" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="B323" s="49" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C323" s="66" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D323" s="49" t="s">
+        <v>399</v>
+      </c>
+      <c r="E323" s="49"/>
+      <c r="F323" s="49" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A324" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="B324" s="51" t="s">
         <v>1187</v>
       </c>
-      <c r="C323" s="45" t="s">
+      <c r="C324" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="D323" s="41"/>
-      <c r="E323" s="41"/>
-      <c r="F323" s="41"/>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A324" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B324" s="37" t="s">
-        <v>471</v>
-      </c>
-      <c r="C324" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="D324" s="41"/>
+      <c r="D324" s="64"/>
       <c r="E324" s="41"/>
       <c r="F324" s="41"/>
     </row>
-    <row r="325" spans="1:6" ht="45" x14ac:dyDescent="0.3">
-      <c r="A325" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B325" s="37" t="s">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A325" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="B325" s="51" t="s">
+        <v>471</v>
+      </c>
+      <c r="C325" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="D325" s="64"/>
+      <c r="E325" s="41"/>
+      <c r="F325" s="41"/>
+    </row>
+    <row r="326" spans="1:6" ht="45" x14ac:dyDescent="0.3">
+      <c r="A326" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B326" s="37" t="s">
         <v>472</v>
       </c>
-      <c r="C325" s="37" t="s">
+      <c r="C326" s="37" t="s">
         <v>403</v>
       </c>
-      <c r="D325" s="37" t="s">
+      <c r="D326" s="37" t="s">
         <v>368</v>
-      </c>
-      <c r="E325" s="37"/>
-      <c r="F325" s="37" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A326" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B326" s="37" t="s">
-        <v>473</v>
-      </c>
-      <c r="C326" s="37" t="s">
-        <v>405</v>
-      </c>
-      <c r="D326" s="37" t="s">
-        <v>371</v>
       </c>
       <c r="E326" s="37"/>
       <c r="F326" s="37" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B327" s="37" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C327" s="37" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D327" s="37" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="E327" s="37"/>
       <c r="F327" s="37" t="s">
@@ -10291,31 +10327,31 @@
         <v>54</v>
       </c>
       <c r="B328" s="37" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C328" s="37" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D328" s="37" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E328" s="37"/>
       <c r="F328" s="37" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A329" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B329" s="37" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C329" s="37" t="s">
-        <v>379</v>
+        <v>409</v>
       </c>
       <c r="D329" s="37" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E329" s="37"/>
       <c r="F329" s="37" t="s">
@@ -10327,13 +10363,13 @@
         <v>54</v>
       </c>
       <c r="B330" s="37" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C330" s="37" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D330" s="37" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E330" s="37"/>
       <c r="F330" s="37" t="s">
@@ -10345,31 +10381,31 @@
         <v>54</v>
       </c>
       <c r="B331" s="37" t="s">
-        <v>1074</v>
+        <v>477</v>
       </c>
       <c r="C331" s="37" t="s">
-        <v>413</v>
+        <v>382</v>
       </c>
       <c r="D331" s="37" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E331" s="37"/>
       <c r="F331" s="37" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B332" s="37" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C332" s="37" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D332" s="37" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="E332" s="37"/>
       <c r="F332" s="37" t="s">
@@ -10381,13 +10417,13 @@
         <v>54</v>
       </c>
       <c r="B333" s="37" t="s">
-        <v>478</v>
+        <v>1075</v>
       </c>
       <c r="C333" s="37" t="s">
-        <v>1230</v>
+        <v>415</v>
       </c>
       <c r="D333" s="37" t="s">
-        <v>417</v>
+        <v>391</v>
       </c>
       <c r="E333" s="37"/>
       <c r="F333" s="37" t="s">
@@ -10399,13 +10435,13 @@
         <v>54</v>
       </c>
       <c r="B334" s="37" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C334" s="37" t="s">
-        <v>419</v>
+        <v>1230</v>
       </c>
       <c r="D334" s="37" t="s">
-        <v>1072</v>
+        <v>417</v>
       </c>
       <c r="E334" s="37"/>
       <c r="F334" s="37" t="s">
@@ -10417,49 +10453,49 @@
         <v>54</v>
       </c>
       <c r="B335" s="37" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C335" s="37" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D335" s="37" t="s">
-        <v>889</v>
+        <v>1072</v>
       </c>
       <c r="E335" s="37"/>
       <c r="F335" s="37" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="45" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A336" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B336" s="37" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C336" s="37" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D336" s="37" t="s">
-        <v>394</v>
+        <v>889</v>
       </c>
       <c r="E336" s="37"/>
       <c r="F336" s="37" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="60" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A337" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B337" s="37" t="s">
-        <v>482</v>
-      </c>
-      <c r="C337" s="44" t="s">
-        <v>425</v>
+        <v>481</v>
+      </c>
+      <c r="C337" s="37" t="s">
+        <v>423</v>
       </c>
       <c r="D337" s="37" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E337" s="37"/>
       <c r="F337" s="37" t="s">
@@ -10467,82 +10503,86 @@
       </c>
     </row>
     <row r="338" spans="1:6" ht="60" x14ac:dyDescent="0.3">
-      <c r="A338" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="B338" s="49" t="s">
+      <c r="A338" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B338" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="C338" s="44" t="s">
+        <v>425</v>
+      </c>
+      <c r="D338" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="E338" s="37"/>
+      <c r="F338" s="37" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" ht="60" x14ac:dyDescent="0.3">
+      <c r="A339" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="B339" s="49" t="s">
         <v>483</v>
       </c>
-      <c r="C338" s="53" t="s">
+      <c r="C339" s="53" t="s">
         <v>428</v>
       </c>
-      <c r="D338" s="49" t="s">
+      <c r="D339" s="49" t="s">
         <v>399</v>
       </c>
-      <c r="E338" s="49"/>
-      <c r="F338" s="49" t="s">
+      <c r="E339" s="49"/>
+      <c r="F339" s="49" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="339" spans="1:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="A339" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B339" s="37" t="s">
+    <row r="340" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+      <c r="A340" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B340" s="37" t="s">
         <v>1076</v>
       </c>
-      <c r="C339" s="37" t="s">
+      <c r="C340" s="37" t="s">
         <v>1196</v>
       </c>
-      <c r="D339" s="37" t="s">
+      <c r="D340" s="37" t="s">
         <v>429</v>
-      </c>
-      <c r="E339" s="37"/>
-      <c r="F339" s="37" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6" ht="60" x14ac:dyDescent="0.3">
-      <c r="A340" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B340" s="37" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C340" s="44" t="s">
-        <v>1242</v>
-      </c>
-      <c r="D340" s="37" t="s">
-        <v>431</v>
       </c>
       <c r="E340" s="37"/>
       <c r="F340" s="37" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A341" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B341" s="35" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C341" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="D341" s="41"/>
-      <c r="E341" s="41"/>
-      <c r="F341" s="41"/>
+      <c r="B341" s="37" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C341" s="44" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D341" s="37" t="s">
+        <v>431</v>
+      </c>
+      <c r="E341" s="37"/>
+      <c r="F341" s="37" t="s">
+        <v>1139</v>
+      </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B342" s="37">
-        <v>11.1</v>
-      </c>
-      <c r="C342" s="45" t="s">
-        <v>39</v>
+      <c r="B342" s="35" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C342" s="47" t="s">
+        <v>38</v>
       </c>
       <c r="D342" s="41"/>
       <c r="E342" s="41"/>
@@ -10552,46 +10592,42 @@
       <c r="A343" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B343" s="37" t="s">
-        <v>484</v>
-      </c>
-      <c r="C343" s="46" t="s">
-        <v>40</v>
+      <c r="B343" s="37">
+        <v>11.1</v>
+      </c>
+      <c r="C343" s="45" t="s">
+        <v>39</v>
       </c>
       <c r="D343" s="41"/>
       <c r="E343" s="41"/>
       <c r="F343" s="41"/>
     </row>
-    <row r="344" spans="1:6" ht="75" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B344" s="37" t="s">
+        <v>484</v>
+      </c>
+      <c r="C344" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D344" s="41"/>
+      <c r="E344" s="41"/>
+      <c r="F344" s="41"/>
+    </row>
+    <row r="345" spans="1:6" ht="75" x14ac:dyDescent="0.3">
+      <c r="A345" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B345" s="37" t="s">
         <v>485</v>
       </c>
-      <c r="C344" s="44" t="s">
+      <c r="C345" s="44" t="s">
         <v>486</v>
       </c>
-      <c r="D344" s="37">
+      <c r="D345" s="37">
         <v>78.3</v>
-      </c>
-      <c r="E344" s="37"/>
-      <c r="F344" s="37" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="A345" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B345" s="37" t="s">
-        <v>487</v>
-      </c>
-      <c r="C345" s="44" t="s">
-        <v>488</v>
-      </c>
-      <c r="D345" s="37">
-        <v>78.099999999999994</v>
       </c>
       <c r="E345" s="37"/>
       <c r="F345" s="37" t="s">
@@ -10603,10 +10639,10 @@
         <v>54</v>
       </c>
       <c r="B346" s="37" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C346" s="44" t="s">
-        <v>1078</v>
+        <v>488</v>
       </c>
       <c r="D346" s="37">
         <v>78.099999999999994</v>
@@ -10616,50 +10652,50 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A347" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B347" s="37" t="s">
-        <v>491</v>
-      </c>
-      <c r="C347" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="D347" s="41"/>
-      <c r="E347" s="41"/>
-      <c r="F347" s="41"/>
+        <v>489</v>
+      </c>
+      <c r="C347" s="44" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D347" s="37">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E347" s="37"/>
+      <c r="F347" s="37" t="s">
+        <v>1030</v>
+      </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B348" s="37" t="s">
-        <v>492</v>
-      </c>
-      <c r="C348" s="44" t="s">
-        <v>493</v>
-      </c>
-      <c r="D348" s="37" t="s">
-        <v>494</v>
-      </c>
-      <c r="E348" s="37"/>
-      <c r="F348" s="37" t="s">
-        <v>1030</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="C348" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D348" s="41"/>
+      <c r="E348" s="41"/>
+      <c r="F348" s="41"/>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B349" s="37" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C349" s="44" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D349" s="37" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E349" s="37"/>
       <c r="F349" s="37" t="s">
@@ -10671,81 +10707,81 @@
         <v>54</v>
       </c>
       <c r="B350" s="37" t="s">
-        <v>498</v>
-      </c>
-      <c r="C350" s="37" t="s">
-        <v>499</v>
+        <v>495</v>
+      </c>
+      <c r="C350" s="44" t="s">
+        <v>496</v>
       </c>
       <c r="D350" s="37" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E350" s="37"/>
       <c r="F350" s="37" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="351" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B351" s="37" t="s">
-        <v>501</v>
-      </c>
-      <c r="C351" s="44" t="s">
-        <v>502</v>
+        <v>498</v>
+      </c>
+      <c r="C351" s="37" t="s">
+        <v>499</v>
       </c>
       <c r="D351" s="37" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E351" s="37"/>
       <c r="F351" s="37" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A352" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B352" s="37" t="s">
-        <v>504</v>
-      </c>
-      <c r="C352" s="41" t="s">
-        <v>505</v>
-      </c>
-      <c r="D352" s="41"/>
-      <c r="E352" s="41"/>
-      <c r="F352" s="41"/>
+        <v>501</v>
+      </c>
+      <c r="C352" s="44" t="s">
+        <v>502</v>
+      </c>
+      <c r="D352" s="37" t="s">
+        <v>503</v>
+      </c>
+      <c r="E352" s="37"/>
+      <c r="F352" s="37" t="s">
+        <v>1030</v>
+      </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B353" s="37" t="s">
-        <v>506</v>
-      </c>
-      <c r="C353" s="44" t="s">
-        <v>507</v>
-      </c>
-      <c r="D353" s="37" t="s">
-        <v>508</v>
-      </c>
-      <c r="E353" s="37"/>
-      <c r="F353" s="37" t="s">
-        <v>1030</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="C353" s="41" t="s">
+        <v>505</v>
+      </c>
+      <c r="D353" s="41"/>
+      <c r="E353" s="41"/>
+      <c r="F353" s="41"/>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B354" s="37" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C354" s="44" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D354" s="37" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E354" s="37"/>
       <c r="F354" s="37" t="s">
@@ -10757,81 +10793,81 @@
         <v>54</v>
       </c>
       <c r="B355" s="37" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C355" s="44" t="s">
-        <v>976</v>
+        <v>510</v>
       </c>
       <c r="D355" s="37" t="s">
-        <v>975</v>
+        <v>511</v>
       </c>
       <c r="E355" s="37"/>
       <c r="F355" s="37" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="356" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B356" s="37" t="s">
-        <v>515</v>
-      </c>
-      <c r="C356" s="61" t="s">
-        <v>561</v>
+        <v>512</v>
+      </c>
+      <c r="C356" s="44" t="s">
+        <v>976</v>
       </c>
       <c r="D356" s="37" t="s">
-        <v>516</v>
+        <v>975</v>
       </c>
       <c r="E356" s="37"/>
       <c r="F356" s="37" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A357" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B357" s="37" t="s">
+        <v>515</v>
+      </c>
+      <c r="C357" s="61" t="s">
+        <v>561</v>
+      </c>
+      <c r="D357" s="37" t="s">
+        <v>516</v>
+      </c>
+      <c r="E357" s="37"/>
+      <c r="F357" s="37" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A358" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B358" s="37" t="s">
         <v>517</v>
       </c>
-      <c r="C357" s="41" t="s">
+      <c r="C358" s="41" t="s">
         <v>518</v>
       </c>
-      <c r="D357" s="41"/>
-      <c r="E357" s="41"/>
-      <c r="F357" s="41"/>
-    </row>
-    <row r="358" spans="1:6" ht="45" x14ac:dyDescent="0.3">
-      <c r="A358" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B358" s="37" t="s">
+      <c r="D358" s="41"/>
+      <c r="E358" s="41"/>
+      <c r="F358" s="41"/>
+    </row>
+    <row r="359" spans="1:6" ht="45" x14ac:dyDescent="0.3">
+      <c r="A359" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B359" s="37" t="s">
         <v>520</v>
       </c>
-      <c r="C358" s="44" t="s">
+      <c r="C359" s="44" t="s">
         <v>521</v>
       </c>
-      <c r="D358" s="37" t="s">
+      <c r="D359" s="37" t="s">
         <v>1144</v>
-      </c>
-      <c r="E358" s="37"/>
-      <c r="F358" s="37" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="359" spans="1:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="A359" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B359" s="37" t="s">
-        <v>523</v>
-      </c>
-      <c r="C359" s="44" t="s">
-        <v>524</v>
-      </c>
-      <c r="D359" s="37" t="s">
-        <v>525</v>
       </c>
       <c r="E359" s="37"/>
       <c r="F359" s="37" t="s">
@@ -10843,63 +10879,63 @@
         <v>54</v>
       </c>
       <c r="B360" s="37" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C360" s="44" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D360" s="37" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E360" s="37"/>
       <c r="F360" s="37" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A361" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B361" s="37" t="s">
-        <v>529</v>
-      </c>
-      <c r="C361" s="41" t="s">
-        <v>530</v>
-      </c>
-      <c r="D361" s="41"/>
-      <c r="E361" s="41"/>
-      <c r="F361" s="41"/>
+        <v>526</v>
+      </c>
+      <c r="C361" s="44" t="s">
+        <v>527</v>
+      </c>
+      <c r="D361" s="37" t="s">
+        <v>528</v>
+      </c>
+      <c r="E361" s="37"/>
+      <c r="F361" s="37" t="s">
+        <v>1030</v>
+      </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B362" s="37" t="s">
-        <v>531</v>
-      </c>
-      <c r="C362" s="44" t="s">
-        <v>532</v>
-      </c>
-      <c r="D362" s="37" t="s">
-        <v>513</v>
-      </c>
-      <c r="E362" s="37"/>
-      <c r="F362" s="37" t="s">
-        <v>1030</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="C362" s="41" t="s">
+        <v>530</v>
+      </c>
+      <c r="D362" s="41"/>
+      <c r="E362" s="41"/>
+      <c r="F362" s="41"/>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B363" s="37" t="s">
-        <v>533</v>
-      </c>
-      <c r="C363" s="37" t="s">
-        <v>534</v>
+        <v>531</v>
+      </c>
+      <c r="C363" s="44" t="s">
+        <v>532</v>
       </c>
       <c r="D363" s="37" t="s">
-        <v>972</v>
+        <v>513</v>
       </c>
       <c r="E363" s="37"/>
       <c r="F363" s="37" t="s">
@@ -10911,81 +10947,81 @@
         <v>54</v>
       </c>
       <c r="B364" s="37" t="s">
-        <v>535</v>
-      </c>
-      <c r="C364" s="41" t="s">
-        <v>536</v>
-      </c>
-      <c r="D364" s="41"/>
-      <c r="E364" s="41"/>
-      <c r="F364" s="41"/>
+        <v>533</v>
+      </c>
+      <c r="C364" s="37" t="s">
+        <v>534</v>
+      </c>
+      <c r="D364" s="37" t="s">
+        <v>972</v>
+      </c>
+      <c r="E364" s="37"/>
+      <c r="F364" s="37" t="s">
+        <v>1030</v>
+      </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B365" s="37" t="s">
-        <v>537</v>
-      </c>
-      <c r="C365" s="44" t="s">
-        <v>507</v>
-      </c>
-      <c r="D365" s="37" t="s">
-        <v>508</v>
-      </c>
-      <c r="E365" s="37"/>
-      <c r="F365" s="37" t="s">
-        <v>1030</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="C365" s="41" t="s">
+        <v>536</v>
+      </c>
+      <c r="D365" s="41"/>
+      <c r="E365" s="41"/>
+      <c r="F365" s="41"/>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B366" s="37" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C366" s="44" t="s">
-        <v>539</v>
+        <v>507</v>
       </c>
       <c r="D366" s="37" t="s">
-        <v>977</v>
-      </c>
-      <c r="E366" s="42"/>
+        <v>508</v>
+      </c>
+      <c r="E366" s="37"/>
       <c r="F366" s="37" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="367" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B367" s="37" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C367" s="44" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D367" s="37" t="s">
-        <v>513</v>
-      </c>
-      <c r="E367" s="37"/>
+        <v>977</v>
+      </c>
+      <c r="E367" s="42"/>
       <c r="F367" s="37" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A368" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B368" s="37" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C368" s="44" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D368" s="37" t="s">
-        <v>975</v>
+        <v>513</v>
       </c>
       <c r="E368" s="37"/>
       <c r="F368" s="37" t="s">
@@ -10997,13 +11033,13 @@
         <v>54</v>
       </c>
       <c r="B369" s="37" t="s">
-        <v>544</v>
-      </c>
-      <c r="C369" s="37" t="s">
-        <v>545</v>
+        <v>542</v>
+      </c>
+      <c r="C369" s="44" t="s">
+        <v>543</v>
       </c>
       <c r="D369" s="37" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="E369" s="37"/>
       <c r="F369" s="37" t="s">
@@ -11014,78 +11050,78 @@
       <c r="A370" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B370" s="37">
-        <v>11.2</v>
-      </c>
-      <c r="C370" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="D370" s="41"/>
-      <c r="E370" s="41"/>
-      <c r="F370" s="41"/>
+      <c r="B370" s="37" t="s">
+        <v>544</v>
+      </c>
+      <c r="C370" s="37" t="s">
+        <v>545</v>
+      </c>
+      <c r="D370" s="37" t="s">
+        <v>973</v>
+      </c>
+      <c r="E370" s="37"/>
+      <c r="F370" s="37" t="s">
+        <v>1030</v>
+      </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B371" s="37" t="s">
-        <v>546</v>
-      </c>
-      <c r="C371" s="41" t="s">
-        <v>40</v>
+      <c r="B371" s="37">
+        <v>11.2</v>
+      </c>
+      <c r="C371" s="32" t="s">
+        <v>42</v>
       </c>
       <c r="D371" s="41"/>
       <c r="E371" s="41"/>
       <c r="F371" s="41"/>
     </row>
-    <row r="372" spans="1:6" ht="75" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B372" s="37" t="s">
+        <v>546</v>
+      </c>
+      <c r="C372" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D372" s="41"/>
+      <c r="E372" s="41"/>
+      <c r="F372" s="41"/>
+    </row>
+    <row r="373" spans="1:6" ht="75" x14ac:dyDescent="0.3">
+      <c r="A373" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B373" s="37" t="s">
         <v>547</v>
       </c>
-      <c r="C372" s="44" t="s">
+      <c r="C373" s="44" t="s">
         <v>486</v>
       </c>
-      <c r="D372" s="37" t="s">
+      <c r="D373" s="37" t="s">
         <v>913</v>
-      </c>
-      <c r="E372" s="37"/>
-      <c r="F372" s="37" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="373" spans="1:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="A373" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B373" s="37" t="s">
-        <v>548</v>
-      </c>
-      <c r="C373" s="44" t="s">
-        <v>549</v>
-      </c>
-      <c r="D373" s="37" t="s">
-        <v>908</v>
       </c>
       <c r="E373" s="37"/>
       <c r="F373" s="37" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A374" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B374" s="37" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C374" s="44" t="s">
-        <v>490</v>
-      </c>
-      <c r="D374" s="37">
-        <v>78.099999999999994</v>
+        <v>549</v>
+      </c>
+      <c r="D374" s="37" t="s">
+        <v>908</v>
       </c>
       <c r="E374" s="37"/>
       <c r="F374" s="37" t="s">
@@ -11097,24 +11133,28 @@
         <v>54</v>
       </c>
       <c r="B375" s="37" t="s">
-        <v>551</v>
-      </c>
-      <c r="C375" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="D375" s="41"/>
-      <c r="E375" s="41"/>
-      <c r="F375" s="41"/>
+        <v>550</v>
+      </c>
+      <c r="C375" s="44" t="s">
+        <v>490</v>
+      </c>
+      <c r="D375" s="37">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E375" s="37"/>
+      <c r="F375" s="37" t="s">
+        <v>1045</v>
+      </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B376" s="37" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C376" s="41" t="s">
-        <v>553</v>
+        <v>41</v>
       </c>
       <c r="D376" s="41"/>
       <c r="E376" s="41"/>
@@ -11125,49 +11165,45 @@
         <v>54</v>
       </c>
       <c r="B377" s="37" t="s">
-        <v>554</v>
-      </c>
-      <c r="C377" s="37" t="s">
-        <v>555</v>
-      </c>
-      <c r="D377" s="37" t="s">
-        <v>556</v>
-      </c>
-      <c r="E377" s="37"/>
-      <c r="F377" s="37" t="s">
-        <v>1045</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="C377" s="41" t="s">
+        <v>553</v>
+      </c>
+      <c r="D377" s="41"/>
+      <c r="E377" s="41"/>
+      <c r="F377" s="41"/>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B378" s="37" t="s">
-        <v>557</v>
-      </c>
-      <c r="C378" s="44" t="s">
-        <v>558</v>
+        <v>554</v>
+      </c>
+      <c r="C378" s="37" t="s">
+        <v>555</v>
       </c>
       <c r="D378" s="37" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E378" s="37"/>
       <c r="F378" s="37" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="379" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B379" s="37" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C379" s="44" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D379" s="37" t="s">
-        <v>516</v>
+        <v>559</v>
       </c>
       <c r="E379" s="37"/>
       <c r="F379" s="37" t="s">
@@ -11179,13 +11215,13 @@
         <v>54</v>
       </c>
       <c r="B380" s="37" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C380" s="44" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D380" s="37" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="E380" s="37"/>
       <c r="F380" s="37" t="s">
@@ -11197,13 +11233,13 @@
         <v>54</v>
       </c>
       <c r="B381" s="37" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C381" s="44" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D381" s="37" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E381" s="37"/>
       <c r="F381" s="37" t="s">
@@ -11215,63 +11251,63 @@
         <v>54</v>
       </c>
       <c r="B382" s="37" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C382" s="44" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D382" s="37" t="s">
-        <v>503</v>
+        <v>528</v>
       </c>
       <c r="E382" s="37"/>
       <c r="F382" s="37" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A383" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B383" s="37" t="s">
-        <v>568</v>
-      </c>
-      <c r="C383" s="41" t="s">
-        <v>530</v>
-      </c>
-      <c r="D383" s="41"/>
-      <c r="E383" s="41"/>
-      <c r="F383" s="41"/>
+        <v>566</v>
+      </c>
+      <c r="C383" s="44" t="s">
+        <v>567</v>
+      </c>
+      <c r="D383" s="37" t="s">
+        <v>503</v>
+      </c>
+      <c r="E383" s="37"/>
+      <c r="F383" s="37" t="s">
+        <v>1045</v>
+      </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B384" s="37" t="s">
-        <v>569</v>
-      </c>
-      <c r="C384" s="44" t="s">
-        <v>532</v>
-      </c>
-      <c r="D384" s="37" t="s">
-        <v>513</v>
-      </c>
-      <c r="E384" s="37"/>
-      <c r="F384" s="37" t="s">
-        <v>1045</v>
-      </c>
+        <v>568</v>
+      </c>
+      <c r="C384" s="41" t="s">
+        <v>530</v>
+      </c>
+      <c r="D384" s="41"/>
+      <c r="E384" s="41"/>
+      <c r="F384" s="41"/>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B385" s="37" t="s">
-        <v>570</v>
-      </c>
-      <c r="C385" s="37" t="s">
-        <v>534</v>
+        <v>569</v>
+      </c>
+      <c r="C385" s="44" t="s">
+        <v>532</v>
       </c>
       <c r="D385" s="37" t="s">
-        <v>972</v>
+        <v>513</v>
       </c>
       <c r="E385" s="37"/>
       <c r="F385" s="37" t="s">
@@ -11283,81 +11319,81 @@
         <v>54</v>
       </c>
       <c r="B386" s="37" t="s">
-        <v>571</v>
-      </c>
-      <c r="C386" s="41" t="s">
-        <v>536</v>
-      </c>
-      <c r="D386" s="41"/>
-      <c r="E386" s="41"/>
-      <c r="F386" s="41"/>
+        <v>570</v>
+      </c>
+      <c r="C386" s="37" t="s">
+        <v>534</v>
+      </c>
+      <c r="D386" s="37" t="s">
+        <v>972</v>
+      </c>
+      <c r="E386" s="37"/>
+      <c r="F386" s="37" t="s">
+        <v>1045</v>
+      </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B387" s="37" t="s">
-        <v>572</v>
-      </c>
-      <c r="C387" s="44" t="s">
-        <v>507</v>
-      </c>
-      <c r="D387" s="37" t="s">
-        <v>508</v>
-      </c>
-      <c r="E387" s="37"/>
-      <c r="F387" s="37" t="s">
-        <v>1045</v>
-      </c>
+        <v>571</v>
+      </c>
+      <c r="C387" s="41" t="s">
+        <v>536</v>
+      </c>
+      <c r="D387" s="41"/>
+      <c r="E387" s="41"/>
+      <c r="F387" s="41"/>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B388" s="37" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C388" s="44" t="s">
-        <v>574</v>
+        <v>507</v>
       </c>
       <c r="D388" s="37" t="s">
-        <v>977</v>
-      </c>
-      <c r="E388" s="42"/>
+        <v>508</v>
+      </c>
+      <c r="E388" s="37"/>
       <c r="F388" s="37" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="389" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B389" s="37" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C389" s="44" t="s">
-        <v>541</v>
+        <v>574</v>
       </c>
       <c r="D389" s="37" t="s">
-        <v>513</v>
-      </c>
-      <c r="E389" s="37"/>
+        <v>977</v>
+      </c>
+      <c r="E389" s="42"/>
       <c r="F389" s="37" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A390" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B390" s="37" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C390" s="44" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D390" s="37" t="s">
-        <v>975</v>
+        <v>513</v>
       </c>
       <c r="E390" s="37"/>
       <c r="F390" s="37" t="s">
@@ -11369,13 +11405,13 @@
         <v>54</v>
       </c>
       <c r="B391" s="37" t="s">
-        <v>577</v>
-      </c>
-      <c r="C391" s="37" t="s">
-        <v>545</v>
+        <v>576</v>
+      </c>
+      <c r="C391" s="44" t="s">
+        <v>543</v>
       </c>
       <c r="D391" s="37" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="E391" s="37"/>
       <c r="F391" s="37" t="s">
@@ -11386,78 +11422,78 @@
       <c r="A392" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B392" s="37">
-        <v>11.3</v>
-      </c>
-      <c r="C392" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="D392" s="41"/>
-      <c r="E392" s="41"/>
-      <c r="F392" s="41"/>
+      <c r="B392" s="37" t="s">
+        <v>577</v>
+      </c>
+      <c r="C392" s="37" t="s">
+        <v>545</v>
+      </c>
+      <c r="D392" s="37" t="s">
+        <v>973</v>
+      </c>
+      <c r="E392" s="37"/>
+      <c r="F392" s="37" t="s">
+        <v>1045</v>
+      </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B393" s="37" t="s">
-        <v>578</v>
-      </c>
-      <c r="C393" s="41" t="s">
-        <v>40</v>
+      <c r="B393" s="37">
+        <v>11.3</v>
+      </c>
+      <c r="C393" s="32" t="s">
+        <v>43</v>
       </c>
       <c r="D393" s="41"/>
       <c r="E393" s="41"/>
       <c r="F393" s="41"/>
     </row>
-    <row r="394" spans="1:6" ht="60" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A394" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B394" s="37" t="s">
+        <v>578</v>
+      </c>
+      <c r="C394" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D394" s="41"/>
+      <c r="E394" s="41"/>
+      <c r="F394" s="41"/>
+    </row>
+    <row r="395" spans="1:6" ht="60" x14ac:dyDescent="0.3">
+      <c r="A395" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B395" s="37" t="s">
         <v>579</v>
       </c>
-      <c r="C394" s="44" t="s">
+      <c r="C395" s="44" t="s">
         <v>580</v>
       </c>
-      <c r="D394" s="37">
+      <c r="D395" s="37">
         <v>78.3</v>
-      </c>
-      <c r="E394" s="37"/>
-      <c r="F394" s="37" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="395" spans="1:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="A395" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B395" s="37" t="s">
-        <v>581</v>
-      </c>
-      <c r="C395" s="37" t="s">
-        <v>582</v>
-      </c>
-      <c r="D395" s="37" t="s">
-        <v>908</v>
       </c>
       <c r="E395" s="37"/>
       <c r="F395" s="37" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A396" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B396" s="37" t="s">
-        <v>583</v>
-      </c>
-      <c r="C396" s="44" t="s">
-        <v>584</v>
-      </c>
-      <c r="D396" s="37">
-        <v>78.099999999999994</v>
+        <v>581</v>
+      </c>
+      <c r="C396" s="37" t="s">
+        <v>582</v>
+      </c>
+      <c r="D396" s="37" t="s">
+        <v>908</v>
       </c>
       <c r="E396" s="37"/>
       <c r="F396" s="37" t="s">
@@ -11469,95 +11505,95 @@
         <v>54</v>
       </c>
       <c r="B397" s="37" t="s">
-        <v>585</v>
-      </c>
-      <c r="C397" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="D397" s="41"/>
-      <c r="E397" s="41"/>
-      <c r="F397" s="41"/>
+        <v>583</v>
+      </c>
+      <c r="C397" s="44" t="s">
+        <v>584</v>
+      </c>
+      <c r="D397" s="37">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E397" s="37"/>
+      <c r="F397" s="37" t="s">
+        <v>1048</v>
+      </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B398" s="37" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C398" s="41" t="s">
-        <v>553</v>
+        <v>41</v>
       </c>
       <c r="D398" s="41"/>
       <c r="E398" s="41"/>
       <c r="F398" s="41"/>
     </row>
-    <row r="399" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B399" s="37" t="s">
-        <v>587</v>
-      </c>
-      <c r="C399" s="44" t="s">
-        <v>588</v>
-      </c>
-      <c r="D399" s="37" t="s">
-        <v>945</v>
-      </c>
-      <c r="E399" s="37"/>
-      <c r="F399" s="37" t="s">
-        <v>1048</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="C399" s="41" t="s">
+        <v>553</v>
+      </c>
+      <c r="D399" s="41"/>
+      <c r="E399" s="41"/>
+      <c r="F399" s="41"/>
     </row>
     <row r="400" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A400" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B400" s="37" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C400" s="44" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D400" s="37" t="s">
-        <v>591</v>
+        <v>945</v>
       </c>
       <c r="E400" s="37"/>
       <c r="F400" s="37" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A401" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B401" s="37" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C401" s="44" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D401" s="37" t="s">
-        <v>497</v>
+        <v>591</v>
       </c>
       <c r="E401" s="37"/>
       <c r="F401" s="37" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="402" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A402" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B402" s="37" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C402" s="44" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D402" s="37" t="s">
-        <v>516</v>
+        <v>497</v>
       </c>
       <c r="E402" s="37"/>
       <c r="F402" s="37" t="s">
@@ -11569,13 +11605,13 @@
         <v>54</v>
       </c>
       <c r="B403" s="37" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C403" s="44" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D403" s="37" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="E403" s="37"/>
       <c r="F403" s="37" t="s">
@@ -11587,63 +11623,63 @@
         <v>54</v>
       </c>
       <c r="B404" s="37" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C404" s="44" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
       <c r="D404" s="37" t="s">
-        <v>503</v>
+        <v>528</v>
       </c>
       <c r="E404" s="37"/>
       <c r="F404" s="37" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A405" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B405" s="37" t="s">
-        <v>599</v>
-      </c>
-      <c r="C405" s="41" t="s">
-        <v>530</v>
-      </c>
-      <c r="D405" s="41"/>
-      <c r="E405" s="41"/>
-      <c r="F405" s="41"/>
+        <v>598</v>
+      </c>
+      <c r="C405" s="44" t="s">
+        <v>567</v>
+      </c>
+      <c r="D405" s="37" t="s">
+        <v>503</v>
+      </c>
+      <c r="E405" s="37"/>
+      <c r="F405" s="37" t="s">
+        <v>1048</v>
+      </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B406" s="37" t="s">
-        <v>600</v>
-      </c>
-      <c r="C406" s="44" t="s">
-        <v>532</v>
-      </c>
-      <c r="D406" s="37" t="s">
-        <v>513</v>
-      </c>
-      <c r="E406" s="37"/>
-      <c r="F406" s="37" t="s">
-        <v>1048</v>
-      </c>
+        <v>599</v>
+      </c>
+      <c r="C406" s="41" t="s">
+        <v>530</v>
+      </c>
+      <c r="D406" s="41"/>
+      <c r="E406" s="41"/>
+      <c r="F406" s="41"/>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B407" s="37" t="s">
-        <v>601</v>
-      </c>
-      <c r="C407" s="37" t="s">
-        <v>534</v>
+        <v>600</v>
+      </c>
+      <c r="C407" s="44" t="s">
+        <v>532</v>
       </c>
       <c r="D407" s="37" t="s">
-        <v>972</v>
+        <v>513</v>
       </c>
       <c r="E407" s="37"/>
       <c r="F407" s="37" t="s">
@@ -11655,81 +11691,81 @@
         <v>54</v>
       </c>
       <c r="B408" s="37" t="s">
-        <v>602</v>
-      </c>
-      <c r="C408" s="41" t="s">
-        <v>536</v>
-      </c>
-      <c r="D408" s="41"/>
-      <c r="E408" s="41"/>
-      <c r="F408" s="41"/>
+        <v>601</v>
+      </c>
+      <c r="C408" s="37" t="s">
+        <v>534</v>
+      </c>
+      <c r="D408" s="37" t="s">
+        <v>972</v>
+      </c>
+      <c r="E408" s="37"/>
+      <c r="F408" s="37" t="s">
+        <v>1048</v>
+      </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A409" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B409" s="37" t="s">
-        <v>603</v>
-      </c>
-      <c r="C409" s="44" t="s">
-        <v>507</v>
-      </c>
-      <c r="D409" s="37" t="s">
-        <v>508</v>
-      </c>
-      <c r="E409" s="37"/>
-      <c r="F409" s="37" t="s">
-        <v>1048</v>
-      </c>
+        <v>602</v>
+      </c>
+      <c r="C409" s="41" t="s">
+        <v>536</v>
+      </c>
+      <c r="D409" s="41"/>
+      <c r="E409" s="41"/>
+      <c r="F409" s="41"/>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B410" s="37" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C410" s="44" t="s">
-        <v>574</v>
+        <v>507</v>
       </c>
       <c r="D410" s="37" t="s">
-        <v>977</v>
-      </c>
-      <c r="E410" s="42"/>
+        <v>508</v>
+      </c>
+      <c r="E410" s="37"/>
       <c r="F410" s="37" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="411" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A411" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B411" s="37" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C411" s="44" t="s">
-        <v>541</v>
+        <v>574</v>
       </c>
       <c r="D411" s="37" t="s">
-        <v>513</v>
-      </c>
-      <c r="E411" s="37"/>
+        <v>977</v>
+      </c>
+      <c r="E411" s="42"/>
       <c r="F411" s="37" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A412" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B412" s="37" t="s">
-        <v>606</v>
-      </c>
-      <c r="C412" s="37" t="s">
-        <v>543</v>
+        <v>605</v>
+      </c>
+      <c r="C412" s="44" t="s">
+        <v>541</v>
       </c>
       <c r="D412" s="37" t="s">
-        <v>975</v>
+        <v>513</v>
       </c>
       <c r="E412" s="37"/>
       <c r="F412" s="37" t="s">
@@ -11741,13 +11777,13 @@
         <v>54</v>
       </c>
       <c r="B413" s="37" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C413" s="37" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D413" s="37" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="E413" s="37"/>
       <c r="F413" s="37" t="s">
@@ -11758,75 +11794,75 @@
       <c r="A414" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B414" s="37">
-        <v>11.4</v>
-      </c>
-      <c r="C414" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="D414" s="41"/>
-      <c r="E414" s="41"/>
-      <c r="F414" s="41"/>
+      <c r="B414" s="37" t="s">
+        <v>607</v>
+      </c>
+      <c r="C414" s="37" t="s">
+        <v>545</v>
+      </c>
+      <c r="D414" s="37" t="s">
+        <v>973</v>
+      </c>
+      <c r="E414" s="37"/>
+      <c r="F414" s="37" t="s">
+        <v>1048</v>
+      </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A415" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B415" s="37" t="s">
-        <v>608</v>
-      </c>
-      <c r="C415" s="41" t="s">
-        <v>40</v>
+      <c r="B415" s="37">
+        <v>11.4</v>
+      </c>
+      <c r="C415" s="32" t="s">
+        <v>44</v>
       </c>
       <c r="D415" s="41"/>
       <c r="E415" s="41"/>
       <c r="F415" s="41"/>
     </row>
-    <row r="416" spans="1:6" ht="60" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A416" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B416" s="37" t="s">
+        <v>608</v>
+      </c>
+      <c r="C416" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D416" s="41"/>
+      <c r="E416" s="41"/>
+      <c r="F416" s="41"/>
+    </row>
+    <row r="417" spans="1:6" ht="60" x14ac:dyDescent="0.3">
+      <c r="A417" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B417" s="37" t="s">
         <v>609</v>
       </c>
-      <c r="C416" s="44" t="s">
+      <c r="C417" s="44" t="s">
         <v>580</v>
       </c>
-      <c r="D416" s="37">
+      <c r="D417" s="37">
         <v>78.3</v>
       </c>
-      <c r="E416" s="4"/>
-      <c r="F416" s="37" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="417" spans="1:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="A417" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B417" s="37" t="s">
-        <v>610</v>
-      </c>
-      <c r="C417" s="44" t="s">
-        <v>611</v>
-      </c>
-      <c r="D417" s="37">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="E417" s="37"/>
+      <c r="E417" s="4"/>
       <c r="F417" s="37" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A418" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B418" s="37" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C418" s="44" t="s">
-        <v>584</v>
+        <v>611</v>
       </c>
       <c r="D418" s="37">
         <v>78.099999999999994</v>
@@ -11841,24 +11877,28 @@
         <v>54</v>
       </c>
       <c r="B419" s="37" t="s">
-        <v>613</v>
-      </c>
-      <c r="C419" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="D419" s="41"/>
-      <c r="E419" s="41"/>
-      <c r="F419" s="41"/>
+        <v>612</v>
+      </c>
+      <c r="C419" s="44" t="s">
+        <v>584</v>
+      </c>
+      <c r="D419" s="37">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E419" s="37"/>
+      <c r="F419" s="37" t="s">
+        <v>1051</v>
+      </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A420" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B420" s="37" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C420" s="41" t="s">
-        <v>553</v>
+        <v>41</v>
       </c>
       <c r="D420" s="41"/>
       <c r="E420" s="41"/>
@@ -11869,31 +11909,27 @@
         <v>54</v>
       </c>
       <c r="B421" s="37" t="s">
-        <v>615</v>
-      </c>
-      <c r="C421" s="37" t="s">
-        <v>555</v>
-      </c>
-      <c r="D421" s="37" t="s">
-        <v>556</v>
-      </c>
-      <c r="E421" s="37"/>
-      <c r="F421" s="37" t="s">
-        <v>1051</v>
-      </c>
+        <v>614</v>
+      </c>
+      <c r="C421" s="41" t="s">
+        <v>553</v>
+      </c>
+      <c r="D421" s="41"/>
+      <c r="E421" s="41"/>
+      <c r="F421" s="41"/>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A422" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B422" s="37" t="s">
-        <v>616</v>
-      </c>
-      <c r="C422" s="44" t="s">
-        <v>617</v>
+        <v>615</v>
+      </c>
+      <c r="C422" s="37" t="s">
+        <v>555</v>
       </c>
       <c r="D422" s="37" t="s">
-        <v>494</v>
+        <v>556</v>
       </c>
       <c r="E422" s="37"/>
       <c r="F422" s="37" t="s">
@@ -11905,81 +11941,81 @@
         <v>54</v>
       </c>
       <c r="B423" s="37" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C423" s="44" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D423" s="37" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E423" s="37"/>
       <c r="F423" s="37" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="424" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A424" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B424" s="37" t="s">
-        <v>620</v>
-      </c>
-      <c r="C424" s="37" t="s">
-        <v>621</v>
+        <v>618</v>
+      </c>
+      <c r="C424" s="44" t="s">
+        <v>619</v>
       </c>
       <c r="D424" s="37" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="E424" s="37"/>
       <c r="F424" s="37" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A425" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B425" s="37" t="s">
-        <v>622</v>
-      </c>
-      <c r="C425" s="41" t="s">
-        <v>623</v>
-      </c>
-      <c r="D425" s="41"/>
-      <c r="E425" s="41"/>
-      <c r="F425" s="41"/>
+        <v>620</v>
+      </c>
+      <c r="C425" s="37" t="s">
+        <v>621</v>
+      </c>
+      <c r="D425" s="37" t="s">
+        <v>503</v>
+      </c>
+      <c r="E425" s="37"/>
+      <c r="F425" s="37" t="s">
+        <v>1051</v>
+      </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A426" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B426" s="37" t="s">
-        <v>624</v>
-      </c>
-      <c r="C426" s="37" t="s">
-        <v>1130</v>
-      </c>
-      <c r="D426" s="37" t="s">
-        <v>625</v>
-      </c>
-      <c r="E426" s="37"/>
-      <c r="F426" s="37" t="s">
-        <v>1051</v>
-      </c>
+        <v>622</v>
+      </c>
+      <c r="C426" s="41" t="s">
+        <v>623</v>
+      </c>
+      <c r="D426" s="41"/>
+      <c r="E426" s="41"/>
+      <c r="F426" s="41"/>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B427" s="37" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C427" s="37" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="D427" s="37" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E427" s="37"/>
       <c r="F427" s="37" t="s">
@@ -11991,10 +12027,10 @@
         <v>54</v>
       </c>
       <c r="B428" s="37" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C428" s="37" t="s">
-        <v>629</v>
+        <v>1131</v>
       </c>
       <c r="D428" s="37" t="s">
         <v>627</v>
@@ -12009,78 +12045,78 @@
         <v>54</v>
       </c>
       <c r="B429" s="37" t="s">
-        <v>630</v>
-      </c>
-      <c r="C429" s="41" t="s">
-        <v>536</v>
-      </c>
-      <c r="D429" s="41"/>
-      <c r="E429" s="41"/>
-      <c r="F429" s="41"/>
+        <v>628</v>
+      </c>
+      <c r="C429" s="37" t="s">
+        <v>629</v>
+      </c>
+      <c r="D429" s="37" t="s">
+        <v>627</v>
+      </c>
+      <c r="E429" s="37"/>
+      <c r="F429" s="37" t="s">
+        <v>1051</v>
+      </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A430" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B430" s="37" t="s">
-        <v>631</v>
-      </c>
-      <c r="C430" s="44" t="s">
-        <v>507</v>
-      </c>
-      <c r="D430" s="37" t="s">
-        <v>508</v>
-      </c>
-      <c r="E430" s="37"/>
-      <c r="F430" s="37" t="s">
-        <v>1051</v>
-      </c>
+        <v>630</v>
+      </c>
+      <c r="C430" s="41" t="s">
+        <v>536</v>
+      </c>
+      <c r="D430" s="41"/>
+      <c r="E430" s="41"/>
+      <c r="F430" s="41"/>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A431" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B431" s="37" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C431" s="44" t="s">
-        <v>633</v>
+        <v>507</v>
       </c>
       <c r="D431" s="37" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E431" s="37"/>
       <c r="F431" s="37" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="432" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A432" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B432" s="37" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C432" s="44" t="s">
-        <v>541</v>
+        <v>633</v>
       </c>
       <c r="D432" s="37" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E432" s="37"/>
       <c r="F432" s="37" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A433" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B433" s="37" t="s">
-        <v>635</v>
-      </c>
-      <c r="C433" s="37" t="s">
-        <v>543</v>
+        <v>634</v>
+      </c>
+      <c r="C433" s="44" t="s">
+        <v>541</v>
       </c>
       <c r="D433" s="37" t="s">
         <v>513</v>
@@ -12090,136 +12126,136 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="434" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A434" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B434" s="37" t="s">
-        <v>636</v>
-      </c>
-      <c r="C434" s="44" t="s">
-        <v>595</v>
+        <v>635</v>
+      </c>
+      <c r="C434" s="37" t="s">
+        <v>543</v>
       </c>
       <c r="D434" s="37" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E434" s="37"/>
       <c r="F434" s="37" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A435" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B435" s="37" t="s">
+        <v>636</v>
+      </c>
+      <c r="C435" s="44" t="s">
+        <v>595</v>
+      </c>
+      <c r="D435" s="37" t="s">
+        <v>516</v>
+      </c>
+      <c r="E435" s="37"/>
+      <c r="F435" s="37" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A436" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B436" s="37" t="s">
         <v>637</v>
       </c>
-      <c r="C435" s="41" t="s">
+      <c r="C436" s="41" t="s">
         <v>518</v>
       </c>
-      <c r="D435" s="41"/>
-      <c r="E435" s="41"/>
-      <c r="F435" s="41"/>
-    </row>
-    <row r="436" spans="1:6" ht="45" x14ac:dyDescent="0.3">
-      <c r="A436" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B436" s="37" t="s">
+      <c r="D436" s="41"/>
+      <c r="E436" s="41"/>
+      <c r="F436" s="41"/>
+    </row>
+    <row r="437" spans="1:6" ht="45" x14ac:dyDescent="0.3">
+      <c r="A437" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B437" s="37" t="s">
         <v>638</v>
       </c>
-      <c r="C436" s="44" t="s">
+      <c r="C437" s="44" t="s">
         <v>521</v>
       </c>
-      <c r="D436" s="37" t="s">
+      <c r="D437" s="37" t="s">
         <v>1144</v>
-      </c>
-      <c r="E436" s="37"/>
-      <c r="F436" s="37" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A437" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B437" s="37" t="s">
-        <v>639</v>
-      </c>
-      <c r="C437" s="44" t="s">
-        <v>640</v>
-      </c>
-      <c r="D437" s="37" t="s">
-        <v>1146</v>
       </c>
       <c r="E437" s="37"/>
       <c r="F437" s="37" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="438" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A438" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B438" s="37" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C438" s="44" t="s">
-        <v>597</v>
+        <v>640</v>
       </c>
       <c r="D438" s="37" t="s">
-        <v>528</v>
+        <v>1146</v>
       </c>
       <c r="E438" s="37"/>
       <c r="F438" s="37" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A439" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B439" s="37" t="s">
-        <v>642</v>
-      </c>
-      <c r="C439" s="41" t="s">
-        <v>530</v>
-      </c>
-      <c r="D439" s="41"/>
-      <c r="E439" s="41"/>
-      <c r="F439" s="41"/>
+        <v>641</v>
+      </c>
+      <c r="C439" s="44" t="s">
+        <v>597</v>
+      </c>
+      <c r="D439" s="37" t="s">
+        <v>528</v>
+      </c>
+      <c r="E439" s="37"/>
+      <c r="F439" s="37" t="s">
+        <v>1051</v>
+      </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A440" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B440" s="37" t="s">
-        <v>643</v>
-      </c>
-      <c r="C440" s="44" t="s">
-        <v>532</v>
-      </c>
-      <c r="D440" s="37" t="s">
-        <v>513</v>
-      </c>
-      <c r="E440" s="37"/>
-      <c r="F440" s="37" t="s">
-        <v>1051</v>
-      </c>
+        <v>642</v>
+      </c>
+      <c r="C440" s="41" t="s">
+        <v>530</v>
+      </c>
+      <c r="D440" s="41"/>
+      <c r="E440" s="41"/>
+      <c r="F440" s="41"/>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B441" s="37" t="s">
-        <v>644</v>
-      </c>
-      <c r="C441" s="37" t="s">
-        <v>534</v>
+        <v>643</v>
+      </c>
+      <c r="C441" s="44" t="s">
+        <v>532</v>
       </c>
       <c r="D441" s="37" t="s">
-        <v>972</v>
+        <v>513</v>
       </c>
       <c r="E441" s="37"/>
       <c r="F441" s="37" t="s">
@@ -12231,72 +12267,74 @@
         <v>54</v>
       </c>
       <c r="B442" s="37" t="s">
-        <v>645</v>
-      </c>
-      <c r="C442" s="41" t="s">
-        <v>982</v>
-      </c>
-      <c r="D442" s="41"/>
-      <c r="E442" s="41"/>
-      <c r="F442" s="41"/>
+        <v>644</v>
+      </c>
+      <c r="C442" s="37" t="s">
+        <v>534</v>
+      </c>
+      <c r="D442" s="37" t="s">
+        <v>972</v>
+      </c>
+      <c r="E442" s="37"/>
+      <c r="F442" s="37" t="s">
+        <v>1051</v>
+      </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B443" s="37" t="s">
-        <v>646</v>
-      </c>
-      <c r="C443" s="37" t="s">
-        <v>545</v>
-      </c>
-      <c r="D443" s="37" t="s">
-        <v>973</v>
-      </c>
-      <c r="E443" s="37"/>
-      <c r="F443" s="37" t="s">
-        <v>1051</v>
-      </c>
+        <v>645</v>
+      </c>
+      <c r="C443" s="41" t="s">
+        <v>982</v>
+      </c>
+      <c r="D443" s="41"/>
+      <c r="E443" s="41"/>
+      <c r="F443" s="41"/>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A444" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B444" s="37">
-        <v>11.5</v>
-      </c>
-      <c r="C444" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="D444" s="41"/>
-      <c r="E444" s="41"/>
-      <c r="F444" s="41"/>
+      <c r="B444" s="37" t="s">
+        <v>646</v>
+      </c>
+      <c r="C444" s="37" t="s">
+        <v>545</v>
+      </c>
+      <c r="D444" s="37" t="s">
+        <v>973</v>
+      </c>
+      <c r="E444" s="37"/>
+      <c r="F444" s="37" t="s">
+        <v>1051</v>
+      </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A445" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B445" s="37" t="s">
-        <v>647</v>
-      </c>
-      <c r="C445" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="D445" s="37"/>
-      <c r="E445" s="44"/>
-      <c r="F445" s="37" t="s">
-        <v>1051</v>
-      </c>
+      <c r="B445" s="37">
+        <v>11.5</v>
+      </c>
+      <c r="C445" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D445" s="41"/>
+      <c r="E445" s="41"/>
+      <c r="F445" s="41"/>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A446" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B446" s="37" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C446" s="44" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D446" s="37"/>
       <c r="E446" s="44"/>
@@ -12309,10 +12347,10 @@
         <v>54</v>
       </c>
       <c r="B447" s="37" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C447" s="44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D447" s="37"/>
       <c r="E447" s="44"/>
@@ -12324,41 +12362,41 @@
       <c r="A448" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B448" s="37">
-        <v>11.6</v>
-      </c>
-      <c r="C448" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="D448" s="41"/>
-      <c r="E448" s="32"/>
-      <c r="F448" s="41"/>
+      <c r="B448" s="37" t="s">
+        <v>649</v>
+      </c>
+      <c r="C448" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D448" s="37"/>
+      <c r="E448" s="44"/>
+      <c r="F448" s="37" t="s">
+        <v>1051</v>
+      </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A449" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B449" s="37" t="s">
-        <v>650</v>
-      </c>
-      <c r="C449" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="D449" s="37"/>
-      <c r="E449" s="44"/>
-      <c r="F449" s="37" t="s">
-        <v>1051</v>
-      </c>
+      <c r="B449" s="37">
+        <v>11.6</v>
+      </c>
+      <c r="C449" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D449" s="41"/>
+      <c r="E449" s="32"/>
+      <c r="F449" s="41"/>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A450" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B450" s="37" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C450" s="44" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D450" s="37"/>
       <c r="E450" s="44"/>
@@ -12370,75 +12408,73 @@
       <c r="A451" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B451" s="37">
-        <v>11.7</v>
-      </c>
-      <c r="C451" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D451" s="41"/>
-      <c r="E451" s="41"/>
-      <c r="F451" s="41"/>
+      <c r="B451" s="37" t="s">
+        <v>651</v>
+      </c>
+      <c r="C451" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D451" s="37"/>
+      <c r="E451" s="44"/>
+      <c r="F451" s="37" t="s">
+        <v>1051</v>
+      </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A452" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B452" s="37" t="s">
-        <v>652</v>
-      </c>
-      <c r="C452" s="41" t="s">
-        <v>40</v>
+      <c r="B452" s="37">
+        <v>11.7</v>
+      </c>
+      <c r="C452" s="32" t="s">
+        <v>49</v>
       </c>
       <c r="D452" s="41"/>
       <c r="E452" s="41"/>
       <c r="F452" s="41"/>
     </row>
-    <row r="453" spans="1:6" ht="60" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A453" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B453" s="37" t="s">
+        <v>652</v>
+      </c>
+      <c r="C453" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D453" s="41"/>
+      <c r="E453" s="41"/>
+      <c r="F453" s="41"/>
+    </row>
+    <row r="454" spans="1:6" ht="60" x14ac:dyDescent="0.3">
+      <c r="A454" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B454" s="37" t="s">
         <v>653</v>
       </c>
-      <c r="C453" s="44" t="s">
+      <c r="C454" s="44" t="s">
         <v>580</v>
       </c>
-      <c r="D453" s="37">
+      <c r="D454" s="37">
         <v>78.3</v>
-      </c>
-      <c r="E453" s="37"/>
-      <c r="F453" s="37" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="454" spans="1:6" ht="30" x14ac:dyDescent="0.3">
-      <c r="A454" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B454" s="37" t="s">
-        <v>654</v>
-      </c>
-      <c r="C454" s="44" t="s">
-        <v>611</v>
-      </c>
-      <c r="D454" s="37">
-        <v>78.099999999999994</v>
       </c>
       <c r="E454" s="37"/>
       <c r="F454" s="37" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A455" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B455" s="37" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C455" s="44" t="s">
-        <v>584</v>
+        <v>611</v>
       </c>
       <c r="D455" s="37">
         <v>78.099999999999994</v>
@@ -12453,24 +12489,28 @@
         <v>54</v>
       </c>
       <c r="B456" s="37" t="s">
-        <v>656</v>
-      </c>
-      <c r="C456" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="D456" s="41"/>
-      <c r="E456" s="41"/>
-      <c r="F456" s="41"/>
+        <v>655</v>
+      </c>
+      <c r="C456" s="44" t="s">
+        <v>584</v>
+      </c>
+      <c r="D456" s="37">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="E456" s="37"/>
+      <c r="F456" s="37" t="s">
+        <v>999</v>
+      </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A457" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B457" s="37" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C457" s="41" t="s">
-        <v>553</v>
+        <v>41</v>
       </c>
       <c r="D457" s="41"/>
       <c r="E457" s="41"/>
@@ -12481,31 +12521,27 @@
         <v>54</v>
       </c>
       <c r="B458" s="37" t="s">
-        <v>658</v>
-      </c>
-      <c r="C458" s="44" t="s">
-        <v>659</v>
-      </c>
-      <c r="D458" s="37" t="s">
-        <v>494</v>
-      </c>
-      <c r="E458" s="37"/>
-      <c r="F458" s="37" t="s">
-        <v>999</v>
-      </c>
+        <v>657</v>
+      </c>
+      <c r="C458" s="41" t="s">
+        <v>553</v>
+      </c>
+      <c r="D458" s="41"/>
+      <c r="E458" s="41"/>
+      <c r="F458" s="41"/>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A459" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B459" s="37" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C459" s="44" t="s">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="D459" s="37" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E459" s="37"/>
       <c r="F459" s="37" t="s">
@@ -12517,83 +12553,83 @@
         <v>54</v>
       </c>
       <c r="B460" s="37" t="s">
-        <v>661</v>
-      </c>
-      <c r="C460" s="37" t="s">
-        <v>662</v>
+        <v>660</v>
+      </c>
+      <c r="C460" s="44" t="s">
+        <v>619</v>
       </c>
       <c r="D460" s="37" t="s">
-        <v>974</v>
+        <v>497</v>
       </c>
       <c r="E460" s="37"/>
       <c r="F460" s="37" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="461" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A461" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B461" s="37" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C461" s="37" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D461" s="37" t="s">
-        <v>528</v>
+        <v>974</v>
       </c>
       <c r="E461" s="37"/>
       <c r="F461" s="37" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A462" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B462" s="37" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C462" s="37" t="s">
-        <v>989</v>
-      </c>
-      <c r="D462" s="37"/>
+        <v>664</v>
+      </c>
+      <c r="D462" s="37" t="s">
+        <v>528</v>
+      </c>
       <c r="E462" s="37"/>
       <c r="F462" s="37" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="463" spans="1:6" ht="45" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A463" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B463" s="37" t="s">
-        <v>990</v>
+        <v>665</v>
       </c>
       <c r="C463" s="37" t="s">
-        <v>666</v>
-      </c>
-      <c r="D463" s="37" t="s">
-        <v>503</v>
-      </c>
+        <v>989</v>
+      </c>
+      <c r="D463" s="37"/>
       <c r="E463" s="37"/>
       <c r="F463" s="37" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A464" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B464" s="37" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C464" s="37" t="s">
-        <v>988</v>
+        <v>666</v>
       </c>
       <c r="D464" s="37" t="s">
-        <v>627</v>
+        <v>503</v>
       </c>
       <c r="E464" s="37"/>
       <c r="F464" s="37" t="s">
@@ -12605,45 +12641,45 @@
         <v>54</v>
       </c>
       <c r="B465" s="37" t="s">
-        <v>667</v>
-      </c>
-      <c r="C465" s="41" t="s">
-        <v>530</v>
-      </c>
-      <c r="D465" s="41"/>
-      <c r="E465" s="41"/>
-      <c r="F465" s="41"/>
+        <v>991</v>
+      </c>
+      <c r="C465" s="37" t="s">
+        <v>988</v>
+      </c>
+      <c r="D465" s="37" t="s">
+        <v>627</v>
+      </c>
+      <c r="E465" s="37"/>
+      <c r="F465" s="37" t="s">
+        <v>999</v>
+      </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A466" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B466" s="37" t="s">
-        <v>668</v>
-      </c>
-      <c r="C466" s="44" t="s">
-        <v>532</v>
-      </c>
-      <c r="D466" s="37" t="s">
-        <v>513</v>
-      </c>
-      <c r="E466" s="37"/>
-      <c r="F466" s="37" t="s">
-        <v>999</v>
-      </c>
+        <v>667</v>
+      </c>
+      <c r="C466" s="41" t="s">
+        <v>530</v>
+      </c>
+      <c r="D466" s="41"/>
+      <c r="E466" s="41"/>
+      <c r="F466" s="41"/>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A467" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B467" s="37" t="s">
-        <v>669</v>
-      </c>
-      <c r="C467" s="37" t="s">
-        <v>534</v>
+        <v>668</v>
+      </c>
+      <c r="C467" s="44" t="s">
+        <v>532</v>
       </c>
       <c r="D467" s="37" t="s">
-        <v>972</v>
+        <v>513</v>
       </c>
       <c r="E467" s="37"/>
       <c r="F467" s="37" t="s">
@@ -12655,81 +12691,81 @@
         <v>54</v>
       </c>
       <c r="B468" s="37" t="s">
-        <v>670</v>
-      </c>
-      <c r="C468" s="41" t="s">
-        <v>536</v>
-      </c>
-      <c r="D468" s="41"/>
-      <c r="E468" s="41"/>
-      <c r="F468" s="41"/>
+        <v>669</v>
+      </c>
+      <c r="C468" s="37" t="s">
+        <v>534</v>
+      </c>
+      <c r="D468" s="37" t="s">
+        <v>972</v>
+      </c>
+      <c r="E468" s="37"/>
+      <c r="F468" s="37" t="s">
+        <v>999</v>
+      </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A469" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B469" s="37" t="s">
-        <v>671</v>
-      </c>
-      <c r="C469" s="44" t="s">
-        <v>507</v>
-      </c>
-      <c r="D469" s="37" t="s">
-        <v>508</v>
-      </c>
-      <c r="E469" s="37"/>
-      <c r="F469" s="37" t="s">
-        <v>999</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="C469" s="41" t="s">
+        <v>536</v>
+      </c>
+      <c r="D469" s="41"/>
+      <c r="E469" s="41"/>
+      <c r="F469" s="41"/>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A470" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B470" s="37" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C470" s="44" t="s">
-        <v>574</v>
+        <v>507</v>
       </c>
       <c r="D470" s="37" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E470" s="37"/>
       <c r="F470" s="37" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="471" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A471" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B471" s="37" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C471" s="44" t="s">
-        <v>541</v>
+        <v>574</v>
       </c>
       <c r="D471" s="37" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E471" s="37"/>
       <c r="F471" s="37" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A472" s="38" t="s">
         <v>54</v>
       </c>
       <c r="B472" s="37" t="s">
-        <v>674</v>
-      </c>
-      <c r="C472" s="37" t="s">
-        <v>543</v>
+        <v>673</v>
+      </c>
+      <c r="C472" s="44" t="s">
+        <v>541</v>
       </c>
       <c r="D472" s="37" t="s">
-        <v>975</v>
+        <v>513</v>
       </c>
       <c r="E472" s="37"/>
       <c r="F472" s="37" t="s">
@@ -12741,16 +12777,34 @@
         <v>54</v>
       </c>
       <c r="B473" s="37" t="s">
-        <v>1143</v>
+        <v>674</v>
       </c>
       <c r="C473" s="37" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D473" s="37" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="E473" s="37"/>
       <c r="F473" s="37" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A474" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B474" s="37" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C474" s="37" t="s">
+        <v>545</v>
+      </c>
+      <c r="D474" s="37" t="s">
+        <v>973</v>
+      </c>
+      <c r="E474" s="37"/>
+      <c r="F474" s="37" t="s">
         <v>999</v>
       </c>
     </row>

--- a/conformancelib/testdata/PIV-I_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I_ICAM_Test_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F8D649-74D8-4A32-A3E7-F9E3A04A873B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C176FA-D71A-4F6D-A534-454B5EBF40AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="23040" windowHeight="12360" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2996" uniqueCount="1265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2997" uniqueCount="1266">
   <si>
     <t>Card Capabilities Container</t>
   </si>
@@ -3827,6 +3827,9 @@
   </si>
   <si>
     <t>The signature in the SignerInfo corresponds to the signed security object and that it is it signed with the certificate that is used to sign the CHUID.</t>
+  </si>
+  <si>
+    <t>CARD_HOLDER_UNIQUE_IDENTIFIER_OID:2.16.840.1.101.3.6.1,CARDHOLDER_FINGERPRINTS_OID:2.16.840.1.101.3.6.2,CARDHOLDER_FACIAL_IMAGE_OID:2.16.840.1.101.3.6.2,CARDHOLDER_IRIS_IMAGES_OID:2.16.840</t>
   </si>
 </sst>
 </file>
@@ -4670,7 +4673,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F474"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A310" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A313" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A314" sqref="A314"/>
     </sheetView>
   </sheetViews>
@@ -11246,7 +11249,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="382" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382" s="38" t="s">
         <v>54</v>
       </c>
@@ -17822,7 +17825,9 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:IV30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -17950,7 +17955,9 @@
       <c r="D6" s="21" t="s">
         <v>880</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="21" t="s">
+        <v>1265</v>
+      </c>
       <c r="F6" s="21" t="s">
         <v>683</v>
       </c>

--- a/conformancelib/testdata/PIV-I_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I_ICAM_Test_Cards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance\conformancelib\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bf7450\git\piv-conformance-new\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F97FD0A-B320-43FA-BFC3-D49A911B0ED3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDCF3C4-2844-44C5-861F-F2F983AFB721}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2436" yWindow="36" windowWidth="17640" windowHeight="11940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="20220" windowHeight="11940" tabRatio="500" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2994" uniqueCount="1266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2994" uniqueCount="1265">
   <si>
     <t>Card Capabilities Container</t>
   </si>
@@ -2098,9 +2098,6 @@
     <t>Setting final byte of command string to 0x00 retrieves entire data object regardless of size</t>
   </si>
   <si>
-    <t>gov.gsa.conformancelib.tests.SP800_73_4CCCTests</t>
-  </si>
-  <si>
     <t xml:space="preserve">sp800_73_4_Test_1 </t>
   </si>
   <si>
@@ -2134,9 +2131,6 @@
     <t>No tags other than (0xF0, 0xF1, 0xF2, 0xF3, 0xF4, 0xF5, 0xF6, 0xF7, 0xFA, 0xFB, 0xFC, 0xFD, 0xE3, 0xE4, 0xFE) are present</t>
   </si>
   <si>
-    <t>gov.gsa.conformancelib.tests.SP800_73_4CHUIDTests</t>
-  </si>
-  <si>
     <t xml:space="preserve">sp800_73_4_Test_8 </t>
   </si>
   <si>
@@ -2173,9 +2167,6 @@
     <t>No tags other than (0xEE, 0x30, 0x32, 0x33, 0x34, 0x35, 0x36, 0x3E, 0xFE) are present</t>
   </si>
   <si>
-    <t>gov.gsa.conformancelib.tests.X509DataObjectTests</t>
-  </si>
-  <si>
     <t>sp800_73_4_Test_18</t>
   </si>
   <si>
@@ -2194,9 +2185,6 @@
     <t>sp800_73_4_Test_23</t>
   </si>
   <si>
-    <t>gov.gsa.conformancelib.tests.SP800_73_4FingerprintsTests</t>
-  </si>
-  <si>
     <t>sp800_73_4_Test_24</t>
   </si>
   <si>
@@ -2209,9 +2197,6 @@
     <t>sp800_73_4_Test_26</t>
   </si>
   <si>
-    <t>gov.gsa.conformancelib.tests.SP800_73_4PrintedInfoTests</t>
-  </si>
-  <si>
     <t>sp800_73_4_Test_27</t>
   </si>
   <si>
@@ -2227,15 +2212,9 @@
     <t>sp800_73_4_Test_31</t>
   </si>
   <si>
-    <t>gov.gsa.conformancelib.tests.SP800_73_4FacialImageTests</t>
-  </si>
-  <si>
     <t>sp800_73_4_Test_32</t>
   </si>
   <si>
-    <t>gov.gsa.conformancelib.tests.SP800_73_4SecurityObjectTests</t>
-  </si>
-  <si>
     <t>sp800_73_4_Test_33</t>
   </si>
   <si>
@@ -2272,9 +2251,6 @@
     <t>76.1</t>
   </si>
   <si>
-    <t>gov.gsa.conformancelib.tests.SP800_76_Tests</t>
-  </si>
-  <si>
     <t>sp800_76Test_1</t>
   </si>
   <si>
@@ -2749,9 +2725,6 @@
     <t>78.1</t>
   </si>
   <si>
-    <t>gov.gsa.conformancelib.tests.SP800_78_X509DataObjectTests</t>
-  </si>
-  <si>
     <t>sp800_78_Test_1</t>
   </si>
   <si>
@@ -2770,9 +2743,6 @@
     <t>PKIX.1</t>
   </si>
   <si>
-    <t>gov.gsa.conformancelib.tests.PKIX_X509DataObjectTests</t>
-  </si>
-  <si>
     <t>PKIX_Test_1</t>
   </si>
   <si>
@@ -2911,9 +2881,6 @@
     <t>Used to track missing atoms</t>
   </si>
   <si>
-    <t>gov.gsa.conformancelib.tests.SP800_73_4DiscoveryObjectTests</t>
-  </si>
-  <si>
     <t>76.15b</t>
   </si>
   <si>
@@ -2980,12 +2947,6 @@
     <t>The BDB Format Type is set to a value of 0x0201</t>
   </si>
   <si>
-    <t>gov.gsa.conformancelib.tests.BER_TLVTests</t>
-  </si>
-  <si>
-    <t>gov.gsa.conformancelib.tests.CMSTests</t>
-  </si>
-  <si>
     <t>extended key usage (extKeyUsage) asserts id-PIV-content-signing.</t>
   </si>
   <si>
@@ -3307,9 +3268,6 @@
     <t>CMS.24</t>
   </si>
   <si>
-    <t>gov.gsa.conformanceLib.tests.CMSTests</t>
-  </si>
-  <si>
     <t>CMS_Test_24</t>
   </si>
   <si>
@@ -3388,9 +3346,6 @@
     <t>PIV-I content signer certificate policy OID</t>
   </si>
   <si>
-    <t>gov.gsa.conformancelib.tests.PlaceholderTests</t>
-  </si>
-  <si>
     <t>PlaceholderTest_1</t>
   </si>
   <si>
@@ -3508,9 +3463,6 @@
     <t>73-4.56</t>
   </si>
   <si>
-    <t>gov.gsa.conformancelib.tests.SP800_73_4CommmonObjectTests</t>
-  </si>
-  <si>
     <t>sp800_73_4_Test_56</t>
   </si>
   <si>
@@ -3830,6 +3782,51 @@
   </si>
   <si>
     <t>10.2.1.14</t>
+  </si>
+  <si>
+    <t>gov.gsa.pivconformance.conformancelib.tests.BER_TLVTests</t>
+  </si>
+  <si>
+    <t>gov.gsa.pivconformance.conformancelib.tests.SP800_73_4CCCTests</t>
+  </si>
+  <si>
+    <t>gov.gsa.pivconformance.conformancelib.tests.SP800_73_4CHUIDTests</t>
+  </si>
+  <si>
+    <t>gov.gsa.pivconformance.conformancelib.tests.X509DataObjectTests</t>
+  </si>
+  <si>
+    <t>gov.gsa.pivconformance.conformancelib.tests.SP800_73_4FingerprintsTests</t>
+  </si>
+  <si>
+    <t>gov.gsa.pivconformance.conformancelib.tests.SP800_73_4PrintedInfoTests</t>
+  </si>
+  <si>
+    <t>gov.gsa.pivconformance.conformancelib.tests.SP800_73_4FacialImageTests</t>
+  </si>
+  <si>
+    <t>gov.gsa.pivconformance.conformancelib.tests.SP800_73_4SecurityObjectTests</t>
+  </si>
+  <si>
+    <t>gov.gsa.pivconformance.conformancelib.tests.SP800_73_4DiscoveryObjectTests</t>
+  </si>
+  <si>
+    <t>gov.gsa.pivconformance.conformancelib.tests.SP800_73_4CommmonObjectTests</t>
+  </si>
+  <si>
+    <t>gov.gsa.pivconformance.conformancelib.tests.SP800_76_Tests</t>
+  </si>
+  <si>
+    <t>gov.gsa.pivconformance.conformancelib.tests.CMSTests</t>
+  </si>
+  <si>
+    <t>gov.gsa.pivconformance.conformancelib.tests.SP800_78_X509DataObjectTests</t>
+  </si>
+  <si>
+    <t>gov.gsa.pivconformance.conformancelib.tests.PKIX_X509DataObjectTests</t>
+  </si>
+  <si>
+    <t>gov.gsa.pivconformance.conformancelib.tests.PlaceholderTests</t>
   </si>
 </sst>
 </file>
@@ -4649,7 +4646,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F473"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4677,10 +4674,10 @@
         <v>53</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>1138</v>
+        <v>1123</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>990</v>
+        <v>977</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -4688,10 +4685,10 @@
         <v>54</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>1188</v>
+        <v>1172</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>1229</v>
+        <v>1213</v>
       </c>
       <c r="D2" s="32"/>
       <c r="E2" s="32"/>
@@ -4702,7 +4699,7 @@
         <v>54</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>1161</v>
+        <v>1145</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>0</v>
@@ -4716,10 +4713,10 @@
         <v>54</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>991</v>
+        <v>978</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>992</v>
+        <v>979</v>
       </c>
       <c r="D4" s="32"/>
       <c r="E4" s="32"/>
@@ -4733,14 +4730,14 @@
         <v>55</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>1173</v>
+        <v>1157</v>
       </c>
       <c r="D5" s="37" t="s">
         <v>56</v>
       </c>
       <c r="E5" s="37"/>
       <c r="F5" s="37" t="s">
-        <v>993</v>
+        <v>980</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -4758,7 +4755,7 @@
       </c>
       <c r="E6" s="37"/>
       <c r="F6" s="37" t="s">
-        <v>993</v>
+        <v>980</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -4776,7 +4773,7 @@
       </c>
       <c r="E7" s="37"/>
       <c r="F7" s="37" t="s">
-        <v>993</v>
+        <v>980</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -4794,7 +4791,7 @@
       </c>
       <c r="E8" s="37"/>
       <c r="F8" s="37" t="s">
-        <v>993</v>
+        <v>980</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -4812,7 +4809,7 @@
       </c>
       <c r="E9" s="37"/>
       <c r="F9" s="37" t="s">
-        <v>993</v>
+        <v>980</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -4830,7 +4827,7 @@
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="37" t="s">
-        <v>993</v>
+        <v>980</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -4848,7 +4845,7 @@
       </c>
       <c r="E11" s="37"/>
       <c r="F11" s="37" t="s">
-        <v>993</v>
+        <v>980</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -4859,14 +4856,14 @@
         <v>75</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>1194</v>
+        <v>1178</v>
       </c>
       <c r="D12" s="37" t="s">
         <v>76</v>
       </c>
       <c r="E12" s="37"/>
       <c r="F12" s="37" t="s">
-        <v>993</v>
+        <v>980</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -4877,14 +4874,14 @@
         <v>77</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>1250</v>
+        <v>1234</v>
       </c>
       <c r="D13" s="37" t="s">
         <v>78</v>
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="37" t="s">
-        <v>993</v>
+        <v>980</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -4902,7 +4899,7 @@
       </c>
       <c r="E14" s="37"/>
       <c r="F14" s="37" t="s">
-        <v>993</v>
+        <v>980</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -4913,14 +4910,14 @@
         <v>81</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>1149</v>
+        <v>1134</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>80</v>
       </c>
       <c r="E15" s="37"/>
       <c r="F15" s="37" t="s">
-        <v>993</v>
+        <v>980</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -4928,7 +4925,7 @@
         <v>54</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>1189</v>
+        <v>1173</v>
       </c>
       <c r="C16" s="32" t="s">
         <v>1</v>
@@ -4942,10 +4939,10 @@
         <v>54</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>994</v>
+        <v>981</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>992</v>
+        <v>979</v>
       </c>
       <c r="D17" s="32"/>
       <c r="E17" s="32"/>
@@ -4959,14 +4956,14 @@
         <v>84</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>1173</v>
+        <v>1157</v>
       </c>
       <c r="D18" s="37" t="s">
         <v>56</v>
       </c>
       <c r="E18" s="37"/>
       <c r="F18" s="37" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -4984,7 +4981,7 @@
       </c>
       <c r="E19" s="37"/>
       <c r="F19" s="37" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -5002,7 +4999,7 @@
       </c>
       <c r="E20" s="37"/>
       <c r="F20" s="37" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -5020,7 +5017,7 @@
       </c>
       <c r="E21" s="37"/>
       <c r="F21" s="37" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -5031,14 +5028,14 @@
         <v>88</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>1150</v>
+        <v>1135</v>
       </c>
       <c r="D22" s="37" t="s">
         <v>89</v>
       </c>
       <c r="E22" s="37"/>
       <c r="F22" s="37" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -5049,14 +5046,14 @@
         <v>90</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>996</v>
+        <v>983</v>
       </c>
       <c r="D23" s="37" t="s">
         <v>92</v>
       </c>
       <c r="E23" s="37"/>
       <c r="F23" s="37" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -5067,14 +5064,14 @@
         <v>93</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>997</v>
+        <v>984</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>998</v>
+        <v>985</v>
       </c>
       <c r="E24" s="39"/>
       <c r="F24" s="39" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.3">
@@ -5092,7 +5089,7 @@
       </c>
       <c r="E25" s="37"/>
       <c r="F25" s="37" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -5103,14 +5100,14 @@
         <v>98</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>999</v>
+        <v>986</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>1000</v>
+        <v>987</v>
       </c>
       <c r="E26" s="37"/>
       <c r="F26" s="37" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -5121,14 +5118,14 @@
         <v>101</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>1001</v>
+        <v>988</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>1002</v>
+        <v>989</v>
       </c>
       <c r="E27" s="39"/>
       <c r="F27" s="39" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -5139,14 +5136,14 @@
         <v>104</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>1004</v>
+        <v>991</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>1005</v>
+        <v>992</v>
       </c>
       <c r="E28" s="39"/>
       <c r="F28" s="39" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -5154,17 +5151,17 @@
         <v>54</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>1003</v>
+        <v>990</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>1220</v>
+        <v>1204</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>1007</v>
+        <v>994</v>
       </c>
       <c r="E29" s="39"/>
       <c r="F29" s="39" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -5172,17 +5169,17 @@
         <v>54</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>1006</v>
+        <v>993</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>1009</v>
+        <v>996</v>
       </c>
       <c r="D30" s="39" t="s">
         <v>100</v>
       </c>
       <c r="E30" s="39"/>
       <c r="F30" s="39" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -5190,17 +5187,17 @@
         <v>54</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>1008</v>
+        <v>995</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>1258</v>
+        <v>1242</v>
       </c>
       <c r="D31" s="37" t="s">
         <v>103</v>
       </c>
       <c r="E31" s="37"/>
       <c r="F31" s="37" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -5208,17 +5205,17 @@
         <v>54</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>1010</v>
+        <v>997</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>1012</v>
+        <v>999</v>
       </c>
       <c r="D32" s="37" t="s">
-        <v>1013</v>
+        <v>1000</v>
       </c>
       <c r="E32" s="37"/>
       <c r="F32" s="37" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -5226,17 +5223,17 @@
         <v>54</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>1011</v>
+        <v>998</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>1015</v>
+        <v>1002</v>
       </c>
       <c r="D33" s="39" t="s">
-        <v>1016</v>
+        <v>1003</v>
       </c>
       <c r="E33" s="39"/>
       <c r="F33" s="39" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -5244,17 +5241,17 @@
         <v>54</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>1014</v>
+        <v>1001</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>1018</v>
+        <v>1005</v>
       </c>
       <c r="D34" s="39" t="s">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="E34" s="39"/>
       <c r="F34" s="39" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -5262,17 +5259,17 @@
         <v>54</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>1017</v>
+        <v>1004</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>1021</v>
+        <v>1008</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>1022</v>
+        <v>1009</v>
       </c>
       <c r="E35" s="39"/>
       <c r="F35" s="39" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -5280,7 +5277,7 @@
         <v>54</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>1020</v>
+        <v>1007</v>
       </c>
       <c r="C36" s="39" t="s">
         <v>105</v>
@@ -5290,7 +5287,7 @@
       </c>
       <c r="E36" s="39"/>
       <c r="F36" s="39" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.3">
@@ -5298,17 +5295,17 @@
         <v>54</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>1023</v>
+        <v>1010</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D37" s="37" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E37" s="37"/>
       <c r="F37" s="37" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -5326,7 +5323,7 @@
       </c>
       <c r="E38" s="37"/>
       <c r="F38" s="37" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -5337,14 +5334,14 @@
         <v>110</v>
       </c>
       <c r="C39" s="37" t="s">
-        <v>1228</v>
+        <v>1212</v>
       </c>
       <c r="D39" s="37" t="s">
         <v>111</v>
       </c>
       <c r="E39" s="37"/>
       <c r="F39" s="37" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -5362,7 +5359,7 @@
       </c>
       <c r="E40" s="37"/>
       <c r="F40" s="37" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -5380,7 +5377,7 @@
       </c>
       <c r="E41" s="37"/>
       <c r="F41" s="37" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -5388,7 +5385,7 @@
         <v>117</v>
       </c>
       <c r="B42" s="37" t="s">
-        <v>1024</v>
+        <v>1011</v>
       </c>
       <c r="C42" s="37" t="s">
         <v>118</v>
@@ -5398,7 +5395,7 @@
       </c>
       <c r="E42" s="37"/>
       <c r="F42" s="37" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -5406,10 +5403,10 @@
         <v>54</v>
       </c>
       <c r="B43" s="37" t="s">
-        <v>1171</v>
+        <v>1155</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>1172</v>
+        <v>1156</v>
       </c>
       <c r="D43" s="32"/>
       <c r="E43" s="32"/>
@@ -5420,10 +5417,10 @@
         <v>54</v>
       </c>
       <c r="B44" s="37" t="s">
-        <v>1025</v>
+        <v>1012</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>992</v>
+        <v>979</v>
       </c>
       <c r="D44" s="32"/>
       <c r="E44" s="32"/>
@@ -5437,14 +5434,14 @@
         <v>119</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>1173</v>
+        <v>1157</v>
       </c>
       <c r="D45" s="37" t="s">
         <v>56</v>
       </c>
       <c r="E45" s="37"/>
       <c r="F45" s="37" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -5462,7 +5459,7 @@
       </c>
       <c r="E46" s="37"/>
       <c r="F46" s="37" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -5480,7 +5477,7 @@
       </c>
       <c r="E47" s="37"/>
       <c r="F47" s="37" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -5498,7 +5495,7 @@
       </c>
       <c r="E48" s="37"/>
       <c r="F48" s="37" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -5509,14 +5506,14 @@
         <v>123</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>1179</v>
+        <v>1163</v>
       </c>
       <c r="D49" s="37" t="s">
-        <v>1157</v>
+        <v>1142</v>
       </c>
       <c r="E49" s="37"/>
       <c r="F49" s="37" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -5534,7 +5531,7 @@
       </c>
       <c r="E50" s="37"/>
       <c r="F50" s="37" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -5552,7 +5549,7 @@
       </c>
       <c r="E51" s="37"/>
       <c r="F51" s="37" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -5570,7 +5567,7 @@
       </c>
       <c r="E52" s="37"/>
       <c r="F52" s="37" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -5588,7 +5585,7 @@
       </c>
       <c r="E53" s="37"/>
       <c r="F53" s="37" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -5596,7 +5593,7 @@
         <v>117</v>
       </c>
       <c r="B54" s="37" t="s">
-        <v>1027</v>
+        <v>1014</v>
       </c>
       <c r="C54" s="37" t="s">
         <v>118</v>
@@ -5606,7 +5603,7 @@
       </c>
       <c r="E54" s="37"/>
       <c r="F54" s="37" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -5614,7 +5611,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="37" t="s">
-        <v>1170</v>
+        <v>1154</v>
       </c>
       <c r="C55" s="32" t="s">
         <v>2</v>
@@ -5628,10 +5625,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="37" t="s">
-        <v>1028</v>
+        <v>1015</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>992</v>
+        <v>979</v>
       </c>
       <c r="D56" s="32"/>
       <c r="E56" s="32"/>
@@ -5645,14 +5642,14 @@
         <v>137</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>1173</v>
+        <v>1157</v>
       </c>
       <c r="D57" s="37" t="s">
         <v>56</v>
       </c>
       <c r="E57" s="37"/>
       <c r="F57" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -5670,7 +5667,7 @@
       </c>
       <c r="E58" s="37"/>
       <c r="F58" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -5688,7 +5685,7 @@
       </c>
       <c r="E59" s="37"/>
       <c r="F59" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -5706,10 +5703,10 @@
       </c>
       <c r="E60" s="37"/>
       <c r="F60" s="37" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="38" t="s">
         <v>54</v>
       </c>
@@ -5717,14 +5714,14 @@
         <v>141</v>
       </c>
       <c r="C61" s="37" t="s">
-        <v>1152</v>
+        <v>1137</v>
       </c>
       <c r="D61" s="37" t="s">
         <v>116</v>
       </c>
       <c r="E61" s="37"/>
       <c r="F61" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -5742,7 +5739,7 @@
       </c>
       <c r="E62" s="37"/>
       <c r="F62" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -5760,7 +5757,7 @@
       </c>
       <c r="E63" s="37"/>
       <c r="F63" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -5778,7 +5775,7 @@
       </c>
       <c r="E64" s="37"/>
       <c r="F64" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -5796,7 +5793,7 @@
       </c>
       <c r="E65" s="37"/>
       <c r="F65" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -5804,7 +5801,7 @@
         <v>54</v>
       </c>
       <c r="B66" s="37" t="s">
-        <v>1169</v>
+        <v>1153</v>
       </c>
       <c r="C66" s="32" t="s">
         <v>3</v>
@@ -5818,10 +5815,10 @@
         <v>54</v>
       </c>
       <c r="B67" s="37" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
       <c r="C67" s="32" t="s">
-        <v>992</v>
+        <v>979</v>
       </c>
       <c r="D67" s="32"/>
       <c r="E67" s="32"/>
@@ -5835,14 +5832,14 @@
         <v>146</v>
       </c>
       <c r="C68" s="37" t="s">
-        <v>1173</v>
+        <v>1157</v>
       </c>
       <c r="D68" s="37" t="s">
         <v>56</v>
       </c>
       <c r="E68" s="37"/>
       <c r="F68" s="37" t="s">
-        <v>1031</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -5860,7 +5857,7 @@
       </c>
       <c r="E69" s="37"/>
       <c r="F69" s="37" t="s">
-        <v>1031</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -5878,7 +5875,7 @@
       </c>
       <c r="E70" s="37"/>
       <c r="F70" s="37" t="s">
-        <v>1031</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -5896,7 +5893,7 @@
       </c>
       <c r="E71" s="37"/>
       <c r="F71" s="37" t="s">
-        <v>1031</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -5907,14 +5904,14 @@
         <v>150</v>
       </c>
       <c r="C72" s="37" t="s">
-        <v>1153</v>
+        <v>1138</v>
       </c>
       <c r="D72" s="37" t="s">
         <v>151</v>
       </c>
       <c r="E72" s="37"/>
       <c r="F72" s="37" t="s">
-        <v>1031</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -5925,14 +5922,14 @@
         <v>152</v>
       </c>
       <c r="C73" s="37" t="s">
-        <v>1230</v>
+        <v>1214</v>
       </c>
       <c r="D73" s="37" t="s">
         <v>154</v>
       </c>
       <c r="E73" s="37"/>
       <c r="F73" s="37" t="s">
-        <v>1031</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="74" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -5943,14 +5940,14 @@
         <v>155</v>
       </c>
       <c r="C74" s="39" t="s">
-        <v>1231</v>
+        <v>1215</v>
       </c>
       <c r="D74" s="39" t="s">
-        <v>1032</v>
+        <v>1019</v>
       </c>
       <c r="E74" s="39"/>
       <c r="F74" s="39" t="s">
-        <v>1031</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.3">
@@ -5961,14 +5958,14 @@
         <v>158</v>
       </c>
       <c r="C75" s="39" t="s">
-        <v>1232</v>
+        <v>1216</v>
       </c>
       <c r="D75" s="39" t="s">
-        <v>1033</v>
+        <v>1020</v>
       </c>
       <c r="E75" s="39"/>
       <c r="F75" s="39" t="s">
-        <v>1031</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.3">
@@ -5979,14 +5976,14 @@
         <v>161</v>
       </c>
       <c r="C76" s="37" t="s">
-        <v>1233</v>
+        <v>1217</v>
       </c>
       <c r="D76" s="37" t="s">
         <v>157</v>
       </c>
       <c r="E76" s="37"/>
       <c r="F76" s="37" t="s">
-        <v>1031</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -5994,17 +5991,17 @@
         <v>54</v>
       </c>
       <c r="B77" s="37" t="s">
-        <v>1034</v>
+        <v>1021</v>
       </c>
       <c r="C77" s="37" t="s">
-        <v>1234</v>
+        <v>1218</v>
       </c>
       <c r="D77" s="37" t="s">
         <v>160</v>
       </c>
       <c r="E77" s="37"/>
       <c r="F77" s="37" t="s">
-        <v>1031</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -6012,17 +6009,17 @@
         <v>54</v>
       </c>
       <c r="B78" s="37" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>1235</v>
+        <v>1219</v>
       </c>
       <c r="D78" s="37" t="s">
         <v>163</v>
       </c>
       <c r="E78" s="37"/>
       <c r="F78" s="37" t="s">
-        <v>1031</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -6030,7 +6027,7 @@
         <v>117</v>
       </c>
       <c r="B79" s="37" t="s">
-        <v>1036</v>
+        <v>1023</v>
       </c>
       <c r="C79" s="37" t="s">
         <v>118</v>
@@ -6040,7 +6037,7 @@
       </c>
       <c r="E79" s="37"/>
       <c r="F79" s="37" t="s">
-        <v>1031</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -6048,7 +6045,7 @@
         <v>54</v>
       </c>
       <c r="B80" s="37" t="s">
-        <v>1168</v>
+        <v>1152</v>
       </c>
       <c r="C80" s="32" t="s">
         <v>4</v>
@@ -6062,10 +6059,10 @@
         <v>54</v>
       </c>
       <c r="B81" s="37" t="s">
-        <v>1037</v>
+        <v>1024</v>
       </c>
       <c r="C81" s="32" t="s">
-        <v>992</v>
+        <v>979</v>
       </c>
       <c r="D81" s="32"/>
       <c r="E81" s="32"/>
@@ -6079,14 +6076,14 @@
         <v>164</v>
       </c>
       <c r="C82" s="37" t="s">
-        <v>1173</v>
+        <v>1157</v>
       </c>
       <c r="D82" s="37" t="s">
         <v>56</v>
       </c>
       <c r="E82" s="37"/>
       <c r="F82" s="37" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -6104,7 +6101,7 @@
       </c>
       <c r="E83" s="37"/>
       <c r="F83" s="37" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -6122,7 +6119,7 @@
       </c>
       <c r="E84" s="37"/>
       <c r="F84" s="37" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -6140,7 +6137,7 @@
       </c>
       <c r="E85" s="37"/>
       <c r="F85" s="37" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -6151,14 +6148,14 @@
         <v>168</v>
       </c>
       <c r="C86" s="37" t="s">
-        <v>1190</v>
+        <v>1174</v>
       </c>
       <c r="D86" s="37" t="s">
         <v>169</v>
       </c>
       <c r="E86" s="37"/>
       <c r="F86" s="37" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -6176,7 +6173,7 @@
       </c>
       <c r="E87" s="37"/>
       <c r="F87" s="37" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -6194,7 +6191,7 @@
       </c>
       <c r="E88" s="37"/>
       <c r="F88" s="37" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -6202,7 +6199,7 @@
         <v>117</v>
       </c>
       <c r="B89" s="37" t="s">
-        <v>1039</v>
+        <v>1026</v>
       </c>
       <c r="C89" s="37" t="s">
         <v>118</v>
@@ -6212,7 +6209,7 @@
       </c>
       <c r="E89" s="37"/>
       <c r="F89" s="37" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -6220,7 +6217,7 @@
         <v>54</v>
       </c>
       <c r="B90" s="37" t="s">
-        <v>1167</v>
+        <v>1151</v>
       </c>
       <c r="C90" s="32" t="s">
         <v>5</v>
@@ -6234,10 +6231,10 @@
         <v>54</v>
       </c>
       <c r="B91" s="37" t="s">
-        <v>1040</v>
+        <v>1027</v>
       </c>
       <c r="C91" s="32" t="s">
-        <v>992</v>
+        <v>979</v>
       </c>
       <c r="D91" s="32"/>
       <c r="E91" s="32"/>
@@ -6251,14 +6248,14 @@
         <v>176</v>
       </c>
       <c r="C92" s="37" t="s">
-        <v>1173</v>
+        <v>1157</v>
       </c>
       <c r="D92" s="37" t="s">
         <v>56</v>
       </c>
       <c r="E92" s="37"/>
       <c r="F92" s="37" t="s">
-        <v>1041</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -6276,7 +6273,7 @@
       </c>
       <c r="E93" s="37"/>
       <c r="F93" s="37" t="s">
-        <v>1041</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -6294,7 +6291,7 @@
       </c>
       <c r="E94" s="37"/>
       <c r="F94" s="37" t="s">
-        <v>1041</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -6312,7 +6309,7 @@
       </c>
       <c r="E95" s="37"/>
       <c r="F95" s="37" t="s">
-        <v>1041</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -6323,14 +6320,14 @@
         <v>180</v>
       </c>
       <c r="C96" s="37" t="s">
-        <v>1180</v>
+        <v>1164</v>
       </c>
       <c r="D96" s="37" t="s">
-        <v>1157</v>
+        <v>1142</v>
       </c>
       <c r="E96" s="37"/>
       <c r="F96" s="37" t="s">
-        <v>1041</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -6348,7 +6345,7 @@
       </c>
       <c r="E97" s="37"/>
       <c r="F97" s="37" t="s">
-        <v>1041</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -6366,7 +6363,7 @@
       </c>
       <c r="E98" s="37"/>
       <c r="F98" s="37" t="s">
-        <v>1041</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -6384,7 +6381,7 @@
       </c>
       <c r="E99" s="37"/>
       <c r="F99" s="37" t="s">
-        <v>1041</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -6402,7 +6399,7 @@
       </c>
       <c r="E100" s="37"/>
       <c r="F100" s="37" t="s">
-        <v>1041</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -6410,7 +6407,7 @@
         <v>117</v>
       </c>
       <c r="B101" s="37" t="s">
-        <v>1042</v>
+        <v>1029</v>
       </c>
       <c r="C101" s="37" t="s">
         <v>118</v>
@@ -6420,7 +6417,7 @@
       </c>
       <c r="E101" s="37"/>
       <c r="F101" s="37" t="s">
-        <v>1041</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -6428,7 +6425,7 @@
         <v>54</v>
       </c>
       <c r="B102" s="37" t="s">
-        <v>1166</v>
+        <v>1150</v>
       </c>
       <c r="C102" s="32" t="s">
         <v>6</v>
@@ -6442,10 +6439,10 @@
         <v>54</v>
       </c>
       <c r="B103" s="37" t="s">
-        <v>1043</v>
+        <v>1030</v>
       </c>
       <c r="C103" s="32" t="s">
-        <v>992</v>
+        <v>979</v>
       </c>
       <c r="D103" s="32"/>
       <c r="E103" s="32"/>
@@ -6459,14 +6456,14 @@
         <v>185</v>
       </c>
       <c r="C104" s="37" t="s">
-        <v>1173</v>
+        <v>1157</v>
       </c>
       <c r="D104" s="37" t="s">
         <v>56</v>
       </c>
       <c r="E104" s="37"/>
       <c r="F104" s="37" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -6484,7 +6481,7 @@
       </c>
       <c r="E105" s="37"/>
       <c r="F105" s="37" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -6502,7 +6499,7 @@
       </c>
       <c r="E106" s="37"/>
       <c r="F106" s="37" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -6520,7 +6517,7 @@
       </c>
       <c r="E107" s="37"/>
       <c r="F107" s="37" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -6531,14 +6528,14 @@
         <v>189</v>
       </c>
       <c r="C108" s="37" t="s">
-        <v>1181</v>
+        <v>1165</v>
       </c>
       <c r="D108" s="37" t="s">
-        <v>1157</v>
+        <v>1142</v>
       </c>
       <c r="E108" s="37"/>
       <c r="F108" s="37" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -6556,7 +6553,7 @@
       </c>
       <c r="E109" s="37"/>
       <c r="F109" s="37" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -6574,7 +6571,7 @@
       </c>
       <c r="E110" s="37"/>
       <c r="F110" s="37" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -6592,7 +6589,7 @@
       </c>
       <c r="E111" s="37"/>
       <c r="F111" s="37" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -6610,7 +6607,7 @@
       </c>
       <c r="E112" s="37"/>
       <c r="F112" s="37" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -6618,7 +6615,7 @@
         <v>117</v>
       </c>
       <c r="B113" s="37" t="s">
-        <v>1045</v>
+        <v>1032</v>
       </c>
       <c r="C113" s="37" t="s">
         <v>118</v>
@@ -6628,7 +6625,7 @@
       </c>
       <c r="E113" s="37"/>
       <c r="F113" s="37" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -6636,7 +6633,7 @@
         <v>54</v>
       </c>
       <c r="B114" s="37" t="s">
-        <v>1165</v>
+        <v>1149</v>
       </c>
       <c r="C114" s="32" t="s">
         <v>7</v>
@@ -6650,10 +6647,10 @@
         <v>54</v>
       </c>
       <c r="B115" s="37" t="s">
-        <v>1046</v>
+        <v>1033</v>
       </c>
       <c r="C115" s="32" t="s">
-        <v>992</v>
+        <v>979</v>
       </c>
       <c r="D115" s="32"/>
       <c r="E115" s="32"/>
@@ -6667,14 +6664,14 @@
         <v>194</v>
       </c>
       <c r="C116" s="37" t="s">
-        <v>1173</v>
+        <v>1157</v>
       </c>
       <c r="D116" s="37" t="s">
         <v>56</v>
       </c>
       <c r="E116" s="37"/>
       <c r="F116" s="37" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -6692,7 +6689,7 @@
       </c>
       <c r="E117" s="37"/>
       <c r="F117" s="37" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -6710,7 +6707,7 @@
       </c>
       <c r="E118" s="37"/>
       <c r="F118" s="37" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -6728,7 +6725,7 @@
       </c>
       <c r="E119" s="37"/>
       <c r="F119" s="37" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -6739,14 +6736,14 @@
         <v>198</v>
       </c>
       <c r="C120" s="37" t="s">
-        <v>1191</v>
+        <v>1175</v>
       </c>
       <c r="D120" s="37" t="s">
-        <v>1157</v>
+        <v>1142</v>
       </c>
       <c r="E120" s="37"/>
       <c r="F120" s="37" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -6764,7 +6761,7 @@
       </c>
       <c r="E121" s="37"/>
       <c r="F121" s="37" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -6782,7 +6779,7 @@
       </c>
       <c r="E122" s="37"/>
       <c r="F122" s="37" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -6800,7 +6797,7 @@
       </c>
       <c r="E123" s="37"/>
       <c r="F123" s="37" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -6818,7 +6815,7 @@
       </c>
       <c r="E124" s="37"/>
       <c r="F124" s="37" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -6826,7 +6823,7 @@
         <v>117</v>
       </c>
       <c r="B125" s="37" t="s">
-        <v>1048</v>
+        <v>1035</v>
       </c>
       <c r="C125" s="37" t="s">
         <v>118</v>
@@ -6836,7 +6833,7 @@
       </c>
       <c r="E125" s="37"/>
       <c r="F125" s="37" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -6844,7 +6841,7 @@
         <v>54</v>
       </c>
       <c r="B126" s="37" t="s">
-        <v>1164</v>
+        <v>1148</v>
       </c>
       <c r="C126" s="32" t="s">
         <v>8</v>
@@ -6858,10 +6855,10 @@
         <v>54</v>
       </c>
       <c r="B127" s="37" t="s">
-        <v>1049</v>
+        <v>1036</v>
       </c>
       <c r="C127" s="32" t="s">
-        <v>992</v>
+        <v>979</v>
       </c>
       <c r="D127" s="32"/>
       <c r="E127" s="32"/>
@@ -6875,14 +6872,14 @@
         <v>203</v>
       </c>
       <c r="C128" s="37" t="s">
-        <v>1173</v>
+        <v>1157</v>
       </c>
       <c r="D128" s="37" t="s">
         <v>56</v>
       </c>
       <c r="E128" s="37"/>
       <c r="F128" s="37" t="s">
-        <v>1050</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -6900,7 +6897,7 @@
       </c>
       <c r="E129" s="37"/>
       <c r="F129" s="37" t="s">
-        <v>1050</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -6918,7 +6915,7 @@
       </c>
       <c r="E130" s="37"/>
       <c r="F130" s="37" t="s">
-        <v>1050</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -6936,7 +6933,7 @@
       </c>
       <c r="E131" s="37"/>
       <c r="F131" s="37" t="s">
-        <v>1050</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -6947,14 +6944,14 @@
         <v>207</v>
       </c>
       <c r="C132" s="37" t="s">
-        <v>1155</v>
+        <v>1140</v>
       </c>
       <c r="D132" s="37" t="s">
         <v>208</v>
       </c>
       <c r="E132" s="37"/>
       <c r="F132" s="37" t="s">
-        <v>1050</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -6965,14 +6962,14 @@
         <v>209</v>
       </c>
       <c r="C133" s="37" t="s">
-        <v>1051</v>
+        <v>1038</v>
       </c>
       <c r="D133" s="37" t="s">
         <v>211</v>
       </c>
       <c r="E133" s="37"/>
       <c r="F133" s="37" t="s">
-        <v>1050</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="134" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -6983,14 +6980,14 @@
         <v>212</v>
       </c>
       <c r="C134" s="39" t="s">
-        <v>1052</v>
+        <v>1039</v>
       </c>
       <c r="D134" s="39" t="s">
-        <v>1053</v>
+        <v>1040</v>
       </c>
       <c r="E134" s="39"/>
       <c r="F134" s="39" t="s">
-        <v>1050</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -7008,7 +7005,7 @@
       </c>
       <c r="E135" s="37"/>
       <c r="F135" s="37" t="s">
-        <v>1050</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -7016,7 +7013,7 @@
         <v>54</v>
       </c>
       <c r="B136" s="37" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
       <c r="C136" s="37" t="s">
         <v>216</v>
@@ -7026,7 +7023,7 @@
       </c>
       <c r="E136" s="37"/>
       <c r="F136" s="37" t="s">
-        <v>1050</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -7034,7 +7031,7 @@
         <v>54</v>
       </c>
       <c r="B137" s="37" t="s">
-        <v>1163</v>
+        <v>1147</v>
       </c>
       <c r="C137" s="32" t="s">
         <v>9</v>
@@ -7048,10 +7045,10 @@
         <v>54</v>
       </c>
       <c r="B138" s="37" t="s">
-        <v>1055</v>
+        <v>1042</v>
       </c>
       <c r="C138" s="32" t="s">
-        <v>992</v>
+        <v>979</v>
       </c>
       <c r="D138" s="32"/>
       <c r="E138" s="32"/>
@@ -7065,14 +7062,14 @@
         <v>218</v>
       </c>
       <c r="C139" s="37" t="s">
-        <v>1173</v>
+        <v>1157</v>
       </c>
       <c r="D139" s="37" t="s">
         <v>56</v>
       </c>
       <c r="E139" s="37"/>
       <c r="F139" s="37" t="s">
-        <v>1056</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -7090,7 +7087,7 @@
       </c>
       <c r="E140" s="37"/>
       <c r="F140" s="37" t="s">
-        <v>1056</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -7108,7 +7105,7 @@
       </c>
       <c r="E141" s="37"/>
       <c r="F141" s="37" t="s">
-        <v>1056</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -7126,7 +7123,7 @@
       </c>
       <c r="E142" s="37"/>
       <c r="F142" s="37" t="s">
-        <v>1056</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -7137,14 +7134,14 @@
         <v>223</v>
       </c>
       <c r="C143" s="37" t="s">
-        <v>1057</v>
+        <v>1044</v>
       </c>
       <c r="D143" s="37" t="s">
         <v>224</v>
       </c>
       <c r="E143" s="37"/>
       <c r="F143" s="37" t="s">
-        <v>1056</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -7155,14 +7152,14 @@
         <v>225</v>
       </c>
       <c r="C144" s="37" t="s">
-        <v>1058</v>
+        <v>1045</v>
       </c>
       <c r="D144" s="37" t="s">
         <v>222</v>
       </c>
       <c r="E144" s="37"/>
       <c r="F144" s="37" t="s">
-        <v>1056</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="145" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -7173,14 +7170,14 @@
         <v>227</v>
       </c>
       <c r="C145" s="39" t="s">
-        <v>1059</v>
+        <v>1046</v>
       </c>
       <c r="D145" s="39" t="s">
-        <v>1060</v>
+        <v>1047</v>
       </c>
       <c r="E145" s="39"/>
       <c r="F145" s="39" t="s">
-        <v>1056</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -7188,17 +7185,17 @@
         <v>54</v>
       </c>
       <c r="B146" s="37" t="s">
-        <v>1061</v>
+        <v>1048</v>
       </c>
       <c r="C146" s="37" t="s">
         <v>226</v>
       </c>
       <c r="D146" s="37" t="s">
-        <v>1062</v>
+        <v>1049</v>
       </c>
       <c r="E146" s="37"/>
       <c r="F146" s="37" t="s">
-        <v>1056</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="60" x14ac:dyDescent="0.3">
@@ -7206,7 +7203,7 @@
         <v>54</v>
       </c>
       <c r="B147" s="37" t="s">
-        <v>1063</v>
+        <v>1050</v>
       </c>
       <c r="C147" s="37" t="s">
         <v>228</v>
@@ -7216,7 +7213,7 @@
       </c>
       <c r="E147" s="37"/>
       <c r="F147" s="37" t="s">
-        <v>1056</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -7224,17 +7221,17 @@
         <v>117</v>
       </c>
       <c r="B148" s="37" t="s">
-        <v>1064</v>
+        <v>1051</v>
       </c>
       <c r="C148" s="37" t="s">
-        <v>1156</v>
+        <v>1141</v>
       </c>
       <c r="D148" s="37" t="s">
         <v>230</v>
       </c>
       <c r="E148" s="37"/>
       <c r="F148" s="37" t="s">
-        <v>1056</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
@@ -7242,7 +7239,7 @@
         <v>54</v>
       </c>
       <c r="B149" s="37" t="s">
-        <v>1162</v>
+        <v>1146</v>
       </c>
       <c r="C149" s="32" t="s">
         <v>10</v>
@@ -7256,7 +7253,7 @@
         <v>54</v>
       </c>
       <c r="B150" s="37" t="s">
-        <v>1175</v>
+        <v>1159</v>
       </c>
       <c r="C150" s="32" t="s">
         <v>11</v>
@@ -7276,7 +7273,7 @@
         <v>12</v>
       </c>
       <c r="D151" s="37" t="s">
-        <v>1062</v>
+        <v>1049</v>
       </c>
       <c r="E151" s="37"/>
       <c r="F151" s="37"/>
@@ -7292,7 +7289,7 @@
         <v>13</v>
       </c>
       <c r="D152" s="37" t="s">
-        <v>1062</v>
+        <v>1049</v>
       </c>
       <c r="E152" s="37"/>
       <c r="F152" s="37"/>
@@ -7302,13 +7299,13 @@
         <v>54</v>
       </c>
       <c r="B153" s="37" t="s">
-        <v>1176</v>
+        <v>1160</v>
       </c>
       <c r="C153" s="37" t="s">
         <v>233</v>
       </c>
       <c r="D153" s="37" t="s">
-        <v>1062</v>
+        <v>1049</v>
       </c>
       <c r="E153" s="37"/>
       <c r="F153" s="37"/>
@@ -7318,7 +7315,7 @@
         <v>54</v>
       </c>
       <c r="B154" s="37" t="s">
-        <v>1177</v>
+        <v>1161</v>
       </c>
       <c r="C154" s="41" t="s">
         <v>14</v>
@@ -7332,7 +7329,7 @@
         <v>54</v>
       </c>
       <c r="B155" s="37" t="s">
-        <v>1174</v>
+        <v>1158</v>
       </c>
       <c r="C155" s="41" t="s">
         <v>15</v>
@@ -7346,7 +7343,7 @@
         <v>54</v>
       </c>
       <c r="B156" s="37" t="s">
-        <v>1211</v>
+        <v>1195</v>
       </c>
       <c r="C156" s="41" t="s">
         <v>16</v>
@@ -7360,7 +7357,7 @@
         <v>54</v>
       </c>
       <c r="B157" s="35" t="s">
-        <v>1178</v>
+        <v>1162</v>
       </c>
       <c r="C157" s="36" t="s">
         <v>17</v>
@@ -7374,7 +7371,7 @@
         <v>54</v>
       </c>
       <c r="B158" s="37" t="s">
-        <v>1212</v>
+        <v>1196</v>
       </c>
       <c r="C158" s="32" t="s">
         <v>18</v>
@@ -7412,7 +7409,7 @@
       </c>
       <c r="E160" s="42"/>
       <c r="F160" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -7423,14 +7420,14 @@
         <v>236</v>
       </c>
       <c r="C161" s="37" t="s">
-        <v>1128</v>
+        <v>1113</v>
       </c>
       <c r="D161" s="37">
         <v>76.2</v>
       </c>
       <c r="E161" s="37"/>
       <c r="F161" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -7444,11 +7441,11 @@
         <v>240</v>
       </c>
       <c r="D162" s="37" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="E162" s="37"/>
       <c r="F162" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -7459,14 +7456,14 @@
         <v>239</v>
       </c>
       <c r="C163" s="37" t="s">
-        <v>1131</v>
+        <v>1116</v>
       </c>
       <c r="D163" s="37" t="s">
-        <v>1129</v>
+        <v>1114</v>
       </c>
       <c r="E163" s="37"/>
       <c r="F163" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -7474,17 +7471,17 @@
         <v>54</v>
       </c>
       <c r="B164" s="37" t="s">
-        <v>1132</v>
+        <v>1117</v>
       </c>
       <c r="C164" s="37" t="s">
         <v>243</v>
       </c>
       <c r="D164" s="37" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="E164" s="37"/>
       <c r="F164" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
@@ -7509,14 +7506,14 @@
         <v>242</v>
       </c>
       <c r="C166" s="37" t="s">
-        <v>1133</v>
+        <v>1118</v>
       </c>
       <c r="D166" s="37" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="E166" s="37"/>
       <c r="F166" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
@@ -7534,7 +7531,7 @@
       </c>
       <c r="E167" s="37"/>
       <c r="F167" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -7552,7 +7549,7 @@
       </c>
       <c r="E168" s="37"/>
       <c r="F168" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
@@ -7563,14 +7560,14 @@
         <v>248</v>
       </c>
       <c r="C169" s="37" t="s">
-        <v>981</v>
+        <v>970</v>
       </c>
       <c r="D169" s="37" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="E169" s="37"/>
       <c r="F169" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -7588,7 +7585,7 @@
       </c>
       <c r="E170" s="37"/>
       <c r="F170" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
@@ -7606,7 +7603,7 @@
       </c>
       <c r="E171" s="37"/>
       <c r="F171" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -7624,7 +7621,7 @@
       </c>
       <c r="E172" s="37"/>
       <c r="F172" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="45" x14ac:dyDescent="0.3">
@@ -7642,7 +7639,7 @@
       </c>
       <c r="E173" s="37"/>
       <c r="F173" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
@@ -7660,7 +7657,7 @@
       </c>
       <c r="E174" s="37"/>
       <c r="F174" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="45" x14ac:dyDescent="0.3">
@@ -7678,7 +7675,7 @@
       </c>
       <c r="E175" s="37"/>
       <c r="F175" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -7696,7 +7693,7 @@
       </c>
       <c r="E176" s="37"/>
       <c r="F176" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
@@ -7704,7 +7701,7 @@
         <v>54</v>
       </c>
       <c r="B177" s="37" t="s">
-        <v>1213</v>
+        <v>1197</v>
       </c>
       <c r="C177" s="43" t="s">
         <v>21</v>
@@ -7742,7 +7739,7 @@
       </c>
       <c r="E179" s="37"/>
       <c r="F179" s="37" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
@@ -7753,14 +7750,14 @@
         <v>264</v>
       </c>
       <c r="C180" s="37" t="s">
-        <v>1128</v>
+        <v>1113</v>
       </c>
       <c r="D180" s="37">
         <v>76.2</v>
       </c>
       <c r="E180" s="37"/>
       <c r="F180" s="37" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -7774,11 +7771,11 @@
         <v>240</v>
       </c>
       <c r="D181" s="37" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="E181" s="37"/>
       <c r="F181" s="37" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
@@ -7789,14 +7786,14 @@
         <v>266</v>
       </c>
       <c r="C182" s="37" t="s">
-        <v>1131</v>
+        <v>1116</v>
       </c>
       <c r="D182" s="37" t="s">
-        <v>1129</v>
+        <v>1114</v>
       </c>
       <c r="E182" s="37"/>
       <c r="F182" s="37" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
@@ -7828,7 +7825,7 @@
       </c>
       <c r="E184" s="37"/>
       <c r="F184" s="37" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -7846,7 +7843,7 @@
       </c>
       <c r="E185" s="37"/>
       <c r="F185" s="37" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -7864,7 +7861,7 @@
       </c>
       <c r="E186" s="37"/>
       <c r="F186" s="37" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
@@ -7875,14 +7872,14 @@
         <v>271</v>
       </c>
       <c r="C187" s="37" t="s">
-        <v>980</v>
+        <v>969</v>
       </c>
       <c r="D187" s="37" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="E187" s="37"/>
       <c r="F187" s="37" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -7900,7 +7897,7 @@
       </c>
       <c r="E188" s="37"/>
       <c r="F188" s="37" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
@@ -7918,7 +7915,7 @@
       </c>
       <c r="E189" s="37"/>
       <c r="F189" s="37" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
@@ -7936,7 +7933,7 @@
       </c>
       <c r="E190" s="37"/>
       <c r="F190" s="37" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -7954,7 +7951,7 @@
       </c>
       <c r="E191" s="37"/>
       <c r="F191" s="37" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
@@ -7972,7 +7969,7 @@
       </c>
       <c r="E192" s="37"/>
       <c r="F192" s="37" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="45" x14ac:dyDescent="0.3">
@@ -7990,7 +7987,7 @@
       </c>
       <c r="E193" s="37"/>
       <c r="F193" s="37" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
@@ -8008,7 +8005,7 @@
       </c>
       <c r="E194" s="37"/>
       <c r="F194" s="37" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
@@ -8016,7 +8013,7 @@
         <v>54</v>
       </c>
       <c r="B195" s="37" t="s">
-        <v>1214</v>
+        <v>1198</v>
       </c>
       <c r="C195" s="32" t="s">
         <v>24</v>
@@ -8054,7 +8051,7 @@
       </c>
       <c r="E197" s="37"/>
       <c r="F197" s="37" t="s">
-        <v>1135</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
@@ -8065,14 +8062,14 @@
         <v>284</v>
       </c>
       <c r="C198" s="37" t="s">
-        <v>1128</v>
+        <v>1113</v>
       </c>
       <c r="D198" s="37">
         <v>76.2</v>
       </c>
       <c r="E198" s="37"/>
       <c r="F198" s="37" t="s">
-        <v>1135</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
@@ -8086,11 +8083,11 @@
         <v>240</v>
       </c>
       <c r="D199" s="37" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="E199" s="37"/>
       <c r="F199" s="37" t="s">
-        <v>1135</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
@@ -8101,14 +8098,14 @@
         <v>286</v>
       </c>
       <c r="C200" s="37" t="s">
-        <v>1131</v>
+        <v>1116</v>
       </c>
       <c r="D200" s="37" t="s">
-        <v>1129</v>
+        <v>1114</v>
       </c>
       <c r="E200" s="37"/>
       <c r="F200" s="37" t="s">
-        <v>1135</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
@@ -8136,11 +8133,11 @@
         <v>289</v>
       </c>
       <c r="D202" s="37" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="E202" s="37"/>
       <c r="F202" s="37" t="s">
-        <v>1135</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
@@ -8158,7 +8155,7 @@
       </c>
       <c r="E203" s="37"/>
       <c r="F203" s="37" t="s">
-        <v>1135</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
@@ -8176,7 +8173,7 @@
       </c>
       <c r="E204" s="37"/>
       <c r="F204" s="37" t="s">
-        <v>1135</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
@@ -8190,11 +8187,11 @@
         <v>294</v>
       </c>
       <c r="D205" s="37" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="E205" s="37"/>
       <c r="F205" s="37" t="s">
-        <v>1135</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -8202,7 +8199,7 @@
         <v>54</v>
       </c>
       <c r="B206" s="37" t="s">
-        <v>1134</v>
+        <v>1119</v>
       </c>
       <c r="C206" s="37" t="s">
         <v>250</v>
@@ -8212,7 +8209,7 @@
       </c>
       <c r="E206" s="37"/>
       <c r="F206" s="37" t="s">
-        <v>1135</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
@@ -8230,7 +8227,7 @@
       </c>
       <c r="E207" s="37"/>
       <c r="F207" s="37" t="s">
-        <v>1135</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
@@ -8248,7 +8245,7 @@
       </c>
       <c r="E208" s="37"/>
       <c r="F208" s="37" t="s">
-        <v>1135</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -8266,7 +8263,7 @@
       </c>
       <c r="E209" s="37"/>
       <c r="F209" s="37" t="s">
-        <v>1135</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
@@ -8284,7 +8281,7 @@
       </c>
       <c r="E210" s="37"/>
       <c r="F210" s="37" t="s">
-        <v>1135</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="45" x14ac:dyDescent="0.3">
@@ -8302,7 +8299,7 @@
       </c>
       <c r="E211" s="37"/>
       <c r="F211" s="37" t="s">
-        <v>1135</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
@@ -8320,7 +8317,7 @@
       </c>
       <c r="E212" s="37"/>
       <c r="F212" s="37" t="s">
-        <v>1135</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
@@ -8328,7 +8325,7 @@
         <v>54</v>
       </c>
       <c r="B213" s="37" t="s">
-        <v>1215</v>
+        <v>1199</v>
       </c>
       <c r="C213" s="43" t="s">
         <v>303</v>
@@ -8366,7 +8363,7 @@
       </c>
       <c r="E215" s="37"/>
       <c r="F215" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
@@ -8384,7 +8381,7 @@
       </c>
       <c r="E216" s="37"/>
       <c r="F216" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
@@ -8402,7 +8399,7 @@
       </c>
       <c r="E217" s="37"/>
       <c r="F217" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="45" x14ac:dyDescent="0.3">
@@ -8420,7 +8417,7 @@
       </c>
       <c r="E218" s="37"/>
       <c r="F218" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="45" x14ac:dyDescent="0.3">
@@ -8438,7 +8435,7 @@
       </c>
       <c r="E219" s="37"/>
       <c r="F219" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
@@ -8452,11 +8449,11 @@
         <v>316</v>
       </c>
       <c r="D220" s="37" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="E220" s="37"/>
       <c r="F220" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
@@ -8474,7 +8471,7 @@
       </c>
       <c r="E221" s="37"/>
       <c r="F221" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -8485,14 +8482,14 @@
         <v>319</v>
       </c>
       <c r="C222" s="37" t="s">
-        <v>961</v>
+        <v>950</v>
       </c>
       <c r="D222" s="37" t="s">
-        <v>1062</v>
+        <v>1049</v>
       </c>
       <c r="E222" s="37"/>
       <c r="F222" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -8506,11 +8503,11 @@
         <v>321</v>
       </c>
       <c r="D223" s="37" t="s">
-        <v>1062</v>
+        <v>1049</v>
       </c>
       <c r="E223" s="37"/>
       <c r="F223" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
@@ -8521,14 +8518,14 @@
         <v>322</v>
       </c>
       <c r="C224" s="37" t="s">
-        <v>967</v>
+        <v>956</v>
       </c>
       <c r="D224" s="37">
         <v>76.16</v>
       </c>
       <c r="E224" s="37"/>
       <c r="F224" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
@@ -8546,7 +8543,7 @@
       </c>
       <c r="E225" s="37"/>
       <c r="F225" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
@@ -8564,7 +8561,7 @@
       </c>
       <c r="E226" s="37"/>
       <c r="F226" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
@@ -8596,7 +8593,7 @@
       </c>
       <c r="E228" s="37"/>
       <c r="F228" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
@@ -8610,11 +8607,11 @@
         <v>332</v>
       </c>
       <c r="D229" s="37" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="E229" s="37"/>
       <c r="F229" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
@@ -8632,7 +8629,7 @@
       </c>
       <c r="E230" s="37"/>
       <c r="F230" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
@@ -8650,7 +8647,7 @@
       </c>
       <c r="E231" s="37"/>
       <c r="F231" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
@@ -8664,11 +8661,11 @@
         <v>338</v>
       </c>
       <c r="D232" s="37" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="E232" s="37"/>
       <c r="F232" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
@@ -8686,7 +8683,7 @@
       </c>
       <c r="E233" s="37"/>
       <c r="F233" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
@@ -8704,7 +8701,7 @@
       </c>
       <c r="E234" s="37"/>
       <c r="F234" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -8722,7 +8719,7 @@
       </c>
       <c r="E235" s="37"/>
       <c r="F235" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
@@ -8740,7 +8737,7 @@
       </c>
       <c r="E236" s="37"/>
       <c r="F236" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
@@ -8758,7 +8755,7 @@
       </c>
       <c r="E237" s="37"/>
       <c r="F237" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
@@ -8776,7 +8773,7 @@
       </c>
       <c r="E238" s="37"/>
       <c r="F238" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
@@ -8808,7 +8805,7 @@
       </c>
       <c r="E240" s="37"/>
       <c r="F240" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
@@ -8826,7 +8823,7 @@
       </c>
       <c r="E241" s="37"/>
       <c r="F241" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
@@ -8854,7 +8851,7 @@
         <v>359</v>
       </c>
       <c r="D243" s="37" t="s">
-        <v>1062</v>
+        <v>1049</v>
       </c>
       <c r="E243" s="37"/>
       <c r="F243" s="37"/>
@@ -8864,7 +8861,7 @@
         <v>54</v>
       </c>
       <c r="B244" s="37" t="s">
-        <v>1216</v>
+        <v>1200</v>
       </c>
       <c r="C244" s="41" t="s">
         <v>27</v>
@@ -8892,17 +8889,17 @@
         <v>54</v>
       </c>
       <c r="B246" s="37" t="s">
-        <v>1195</v>
+        <v>1179</v>
       </c>
       <c r="C246" s="44" t="s">
-        <v>1199</v>
+        <v>1183</v>
       </c>
       <c r="D246" s="37" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="E246" s="37"/>
       <c r="F246" s="37" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
@@ -8910,17 +8907,17 @@
         <v>54</v>
       </c>
       <c r="B247" s="37" t="s">
-        <v>1196</v>
+        <v>1180</v>
       </c>
       <c r="C247" s="44" t="s">
-        <v>1200</v>
+        <v>1184</v>
       </c>
       <c r="D247" s="37" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="E247" s="37"/>
       <c r="F247" s="37" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
@@ -8928,17 +8925,17 @@
         <v>54</v>
       </c>
       <c r="B248" s="37" t="s">
-        <v>1197</v>
+        <v>1181</v>
       </c>
       <c r="C248" s="44" t="s">
-        <v>1201</v>
+        <v>1185</v>
       </c>
       <c r="D248" s="37" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="E248" s="37"/>
       <c r="F248" s="37" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
@@ -8946,17 +8943,17 @@
         <v>54</v>
       </c>
       <c r="B249" s="37" t="s">
-        <v>1198</v>
+        <v>1182</v>
       </c>
       <c r="C249" s="44" t="s">
-        <v>1202</v>
+        <v>1186</v>
       </c>
       <c r="D249" s="37" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="E249" s="37"/>
       <c r="F249" s="37" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
@@ -8978,17 +8975,17 @@
         <v>54</v>
       </c>
       <c r="B251" s="37" t="s">
-        <v>1207</v>
+        <v>1191</v>
       </c>
       <c r="C251" s="37" t="s">
-        <v>1203</v>
+        <v>1187</v>
       </c>
       <c r="D251" s="37" t="s">
-        <v>1062</v>
+        <v>1049</v>
       </c>
       <c r="E251" s="37"/>
       <c r="F251" s="37" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="252" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -8996,17 +8993,17 @@
         <v>54</v>
       </c>
       <c r="B252" s="37" t="s">
-        <v>1208</v>
+        <v>1192</v>
       </c>
       <c r="C252" s="37" t="s">
-        <v>1204</v>
+        <v>1188</v>
       </c>
       <c r="D252" s="37" t="s">
-        <v>1062</v>
+        <v>1049</v>
       </c>
       <c r="E252" s="37"/>
       <c r="F252" s="37" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="253" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -9014,17 +9011,17 @@
         <v>54</v>
       </c>
       <c r="B253" s="37" t="s">
-        <v>1209</v>
+        <v>1193</v>
       </c>
       <c r="C253" s="37" t="s">
-        <v>1205</v>
+        <v>1189</v>
       </c>
       <c r="D253" s="37" t="s">
-        <v>1062</v>
+        <v>1049</v>
       </c>
       <c r="E253" s="37"/>
       <c r="F253" s="37" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="254" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -9032,17 +9029,17 @@
         <v>54</v>
       </c>
       <c r="B254" s="37" t="s">
-        <v>1210</v>
+        <v>1194</v>
       </c>
       <c r="C254" s="37" t="s">
-        <v>1206</v>
+        <v>1190</v>
       </c>
       <c r="D254" s="37" t="s">
-        <v>1062</v>
+        <v>1049</v>
       </c>
       <c r="E254" s="37"/>
       <c r="F254" s="37" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
@@ -9050,7 +9047,7 @@
         <v>54</v>
       </c>
       <c r="B255" s="37" t="s">
-        <v>1217</v>
+        <v>1201</v>
       </c>
       <c r="C255" s="32" t="s">
         <v>30</v>
@@ -9070,7 +9067,7 @@
         <v>31</v>
       </c>
       <c r="D256" s="37" t="s">
-        <v>1062</v>
+        <v>1049</v>
       </c>
       <c r="E256" s="37"/>
       <c r="F256" s="37"/>
@@ -9086,7 +9083,7 @@
         <v>32</v>
       </c>
       <c r="D257" s="37" t="s">
-        <v>1062</v>
+        <v>1049</v>
       </c>
       <c r="E257" s="37"/>
       <c r="F257" s="37"/>
@@ -9096,7 +9093,7 @@
         <v>54</v>
       </c>
       <c r="B258" s="35" t="s">
-        <v>1187</v>
+        <v>1171</v>
       </c>
       <c r="C258" s="36" t="s">
         <v>33</v>
@@ -9110,7 +9107,7 @@
         <v>54</v>
       </c>
       <c r="B259" s="37" t="s">
-        <v>1186</v>
+        <v>1170</v>
       </c>
       <c r="C259" s="32" t="s">
         <v>1</v>
@@ -9148,7 +9145,7 @@
       </c>
       <c r="E261" s="37"/>
       <c r="F261" s="37" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
@@ -9166,7 +9163,7 @@
       </c>
       <c r="E262" s="37"/>
       <c r="F262" s="37" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -9184,7 +9181,7 @@
       </c>
       <c r="E263" s="37"/>
       <c r="F263" s="37" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -9202,7 +9199,7 @@
       </c>
       <c r="E264" s="37"/>
       <c r="F264" s="37" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
@@ -9220,7 +9217,7 @@
       </c>
       <c r="E265" s="37"/>
       <c r="F265" s="37" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
@@ -9238,7 +9235,7 @@
       </c>
       <c r="E266" s="37"/>
       <c r="F266" s="37" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="45" x14ac:dyDescent="0.3">
@@ -9256,7 +9253,7 @@
       </c>
       <c r="E267" s="37"/>
       <c r="F267" s="37" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -9267,14 +9264,14 @@
         <v>386</v>
       </c>
       <c r="C268" s="44" t="s">
-        <v>1065</v>
+        <v>1052</v>
       </c>
       <c r="D268" s="37" t="s">
         <v>387</v>
       </c>
       <c r="E268" s="37"/>
       <c r="F268" s="37" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="269" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -9282,17 +9279,17 @@
         <v>54</v>
       </c>
       <c r="B269" s="37" t="s">
-        <v>1066</v>
+        <v>1053</v>
       </c>
       <c r="C269" s="44" t="s">
-        <v>1067</v>
+        <v>1054</v>
       </c>
       <c r="D269" s="37" t="s">
-        <v>1068</v>
+        <v>1055</v>
       </c>
       <c r="E269" s="37"/>
       <c r="F269" s="37" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="60" x14ac:dyDescent="0.3">
@@ -9306,11 +9303,11 @@
         <v>389</v>
       </c>
       <c r="D270" s="37" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="E270" s="37"/>
       <c r="F270" s="37" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="45" x14ac:dyDescent="0.3">
@@ -9328,7 +9325,7 @@
       </c>
       <c r="E271" s="37"/>
       <c r="F271" s="37" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="60" x14ac:dyDescent="0.3">
@@ -9346,7 +9343,7 @@
       </c>
       <c r="E272" s="37"/>
       <c r="F272" s="37" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
@@ -9354,7 +9351,7 @@
         <v>54</v>
       </c>
       <c r="B273" s="37" t="s">
-        <v>1069</v>
+        <v>1056</v>
       </c>
       <c r="C273" s="44" t="s">
         <v>397</v>
@@ -9364,7 +9361,7 @@
       </c>
       <c r="E273" s="37"/>
       <c r="F273" s="37" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
@@ -9372,7 +9369,7 @@
         <v>54</v>
       </c>
       <c r="B274" s="37" t="s">
-        <v>1221</v>
+        <v>1205</v>
       </c>
       <c r="C274" s="32" t="s">
         <v>399</v>
@@ -9410,7 +9407,7 @@
       </c>
       <c r="E276" s="37"/>
       <c r="F276" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
@@ -9428,7 +9425,7 @@
       </c>
       <c r="E277" s="37"/>
       <c r="F277" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -9439,14 +9436,14 @@
         <v>405</v>
       </c>
       <c r="C278" s="44" t="s">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="D278" s="37" t="s">
         <v>373</v>
       </c>
       <c r="E278" s="37"/>
       <c r="F278" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -9464,7 +9461,7 @@
       </c>
       <c r="E279" s="37"/>
       <c r="F279" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
@@ -9482,7 +9479,7 @@
       </c>
       <c r="E280" s="37"/>
       <c r="F280" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
@@ -9500,7 +9497,7 @@
       </c>
       <c r="E281" s="37"/>
       <c r="F281" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
@@ -9518,7 +9515,7 @@
       </c>
       <c r="E282" s="37"/>
       <c r="F282" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -9536,7 +9533,7 @@
       </c>
       <c r="E283" s="37"/>
       <c r="F283" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
@@ -9544,10 +9541,10 @@
         <v>54</v>
       </c>
       <c r="B284" s="37" t="s">
-        <v>1144</v>
+        <v>1129</v>
       </c>
       <c r="C284" s="41" t="s">
-        <v>1145</v>
+        <v>1130</v>
       </c>
       <c r="D284" s="41"/>
       <c r="E284" s="41"/>
@@ -9561,14 +9558,14 @@
         <v>415</v>
       </c>
       <c r="C285" s="37" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D285" s="37" t="s">
         <v>416</v>
       </c>
       <c r="E285" s="37"/>
       <c r="F285" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="286" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -9582,11 +9579,11 @@
         <v>418</v>
       </c>
       <c r="D286" s="37" t="s">
-        <v>1068</v>
+        <v>1055</v>
       </c>
       <c r="E286" s="37"/>
       <c r="F286" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="287" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -9600,11 +9597,11 @@
         <v>420</v>
       </c>
       <c r="D287" s="37" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="E287" s="37"/>
       <c r="F287" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="45" x14ac:dyDescent="0.3">
@@ -9622,7 +9619,7 @@
       </c>
       <c r="E288" s="37"/>
       <c r="F288" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="60" x14ac:dyDescent="0.3">
@@ -9640,7 +9637,7 @@
       </c>
       <c r="E289" s="37"/>
       <c r="F289" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="290" spans="1:6" ht="60" x14ac:dyDescent="0.3">
@@ -9658,7 +9655,7 @@
       </c>
       <c r="E290" s="61"/>
       <c r="F290" s="61" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="291" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -9669,14 +9666,14 @@
         <v>426</v>
       </c>
       <c r="C291" s="37" t="s">
-        <v>1192</v>
+        <v>1176</v>
       </c>
       <c r="D291" s="37" t="s">
         <v>428</v>
       </c>
       <c r="E291" s="37"/>
       <c r="F291" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="292" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -9684,17 +9681,17 @@
         <v>54</v>
       </c>
       <c r="B292" s="61" t="s">
-        <v>1265</v>
+        <v>1249</v>
       </c>
       <c r="C292" s="61" t="s">
-        <v>1263</v>
+        <v>1247</v>
       </c>
       <c r="D292" s="61" t="s">
-        <v>1108</v>
+        <v>1094</v>
       </c>
       <c r="E292" s="61"/>
       <c r="F292" s="61" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
@@ -9702,7 +9699,7 @@
         <v>54</v>
       </c>
       <c r="B293" s="37" t="s">
-        <v>1185</v>
+        <v>1169</v>
       </c>
       <c r="C293" s="32" t="s">
         <v>35</v>
@@ -9740,7 +9737,7 @@
       </c>
       <c r="E295" s="37"/>
       <c r="F295" s="37" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
@@ -9758,7 +9755,7 @@
       </c>
       <c r="E296" s="37"/>
       <c r="F296" s="37" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="297" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -9776,7 +9773,7 @@
       </c>
       <c r="E297" s="37"/>
       <c r="F297" s="37" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="298" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -9794,7 +9791,7 @@
       </c>
       <c r="E298" s="37"/>
       <c r="F298" s="37" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
@@ -9812,7 +9809,7 @@
       </c>
       <c r="E299" s="37"/>
       <c r="F299" s="37" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
@@ -9830,7 +9827,7 @@
       </c>
       <c r="E300" s="37"/>
       <c r="F300" s="37" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
@@ -9848,7 +9845,7 @@
       </c>
       <c r="E301" s="37"/>
       <c r="F301" s="37" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="302" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -9866,7 +9863,7 @@
       </c>
       <c r="E302" s="37"/>
       <c r="F302" s="37" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="303" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -9877,14 +9874,14 @@
         <v>439</v>
       </c>
       <c r="C303" s="37" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D303" s="37" t="s">
         <v>416</v>
       </c>
       <c r="E303" s="37"/>
       <c r="F303" s="37" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="304" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -9898,11 +9895,11 @@
         <v>418</v>
       </c>
       <c r="D304" s="37" t="s">
-        <v>1068</v>
+        <v>1055</v>
       </c>
       <c r="E304" s="37"/>
       <c r="F304" s="37" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="305" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -9913,14 +9910,14 @@
         <v>441</v>
       </c>
       <c r="C305" s="37" t="s">
-        <v>1253</v>
+        <v>1237</v>
       </c>
       <c r="D305" s="37" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="E305" s="37"/>
       <c r="F305" s="37" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="306" spans="1:6" ht="45" x14ac:dyDescent="0.3">
@@ -9938,7 +9935,7 @@
       </c>
       <c r="E306" s="37"/>
       <c r="F306" s="37" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="307" spans="1:6" ht="60" x14ac:dyDescent="0.3">
@@ -9946,7 +9943,7 @@
         <v>54</v>
       </c>
       <c r="B307" s="37" t="s">
-        <v>1264</v>
+        <v>1248</v>
       </c>
       <c r="C307" s="44" t="s">
         <v>424</v>
@@ -9956,7 +9953,7 @@
       </c>
       <c r="E307" s="37"/>
       <c r="F307" s="37" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="308" spans="1:6" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.3">
@@ -9974,7 +9971,7 @@
       </c>
       <c r="E308" s="61"/>
       <c r="F308" s="61" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="309" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -9985,14 +9982,14 @@
         <v>444</v>
       </c>
       <c r="C309" s="37" t="s">
-        <v>1192</v>
+        <v>1176</v>
       </c>
       <c r="D309" s="37" t="s">
         <v>428</v>
       </c>
       <c r="E309" s="37"/>
       <c r="F309" s="37" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="310" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -10000,17 +9997,17 @@
         <v>54</v>
       </c>
       <c r="B310" s="61" t="s">
-        <v>1260</v>
+        <v>1244</v>
       </c>
       <c r="C310" s="61" t="s">
-        <v>1263</v>
+        <v>1247</v>
       </c>
       <c r="D310" s="61" t="s">
-        <v>1108</v>
+        <v>1094</v>
       </c>
       <c r="E310" s="61"/>
       <c r="F310" s="61" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
@@ -10018,7 +10015,7 @@
         <v>54</v>
       </c>
       <c r="B311" s="47" t="s">
-        <v>1184</v>
+        <v>1168</v>
       </c>
       <c r="C311" s="32" t="s">
         <v>8</v>
@@ -10056,7 +10053,7 @@
       </c>
       <c r="E313" s="37"/>
       <c r="F313" s="37" t="s">
-        <v>1050</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
@@ -10081,14 +10078,14 @@
         <v>450</v>
       </c>
       <c r="C315" s="37" t="s">
-        <v>1223</v>
+        <v>1207</v>
       </c>
       <c r="D315" s="37" t="s">
-        <v>1224</v>
+        <v>1208</v>
       </c>
       <c r="E315" s="42"/>
       <c r="F315" s="37" t="s">
-        <v>1050</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
@@ -10106,7 +10103,7 @@
       </c>
       <c r="E316" s="37"/>
       <c r="F316" s="37" t="s">
-        <v>1050</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
@@ -10124,7 +10121,7 @@
       </c>
       <c r="E317" s="37"/>
       <c r="F317" s="37" t="s">
-        <v>1050</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="318" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -10142,7 +10139,7 @@
       </c>
       <c r="E318" s="37"/>
       <c r="F318" s="37" t="s">
-        <v>1050</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
@@ -10160,7 +10157,7 @@
       </c>
       <c r="E319" s="37"/>
       <c r="F319" s="37" t="s">
-        <v>1050</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="320" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -10171,14 +10168,14 @@
         <v>463</v>
       </c>
       <c r="C320" s="37" t="s">
-        <v>1254</v>
+        <v>1238</v>
       </c>
       <c r="D320" s="37" t="s">
         <v>416</v>
       </c>
       <c r="E320" s="37"/>
       <c r="F320" s="37" t="s">
-        <v>1050</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="321" spans="1:6" ht="60" x14ac:dyDescent="0.3">
@@ -10196,7 +10193,7 @@
       </c>
       <c r="E321" s="37"/>
       <c r="F321" s="37" t="s">
-        <v>1050</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="322" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -10204,17 +10201,17 @@
         <v>54</v>
       </c>
       <c r="B322" s="61" t="s">
-        <v>1255</v>
+        <v>1239</v>
       </c>
       <c r="C322" s="62" t="s">
-        <v>1256</v>
+        <v>1240</v>
       </c>
       <c r="D322" s="61" t="s">
         <v>398</v>
       </c>
       <c r="E322" s="61"/>
       <c r="F322" s="61" t="s">
-        <v>1050</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
@@ -10222,7 +10219,7 @@
         <v>54</v>
       </c>
       <c r="B323" s="47" t="s">
-        <v>1183</v>
+        <v>1167</v>
       </c>
       <c r="C323" s="57" t="s">
         <v>37</v>
@@ -10260,7 +10257,7 @@
       </c>
       <c r="E325" s="37"/>
       <c r="F325" s="37" t="s">
-        <v>1135</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
@@ -10278,7 +10275,7 @@
       </c>
       <c r="E326" s="37"/>
       <c r="F326" s="37" t="s">
-        <v>1135</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="327" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -10296,7 +10293,7 @@
       </c>
       <c r="E327" s="37"/>
       <c r="F327" s="37" t="s">
-        <v>1135</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="328" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -10314,7 +10311,7 @@
       </c>
       <c r="E328" s="37"/>
       <c r="F328" s="37" t="s">
-        <v>1135</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
@@ -10332,7 +10329,7 @@
       </c>
       <c r="E329" s="37"/>
       <c r="F329" s="37" t="s">
-        <v>1135</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
@@ -10350,7 +10347,7 @@
       </c>
       <c r="E330" s="37"/>
       <c r="F330" s="37" t="s">
-        <v>1135</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
@@ -10358,7 +10355,7 @@
         <v>54</v>
       </c>
       <c r="B331" s="37" t="s">
-        <v>1070</v>
+        <v>1057</v>
       </c>
       <c r="C331" s="37" t="s">
         <v>412</v>
@@ -10368,7 +10365,7 @@
       </c>
       <c r="E331" s="37"/>
       <c r="F331" s="37" t="s">
-        <v>1135</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="332" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -10376,7 +10373,7 @@
         <v>54</v>
       </c>
       <c r="B332" s="37" t="s">
-        <v>1071</v>
+        <v>1058</v>
       </c>
       <c r="C332" s="37" t="s">
         <v>414</v>
@@ -10386,7 +10383,7 @@
       </c>
       <c r="E332" s="37"/>
       <c r="F332" s="37" t="s">
-        <v>1135</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="333" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -10397,14 +10394,14 @@
         <v>474</v>
       </c>
       <c r="C333" s="37" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="D333" s="37" t="s">
         <v>416</v>
       </c>
       <c r="E333" s="37"/>
       <c r="F333" s="37" t="s">
-        <v>1135</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="334" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -10418,11 +10415,11 @@
         <v>418</v>
       </c>
       <c r="D334" s="37" t="s">
-        <v>1068</v>
+        <v>1055</v>
       </c>
       <c r="E334" s="37"/>
       <c r="F334" s="37" t="s">
-        <v>1135</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="335" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -10436,11 +10433,11 @@
         <v>420</v>
       </c>
       <c r="D335" s="37" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="E335" s="37"/>
       <c r="F335" s="37" t="s">
-        <v>1135</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="336" spans="1:6" ht="45" x14ac:dyDescent="0.3">
@@ -10458,7 +10455,7 @@
       </c>
       <c r="E336" s="37"/>
       <c r="F336" s="37" t="s">
-        <v>1135</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="337" spans="1:6" ht="60" x14ac:dyDescent="0.3">
@@ -10476,7 +10473,7 @@
       </c>
       <c r="E337" s="37"/>
       <c r="F337" s="37" t="s">
-        <v>1135</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="338" spans="1:6" ht="60" x14ac:dyDescent="0.3">
@@ -10494,7 +10491,7 @@
       </c>
       <c r="E338" s="61"/>
       <c r="F338" s="61" t="s">
-        <v>1135</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="339" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -10502,17 +10499,17 @@
         <v>54</v>
       </c>
       <c r="B339" s="37" t="s">
-        <v>1072</v>
+        <v>1059</v>
       </c>
       <c r="C339" s="37" t="s">
-        <v>1192</v>
+        <v>1176</v>
       </c>
       <c r="D339" s="37" t="s">
         <v>428</v>
       </c>
       <c r="E339" s="37"/>
       <c r="F339" s="37" t="s">
-        <v>1135</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="340" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -10520,17 +10517,17 @@
         <v>54</v>
       </c>
       <c r="B340" s="61" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
       <c r="C340" s="61" t="s">
-        <v>1263</v>
+        <v>1247</v>
       </c>
       <c r="D340" s="61" t="s">
-        <v>1108</v>
+        <v>1094</v>
       </c>
       <c r="E340" s="61"/>
       <c r="F340" s="61" t="s">
-        <v>1135</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
@@ -10538,7 +10535,7 @@
         <v>54</v>
       </c>
       <c r="B341" s="64" t="s">
-        <v>1182</v>
+        <v>1166</v>
       </c>
       <c r="C341" s="63" t="s">
         <v>38</v>
@@ -10590,7 +10587,7 @@
       </c>
       <c r="E344" s="37"/>
       <c r="F344" s="37" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="345" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -10608,7 +10605,7 @@
       </c>
       <c r="E345" s="37"/>
       <c r="F345" s="37" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="346" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -10619,14 +10616,14 @@
         <v>485</v>
       </c>
       <c r="C346" s="44" t="s">
-        <v>1074</v>
+        <v>1061</v>
       </c>
       <c r="D346" s="37">
         <v>78.099999999999994</v>
       </c>
       <c r="E346" s="37"/>
       <c r="F346" s="37" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
@@ -10658,7 +10655,7 @@
       </c>
       <c r="E348" s="37"/>
       <c r="F348" s="37" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
@@ -10676,7 +10673,7 @@
       </c>
       <c r="E349" s="37"/>
       <c r="F349" s="37" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
@@ -10694,7 +10691,7 @@
       </c>
       <c r="E350" s="37"/>
       <c r="F350" s="37" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="351" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -10712,7 +10709,7 @@
       </c>
       <c r="E351" s="37"/>
       <c r="F351" s="37" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
@@ -10744,7 +10741,7 @@
       </c>
       <c r="E353" s="37"/>
       <c r="F353" s="37" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
@@ -10762,7 +10759,7 @@
       </c>
       <c r="E354" s="37"/>
       <c r="F354" s="37" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
@@ -10773,14 +10770,14 @@
         <v>508</v>
       </c>
       <c r="C355" s="44" t="s">
-        <v>972</v>
+        <v>961</v>
       </c>
       <c r="D355" s="37" t="s">
-        <v>971</v>
+        <v>960</v>
       </c>
       <c r="E355" s="37"/>
       <c r="F355" s="37" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="356" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -10798,7 +10795,7 @@
       </c>
       <c r="E356" s="37"/>
       <c r="F356" s="37" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
@@ -10826,11 +10823,11 @@
         <v>517</v>
       </c>
       <c r="D358" s="37" t="s">
-        <v>1140</v>
+        <v>1125</v>
       </c>
       <c r="E358" s="37"/>
       <c r="F358" s="37" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="359" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -10848,7 +10845,7 @@
       </c>
       <c r="E359" s="37"/>
       <c r="F359" s="37" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="360" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -10866,7 +10863,7 @@
       </c>
       <c r="E360" s="37"/>
       <c r="F360" s="37" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
@@ -10898,7 +10895,7 @@
       </c>
       <c r="E362" s="37"/>
       <c r="F362" s="37" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
@@ -10912,11 +10909,11 @@
         <v>530</v>
       </c>
       <c r="D363" s="37" t="s">
-        <v>968</v>
+        <v>957</v>
       </c>
       <c r="E363" s="37"/>
       <c r="F363" s="37" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
@@ -10948,7 +10945,7 @@
       </c>
       <c r="E365" s="37"/>
       <c r="F365" s="37" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
@@ -10962,11 +10959,11 @@
         <v>535</v>
       </c>
       <c r="D366" s="37" t="s">
-        <v>973</v>
+        <v>962</v>
       </c>
       <c r="E366" s="42"/>
       <c r="F366" s="37" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="367" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -10984,7 +10981,7 @@
       </c>
       <c r="E367" s="37"/>
       <c r="F367" s="37" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
@@ -10998,11 +10995,11 @@
         <v>539</v>
       </c>
       <c r="D368" s="37" t="s">
-        <v>971</v>
+        <v>960</v>
       </c>
       <c r="E368" s="37"/>
       <c r="F368" s="37" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
@@ -11016,11 +11013,11 @@
         <v>541</v>
       </c>
       <c r="D369" s="37" t="s">
-        <v>969</v>
+        <v>958</v>
       </c>
       <c r="E369" s="37"/>
       <c r="F369" s="37" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.3">
@@ -11062,11 +11059,11 @@
         <v>482</v>
       </c>
       <c r="D372" s="37" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="E372" s="37"/>
       <c r="F372" s="37" t="s">
-        <v>1041</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="373" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -11080,11 +11077,11 @@
         <v>545</v>
       </c>
       <c r="D373" s="37" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="E373" s="37"/>
       <c r="F373" s="37" t="s">
-        <v>1041</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
@@ -11102,7 +11099,7 @@
       </c>
       <c r="E374" s="37"/>
       <c r="F374" s="37" t="s">
-        <v>1041</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.3">
@@ -11148,7 +11145,7 @@
       </c>
       <c r="E377" s="37"/>
       <c r="F377" s="37" t="s">
-        <v>1041</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
@@ -11166,7 +11163,7 @@
       </c>
       <c r="E378" s="37"/>
       <c r="F378" s="37" t="s">
-        <v>1041</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="379" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -11184,7 +11181,7 @@
       </c>
       <c r="E379" s="37"/>
       <c r="F379" s="37" t="s">
-        <v>1041</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="380" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -11202,10 +11199,10 @@
       </c>
       <c r="E380" s="37"/>
       <c r="F380" s="37" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="381" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381" s="38" t="s">
         <v>54</v>
       </c>
@@ -11220,7 +11217,7 @@
       </c>
       <c r="E381" s="37"/>
       <c r="F381" s="37" t="s">
-        <v>1041</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="382" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -11238,7 +11235,7 @@
       </c>
       <c r="E382" s="37"/>
       <c r="F382" s="37" t="s">
-        <v>1041</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
@@ -11270,7 +11267,7 @@
       </c>
       <c r="E384" s="37"/>
       <c r="F384" s="37" t="s">
-        <v>1041</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
@@ -11284,11 +11281,11 @@
         <v>530</v>
       </c>
       <c r="D385" s="37" t="s">
-        <v>968</v>
+        <v>957</v>
       </c>
       <c r="E385" s="37"/>
       <c r="F385" s="37" t="s">
-        <v>1041</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
@@ -11320,7 +11317,7 @@
       </c>
       <c r="E387" s="37"/>
       <c r="F387" s="37" t="s">
-        <v>1041</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
@@ -11334,11 +11331,11 @@
         <v>570</v>
       </c>
       <c r="D388" s="37" t="s">
-        <v>973</v>
+        <v>962</v>
       </c>
       <c r="E388" s="42"/>
       <c r="F388" s="37" t="s">
-        <v>1041</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="389" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -11356,7 +11353,7 @@
       </c>
       <c r="E389" s="37"/>
       <c r="F389" s="37" t="s">
-        <v>1041</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
@@ -11370,11 +11367,11 @@
         <v>539</v>
       </c>
       <c r="D390" s="37" t="s">
-        <v>971</v>
+        <v>960</v>
       </c>
       <c r="E390" s="37"/>
       <c r="F390" s="37" t="s">
-        <v>1041</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
@@ -11388,11 +11385,11 @@
         <v>541</v>
       </c>
       <c r="D391" s="37" t="s">
-        <v>969</v>
+        <v>958</v>
       </c>
       <c r="E391" s="37"/>
       <c r="F391" s="37" t="s">
-        <v>1041</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.3">
@@ -11438,7 +11435,7 @@
       </c>
       <c r="E394" s="37"/>
       <c r="F394" s="37" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="395" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -11452,11 +11449,11 @@
         <v>578</v>
       </c>
       <c r="D395" s="37" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="E395" s="37"/>
       <c r="F395" s="37" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.3">
@@ -11474,7 +11471,7 @@
       </c>
       <c r="E396" s="37"/>
       <c r="F396" s="37" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.3">
@@ -11516,11 +11513,11 @@
         <v>584</v>
       </c>
       <c r="D399" s="37" t="s">
-        <v>941</v>
+        <v>931</v>
       </c>
       <c r="E399" s="37"/>
       <c r="F399" s="37" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="400" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -11538,7 +11535,7 @@
       </c>
       <c r="E400" s="37"/>
       <c r="F400" s="37" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.3">
@@ -11556,7 +11553,7 @@
       </c>
       <c r="E401" s="37"/>
       <c r="F401" s="37" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="402" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -11574,7 +11571,7 @@
       </c>
       <c r="E402" s="37"/>
       <c r="F402" s="37" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="403" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -11592,7 +11589,7 @@
       </c>
       <c r="E403" s="37"/>
       <c r="F403" s="37" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="404" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -11610,7 +11607,7 @@
       </c>
       <c r="E404" s="37"/>
       <c r="F404" s="37" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.3">
@@ -11642,7 +11639,7 @@
       </c>
       <c r="E406" s="37"/>
       <c r="F406" s="37" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.3">
@@ -11656,11 +11653,11 @@
         <v>530</v>
       </c>
       <c r="D407" s="37" t="s">
-        <v>968</v>
+        <v>957</v>
       </c>
       <c r="E407" s="37"/>
       <c r="F407" s="37" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.3">
@@ -11692,7 +11689,7 @@
       </c>
       <c r="E409" s="37"/>
       <c r="F409" s="37" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.3">
@@ -11706,11 +11703,11 @@
         <v>570</v>
       </c>
       <c r="D410" s="37" t="s">
-        <v>973</v>
+        <v>962</v>
       </c>
       <c r="E410" s="42"/>
       <c r="F410" s="37" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="411" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -11728,7 +11725,7 @@
       </c>
       <c r="E411" s="37"/>
       <c r="F411" s="37" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.3">
@@ -11742,11 +11739,11 @@
         <v>539</v>
       </c>
       <c r="D412" s="37" t="s">
-        <v>971</v>
+        <v>960</v>
       </c>
       <c r="E412" s="37"/>
       <c r="F412" s="37" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.3">
@@ -11760,11 +11757,11 @@
         <v>541</v>
       </c>
       <c r="D413" s="37" t="s">
-        <v>969</v>
+        <v>958</v>
       </c>
       <c r="E413" s="37"/>
       <c r="F413" s="37" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.3">
@@ -11810,7 +11807,7 @@
       </c>
       <c r="E416" s="4"/>
       <c r="F416" s="37" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="417" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -11828,7 +11825,7 @@
       </c>
       <c r="E417" s="37"/>
       <c r="F417" s="37" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.3">
@@ -11846,7 +11843,7 @@
       </c>
       <c r="E418" s="37"/>
       <c r="F418" s="37" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.3">
@@ -11892,7 +11889,7 @@
       </c>
       <c r="E421" s="37"/>
       <c r="F421" s="37" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.3">
@@ -11910,7 +11907,7 @@
       </c>
       <c r="E422" s="37"/>
       <c r="F422" s="37" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.3">
@@ -11928,7 +11925,7 @@
       </c>
       <c r="E423" s="37"/>
       <c r="F423" s="37" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="424" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -11946,7 +11943,7 @@
       </c>
       <c r="E424" s="37"/>
       <c r="F424" s="37" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.3">
@@ -11971,14 +11968,14 @@
         <v>620</v>
       </c>
       <c r="C426" s="37" t="s">
-        <v>1126</v>
+        <v>1111</v>
       </c>
       <c r="D426" s="37" t="s">
         <v>621</v>
       </c>
       <c r="E426" s="37"/>
       <c r="F426" s="37" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.3">
@@ -11989,14 +11986,14 @@
         <v>622</v>
       </c>
       <c r="C427" s="37" t="s">
-        <v>1127</v>
+        <v>1112</v>
       </c>
       <c r="D427" s="37" t="s">
         <v>623</v>
       </c>
       <c r="E427" s="37"/>
       <c r="F427" s="37" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.3">
@@ -12014,7 +12011,7 @@
       </c>
       <c r="E428" s="37"/>
       <c r="F428" s="37" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.3">
@@ -12046,7 +12043,7 @@
       </c>
       <c r="E430" s="37"/>
       <c r="F430" s="37" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.3">
@@ -12064,7 +12061,7 @@
       </c>
       <c r="E431" s="37"/>
       <c r="F431" s="37" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="432" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -12082,7 +12079,7 @@
       </c>
       <c r="E432" s="37"/>
       <c r="F432" s="37" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.3">
@@ -12100,7 +12097,7 @@
       </c>
       <c r="E433" s="37"/>
       <c r="F433" s="37" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="434" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -12118,7 +12115,7 @@
       </c>
       <c r="E434" s="37"/>
       <c r="F434" s="37" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.3">
@@ -12146,11 +12143,11 @@
         <v>517</v>
       </c>
       <c r="D436" s="37" t="s">
-        <v>1140</v>
+        <v>1125</v>
       </c>
       <c r="E436" s="37"/>
       <c r="F436" s="37" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.3">
@@ -12164,11 +12161,11 @@
         <v>636</v>
       </c>
       <c r="D437" s="37" t="s">
-        <v>1142</v>
+        <v>1127</v>
       </c>
       <c r="E437" s="37"/>
       <c r="F437" s="37" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="438" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -12186,7 +12183,7 @@
       </c>
       <c r="E438" s="37"/>
       <c r="F438" s="37" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.3">
@@ -12218,7 +12215,7 @@
       </c>
       <c r="E440" s="37"/>
       <c r="F440" s="37" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.3">
@@ -12232,11 +12229,11 @@
         <v>530</v>
       </c>
       <c r="D441" s="37" t="s">
-        <v>968</v>
+        <v>957</v>
       </c>
       <c r="E441" s="37"/>
       <c r="F441" s="37" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.3">
@@ -12247,7 +12244,7 @@
         <v>641</v>
       </c>
       <c r="C442" s="41" t="s">
-        <v>978</v>
+        <v>967</v>
       </c>
       <c r="D442" s="41"/>
       <c r="E442" s="41"/>
@@ -12264,11 +12261,11 @@
         <v>541</v>
       </c>
       <c r="D443" s="37" t="s">
-        <v>969</v>
+        <v>958</v>
       </c>
       <c r="E443" s="37"/>
       <c r="F443" s="37" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.3">
@@ -12298,7 +12295,7 @@
       <c r="D445" s="37"/>
       <c r="E445" s="44"/>
       <c r="F445" s="37" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.3">
@@ -12314,7 +12311,7 @@
       <c r="D446" s="37"/>
       <c r="E446" s="44"/>
       <c r="F446" s="37" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.3">
@@ -12330,7 +12327,7 @@
       <c r="D447" s="37"/>
       <c r="E447" s="44"/>
       <c r="F447" s="37" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.3">
@@ -12360,7 +12357,7 @@
       <c r="D449" s="37"/>
       <c r="E449" s="44"/>
       <c r="F449" s="37" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.3">
@@ -12376,7 +12373,7 @@
       <c r="D450" s="37"/>
       <c r="E450" s="44"/>
       <c r="F450" s="37" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.3">
@@ -12422,7 +12419,7 @@
       </c>
       <c r="E453" s="37"/>
       <c r="F453" s="37" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="454" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -12440,7 +12437,7 @@
       </c>
       <c r="E454" s="37"/>
       <c r="F454" s="37" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.3">
@@ -12458,7 +12455,7 @@
       </c>
       <c r="E455" s="37"/>
       <c r="F455" s="37" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.3">
@@ -12504,7 +12501,7 @@
       </c>
       <c r="E458" s="37"/>
       <c r="F458" s="37" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.3">
@@ -12522,7 +12519,7 @@
       </c>
       <c r="E459" s="37"/>
       <c r="F459" s="37" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.3">
@@ -12536,11 +12533,11 @@
         <v>658</v>
       </c>
       <c r="D460" s="37" t="s">
-        <v>970</v>
+        <v>959</v>
       </c>
       <c r="E460" s="37"/>
       <c r="F460" s="37" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="461" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -12558,7 +12555,7 @@
       </c>
       <c r="E461" s="37"/>
       <c r="F461" s="37" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.3">
@@ -12569,12 +12566,12 @@
         <v>661</v>
       </c>
       <c r="C462" s="37" t="s">
-        <v>985</v>
+        <v>972</v>
       </c>
       <c r="D462" s="37"/>
       <c r="E462" s="37"/>
       <c r="F462" s="37" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="463" spans="1:6" ht="45" x14ac:dyDescent="0.3">
@@ -12582,7 +12579,7 @@
         <v>54</v>
       </c>
       <c r="B463" s="37" t="s">
-        <v>986</v>
+        <v>973</v>
       </c>
       <c r="C463" s="37" t="s">
         <v>662</v>
@@ -12592,7 +12589,7 @@
       </c>
       <c r="E463" s="37"/>
       <c r="F463" s="37" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.3">
@@ -12600,17 +12597,17 @@
         <v>54</v>
       </c>
       <c r="B464" s="37" t="s">
-        <v>987</v>
+        <v>974</v>
       </c>
       <c r="C464" s="37" t="s">
-        <v>984</v>
+        <v>971</v>
       </c>
       <c r="D464" s="37" t="s">
         <v>623</v>
       </c>
       <c r="E464" s="37"/>
       <c r="F464" s="37" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.3">
@@ -12642,7 +12639,7 @@
       </c>
       <c r="E466" s="37"/>
       <c r="F466" s="37" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.3">
@@ -12656,11 +12653,11 @@
         <v>530</v>
       </c>
       <c r="D467" s="37" t="s">
-        <v>968</v>
+        <v>957</v>
       </c>
       <c r="E467" s="37"/>
       <c r="F467" s="37" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.3">
@@ -12692,7 +12689,7 @@
       </c>
       <c r="E469" s="37"/>
       <c r="F469" s="37" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.3">
@@ -12710,7 +12707,7 @@
       </c>
       <c r="E470" s="37"/>
       <c r="F470" s="37" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="471" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -12728,7 +12725,7 @@
       </c>
       <c r="E471" s="37"/>
       <c r="F471" s="37" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.3">
@@ -12742,11 +12739,11 @@
         <v>539</v>
       </c>
       <c r="D472" s="37" t="s">
-        <v>971</v>
+        <v>960</v>
       </c>
       <c r="E472" s="37"/>
       <c r="F472" s="37" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.3">
@@ -12754,17 +12751,17 @@
         <v>54</v>
       </c>
       <c r="B473" s="37" t="s">
-        <v>1139</v>
+        <v>1124</v>
       </c>
       <c r="C473" s="37" t="s">
         <v>541</v>
       </c>
       <c r="D473" s="37" t="s">
-        <v>969</v>
+        <v>958</v>
       </c>
       <c r="E473" s="37"/>
       <c r="F473" s="37" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
     </row>
   </sheetData>
@@ -12778,7 +12775,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AMK6"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -12819,7 +12818,7 @@
         <v>56</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>982</v>
+        <v>1250</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>678</v>
@@ -12838,7 +12837,7 @@
         <v>59</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>982</v>
+        <v>1250</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>680</v>
@@ -12857,7 +12856,7 @@
         <v>62</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>982</v>
+        <v>1250</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>681</v>
@@ -12876,7 +12875,7 @@
         <v>65</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>982</v>
+        <v>1250</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>682</v>
@@ -12895,7 +12894,7 @@
         <v>685</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>982</v>
+        <v>1250</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>686</v>
@@ -12923,8 +12922,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AMK56"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -12968,13 +12967,13 @@
         <v>68</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>689</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>690</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
@@ -12987,10 +12986,10 @@
         <v>71</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>688</v>
+        <v>1251</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>70</v>
@@ -13006,10 +13005,10 @@
         <v>74</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>688</v>
+        <v>1251</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>73</v>
@@ -13025,13 +13024,13 @@
         <v>76</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>688</v>
+        <v>1251</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>1194</v>
+        <v>1178</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
@@ -13044,13 +13043,13 @@
         <v>78</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>688</v>
+        <v>1251</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>1250</v>
+        <v>1234</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
@@ -13063,32 +13062,32 @@
         <v>80</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>688</v>
+        <v>1251</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>1149</v>
+        <v>1134</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>697</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>688</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>698</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>699</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
@@ -13101,13 +13100,13 @@
         <v>89</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>700</v>
+        <v>1252</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>1150</v>
+        <v>1135</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
@@ -13120,10 +13119,10 @@
         <v>106</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>700</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>702</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>105</v>
@@ -13139,10 +13138,10 @@
         <v>92</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>700</v>
+        <v>1252</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>91</v>
@@ -13158,10 +13157,10 @@
         <v>95</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>700</v>
+        <v>1252</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>94</v>
@@ -13177,13 +13176,13 @@
         <v>97</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>700</v>
+        <v>1252</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>1259</v>
+        <v>1243</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
@@ -13196,10 +13195,10 @@
         <v>100</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>700</v>
+        <v>1252</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>99</v>
@@ -13215,10 +13214,10 @@
         <v>103</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>700</v>
+        <v>1252</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>102</v>
@@ -13234,10 +13233,10 @@
         <v>109</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>700</v>
+        <v>1252</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>108</v>
@@ -13253,16 +13252,16 @@
         <v>111</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>700</v>
+        <v>1252</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>1228</v>
+        <v>1212</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>1251</v>
+        <v>1235</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>679</v>
@@ -13271,16 +13270,16 @@
     </row>
     <row r="18" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>710</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>700</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>711</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>712</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
@@ -13293,13 +13292,13 @@
         <v>124</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>713</v>
+        <v>1253</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>1151</v>
+        <v>1136</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="21" t="s">
@@ -14330,10 +14329,10 @@
         <v>127</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>713</v>
+        <v>1253</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>126</v>
@@ -14349,10 +14348,10 @@
         <v>130</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>713</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>716</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>129</v>
@@ -14368,10 +14367,10 @@
         <v>133</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>713</v>
+        <v>1253</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>132</v>
@@ -14387,10 +14386,10 @@
         <v>136</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>713</v>
+        <v>1253</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>135</v>
@@ -14406,10 +14405,10 @@
         <v>83</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>713</v>
+        <v>1253</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>82</v>
@@ -14425,13 +14424,13 @@
         <v>116</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>720</v>
+        <v>1254</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>1152</v>
+        <v>1137</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
@@ -14444,13 +14443,13 @@
         <v>172</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>720</v>
+        <v>1254</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4" t="s">
@@ -14463,10 +14462,10 @@
         <v>175</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>720</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>724</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>174</v>
@@ -14482,13 +14481,13 @@
         <v>151</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>725</v>
+        <v>1255</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>1153</v>
+        <v>1138</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4" t="s">
@@ -14501,10 +14500,10 @@
         <v>154</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>725</v>
+        <v>1255</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>153</v>
@@ -14520,10 +14519,10 @@
         <v>157</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>725</v>
+        <v>1255</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>156</v>
@@ -14539,10 +14538,10 @@
         <v>160</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>725</v>
+        <v>1255</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>159</v>
@@ -14558,10 +14557,10 @@
         <v>163</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>725</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>730</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>162</v>
@@ -14577,13 +14576,13 @@
         <v>169</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>731</v>
+        <v>1256</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>1154</v>
+        <v>1139</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4" t="s">
@@ -14596,13 +14595,13 @@
         <v>208</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>733</v>
+        <v>1257</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>1155</v>
+        <v>1140</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4" t="s">
@@ -14615,10 +14614,10 @@
         <v>211</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>733</v>
+        <v>1257</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>210</v>
@@ -14634,10 +14633,10 @@
         <v>214</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>733</v>
+        <v>1257</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>213</v>
@@ -14653,20 +14652,20 @@
         <v>217</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>733</v>
+        <v>1257</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>216</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -14674,17 +14673,17 @@
         <v>448</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>733</v>
+        <v>1257</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>447</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G38" s="4"/>
     </row>
@@ -14693,13 +14692,13 @@
         <v>230</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>959</v>
+        <v>1258</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>1156</v>
+        <v>1141</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4" t="s">
@@ -14712,13 +14711,13 @@
         <v>224</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>959</v>
+        <v>1258</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="D40" s="21" t="s">
-        <v>1075</v>
+        <v>1062</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4" t="s">
@@ -14731,13 +14730,13 @@
         <v>222</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>959</v>
+        <v>1258</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>1076</v>
+        <v>1063</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4" t="s">
@@ -14750,13 +14749,13 @@
         <v>229</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>959</v>
+        <v>1258</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4" t="s">
@@ -14766,16 +14765,16 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="26" t="s">
-        <v>998</v>
+        <v>985</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>700</v>
+        <v>1252</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>1077</v>
+        <v>1064</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>1236</v>
+        <v>1220</v>
       </c>
       <c r="E43" s="26"/>
       <c r="F43" s="4" t="s">
@@ -14785,16 +14784,16 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="26" t="s">
-        <v>1000</v>
+        <v>987</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>700</v>
+        <v>1252</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>1078</v>
+        <v>1065</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>1237</v>
+        <v>1221</v>
       </c>
       <c r="E44" s="26"/>
       <c r="F44" s="4" t="s">
@@ -14804,16 +14803,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="s">
-        <v>1002</v>
+        <v>989</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>700</v>
+        <v>1252</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>1079</v>
+        <v>1066</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>1238</v>
+        <v>1222</v>
       </c>
       <c r="E45" s="26"/>
       <c r="F45" s="4" t="s">
@@ -14823,16 +14822,16 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="26" t="s">
-        <v>1005</v>
+        <v>992</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>700</v>
+        <v>1252</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>1080</v>
+        <v>1067</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>1239</v>
+        <v>1223</v>
       </c>
       <c r="E46" s="26"/>
       <c r="F46" s="4" t="s">
@@ -14842,16 +14841,16 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="26" t="s">
-        <v>1007</v>
+        <v>994</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>700</v>
+        <v>1252</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>1081</v>
+        <v>1068</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>1240</v>
+        <v>1224</v>
       </c>
       <c r="E47" s="26"/>
       <c r="F47" s="4" t="s">
@@ -14861,16 +14860,16 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="26" t="s">
-        <v>1013</v>
+        <v>1000</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>700</v>
+        <v>1252</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>1082</v>
+        <v>1069</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>1241</v>
+        <v>1225</v>
       </c>
       <c r="E48" s="26"/>
       <c r="F48" s="4" t="s">
@@ -14880,16 +14879,16 @@
     </row>
     <row r="49" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A49" s="26" t="s">
-        <v>1016</v>
+        <v>1003</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>700</v>
+        <v>1252</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>1083</v>
+        <v>1070</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>1242</v>
+        <v>1226</v>
       </c>
       <c r="E49" s="26"/>
       <c r="F49" s="4" t="s">
@@ -14899,16 +14898,16 @@
     </row>
     <row r="50" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A50" s="26" t="s">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>700</v>
+        <v>1252</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>1084</v>
+        <v>1071</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>1243</v>
+        <v>1227</v>
       </c>
       <c r="E50" s="26"/>
       <c r="F50" s="4" t="s">
@@ -14918,16 +14917,16 @@
     </row>
     <row r="51" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A51" s="26" t="s">
-        <v>1022</v>
+        <v>1009</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>700</v>
+        <v>1252</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>1085</v>
+        <v>1072</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>1244</v>
+        <v>1228</v>
       </c>
       <c r="E51" s="26"/>
       <c r="F51" s="4" t="s">
@@ -14937,16 +14936,16 @@
     </row>
     <row r="52" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A52" s="26" t="s">
-        <v>1032</v>
+        <v>1019</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>725</v>
+        <v>1255</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>1086</v>
+        <v>1073</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>1231</v>
+        <v>1215</v>
       </c>
       <c r="E52" s="26"/>
       <c r="F52" s="4" t="s">
@@ -14956,16 +14955,16 @@
     </row>
     <row r="53" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A53" s="26" t="s">
-        <v>1033</v>
+        <v>1020</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>725</v>
+        <v>1255</v>
       </c>
       <c r="C53" s="26" t="s">
-        <v>1087</v>
+        <v>1074</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>1245</v>
+        <v>1229</v>
       </c>
       <c r="E53" s="26"/>
       <c r="F53" s="4" t="s">
@@ -14975,16 +14974,16 @@
     </row>
     <row r="54" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A54" s="26" t="s">
-        <v>1053</v>
+        <v>1040</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>733</v>
+        <v>1257</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>1088</v>
+        <v>1075</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>1246</v>
+        <v>1230</v>
       </c>
       <c r="E54" s="26"/>
       <c r="F54" s="4" t="s">
@@ -14994,16 +14993,16 @@
     </row>
     <row r="55" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="A55" s="26" t="s">
-        <v>1060</v>
+        <v>1047</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>959</v>
+        <v>1258</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>1089</v>
+        <v>1076</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>1059</v>
+        <v>1046</v>
       </c>
       <c r="E55" s="26"/>
       <c r="F55" s="4" t="s">
@@ -15013,16 +15012,16 @@
     </row>
     <row r="56" spans="1:1025" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="26" t="s">
-        <v>1157</v>
+        <v>1142</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>1158</v>
+        <v>1259</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>1159</v>
+        <v>1143</v>
       </c>
       <c r="D56" s="30" t="s">
-        <v>1160</v>
+        <v>1144</v>
       </c>
       <c r="E56" s="30"/>
       <c r="F56" s="4" t="s">
@@ -16350,13 +16349,13 @@
     </row>
     <row r="2" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>746</v>
+        <v>1260</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>237</v>
@@ -16369,16 +16368,16 @@
     </row>
     <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>746</v>
+        <v>1260</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>1128</v>
+        <v>1113</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
@@ -16388,13 +16387,13 @@
     </row>
     <row r="4" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>746</v>
+        <v>1260</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>240</v>
@@ -16407,13 +16406,13 @@
     </row>
     <row r="5" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>746</v>
+        <v>1260</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>243</v>
@@ -16426,16 +16425,16 @@
     </row>
     <row r="6" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>746</v>
+        <v>1260</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
@@ -16445,16 +16444,16 @@
     </row>
     <row r="7" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>746</v>
+        <v>1260</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
@@ -16464,16 +16463,16 @@
     </row>
     <row r="8" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>746</v>
+        <v>1260</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
@@ -16483,16 +16482,16 @@
     </row>
     <row r="9" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>746</v>
+        <v>1260</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
@@ -16502,13 +16501,13 @@
     </row>
     <row r="10" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>746</v>
+        <v>1260</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>307</v>
@@ -16521,13 +16520,13 @@
     </row>
     <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>746</v>
+        <v>1260</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>309</v>
@@ -16540,16 +16539,16 @@
     </row>
     <row r="12" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>746</v>
+        <v>1260</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
@@ -16559,13 +16558,13 @@
     </row>
     <row r="13" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>746</v>
+        <v>1260</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>313</v>
@@ -16578,13 +16577,13 @@
     </row>
     <row r="14" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>746</v>
+        <v>1260</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>316</v>
@@ -16597,13 +16596,13 @@
     </row>
     <row r="15" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>746</v>
+        <v>1260</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>318</v>
@@ -16616,16 +16615,16 @@
     </row>
     <row r="16" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
-        <v>966</v>
+        <v>955</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>746</v>
+        <v>1260</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>965</v>
+        <v>954</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>961</v>
+        <v>950</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
@@ -16635,16 +16634,16 @@
     </row>
     <row r="17" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
-        <v>960</v>
+        <v>949</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>746</v>
+        <v>1260</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>963</v>
+        <v>952</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>964</v>
+        <v>953</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
@@ -16654,16 +16653,16 @@
     </row>
     <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>746</v>
+        <v>1260</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>967</v>
+        <v>956</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
@@ -16673,13 +16672,13 @@
     </row>
     <row r="19" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>746</v>
+        <v>1260</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>324</v>
@@ -16692,13 +16691,13 @@
     </row>
     <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>746</v>
+        <v>1260</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>326</v>
@@ -16711,16 +16710,16 @@
     </row>
     <row r="21" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>746</v>
+        <v>1260</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
@@ -16730,13 +16729,13 @@
     </row>
     <row r="22" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>746</v>
+        <v>1260</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>332</v>
@@ -16749,13 +16748,13 @@
     </row>
     <row r="23" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>746</v>
+        <v>1260</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>334</v>
@@ -16768,13 +16767,13 @@
     </row>
     <row r="24" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>746</v>
+        <v>1260</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>336</v>
@@ -16787,16 +16786,16 @@
     </row>
     <row r="25" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>746</v>
+        <v>1260</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
@@ -16806,13 +16805,13 @@
     </row>
     <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>746</v>
+        <v>1260</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>342</v>
@@ -16825,16 +16824,16 @@
     </row>
     <row r="27" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>746</v>
+        <v>1260</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
@@ -16844,13 +16843,13 @@
     </row>
     <row r="28" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>746</v>
+        <v>1260</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>346</v>
@@ -16863,13 +16862,13 @@
     </row>
     <row r="29" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>746</v>
+        <v>1260</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>348</v>
@@ -16882,13 +16881,13 @@
     </row>
     <row r="30" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>746</v>
+        <v>1260</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>350</v>
@@ -16901,16 +16900,16 @@
     </row>
     <row r="31" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>746</v>
+        <v>1260</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4" t="s">
@@ -16920,16 +16919,16 @@
     </row>
     <row r="32" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>746</v>
+        <v>1260</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4" t="s">
@@ -16939,16 +16938,16 @@
     </row>
     <row r="33" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>746</v>
+        <v>1260</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4" t="s">
@@ -16958,16 +16957,16 @@
     </row>
     <row r="34" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>746</v>
+        <v>1260</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4" t="s">
@@ -16977,16 +16976,16 @@
     </row>
     <row r="35" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>746</v>
+        <v>1260</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>1218</v>
+        <v>1202</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4" t="s">
@@ -16996,16 +16995,16 @@
     </row>
     <row r="36" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>746</v>
+        <v>1260</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4" t="s">
@@ -17015,16 +17014,16 @@
     </row>
     <row r="37" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>746</v>
+        <v>1260</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4" t="s">
@@ -17034,16 +17033,16 @@
     </row>
     <row r="38" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>746</v>
+        <v>1260</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4" t="s">
@@ -17053,16 +17052,16 @@
     </row>
     <row r="39" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>746</v>
+        <v>1260</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4" t="s">
@@ -17072,35 +17071,35 @@
     </row>
     <row r="40" spans="1:7" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>746</v>
+        <v>1260</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>746</v>
+        <v>1260</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -17108,16 +17107,16 @@
     </row>
     <row r="42" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>746</v>
+        <v>1260</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -17125,73 +17124,73 @@
     </row>
     <row r="43" spans="1:7" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>746</v>
+        <v>1260</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>746</v>
+        <v>1260</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
     </row>
     <row r="45" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>746</v>
+        <v>1260</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
     </row>
     <row r="46" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>746</v>
+        <v>1260</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -17199,16 +17198,16 @@
     </row>
     <row r="47" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>746</v>
+        <v>1260</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -17216,16 +17215,16 @@
     </row>
     <row r="48" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>746</v>
+        <v>1260</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -17233,16 +17232,16 @@
     </row>
     <row r="49" spans="1:256" s="17" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A49" s="30" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>746</v>
+        <v>1260</v>
       </c>
       <c r="C49" s="51" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="D49" s="51" t="s">
-        <v>962</v>
+        <v>951</v>
       </c>
       <c r="E49" s="29"/>
       <c r="F49" s="29"/>
@@ -17497,18 +17496,18 @@
       <c r="IU49" s="16"/>
       <c r="IV49" s="16"/>
     </row>
-    <row r="50" spans="1:256" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:256" s="17" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A50" s="30" t="s">
-        <v>1129</v>
+        <v>1114</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>746</v>
+        <v>1260</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>1130</v>
+        <v>1115</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>1219</v>
+        <v>1203</v>
       </c>
       <c r="E50" s="52"/>
       <c r="F50" s="52"/>
@@ -17823,13 +17822,13 @@
         <v>367</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>983</v>
+        <v>1261</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="21" t="s">
@@ -17842,13 +17841,13 @@
         <v>370</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>983</v>
+        <v>1261</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="E3" s="21"/>
       <c r="F3" s="21" t="s">
@@ -17861,13 +17860,13 @@
         <v>373</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>983</v>
+        <v>1261</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="21" t="s">
@@ -17880,13 +17879,13 @@
         <v>387</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>983</v>
+        <v>1261</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="21" t="s">
@@ -17899,16 +17898,16 @@
         <v>376</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>983</v>
+        <v>1261</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>1257</v>
+        <v>1241</v>
       </c>
       <c r="F6" s="21" t="s">
         <v>679</v>
@@ -17920,13 +17919,13 @@
         <v>379</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>983</v>
+        <v>1261</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="E7" s="21"/>
       <c r="F7" s="21" t="s">
@@ -17939,13 +17938,13 @@
         <v>382</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>983</v>
+        <v>1261</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="21" t="s">
@@ -17958,13 +17957,13 @@
         <v>385</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>983</v>
+        <v>1261</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="E9" s="21"/>
       <c r="F9" s="21" t="s">
@@ -17977,13 +17976,13 @@
         <v>390</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>983</v>
+        <v>1261</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="21" t="s">
@@ -17993,35 +17992,35 @@
     </row>
     <row r="11" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
-        <v>1224</v>
+        <v>1208</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>1091</v>
+        <v>1261</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>1225</v>
+        <v>1209</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="E11" s="26"/>
       <c r="F11" s="26" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G11" s="26"/>
     </row>
     <row r="12" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>983</v>
+        <v>1261</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>1222</v>
+        <v>1206</v>
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="21" t="s">
@@ -18034,13 +18033,13 @@
         <v>393</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>983</v>
+        <v>1261</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="21" t="s">
@@ -18053,13 +18052,13 @@
         <v>395</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>983</v>
+        <v>1261</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="21" t="s">
@@ -18072,10 +18071,10 @@
         <v>398</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>983</v>
+        <v>1261</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>427</v>
@@ -18091,22 +18090,22 @@
         <v>428</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>983</v>
+        <v>1261</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>1193</v>
+        <v>1177</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>1146</v>
+        <v>1131</v>
       </c>
       <c r="F16" s="21" t="s">
         <v>679</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>1147</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
@@ -18114,22 +18113,22 @@
         <v>429</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>983</v>
+        <v>1261</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>988</v>
+        <v>975</v>
       </c>
       <c r="F17" s="21" t="s">
         <v>679</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>1248</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -18137,10 +18136,10 @@
         <v>453</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>983</v>
+        <v>1261</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="D18" s="21" t="s">
         <v>452</v>
@@ -18156,10 +18155,10 @@
         <v>456</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>983</v>
+        <v>1261</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>455</v>
@@ -18175,13 +18174,13 @@
         <v>459</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>983</v>
+        <v>1261</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21" t="s">
@@ -18194,13 +18193,13 @@
         <v>462</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>983</v>
+        <v>1261</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="21" t="s">
@@ -18213,13 +18212,13 @@
         <v>466</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>983</v>
+        <v>1261</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="21" t="s">
@@ -18232,13 +18231,13 @@
         <v>416</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>983</v>
+        <v>1261</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>1226</v>
+        <v>1210</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
@@ -18246,16 +18245,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="s">
-        <v>1090</v>
+        <v>1077</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>1091</v>
+        <v>1261</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>1092</v>
+        <v>1078</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>1093</v>
+        <v>1079</v>
       </c>
       <c r="E24" s="26"/>
       <c r="F24" s="26"/>
@@ -18263,16 +18262,16 @@
     </row>
     <row r="25" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
-        <v>1068</v>
+        <v>1055</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>1091</v>
+        <v>1261</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>1094</v>
+        <v>1080</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>1095</v>
+        <v>1081</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="26"/>
@@ -18280,16 +18279,16 @@
     </row>
     <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="s">
-        <v>1096</v>
+        <v>1082</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>1091</v>
+        <v>1261</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>1097</v>
+        <v>1083</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>1098</v>
+        <v>1084</v>
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="26"/>
@@ -18297,16 +18296,16 @@
     </row>
     <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="s">
-        <v>1099</v>
+        <v>1085</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>1091</v>
+        <v>1261</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>1100</v>
+        <v>1086</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>1101</v>
+        <v>1087</v>
       </c>
       <c r="E27" s="26"/>
       <c r="F27" s="26"/>
@@ -18314,16 +18313,16 @@
     </row>
     <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
-        <v>1102</v>
+        <v>1088</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>1091</v>
+        <v>1261</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>1103</v>
+        <v>1089</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>1104</v>
+        <v>1090</v>
       </c>
       <c r="E28" s="26"/>
       <c r="F28" s="26"/>
@@ -18331,38 +18330,38 @@
     </row>
     <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="s">
-        <v>1105</v>
+        <v>1091</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>1091</v>
+        <v>1261</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>1106</v>
+        <v>1092</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>1107</v>
+        <v>1093</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>1261</v>
+        <v>1245</v>
       </c>
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
     </row>
     <row r="30" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="26" t="s">
-        <v>1108</v>
+        <v>1094</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>1091</v>
+        <v>1261</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>1109</v>
+        <v>1095</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>1110</v>
+        <v>1096</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>1262</v>
+        <v>1246</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="26"/>
@@ -18420,16 +18419,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>905</v>
+        <v>1262</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>906</v>
+        <v>897</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>1111</v>
+        <v>1097</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="21" t="s">
@@ -18439,16 +18438,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>905</v>
+        <v>1262</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>1112</v>
+        <v>1098</v>
       </c>
       <c r="E3" s="30"/>
       <c r="F3" s="4" t="s">
@@ -18458,16 +18457,16 @@
     </row>
     <row r="4" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>905</v>
+        <v>1262</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>1113</v>
+        <v>1099</v>
       </c>
       <c r="E4" s="29"/>
       <c r="F4" s="4" t="s">
@@ -18779,16 +18778,16 @@
     </row>
     <row r="2" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>912</v>
+        <v>1263</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="E2" s="22"/>
       <c r="F2" s="4" t="s">
@@ -18801,13 +18800,13 @@
         <v>552</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>912</v>
+        <v>1263</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="4" t="s">
@@ -18820,13 +18819,13 @@
         <v>490</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>912</v>
+        <v>1263</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="E4" s="23"/>
       <c r="F4" s="4" t="s">
@@ -18839,13 +18838,13 @@
         <v>493</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>912</v>
+        <v>1263</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="4" t="s">
@@ -18858,13 +18857,13 @@
         <v>496</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>911</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>912</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>921</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>922</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="4" t="s">
@@ -18877,22 +18876,22 @@
         <v>499</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>912</v>
+        <v>1263</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>1148</v>
+        <v>1133</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>1249</v>
+        <v>1233</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>679</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>1137</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="8" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
@@ -18900,13 +18899,13 @@
         <v>504</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>912</v>
+        <v>1263</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="4" t="s">
@@ -18919,13 +18918,13 @@
         <v>507</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>912</v>
+        <v>1263</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="4" t="s">
@@ -18938,13 +18937,13 @@
         <v>509</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>912</v>
+        <v>1263</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="4" t="s">
@@ -18957,13 +18956,13 @@
         <v>510</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>912</v>
+        <v>1263</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="4" t="s">
@@ -18976,10 +18975,10 @@
         <v>512</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>912</v>
+        <v>1263</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>932</v>
+        <v>922</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>557</v>
@@ -18995,13 +18994,13 @@
         <v>515</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>912</v>
+        <v>1263</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>933</v>
+        <v>923</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>679</v>
@@ -19013,20 +19012,20 @@
         <v>521</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>912</v>
+        <v>1263</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>935</v>
+        <v>925</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>936</v>
+        <v>926</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="4" t="s">
         <v>679</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>1114</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="15" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -19034,13 +19033,13 @@
         <v>524</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>912</v>
+        <v>1263</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>937</v>
+        <v>927</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>938</v>
+        <v>928</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="4" t="s">
@@ -19053,13 +19052,13 @@
         <v>555</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>912</v>
+        <v>1263</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>939</v>
+        <v>929</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>940</v>
+        <v>930</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="4" t="s">
@@ -19069,16 +19068,16 @@
     </row>
     <row r="17" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>941</v>
+        <v>931</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>912</v>
+        <v>1263</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>942</v>
+        <v>932</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>943</v>
+        <v>933</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="4" t="s">
@@ -19091,13 +19090,13 @@
         <v>587</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>912</v>
+        <v>1263</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>944</v>
+        <v>934</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>945</v>
+        <v>935</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="4" t="s">
@@ -19107,25 +19106,25 @@
     </row>
     <row r="19" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>912</v>
+        <v>1263</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>947</v>
+        <v>937</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>948</v>
+        <v>938</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>989</v>
+        <v>976</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>679</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>1115</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="20" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -19133,13 +19132,13 @@
         <v>621</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>912</v>
+        <v>1263</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>949</v>
+        <v>939</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>950</v>
+        <v>940</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="4" t="s">
@@ -19152,56 +19151,56 @@
         <v>623</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>912</v>
+        <v>1263</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>952</v>
+        <v>942</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>1252</v>
+        <v>1236</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>679</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
     </row>
     <row r="22" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>954</v>
+        <v>944</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>912</v>
+        <v>1263</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>955</v>
+        <v>945</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>956</v>
+        <v>946</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>1247</v>
+        <v>1231</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>1117</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="23" spans="1:256" s="17" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>973</v>
+        <v>962</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>912</v>
+        <v>1263</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>974</v>
+        <v>963</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>535</v>
@@ -19461,13 +19460,13 @@
     </row>
     <row r="24" spans="1:256" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>971</v>
+        <v>960</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>912</v>
+        <v>1263</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>975</v>
+        <v>964</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>539</v>
@@ -19725,21 +19724,21 @@
       <c r="IU24" s="16"/>
       <c r="IV24" s="16"/>
     </row>
-    <row r="25" spans="1:256" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:256" s="17" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>968</v>
+        <v>957</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>912</v>
+        <v>1263</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>976</v>
+        <v>965</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>530</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>1136</v>
+        <v>1121</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -19995,13 +19994,13 @@
     </row>
     <row r="26" spans="1:256" s="17" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>969</v>
+        <v>958</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>912</v>
+        <v>1263</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>977</v>
+        <v>966</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>541</v>
@@ -20259,15 +20258,15 @@
       <c r="IU26" s="16"/>
       <c r="IV26" s="16"/>
     </row>
-    <row r="27" spans="1:256" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:256" s="17" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
-        <v>970</v>
+        <v>959</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>912</v>
+        <v>1263</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>979</v>
+        <v>968</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>658</v>
@@ -20527,34 +20526,34 @@
     </row>
     <row r="28" spans="1:256" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>1140</v>
+        <v>1125</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>912</v>
+        <v>1263</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1141</v>
+        <v>1126</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>517</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>988</v>
+        <v>975</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="21" t="s">
-        <v>1116</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="29" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>1142</v>
+        <v>1127</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>912</v>
+        <v>1263</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1143</v>
+        <v>1128</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>518</v>
@@ -20577,7 +20576,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:IV4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -20865,64 +20864,64 @@
     </row>
     <row r="2" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
-        <v>1062</v>
+        <v>1049</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>1118</v>
+        <v>1264</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>1119</v>
+        <v>1104</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>957</v>
+        <v>947</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
         <v>679</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>958</v>
+        <v>948</v>
       </c>
     </row>
     <row r="3" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
-        <v>1120</v>
+        <v>1105</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>1118</v>
+        <v>1264</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1121</v>
+        <v>1106</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>957</v>
+        <v>947</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>1122</v>
+        <v>1107</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>1123</v>
+        <v>1108</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>1118</v>
+        <v>1264</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1124</v>
+        <v>1109</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>957</v>
+        <v>947</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>1125</v>
+        <v>1110</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G4" s="4"/>
     </row>

--- a/conformancelib/testdata/PIV-I_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I_ICAM_Test_Cards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance-0.2.3-beta\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A4260F-D4C9-4460-BF96-E3106FD1DA89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5AF959-6057-47BF-92D4-AF6F227D428F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2928" yWindow="1452" windowWidth="20112" windowHeight="12948" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="1152" windowWidth="22920" windowHeight="12948" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="1" r:id="rId1"/>
@@ -4640,8 +4640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A472" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection sqref="A1:F489"/>
+    <sheetView tabSelected="1" topLeftCell="C205" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F415" sqref="F415"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -10788,7 +10788,7 @@
       </c>
       <c r="E356" s="15"/>
       <c r="F356" s="16" t="s">
-        <v>196</v>
+        <v>119</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="E390" s="15"/>
       <c r="F390" s="16" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="391" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -11722,7 +11722,7 @@
       </c>
       <c r="E411" s="15"/>
       <c r="F411" s="16" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
     </row>
     <row r="412" spans="1:6" ht="30" x14ac:dyDescent="0.3">
@@ -12750,7 +12750,7 @@
       </c>
       <c r="E473" s="16"/>
       <c r="F473" s="16" t="s">
-        <v>226</v>
+        <v>51</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.3">

--- a/conformancelib/testdata/PIV-I_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I_ICAM_Test_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance-0.2.3-beta\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0DCB54-9B8C-44BB-9F83-DADAB774CF21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322461A8-779C-4D06-94A0-DEE942D72833}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="744" yWindow="1152" windowWidth="22296" windowHeight="12960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="336" windowWidth="22296" windowHeight="12960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3099" uniqueCount="1304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3098" uniqueCount="1303">
   <si>
     <t>Document</t>
   </si>
@@ -3677,9 +3677,6 @@
   </si>
   <si>
     <t>PKIX_Test_24</t>
-  </si>
-  <si>
-    <t>2.5.29.31</t>
   </si>
   <si>
     <t>PKIX_Test_25</t>
@@ -4716,9 +4713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK490"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:F490"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5384,7 +5379,7 @@
         <v>6</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>884</v>
@@ -5492,10 +5487,10 @@
         <v>6</v>
       </c>
       <c r="B44" s="16" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>1233</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>1234</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -5975,7 +5970,7 @@
         <v>163</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>165</v>
@@ -5993,7 +5988,7 @@
         <v>166</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>167</v>
@@ -6234,7 +6229,7 @@
         <v>114</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C87" s="16" t="s">
         <v>116</v>
@@ -6876,7 +6871,7 @@
         <v>6</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>237</v>
@@ -7312,7 +7307,7 @@
       </c>
       <c r="E149" s="16"/>
       <c r="F149" s="16" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
@@ -7330,7 +7325,7 @@
       </c>
       <c r="E150" s="16"/>
       <c r="F150" s="16" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -7348,7 +7343,7 @@
       </c>
       <c r="E151" s="16"/>
       <c r="F151" s="16" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -7384,7 +7379,7 @@
         <v>6</v>
       </c>
       <c r="B154" s="36" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C154" s="10" t="s">
         <v>299</v>
@@ -7412,7 +7407,7 @@
         <v>6</v>
       </c>
       <c r="B156" s="16" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>302</v>
@@ -7724,10 +7719,10 @@
         <v>6</v>
       </c>
       <c r="B174" s="16" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C174" s="16" t="s">
         <v>1244</v>
-      </c>
-      <c r="C174" s="16" t="s">
-        <v>1245</v>
       </c>
       <c r="D174" s="16" t="s">
         <v>1073</v>
@@ -7760,7 +7755,7 @@
         <v>6</v>
       </c>
       <c r="B176" s="16" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C176" s="14" t="s">
         <v>344</v>
@@ -7791,7 +7786,7 @@
         <v>347</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D178" s="16">
         <v>76.099999999999994</v>
@@ -7827,7 +7822,7 @@
         <v>349</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D180" s="16" t="s">
         <v>311</v>
@@ -8054,10 +8049,10 @@
         <v>6</v>
       </c>
       <c r="B193" s="16" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D193" s="16" t="s">
         <v>1073</v>
@@ -8121,7 +8116,7 @@
         <v>371</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="D197" s="16">
         <v>76.099999999999994</v>
@@ -8157,7 +8152,7 @@
         <v>374</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D199" s="16" t="s">
         <v>311</v>
@@ -8384,10 +8379,10 @@
         <v>6</v>
       </c>
       <c r="B212" s="16" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="D212" s="16" t="s">
         <v>1073</v>
@@ -8420,7 +8415,7 @@
         <v>6</v>
       </c>
       <c r="B214" s="16" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C214" s="14" t="s">
         <v>394</v>
@@ -9206,7 +9201,7 @@
         <v>6</v>
       </c>
       <c r="B260" s="16" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C260" s="7" t="s">
         <v>48</v>
@@ -9291,7 +9286,7 @@
         <v>501</v>
       </c>
       <c r="C265" s="15" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D265" s="16" t="s">
         <v>502</v>
@@ -9392,7 +9387,7 @@
         <v>6</v>
       </c>
       <c r="B271" s="16" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C271" s="15" t="s">
         <v>516</v>
@@ -9567,7 +9562,7 @@
         <v>538</v>
       </c>
       <c r="C281" s="15" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D281" s="16" t="s">
         <v>502</v>
@@ -9779,7 +9774,7 @@
         <v>561</v>
       </c>
       <c r="C293" s="16" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D293" s="16" t="s">
         <v>563</v>
@@ -9797,7 +9792,7 @@
         <v>564</v>
       </c>
       <c r="C294" s="15" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D294" s="16" t="s">
         <v>1144</v>
@@ -9812,7 +9807,7 @@
         <v>6</v>
       </c>
       <c r="B295" s="16" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C295" s="15" t="s">
         <v>565</v>
@@ -9915,7 +9910,7 @@
         <v>574</v>
       </c>
       <c r="C301" s="15" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D301" s="16" t="s">
         <v>502</v>
@@ -10002,7 +9997,7 @@
         <v>6</v>
       </c>
       <c r="B306" s="16" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C306" s="10" t="s">
         <v>547</v>
@@ -10142,10 +10137,10 @@
         <v>6</v>
       </c>
       <c r="B314" s="16" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C314" s="15" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D314" s="16" t="s">
         <v>1144</v>
@@ -10467,7 +10462,7 @@
         <v>622</v>
       </c>
       <c r="C333" s="16" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D333" s="16" t="s">
         <v>502</v>
@@ -10518,7 +10513,7 @@
         <v>6</v>
       </c>
       <c r="B336" s="16" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C336" s="16" t="s">
         <v>542</v>
@@ -10536,7 +10531,7 @@
         <v>6</v>
       </c>
       <c r="B337" s="16" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C337" s="16" t="s">
         <v>544</v>
@@ -10568,7 +10563,7 @@
         <v>6</v>
       </c>
       <c r="B339" s="16" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C339" s="16" t="s">
         <v>611</v>
@@ -10586,7 +10581,7 @@
         <v>6</v>
       </c>
       <c r="B340" s="16" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C340" s="16" t="s">
         <v>552</v>
@@ -10697,7 +10692,7 @@
         <v>631</v>
       </c>
       <c r="C346" s="15" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D346" s="16" t="s">
         <v>1144</v>
@@ -10744,7 +10739,7 @@
         <v>6</v>
       </c>
       <c r="B349" s="16" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C349" s="10" t="s">
         <v>635</v>
@@ -10840,7 +10835,7 @@
         <v>6</v>
       </c>
       <c r="B355" s="16" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C355" s="10" t="s">
         <v>711</v>
@@ -10890,7 +10885,7 @@
         <v>6</v>
       </c>
       <c r="B358" s="16" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C358" s="15" t="s">
         <v>650</v>
@@ -10908,7 +10903,7 @@
         <v>6</v>
       </c>
       <c r="B359" s="16" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C359" s="16" t="s">
         <v>653</v>
@@ -10996,7 +10991,7 @@
         <v>665</v>
       </c>
       <c r="C364" s="40" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="D364" s="40" t="s">
         <v>685</v>
@@ -11010,10 +11005,10 @@
         <v>6</v>
       </c>
       <c r="B365" s="41" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C365" s="41" t="s">
         <v>1286</v>
-      </c>
-      <c r="C365" s="41" t="s">
-        <v>1287</v>
       </c>
       <c r="D365" s="41" t="s">
         <v>666</v>
@@ -11027,10 +11022,10 @@
         <v>6</v>
       </c>
       <c r="B366" s="16" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C366" s="15" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D366" s="16"/>
       <c r="E366" s="16"/>
@@ -11073,10 +11068,10 @@
         <v>6</v>
       </c>
       <c r="B369" s="16" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C369" s="15" t="s">
         <v>1270</v>
-      </c>
-      <c r="C369" s="15" t="s">
-        <v>1271</v>
       </c>
       <c r="D369" s="16" t="s">
         <v>1182</v>
@@ -11162,10 +11157,10 @@
         <v>683</v>
       </c>
       <c r="C374" s="43" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D374" s="42" t="s">
         <v>1288</v>
-      </c>
-      <c r="D374" s="42" t="s">
-        <v>1289</v>
       </c>
       <c r="E374" s="42"/>
       <c r="F374" s="42" t="s">
@@ -12266,10 +12261,10 @@
         <v>695</v>
       </c>
       <c r="C379" s="40" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D379" s="40" t="s">
         <v>1290</v>
-      </c>
-      <c r="D379" s="40" t="s">
-        <v>1291</v>
       </c>
       <c r="F379" s="40" t="s">
         <v>119</v>
@@ -12283,10 +12278,10 @@
         <v>696</v>
       </c>
       <c r="C380" s="41" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D380" s="41" t="s">
         <v>1292</v>
-      </c>
-      <c r="D380" s="41" t="s">
-        <v>1293</v>
       </c>
       <c r="F380" s="41" t="s">
         <v>119</v>
@@ -12315,7 +12310,7 @@
         <v>6</v>
       </c>
       <c r="B382" s="16" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C382" s="7" t="s">
         <v>700</v>
@@ -12461,7 +12456,7 @@
         <v>6</v>
       </c>
       <c r="B391" s="16" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C391" s="15" t="s">
         <v>749</v>
@@ -13587,10 +13582,10 @@
         <v>726</v>
       </c>
       <c r="C397" s="42" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D397" s="42" t="s">
         <v>1288</v>
-      </c>
-      <c r="D397" s="42" t="s">
-        <v>1289</v>
       </c>
       <c r="F397" s="42" t="s">
         <v>196</v>
@@ -16728,10 +16723,10 @@
         <v>731</v>
       </c>
       <c r="C402" s="40" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D402" s="40" t="s">
         <v>1290</v>
-      </c>
-      <c r="D402" s="40" t="s">
-        <v>1291</v>
       </c>
       <c r="F402" s="40" t="s">
         <v>196</v>
@@ -16745,10 +16740,10 @@
         <v>732</v>
       </c>
       <c r="C403" s="41" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D403" s="41" t="s">
         <v>1292</v>
-      </c>
-      <c r="D403" s="41" t="s">
-        <v>1293</v>
       </c>
       <c r="F403" s="41" t="s">
         <v>196</v>
@@ -17796,7 +17791,7 @@
         <v>6</v>
       </c>
       <c r="B405" s="16" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C405" s="7" t="s">
         <v>734</v>
@@ -17924,7 +17919,7 @@
         <v>6</v>
       </c>
       <c r="B413" s="16" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C413" s="15" t="s">
         <v>745</v>
@@ -17942,7 +17937,7 @@
         <v>6</v>
       </c>
       <c r="B414" s="16" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="C414" s="15" t="s">
         <v>747</v>
@@ -17960,7 +17955,7 @@
         <v>6</v>
       </c>
       <c r="B415" s="16" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C415" s="15" t="s">
         <v>749</v>
@@ -19071,7 +19066,7 @@
         <v>684</v>
       </c>
       <c r="D420" s="42" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="F420" s="42" t="s">
         <v>211</v>
@@ -22209,10 +22204,10 @@
         <v>761</v>
       </c>
       <c r="C425" s="40" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D425" s="40" t="s">
         <v>1290</v>
-      </c>
-      <c r="D425" s="40" t="s">
-        <v>1291</v>
       </c>
       <c r="F425" s="40" t="s">
         <v>211</v>
@@ -22226,10 +22221,10 @@
         <v>762</v>
       </c>
       <c r="C426" s="41" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D426" s="41" t="s">
         <v>1292</v>
-      </c>
-      <c r="D426" s="41" t="s">
-        <v>1293</v>
       </c>
       <c r="F426" s="41" t="s">
         <v>211</v>
@@ -22258,7 +22253,7 @@
         <v>6</v>
       </c>
       <c r="B428" s="16" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C428" s="7" t="s">
         <v>764</v>
@@ -22560,10 +22555,10 @@
         <v>792</v>
       </c>
       <c r="C446" s="40" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D446" s="40" t="s">
         <v>1290</v>
-      </c>
-      <c r="D446" s="40" t="s">
-        <v>1291</v>
       </c>
       <c r="F446" s="40" t="s">
         <v>226</v>
@@ -22577,10 +22572,10 @@
         <v>793</v>
       </c>
       <c r="C447" s="41" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D447" s="41" t="s">
         <v>1292</v>
-      </c>
-      <c r="D447" s="41" t="s">
-        <v>1293</v>
       </c>
       <c r="F447" s="41" t="s">
         <v>226</v>
@@ -22591,10 +22586,10 @@
         <v>6</v>
       </c>
       <c r="B448" s="16" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C448" s="15" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D448" s="16"/>
       <c r="E448" s="15"/>
@@ -22637,10 +22632,10 @@
         <v>6</v>
       </c>
       <c r="B451" s="16" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C451" s="15" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="D451" s="16" t="s">
         <v>1182</v>
@@ -22726,10 +22721,10 @@
         <v>802</v>
       </c>
       <c r="C456" s="42" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D456" s="42" t="s">
         <v>1288</v>
-      </c>
-      <c r="D456" s="42" t="s">
-        <v>1289</v>
       </c>
       <c r="F456" s="42" t="s">
         <v>226</v>
@@ -23809,7 +23804,7 @@
         <v>6</v>
       </c>
       <c r="B460" s="16" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C460" s="7" t="s">
         <v>807</v>
@@ -23865,7 +23860,7 @@
         <v>6</v>
       </c>
       <c r="B464" s="16" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="C464" s="7" t="s">
         <v>812</v>
@@ -23907,7 +23902,7 @@
         <v>6</v>
       </c>
       <c r="B467" s="16" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="C467" s="7" t="s">
         <v>816</v>
@@ -24053,7 +24048,7 @@
         <v>6</v>
       </c>
       <c r="B476" s="16" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C476" s="15" t="s">
         <v>776</v>
@@ -24176,10 +24171,10 @@
         <v>838</v>
       </c>
       <c r="C483" s="42" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D483" s="42" t="s">
         <v>1288</v>
-      </c>
-      <c r="D483" s="42" t="s">
-        <v>1289</v>
       </c>
       <c r="F483" s="42" t="s">
         <v>51</v>
@@ -25279,10 +25274,10 @@
         <v>843</v>
       </c>
       <c r="C488" s="40" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D488" s="40" t="s">
         <v>1290</v>
-      </c>
-      <c r="D488" s="40" t="s">
-        <v>1291</v>
       </c>
       <c r="F488" s="40" t="s">
         <v>51</v>
@@ -25296,10 +25291,10 @@
         <v>844</v>
       </c>
       <c r="C489" s="41" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D489" s="41" t="s">
         <v>1292</v>
-      </c>
-      <c r="D489" s="41" t="s">
-        <v>1293</v>
       </c>
       <c r="F489" s="41" t="s">
         <v>51</v>
@@ -29000,9 +28995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AMK32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -29419,7 +29412,7 @@
         <v>1175</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="47" t="s">
@@ -29457,7 +29450,7 @@
         <v>1177</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="47" t="s">
@@ -29985,7 +29978,7 @@
         <v>1213</v>
       </c>
       <c r="D24" s="47" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="E24" s="47"/>
       <c r="F24" s="47" t="s">
@@ -30255,9 +30248,7 @@
       <c r="D25" s="47" t="s">
         <v>687</v>
       </c>
-      <c r="E25" s="47" t="s">
-        <v>1215</v>
-      </c>
+      <c r="E25" s="47"/>
       <c r="F25" s="47" t="s">
         <v>856</v>
       </c>
@@ -30520,7 +30511,7 @@
         <v>1160</v>
       </c>
       <c r="C26" s="47" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="D26" s="47" t="s">
         <v>698</v>
@@ -30788,7 +30779,7 @@
         <v>1160</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="D27" s="47" t="s">
         <v>827</v>
@@ -31056,7 +31047,7 @@
         <v>1160</v>
       </c>
       <c r="C28" s="47" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="D28" s="47" t="s">
         <v>673</v>
@@ -31068,7 +31059,7 @@
         <v>856</v>
       </c>
       <c r="G28" s="55" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="29" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
@@ -31079,10 +31070,10 @@
         <v>1160</v>
       </c>
       <c r="C29" s="47" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D29" s="47" t="s">
         <v>1220</v>
-      </c>
-      <c r="D29" s="47" t="s">
-        <v>1221</v>
       </c>
       <c r="E29" s="47"/>
       <c r="F29" s="47" t="s">
@@ -31092,16 +31083,16 @@
     </row>
     <row r="30" spans="1:256" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A30" s="56" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B30" s="47" t="s">
         <v>1160</v>
       </c>
       <c r="C30" s="56" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D30" s="56" t="s">
         <v>1298</v>
-      </c>
-      <c r="D30" s="56" t="s">
-        <v>1299</v>
       </c>
       <c r="E30" s="47"/>
       <c r="F30" s="47" t="s">
@@ -31111,16 +31102,16 @@
     </row>
     <row r="31" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A31" s="56" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="B31" s="47" t="s">
         <v>1160</v>
       </c>
       <c r="C31" s="56" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D31" s="56" t="s">
         <v>1300</v>
-      </c>
-      <c r="D31" s="56" t="s">
-        <v>1301</v>
       </c>
       <c r="E31" s="55"/>
       <c r="F31" s="47" t="s">
@@ -31130,16 +31121,16 @@
     </row>
     <row r="32" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A32" s="56" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="B32" s="47" t="s">
         <v>1160</v>
       </c>
       <c r="C32" s="56" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D32" s="56" t="s">
         <v>1302</v>
-      </c>
-      <c r="D32" s="56" t="s">
-        <v>1303</v>
       </c>
       <c r="E32" s="55"/>
       <c r="F32" s="47" t="s">
@@ -31450,37 +31441,37 @@
         <v>278</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>1222</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="D2" s="22" t="s">
         <v>1223</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>1224</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="18" t="s">
         <v>856</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="3" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>1226</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>1222</v>
-      </c>
-      <c r="C3" s="18" t="s">
+      <c r="D3" s="18" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>1227</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>1224</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>1228</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>872</v>
@@ -31489,19 +31480,19 @@
     </row>
     <row r="4" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>1229</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>1222</v>
-      </c>
-      <c r="C4" s="18" t="s">
+      <c r="D4" s="18" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>1230</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>1224</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>1231</v>
       </c>
       <c r="F4" s="18" t="s">
         <v>872</v>

--- a/conformancelib/testdata/PIV-I_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I_ICAM_Test_Cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance-0.2.3-beta\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322461A8-779C-4D06-94A0-DEE942D72833}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4A9A54-0DBF-41B2-A5DD-B2A45AB6A5D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="336" windowWidth="22296" windowHeight="12960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3098" uniqueCount="1303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3096" uniqueCount="1304">
   <si>
     <t>Document</t>
   </si>
@@ -3941,6 +3941,9 @@
   </si>
   <si>
     <t>The URI scheme for id-ce-cRLDistributionPoints is "http" (not "https")</t>
+  </si>
+  <si>
+    <t>Not tested for PIV-I. GeneralName field exists that contains an otherName with a type-id asserting the pivFASC-N OID. The value field of this otherName contains the FASC-N for the cardholder which matches the FASC-N obtained from parsing the CHUID.</t>
   </si>
 </sst>
 </file>
@@ -4713,7 +4716,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK490"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A353" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A369" sqref="A369"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -11071,15 +11076,11 @@
         <v>1269</v>
       </c>
       <c r="C369" s="15" t="s">
-        <v>1270</v>
-      </c>
-      <c r="D369" s="16" t="s">
-        <v>1182</v>
-      </c>
+        <v>1303</v>
+      </c>
+      <c r="D369" s="16"/>
       <c r="E369" s="15"/>
-      <c r="F369" s="16" t="s">
-        <v>119</v>
-      </c>
+      <c r="F369" s="16"/>
     </row>
     <row r="370" spans="1:1025" ht="45" x14ac:dyDescent="0.3">
       <c r="A370" s="16" t="s">
@@ -28995,7 +28996,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AMK32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>

--- a/conformancelib/testdata/PIV-I_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I_ICAM_Test_Cards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance-0.2.3-beta\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4A9A54-0DBF-41B2-A5DD-B2A45AB6A5D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A270344-D351-4D1B-ABEE-B67180E39226}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="336" windowWidth="22296" windowHeight="12960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3096" uniqueCount="1304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3094" uniqueCount="1304">
   <si>
     <t>Document</t>
   </si>
@@ -4716,8 +4716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK490"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A353" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A369" sqref="A369"/>
+    <sheetView tabSelected="1" topLeftCell="A434" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D434" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -22638,13 +22638,9 @@
       <c r="C451" s="15" t="s">
         <v>1270</v>
       </c>
-      <c r="D451" s="16" t="s">
-        <v>1182</v>
-      </c>
+      <c r="D451" s="16"/>
       <c r="E451" s="15"/>
-      <c r="F451" s="16" t="s">
-        <v>226</v>
-      </c>
+      <c r="F451" s="16"/>
     </row>
     <row r="452" spans="1:1025" ht="45" x14ac:dyDescent="0.3">
       <c r="A452" s="16" t="s">

--- a/conformancelib/testdata/PIV-I_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I_ICAM_Test_Cards.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance-0.2.3-beta\conformancelib\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA3AAFB-D7A0-417F-9593-FCD75A508429}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DD5A97-B991-46C3-A316-8817FBDDCA8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="1" r:id="rId1"/>
@@ -2113,9 +2113,6 @@
     <t>11.1.2.10.5</t>
   </si>
   <si>
-    <t>File contains a CMS a certs-only CMS message (see RFC 3851).</t>
-  </si>
-  <si>
     <t>PKIX.25</t>
   </si>
   <si>
@@ -3962,6 +3959,9 @@
   </si>
   <si>
     <t>Verify that container tag order and value lengths comply with Appendix A SP 800-73-4</t>
+  </si>
+  <si>
+    <t>File has an extension of “.p7c” containing a certs-only CMS message (see RFC 3851)</t>
   </si>
 </sst>
 </file>
@@ -4746,7 +4746,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK1000"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A376" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C381" sqref="C381"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5009,7 +5011,7 @@
         <v>44</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>124</v>
@@ -5127,7 +5129,7 @@
         <v>55</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>124</v>
@@ -5412,10 +5414,10 @@
         <v>6</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
@@ -5518,10 +5520,10 @@
         <v>6</v>
       </c>
       <c r="B44" s="16" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>1226</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>1227</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -5621,7 +5623,7 @@
         <v>123</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="D50" s="16" t="s">
         <v>124</v>
@@ -5829,7 +5831,7 @@
         <v>146</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="D62" s="16" t="s">
         <v>124</v>
@@ -5957,7 +5959,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A70" s="16" t="s">
         <v>6</v>
       </c>
@@ -5965,7 +5967,7 @@
         <v>157</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="D70" s="16" t="s">
         <v>124</v>
@@ -5983,7 +5985,7 @@
         <v>160</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D71" s="16" t="s">
         <v>161</v>
@@ -6001,7 +6003,7 @@
         <v>162</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>164</v>
@@ -6019,7 +6021,7 @@
         <v>165</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>166</v>
@@ -6037,7 +6039,7 @@
         <v>167</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D74" s="16" t="s">
         <v>168</v>
@@ -6055,7 +6057,7 @@
         <v>169</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D75" s="16" t="s">
         <v>170</v>
@@ -6073,7 +6075,7 @@
         <v>171</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D76" s="16" t="s">
         <v>172</v>
@@ -6201,7 +6203,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A84" s="16" t="s">
         <v>6</v>
       </c>
@@ -6209,7 +6211,7 @@
         <v>182</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="D84" s="16" t="s">
         <v>124</v>
@@ -6260,7 +6262,7 @@
         <v>114</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C87" s="16" t="s">
         <v>116</v>
@@ -6381,7 +6383,7 @@
         <v>198</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="D94" s="16" t="s">
         <v>124</v>
@@ -6589,7 +6591,7 @@
         <v>212</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="D106" s="16" t="s">
         <v>124</v>
@@ -6797,7 +6799,7 @@
         <v>226</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="D118" s="16" t="s">
         <v>124</v>
@@ -6902,7 +6904,7 @@
         <v>6</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>232</v>
@@ -6997,7 +6999,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A130" s="16" t="s">
         <v>6</v>
       </c>
@@ -7005,7 +7007,7 @@
         <v>239</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="D130" s="16" t="s">
         <v>124</v>
@@ -7277,7 +7279,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A146" s="16" t="s">
         <v>114</v>
       </c>
@@ -7285,7 +7287,7 @@
         <v>277</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="D146" s="16" t="s">
         <v>124</v>
@@ -7338,7 +7340,7 @@
       </c>
       <c r="E149" s="16"/>
       <c r="F149" s="16" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
@@ -7356,7 +7358,7 @@
       </c>
       <c r="E150" s="16"/>
       <c r="F150" s="16" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -7374,7 +7376,7 @@
       </c>
       <c r="E151" s="16"/>
       <c r="F151" s="16" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -7410,7 +7412,7 @@
         <v>6</v>
       </c>
       <c r="B154" s="36" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C154" s="10" t="s">
         <v>294</v>
@@ -7438,7 +7440,7 @@
         <v>6</v>
       </c>
       <c r="B156" s="16" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>297</v>
@@ -7750,10 +7752,10 @@
         <v>6</v>
       </c>
       <c r="B174" s="16" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C174" s="16" t="s">
         <v>1237</v>
-      </c>
-      <c r="C174" s="16" t="s">
-        <v>1238</v>
       </c>
       <c r="D174" s="16"/>
       <c r="E174" s="16"/>
@@ -7784,7 +7786,7 @@
         <v>6</v>
       </c>
       <c r="B176" s="16" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C176" s="14" t="s">
         <v>339</v>
@@ -7815,7 +7817,7 @@
         <v>342</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="D178" s="16">
         <v>76.099999999999994</v>
@@ -7851,7 +7853,7 @@
         <v>344</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D180" s="16" t="s">
         <v>306</v>
@@ -8078,10 +8080,10 @@
         <v>6</v>
       </c>
       <c r="B193" s="16" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D193" s="16"/>
       <c r="E193" s="16"/>
@@ -8143,7 +8145,7 @@
         <v>366</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="D197" s="16">
         <v>76.099999999999994</v>
@@ -8179,7 +8181,7 @@
         <v>369</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D199" s="16" t="s">
         <v>306</v>
@@ -8406,10 +8408,10 @@
         <v>6</v>
       </c>
       <c r="B212" s="16" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D212" s="16"/>
       <c r="E212" s="16"/>
@@ -8440,7 +8442,7 @@
         <v>6</v>
       </c>
       <c r="B214" s="16" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C214" s="14" t="s">
         <v>389</v>
@@ -9226,7 +9228,7 @@
         <v>6</v>
       </c>
       <c r="B260" s="16" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C260" s="7" t="s">
         <v>48</v>
@@ -9311,7 +9313,7 @@
         <v>496</v>
       </c>
       <c r="C265" s="15" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D265" s="16" t="s">
         <v>497</v>
@@ -9412,7 +9414,7 @@
         <v>6</v>
       </c>
       <c r="B271" s="16" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C271" s="15" t="s">
         <v>511</v>
@@ -9587,7 +9589,7 @@
         <v>533</v>
       </c>
       <c r="C281" s="15" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D281" s="16" t="s">
         <v>497</v>
@@ -9799,7 +9801,7 @@
         <v>556</v>
       </c>
       <c r="C293" s="16" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="D293" s="16" t="s">
         <v>558</v>
@@ -9817,7 +9819,7 @@
         <v>559</v>
       </c>
       <c r="C294" s="15" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D294" s="16"/>
       <c r="E294" s="15"/>
@@ -9830,7 +9832,7 @@
         <v>6</v>
       </c>
       <c r="B295" s="16" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C295" s="15" t="s">
         <v>560</v>
@@ -9933,7 +9935,7 @@
         <v>569</v>
       </c>
       <c r="C301" s="15" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D301" s="16" t="s">
         <v>497</v>
@@ -10020,7 +10022,7 @@
         <v>6</v>
       </c>
       <c r="B306" s="16" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C306" s="10" t="s">
         <v>542</v>
@@ -10160,10 +10162,10 @@
         <v>6</v>
       </c>
       <c r="B314" s="16" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C314" s="15" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D314" s="16"/>
       <c r="E314" s="15"/>
@@ -10483,7 +10485,7 @@
         <v>617</v>
       </c>
       <c r="C333" s="16" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="D333" s="16" t="s">
         <v>497</v>
@@ -10534,7 +10536,7 @@
         <v>6</v>
       </c>
       <c r="B336" s="16" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C336" s="16" t="s">
         <v>537</v>
@@ -10552,7 +10554,7 @@
         <v>6</v>
       </c>
       <c r="B337" s="16" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C337" s="16" t="s">
         <v>539</v>
@@ -10584,7 +10586,7 @@
         <v>6</v>
       </c>
       <c r="B339" s="16" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C339" s="16" t="s">
         <v>606</v>
@@ -10602,7 +10604,7 @@
         <v>6</v>
       </c>
       <c r="B340" s="16" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C340" s="16" t="s">
         <v>547</v>
@@ -10713,7 +10715,7 @@
         <v>626</v>
       </c>
       <c r="C346" s="15" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D346" s="16"/>
       <c r="E346" s="16"/>
@@ -10758,7 +10760,7 @@
         <v>6</v>
       </c>
       <c r="B349" s="16" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C349" s="10" t="s">
         <v>630</v>
@@ -10854,10 +10856,10 @@
         <v>6</v>
       </c>
       <c r="B355" s="16" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C355" s="10" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D355" s="10"/>
       <c r="E355" s="10"/>
@@ -10871,10 +10873,10 @@
         <v>641</v>
       </c>
       <c r="C356" s="16" t="s">
+        <v>707</v>
+      </c>
+      <c r="D356" s="16" t="s">
         <v>708</v>
-      </c>
-      <c r="D356" s="16" t="s">
-        <v>709</v>
       </c>
       <c r="E356" s="15"/>
       <c r="F356" s="16" t="s">
@@ -10904,7 +10906,7 @@
         <v>6</v>
       </c>
       <c r="B358" s="16" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C358" s="15" t="s">
         <v>645</v>
@@ -10922,7 +10924,7 @@
         <v>6</v>
       </c>
       <c r="B359" s="16" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C359" s="16" t="s">
         <v>648</v>
@@ -11010,7 +11012,7 @@
         <v>660</v>
       </c>
       <c r="C364" s="40" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="D364" s="40" t="s">
         <v>680</v>
@@ -11024,10 +11026,10 @@
         <v>6</v>
       </c>
       <c r="B365" s="41" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C365" s="41" t="s">
         <v>1279</v>
-      </c>
-      <c r="C365" s="41" t="s">
-        <v>1280</v>
       </c>
       <c r="D365" s="41" t="s">
         <v>661</v>
@@ -11041,10 +11043,10 @@
         <v>6</v>
       </c>
       <c r="B366" s="16" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C366" s="15" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D366" s="16"/>
       <c r="E366" s="16"/>
@@ -11087,10 +11089,10 @@
         <v>6</v>
       </c>
       <c r="B369" s="16" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C369" s="15" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D369" s="16"/>
       <c r="E369" s="15"/>
@@ -11172,10 +11174,10 @@
         <v>678</v>
       </c>
       <c r="C374" s="43" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D374" s="42" t="s">
         <v>1281</v>
-      </c>
-      <c r="D374" s="42" t="s">
-        <v>1282</v>
       </c>
       <c r="E374" s="42"/>
       <c r="F374" s="42" t="s">
@@ -12276,10 +12278,10 @@
         <v>690</v>
       </c>
       <c r="C379" s="40" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D379" s="40" t="s">
         <v>1283</v>
-      </c>
-      <c r="D379" s="40" t="s">
-        <v>1284</v>
       </c>
       <c r="F379" s="40" t="s">
         <v>119</v>
@@ -12293,16 +12295,16 @@
         <v>691</v>
       </c>
       <c r="C380" s="41" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D380" s="41" t="s">
         <v>1285</v>
-      </c>
-      <c r="D380" s="41" t="s">
-        <v>1286</v>
       </c>
       <c r="F380" s="41" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="381" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:1025" ht="30" x14ac:dyDescent="0.3">
       <c r="A381" s="16" t="s">
         <v>6</v>
       </c>
@@ -12310,10 +12312,10 @@
         <v>692</v>
       </c>
       <c r="C381" s="16" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D381" s="16" t="s">
         <v>693</v>
-      </c>
-      <c r="D381" s="16" t="s">
-        <v>694</v>
       </c>
       <c r="E381" s="16"/>
       <c r="F381" s="16" t="s">
@@ -12325,10 +12327,10 @@
         <v>6</v>
       </c>
       <c r="B382" s="16" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C382" s="7" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D382" s="10"/>
       <c r="E382" s="10"/>
@@ -12339,7 +12341,7 @@
         <v>6</v>
       </c>
       <c r="B383" s="16" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C383" s="10" t="s">
         <v>632</v>
@@ -12353,13 +12355,13 @@
         <v>6</v>
       </c>
       <c r="B384" s="16" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C384" s="15" t="s">
         <v>634</v>
       </c>
       <c r="D384" s="16" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E384" s="15"/>
       <c r="F384" s="16" t="s">
@@ -12371,13 +12373,13 @@
         <v>6</v>
       </c>
       <c r="B385" s="16" t="s">
+        <v>698</v>
+      </c>
+      <c r="C385" s="15" t="s">
         <v>699</v>
       </c>
-      <c r="C385" s="15" t="s">
+      <c r="D385" s="16" t="s">
         <v>700</v>
-      </c>
-      <c r="D385" s="16" t="s">
-        <v>701</v>
       </c>
       <c r="E385" s="15"/>
       <c r="F385" s="16" t="s">
@@ -12389,10 +12391,10 @@
         <v>6</v>
       </c>
       <c r="B386" s="16" t="s">
+        <v>701</v>
+      </c>
+      <c r="C386" s="15" t="s">
         <v>702</v>
-      </c>
-      <c r="C386" s="15" t="s">
-        <v>703</v>
       </c>
       <c r="D386" s="16">
         <v>78.099999999999994</v>
@@ -12407,7 +12409,7 @@
         <v>6</v>
       </c>
       <c r="B387" s="16" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C387" s="10" t="s">
         <v>640</v>
@@ -12421,10 +12423,10 @@
         <v>6</v>
       </c>
       <c r="B388" s="16" t="s">
+        <v>704</v>
+      </c>
+      <c r="C388" s="10" t="s">
         <v>705</v>
-      </c>
-      <c r="C388" s="10" t="s">
-        <v>706</v>
       </c>
       <c r="D388" s="10"/>
       <c r="E388" s="10"/>
@@ -12435,13 +12437,13 @@
         <v>6</v>
       </c>
       <c r="B389" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="C389" s="16" t="s">
         <v>707</v>
       </c>
-      <c r="C389" s="16" t="s">
+      <c r="D389" s="16" t="s">
         <v>708</v>
-      </c>
-      <c r="D389" s="16" t="s">
-        <v>709</v>
       </c>
       <c r="E389" s="15"/>
       <c r="F389" s="16" t="s">
@@ -12453,10 +12455,10 @@
         <v>6</v>
       </c>
       <c r="B390" s="16" t="s">
+        <v>709</v>
+      </c>
+      <c r="C390" s="15" t="s">
         <v>710</v>
-      </c>
-      <c r="C390" s="15" t="s">
-        <v>711</v>
       </c>
       <c r="D390" s="16" t="s">
         <v>646</v>
@@ -12471,10 +12473,10 @@
         <v>6</v>
       </c>
       <c r="B391" s="16" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C391" s="15" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D391" s="16" t="s">
         <v>646</v>
@@ -12489,7 +12491,7 @@
         <v>6</v>
       </c>
       <c r="B392" s="16" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C392" s="15" t="s">
         <v>663</v>
@@ -12507,10 +12509,10 @@
         <v>6</v>
       </c>
       <c r="B393" s="16" t="s">
+        <v>713</v>
+      </c>
+      <c r="C393" s="15" t="s">
         <v>714</v>
-      </c>
-      <c r="C393" s="15" t="s">
-        <v>715</v>
       </c>
       <c r="D393" s="16" t="s">
         <v>672</v>
@@ -12525,10 +12527,10 @@
         <v>6</v>
       </c>
       <c r="B394" s="16" t="s">
+        <v>715</v>
+      </c>
+      <c r="C394" s="15" t="s">
         <v>716</v>
-      </c>
-      <c r="C394" s="15" t="s">
-        <v>717</v>
       </c>
       <c r="D394" s="16" t="s">
         <v>675</v>
@@ -12543,10 +12545,10 @@
         <v>6</v>
       </c>
       <c r="B395" s="16" t="s">
+        <v>717</v>
+      </c>
+      <c r="C395" s="15" t="s">
         <v>718</v>
-      </c>
-      <c r="C395" s="15" t="s">
-        <v>719</v>
       </c>
       <c r="D395" s="16" t="s">
         <v>651</v>
@@ -12561,7 +12563,7 @@
         <v>6</v>
       </c>
       <c r="B396" s="16" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C396" s="10" t="s">
         <v>677</v>
@@ -13594,13 +13596,13 @@
         <v>6</v>
       </c>
       <c r="B397" s="42" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C397" s="42" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D397" s="42" t="s">
         <v>1281</v>
-      </c>
-      <c r="D397" s="42" t="s">
-        <v>1282</v>
       </c>
       <c r="F397" s="42" t="s">
         <v>194</v>
@@ -13611,7 +13613,7 @@
         <v>6</v>
       </c>
       <c r="B398" s="16" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C398" s="16" t="s">
         <v>682</v>
@@ -14648,7 +14650,7 @@
         <v>6</v>
       </c>
       <c r="B399" s="16" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C399" s="10" t="s">
         <v>685</v>
@@ -15681,7 +15683,7 @@
         <v>6</v>
       </c>
       <c r="B400" s="16" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C400" s="15" t="s">
         <v>655</v>
@@ -16718,7 +16720,7 @@
         <v>6</v>
       </c>
       <c r="B401" s="39" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C401" s="39" t="s">
         <v>688</v>
@@ -16735,13 +16737,13 @@
         <v>6</v>
       </c>
       <c r="B402" s="40" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C402" s="40" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D402" s="40" t="s">
         <v>1283</v>
-      </c>
-      <c r="D402" s="40" t="s">
-        <v>1284</v>
       </c>
       <c r="F402" s="40" t="s">
         <v>194</v>
@@ -16752,30 +16754,30 @@
         <v>6</v>
       </c>
       <c r="B403" s="41" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C403" s="41" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D403" s="41" t="s">
         <v>1285</v>
-      </c>
-      <c r="D403" s="41" t="s">
-        <v>1286</v>
       </c>
       <c r="F403" s="41" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="404" spans="1:1025" s="46" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:1025" s="46" customFormat="1" ht="30" x14ac:dyDescent="0.3">
       <c r="A404" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B404" s="16" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C404" s="16" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D404" s="16" t="s">
         <v>693</v>
-      </c>
-      <c r="D404" s="16" t="s">
-        <v>694</v>
       </c>
       <c r="E404" s="16"/>
       <c r="F404" s="16" t="s">
@@ -17806,10 +17808,10 @@
         <v>6</v>
       </c>
       <c r="B405" s="16" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C405" s="7" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D405" s="10"/>
       <c r="E405" s="10"/>
@@ -17820,7 +17822,7 @@
         <v>6</v>
       </c>
       <c r="B406" s="16" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C406" s="10" t="s">
         <v>632</v>
@@ -17834,10 +17836,10 @@
         <v>6</v>
       </c>
       <c r="B407" s="16" t="s">
+        <v>730</v>
+      </c>
+      <c r="C407" s="15" t="s">
         <v>731</v>
-      </c>
-      <c r="C407" s="15" t="s">
-        <v>732</v>
       </c>
       <c r="D407" s="16">
         <v>78.3</v>
@@ -17852,13 +17854,13 @@
         <v>6</v>
       </c>
       <c r="B408" s="16" t="s">
+        <v>732</v>
+      </c>
+      <c r="C408" s="16" t="s">
         <v>733</v>
       </c>
-      <c r="C408" s="16" t="s">
-        <v>734</v>
-      </c>
       <c r="D408" s="16" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E408" s="16"/>
       <c r="F408" s="16" t="s">
@@ -17870,10 +17872,10 @@
         <v>6</v>
       </c>
       <c r="B409" s="16" t="s">
+        <v>734</v>
+      </c>
+      <c r="C409" s="15" t="s">
         <v>735</v>
-      </c>
-      <c r="C409" s="15" t="s">
-        <v>736</v>
       </c>
       <c r="D409" s="16">
         <v>78.099999999999994</v>
@@ -17888,7 +17890,7 @@
         <v>6</v>
       </c>
       <c r="B410" s="16" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C410" s="10" t="s">
         <v>640</v>
@@ -17902,10 +17904,10 @@
         <v>6</v>
       </c>
       <c r="B411" s="16" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C411" s="10" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D411" s="10"/>
       <c r="E411" s="10"/>
@@ -17916,13 +17918,13 @@
         <v>6</v>
       </c>
       <c r="B412" s="16" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C412" s="16" t="s">
+        <v>707</v>
+      </c>
+      <c r="D412" s="16" t="s">
         <v>708</v>
-      </c>
-      <c r="D412" s="16" t="s">
-        <v>709</v>
       </c>
       <c r="E412" s="15"/>
       <c r="F412" s="16" t="s">
@@ -17934,10 +17936,10 @@
         <v>6</v>
       </c>
       <c r="B413" s="16" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C413" s="15" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D413" s="16" t="s">
         <v>646</v>
@@ -17952,10 +17954,10 @@
         <v>6</v>
       </c>
       <c r="B414" s="16" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C414" s="15" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D414" s="16" t="s">
         <v>646</v>
@@ -17970,10 +17972,10 @@
         <v>6</v>
       </c>
       <c r="B415" s="16" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C415" s="15" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D415" s="16" t="s">
         <v>646</v>
@@ -17988,10 +17990,10 @@
         <v>6</v>
       </c>
       <c r="B416" s="16" t="s">
+        <v>744</v>
+      </c>
+      <c r="C416" s="15" t="s">
         <v>745</v>
-      </c>
-      <c r="C416" s="15" t="s">
-        <v>746</v>
       </c>
       <c r="D416" s="16" t="s">
         <v>664</v>
@@ -18006,10 +18008,10 @@
         <v>6</v>
       </c>
       <c r="B417" s="16" t="s">
+        <v>746</v>
+      </c>
+      <c r="C417" s="15" t="s">
         <v>747</v>
-      </c>
-      <c r="C417" s="15" t="s">
-        <v>748</v>
       </c>
       <c r="D417" s="16" t="s">
         <v>675</v>
@@ -18024,10 +18026,10 @@
         <v>6</v>
       </c>
       <c r="B418" s="16" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C418" s="15" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D418" s="16" t="s">
         <v>651</v>
@@ -18042,7 +18044,7 @@
         <v>6</v>
       </c>
       <c r="B419" s="16" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C419" s="10" t="s">
         <v>677</v>
@@ -19075,13 +19077,13 @@
         <v>6</v>
       </c>
       <c r="B420" s="42" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C420" s="42" t="s">
         <v>679</v>
       </c>
       <c r="D420" s="42" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="F420" s="42" t="s">
         <v>208</v>
@@ -19092,7 +19094,7 @@
         <v>6</v>
       </c>
       <c r="B421" s="16" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C421" s="16" t="s">
         <v>682</v>
@@ -20129,7 +20131,7 @@
         <v>6</v>
       </c>
       <c r="B422" s="16" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C422" s="10" t="s">
         <v>685</v>
@@ -21162,7 +21164,7 @@
         <v>6</v>
       </c>
       <c r="B423" s="16" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C423" s="15" t="s">
         <v>655</v>
@@ -22199,7 +22201,7 @@
         <v>6</v>
       </c>
       <c r="B424" s="39" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C424" s="39" t="s">
         <v>688</v>
@@ -22216,13 +22218,13 @@
         <v>6</v>
       </c>
       <c r="B425" s="40" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C425" s="40" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D425" s="40" t="s">
         <v>1283</v>
-      </c>
-      <c r="D425" s="40" t="s">
-        <v>1284</v>
       </c>
       <c r="F425" s="40" t="s">
         <v>208</v>
@@ -22233,30 +22235,30 @@
         <v>6</v>
       </c>
       <c r="B426" s="41" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C426" s="41" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D426" s="41" t="s">
         <v>1285</v>
-      </c>
-      <c r="D426" s="41" t="s">
-        <v>1286</v>
       </c>
       <c r="F426" s="41" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="427" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:1025" ht="30" x14ac:dyDescent="0.3">
       <c r="A427" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B427" s="16" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C427" s="16" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D427" s="16" t="s">
         <v>693</v>
-      </c>
-      <c r="D427" s="16" t="s">
-        <v>694</v>
       </c>
       <c r="E427" s="16"/>
       <c r="F427" s="16" t="s">
@@ -22268,10 +22270,10 @@
         <v>6</v>
       </c>
       <c r="B428" s="16" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C428" s="7" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D428" s="10"/>
       <c r="E428" s="10"/>
@@ -22282,7 +22284,7 @@
         <v>6</v>
       </c>
       <c r="B429" s="16" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C429" s="10" t="s">
         <v>632</v>
@@ -22296,10 +22298,10 @@
         <v>6</v>
       </c>
       <c r="B430" s="16" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C430" s="15" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D430" s="16">
         <v>78.3</v>
@@ -22314,10 +22316,10 @@
         <v>6</v>
       </c>
       <c r="B431" s="16" t="s">
+        <v>761</v>
+      </c>
+      <c r="C431" s="15" t="s">
         <v>762</v>
-      </c>
-      <c r="C431" s="15" t="s">
-        <v>763</v>
       </c>
       <c r="D431" s="16">
         <v>78.099999999999994</v>
@@ -22332,10 +22334,10 @@
         <v>6</v>
       </c>
       <c r="B432" s="16" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C432" s="15" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D432" s="16">
         <v>78.099999999999994</v>
@@ -22350,7 +22352,7 @@
         <v>6</v>
       </c>
       <c r="B433" s="16" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C433" s="10" t="s">
         <v>640</v>
@@ -22364,10 +22366,10 @@
         <v>6</v>
       </c>
       <c r="B434" s="16" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C434" s="10" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D434" s="10"/>
       <c r="E434" s="10"/>
@@ -22378,13 +22380,13 @@
         <v>6</v>
       </c>
       <c r="B435" s="16" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C435" s="16" t="s">
+        <v>707</v>
+      </c>
+      <c r="D435" s="16" t="s">
         <v>708</v>
-      </c>
-      <c r="D435" s="16" t="s">
-        <v>709</v>
       </c>
       <c r="E435" s="16"/>
       <c r="F435" s="16" t="s">
@@ -22396,10 +22398,10 @@
         <v>6</v>
       </c>
       <c r="B436" s="16" t="s">
+        <v>767</v>
+      </c>
+      <c r="C436" s="15" t="s">
         <v>768</v>
-      </c>
-      <c r="C436" s="15" t="s">
-        <v>769</v>
       </c>
       <c r="D436" s="16" t="s">
         <v>646</v>
@@ -22414,10 +22416,10 @@
         <v>6</v>
       </c>
       <c r="B437" s="16" t="s">
+        <v>769</v>
+      </c>
+      <c r="C437" s="15" t="s">
         <v>770</v>
-      </c>
-      <c r="C437" s="15" t="s">
-        <v>771</v>
       </c>
       <c r="D437" s="16" t="s">
         <v>646</v>
@@ -22432,10 +22434,10 @@
         <v>6</v>
       </c>
       <c r="B438" s="16" t="s">
+        <v>771</v>
+      </c>
+      <c r="C438" s="16" t="s">
         <v>772</v>
-      </c>
-      <c r="C438" s="16" t="s">
-        <v>773</v>
       </c>
       <c r="D438" s="16" t="s">
         <v>651</v>
@@ -22450,10 +22452,10 @@
         <v>6</v>
       </c>
       <c r="B439" s="16" t="s">
+        <v>773</v>
+      </c>
+      <c r="C439" s="10" t="s">
         <v>774</v>
-      </c>
-      <c r="C439" s="10" t="s">
-        <v>775</v>
       </c>
       <c r="D439" s="10"/>
       <c r="E439" s="10"/>
@@ -22464,13 +22466,13 @@
         <v>6</v>
       </c>
       <c r="B440" s="16" t="s">
+        <v>775</v>
+      </c>
+      <c r="C440" s="16" t="s">
         <v>776</v>
       </c>
-      <c r="C440" s="16" t="s">
+      <c r="D440" s="16" t="s">
         <v>777</v>
-      </c>
-      <c r="D440" s="16" t="s">
-        <v>778</v>
       </c>
       <c r="E440" s="16"/>
       <c r="F440" s="16" t="s">
@@ -22482,13 +22484,13 @@
         <v>6</v>
       </c>
       <c r="B441" s="16" t="s">
+        <v>778</v>
+      </c>
+      <c r="C441" s="16" t="s">
         <v>779</v>
       </c>
-      <c r="C441" s="16" t="s">
+      <c r="D441" s="16" t="s">
         <v>780</v>
-      </c>
-      <c r="D441" s="16" t="s">
-        <v>781</v>
       </c>
       <c r="E441" s="16"/>
       <c r="F441" s="16" t="s">
@@ -22500,13 +22502,13 @@
         <v>6</v>
       </c>
       <c r="B442" s="16" t="s">
+        <v>781</v>
+      </c>
+      <c r="C442" s="16" t="s">
         <v>782</v>
       </c>
-      <c r="C442" s="16" t="s">
-        <v>783</v>
-      </c>
       <c r="D442" s="16" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E442" s="16"/>
       <c r="F442" s="16" t="s">
@@ -22518,7 +22520,7 @@
         <v>6</v>
       </c>
       <c r="B443" s="16" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C443" s="10" t="s">
         <v>685</v>
@@ -22532,7 +22534,7 @@
         <v>6</v>
       </c>
       <c r="B444" s="16" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C444" s="15" t="s">
         <v>655</v>
@@ -22550,7 +22552,7 @@
         <v>6</v>
       </c>
       <c r="B445" s="39" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C445" s="39" t="s">
         <v>688</v>
@@ -22567,13 +22569,13 @@
         <v>6</v>
       </c>
       <c r="B446" s="40" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C446" s="40" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D446" s="40" t="s">
         <v>1283</v>
-      </c>
-      <c r="D446" s="40" t="s">
-        <v>1284</v>
       </c>
       <c r="F446" s="40" t="s">
         <v>222</v>
@@ -22584,13 +22586,13 @@
         <v>6</v>
       </c>
       <c r="B447" s="41" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C447" s="41" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D447" s="41" t="s">
         <v>1285</v>
-      </c>
-      <c r="D447" s="41" t="s">
-        <v>1286</v>
       </c>
       <c r="F447" s="41" t="s">
         <v>222</v>
@@ -22601,10 +22603,10 @@
         <v>6</v>
       </c>
       <c r="B448" s="16" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C448" s="15" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="D448" s="16"/>
       <c r="E448" s="15"/>
@@ -22615,10 +22617,10 @@
         <v>6</v>
       </c>
       <c r="B449" s="16" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C449" s="15" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D449" s="16" t="s">
         <v>664</v>
@@ -22633,7 +22635,7 @@
         <v>6</v>
       </c>
       <c r="B450" s="16" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C450" s="10" t="s">
         <v>666</v>
@@ -22647,10 +22649,10 @@
         <v>6</v>
       </c>
       <c r="B451" s="16" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C451" s="15" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="D451" s="16"/>
       <c r="E451" s="15"/>
@@ -22661,7 +22663,7 @@
         <v>6</v>
       </c>
       <c r="B452" s="16" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C452" s="15" t="s">
         <v>668</v>
@@ -22679,13 +22681,13 @@
         <v>6</v>
       </c>
       <c r="B453" s="16" t="s">
+        <v>791</v>
+      </c>
+      <c r="C453" s="15" t="s">
         <v>792</v>
       </c>
-      <c r="C453" s="15" t="s">
+      <c r="D453" s="16" t="s">
         <v>793</v>
-      </c>
-      <c r="D453" s="16" t="s">
-        <v>794</v>
       </c>
       <c r="E453" s="15"/>
       <c r="F453" s="16" t="s">
@@ -22697,10 +22699,10 @@
         <v>6</v>
       </c>
       <c r="B454" s="16" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C454" s="15" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D454" s="16" t="s">
         <v>675</v>
@@ -22715,7 +22717,7 @@
         <v>6</v>
       </c>
       <c r="B455" s="16" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C455" s="10" t="s">
         <v>677</v>
@@ -22729,13 +22731,13 @@
         <v>6</v>
       </c>
       <c r="B456" s="42" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C456" s="42" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D456" s="42" t="s">
         <v>1281</v>
-      </c>
-      <c r="D456" s="42" t="s">
-        <v>1282</v>
       </c>
       <c r="F456" s="42" t="s">
         <v>222</v>
@@ -22746,7 +22748,7 @@
         <v>6</v>
       </c>
       <c r="B457" s="16" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C457" s="16" t="s">
         <v>682</v>
@@ -23783,27 +23785,27 @@
         <v>6</v>
       </c>
       <c r="B458" s="16" t="s">
+        <v>798</v>
+      </c>
+      <c r="C458" s="10" t="s">
         <v>799</v>
-      </c>
-      <c r="C458" s="10" t="s">
-        <v>800</v>
       </c>
       <c r="D458" s="10"/>
       <c r="E458" s="10"/>
       <c r="F458" s="10"/>
     </row>
-    <row r="459" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:1025" ht="30" x14ac:dyDescent="0.3">
       <c r="A459" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B459" s="16" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C459" s="16" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D459" s="16" t="s">
         <v>693</v>
-      </c>
-      <c r="D459" s="16" t="s">
-        <v>694</v>
       </c>
       <c r="E459" s="16"/>
       <c r="F459" s="16" t="s">
@@ -23815,10 +23817,10 @@
         <v>6</v>
       </c>
       <c r="B460" s="16" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C460" s="7" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D460" s="10"/>
       <c r="E460" s="7"/>
@@ -23829,10 +23831,10 @@
         <v>6</v>
       </c>
       <c r="B461" s="16" t="s">
+        <v>802</v>
+      </c>
+      <c r="C461" s="15" t="s">
         <v>803</v>
-      </c>
-      <c r="C461" s="15" t="s">
-        <v>804</v>
       </c>
       <c r="D461" s="16"/>
       <c r="E461" s="15"/>
@@ -23843,7 +23845,7 @@
         <v>6</v>
       </c>
       <c r="B462" s="16" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C462" s="15" t="s">
         <v>632</v>
@@ -23857,7 +23859,7 @@
         <v>6</v>
       </c>
       <c r="B463" s="16" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C463" s="15" t="s">
         <v>640</v>
@@ -23871,10 +23873,10 @@
         <v>6</v>
       </c>
       <c r="B464" s="16" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C464" s="7" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D464" s="10"/>
       <c r="E464" s="7"/>
@@ -23885,10 +23887,10 @@
         <v>6</v>
       </c>
       <c r="B465" s="16" t="s">
+        <v>807</v>
+      </c>
+      <c r="C465" s="15" t="s">
         <v>808</v>
-      </c>
-      <c r="C465" s="15" t="s">
-        <v>809</v>
       </c>
       <c r="D465" s="16"/>
       <c r="E465" s="15"/>
@@ -23899,7 +23901,7 @@
         <v>6</v>
       </c>
       <c r="B466" s="16" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C466" s="15" t="s">
         <v>632</v>
@@ -23913,10 +23915,10 @@
         <v>6</v>
       </c>
       <c r="B467" s="16" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="C467" s="7" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D467" s="10"/>
       <c r="E467" s="7"/>
@@ -23927,7 +23929,7 @@
         <v>6</v>
       </c>
       <c r="B468" s="16" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C468" s="10" t="s">
         <v>632</v>
@@ -23941,10 +23943,10 @@
         <v>6</v>
       </c>
       <c r="B469" s="16" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C469" s="15" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D469" s="16">
         <v>78.3</v>
@@ -23959,10 +23961,10 @@
         <v>6</v>
       </c>
       <c r="B470" s="16" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C470" s="15" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D470" s="16">
         <v>78.099999999999994</v>
@@ -23977,10 +23979,10 @@
         <v>6</v>
       </c>
       <c r="B471" s="16" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C471" s="15" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D471" s="16">
         <v>78.099999999999994</v>
@@ -23995,7 +23997,7 @@
         <v>6</v>
       </c>
       <c r="B472" s="16" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C472" s="10" t="s">
         <v>640</v>
@@ -24009,10 +24011,10 @@
         <v>6</v>
       </c>
       <c r="B473" s="16" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C473" s="10" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D473" s="10"/>
       <c r="E473" s="10"/>
@@ -24023,13 +24025,13 @@
         <v>6</v>
       </c>
       <c r="B474" s="16" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C474" s="16" t="s">
+        <v>707</v>
+      </c>
+      <c r="D474" s="16" t="s">
         <v>708</v>
-      </c>
-      <c r="D474" s="16" t="s">
-        <v>709</v>
       </c>
       <c r="E474" s="16"/>
       <c r="F474" s="16" t="s">
@@ -24041,10 +24043,10 @@
         <v>6</v>
       </c>
       <c r="B475" s="16" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C475" s="15" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D475" s="16" t="s">
         <v>646</v>
@@ -24059,10 +24061,10 @@
         <v>6</v>
       </c>
       <c r="B476" s="16" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C476" s="15" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D476" s="16" t="s">
         <v>646</v>
@@ -24077,13 +24079,13 @@
         <v>6</v>
       </c>
       <c r="B477" s="16" t="s">
+        <v>820</v>
+      </c>
+      <c r="C477" s="16" t="s">
         <v>821</v>
       </c>
-      <c r="C477" s="16" t="s">
+      <c r="D477" s="16" t="s">
         <v>822</v>
-      </c>
-      <c r="D477" s="16" t="s">
-        <v>823</v>
       </c>
       <c r="E477" s="16"/>
       <c r="F477" s="16" t="s">
@@ -24095,10 +24097,10 @@
         <v>6</v>
       </c>
       <c r="B478" s="16" t="s">
+        <v>823</v>
+      </c>
+      <c r="C478" s="16" t="s">
         <v>824</v>
-      </c>
-      <c r="C478" s="16" t="s">
-        <v>825</v>
       </c>
       <c r="D478" s="16" t="s">
         <v>675</v>
@@ -24113,10 +24115,10 @@
         <v>6</v>
       </c>
       <c r="B479" s="16" t="s">
+        <v>825</v>
+      </c>
+      <c r="C479" s="16" t="s">
         <v>826</v>
-      </c>
-      <c r="C479" s="16" t="s">
-        <v>827</v>
       </c>
       <c r="D479" s="16"/>
       <c r="E479" s="16"/>
@@ -24129,10 +24131,10 @@
         <v>6</v>
       </c>
       <c r="B480" s="16" t="s">
+        <v>827</v>
+      </c>
+      <c r="C480" s="16" t="s">
         <v>828</v>
-      </c>
-      <c r="C480" s="16" t="s">
-        <v>829</v>
       </c>
       <c r="D480" s="16" t="s">
         <v>651</v>
@@ -24147,13 +24149,13 @@
         <v>6</v>
       </c>
       <c r="B481" s="16" t="s">
+        <v>829</v>
+      </c>
+      <c r="C481" s="16" t="s">
         <v>830</v>
       </c>
-      <c r="C481" s="16" t="s">
-        <v>831</v>
-      </c>
       <c r="D481" s="16" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E481" s="16"/>
       <c r="F481" s="16" t="s">
@@ -24165,7 +24167,7 @@
         <v>6</v>
       </c>
       <c r="B482" s="16" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C482" s="10" t="s">
         <v>677</v>
@@ -24179,13 +24181,13 @@
         <v>6</v>
       </c>
       <c r="B483" s="42" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C483" s="42" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D483" s="42" t="s">
         <v>1281</v>
-      </c>
-      <c r="D483" s="42" t="s">
-        <v>1282</v>
       </c>
       <c r="F483" s="42" t="s">
         <v>51</v>
@@ -24196,7 +24198,7 @@
         <v>6</v>
       </c>
       <c r="B484" s="16" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C484" s="16" t="s">
         <v>682</v>
@@ -25233,7 +25235,7 @@
         <v>6</v>
       </c>
       <c r="B485" s="16" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C485" s="10" t="s">
         <v>685</v>
@@ -25247,7 +25249,7 @@
         <v>6</v>
       </c>
       <c r="B486" s="16" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C486" s="15" t="s">
         <v>655</v>
@@ -25265,7 +25267,7 @@
         <v>6</v>
       </c>
       <c r="B487" s="39" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C487" s="39" t="s">
         <v>688</v>
@@ -25282,13 +25284,13 @@
         <v>6</v>
       </c>
       <c r="B488" s="40" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C488" s="40" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D488" s="40" t="s">
         <v>1283</v>
-      </c>
-      <c r="D488" s="40" t="s">
-        <v>1284</v>
       </c>
       <c r="F488" s="40" t="s">
         <v>51</v>
@@ -25299,30 +25301,30 @@
         <v>6</v>
       </c>
       <c r="B489" s="41" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C489" s="41" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D489" s="41" t="s">
         <v>1285</v>
-      </c>
-      <c r="D489" s="41" t="s">
-        <v>1286</v>
       </c>
       <c r="F489" s="41" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="490" spans="1:1025" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:1025" ht="30" x14ac:dyDescent="0.3">
       <c r="A490" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B490" s="16" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C490" s="16" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D490" s="16" t="s">
         <v>693</v>
-      </c>
-      <c r="D490" s="16" t="s">
-        <v>694</v>
       </c>
       <c r="E490" s="16"/>
       <c r="F490" s="16" t="s">
@@ -26885,25 +26887,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
+        <v>840</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>841</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="19" t="s">
         <v>842</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>843</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>844</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>845</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>846</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -26911,17 +26913,17 @@
         <v>15</v>
       </c>
       <c r="B2" s="21" t="s">
+        <v>847</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>848</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>849</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>850</v>
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="20" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G2" s="20"/>
     </row>
@@ -26930,17 +26932,17 @@
         <v>19</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="20" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G3" s="20"/>
     </row>
@@ -26949,17 +26951,17 @@
         <v>22</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D4" s="19" t="s">
         <v>21</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="20" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G4" s="20"/>
     </row>
@@ -26968,36 +26970,36 @@
         <v>25</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E5" s="19"/>
       <c r="F5" s="20" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
+        <v>855</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>847</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>856</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>848</v>
-      </c>
-      <c r="C6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>857</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>858</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="20" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G6" s="20"/>
     </row>
@@ -27014,7 +27016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMK56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
@@ -27032,25 +27034,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
+        <v>840</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>841</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>842</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>843</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>844</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>845</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>846</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -27058,17 +27060,17 @@
         <v>28</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>858</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>859</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="D2" s="18" t="s">
         <v>860</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>861</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G2" s="18"/>
     </row>
@@ -27077,17 +27079,17 @@
         <v>31</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G3" s="18"/>
     </row>
@@ -27096,17 +27098,17 @@
         <v>34</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G4" s="18"/>
     </row>
@@ -27115,17 +27117,17 @@
         <v>37</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G5" s="18"/>
     </row>
@@ -27134,17 +27136,17 @@
         <v>40</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G6" s="18"/>
     </row>
@@ -27153,36 +27155,36 @@
         <v>46</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="18" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
+        <v>867</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>858</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>868</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>859</v>
-      </c>
-      <c r="C8" s="18" t="s">
+      <c r="D8" s="18" t="s">
         <v>869</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>870</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G8" s="18"/>
     </row>
@@ -27191,17 +27193,17 @@
         <v>57</v>
       </c>
       <c r="B9" s="18" t="s">
+        <v>870</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>871</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>872</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>56</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G9" s="18"/>
     </row>
@@ -27210,17 +27212,17 @@
         <v>99</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>98</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G10" s="18"/>
     </row>
@@ -27229,17 +27231,17 @@
         <v>60</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C11" s="18" t="s">
+        <v>873</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>874</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>875</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G11" s="18"/>
     </row>
@@ -27248,36 +27250,36 @@
         <v>66</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>65</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
+        <v>876</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>870</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>877</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>871</v>
-      </c>
-      <c r="C13" s="18" t="s">
+      <c r="D13" s="18" t="s">
         <v>878</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>879</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G13" s="18"/>
     </row>
@@ -27286,17 +27288,17 @@
         <v>81</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C14" s="18" t="s">
+        <v>879</v>
+      </c>
+      <c r="D14" s="18" t="s">
         <v>880</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>881</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G14" s="18"/>
     </row>
@@ -27305,17 +27307,17 @@
         <v>84</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C15" s="18" t="s">
+        <v>881</v>
+      </c>
+      <c r="D15" s="18" t="s">
         <v>882</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>883</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G15" s="18"/>
     </row>
@@ -27324,17 +27326,17 @@
         <v>105</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>104</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G16" s="18"/>
     </row>
@@ -27343,19 +27345,19 @@
         <v>108</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>107</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G17" s="18"/>
     </row>
@@ -27364,36 +27366,36 @@
         <v>102</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>101</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:7" s="23" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
+        <v>887</v>
+      </c>
+      <c r="B19" s="22" t="s">
         <v>888</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="C19" s="22" t="s">
         <v>889</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="D19" s="22" t="s">
         <v>890</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>891</v>
       </c>
       <c r="E19" s="22"/>
       <c r="F19" s="22" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G19" s="22"/>
     </row>
@@ -27402,17 +27404,17 @@
         <v>127</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>126</v>
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G20" s="18"/>
     </row>
@@ -27421,17 +27423,17 @@
         <v>130</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>129</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G21" s="18"/>
     </row>
@@ -27440,17 +27442,17 @@
         <v>133</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>132</v>
       </c>
       <c r="E22" s="18"/>
       <c r="F22" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G22" s="18"/>
     </row>
@@ -27459,17 +27461,17 @@
         <v>136</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>135</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G23" s="18"/>
     </row>
@@ -27478,17 +27480,17 @@
         <v>43</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>42</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G24" s="18"/>
     </row>
@@ -27497,17 +27499,17 @@
         <v>113</v>
       </c>
       <c r="B25" s="18" t="s">
+        <v>896</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>897</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>898</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>147</v>
       </c>
       <c r="E25" s="18"/>
       <c r="F25" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G25" s="18"/>
     </row>
@@ -27516,17 +27518,17 @@
         <v>186</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C26" s="18" t="s">
+        <v>898</v>
+      </c>
+      <c r="D26" s="18" t="s">
         <v>899</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>900</v>
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G26" s="18"/>
     </row>
@@ -27535,17 +27537,17 @@
         <v>189</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>188</v>
       </c>
       <c r="E27" s="18"/>
       <c r="F27" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G27" s="18"/>
     </row>
@@ -27554,17 +27556,17 @@
         <v>159</v>
       </c>
       <c r="B28" s="18" t="s">
+        <v>901</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>902</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>903</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>158</v>
       </c>
       <c r="E28" s="18"/>
       <c r="F28" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G28" s="18"/>
     </row>
@@ -27573,17 +27575,17 @@
         <v>161</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C29" s="18" t="s">
+        <v>903</v>
+      </c>
+      <c r="D29" s="18" t="s">
         <v>904</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>905</v>
       </c>
       <c r="E29" s="18"/>
       <c r="F29" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G29" s="18"/>
     </row>
@@ -27592,17 +27594,17 @@
         <v>168</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C30" s="18" t="s">
+        <v>905</v>
+      </c>
+      <c r="D30" s="18" t="s">
         <v>906</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>907</v>
       </c>
       <c r="E30" s="18"/>
       <c r="F30" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G30" s="18"/>
     </row>
@@ -27611,17 +27613,17 @@
         <v>170</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C31" s="18" t="s">
+        <v>907</v>
+      </c>
+      <c r="D31" s="18" t="s">
         <v>908</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>909</v>
       </c>
       <c r="E31" s="18"/>
       <c r="F31" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G31" s="18"/>
     </row>
@@ -27630,17 +27632,17 @@
         <v>172</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C32" s="18" t="s">
+        <v>909</v>
+      </c>
+      <c r="D32" s="18" t="s">
         <v>910</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>911</v>
       </c>
       <c r="E32" s="18"/>
       <c r="F32" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G32" s="18"/>
     </row>
@@ -27649,17 +27651,17 @@
         <v>183</v>
       </c>
       <c r="B33" s="18" t="s">
+        <v>911</v>
+      </c>
+      <c r="C33" s="18" t="s">
         <v>912</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="D33" s="18" t="s">
         <v>913</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>914</v>
       </c>
       <c r="E33" s="18"/>
       <c r="F33" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G33" s="18"/>
     </row>
@@ -27668,17 +27670,17 @@
         <v>241</v>
       </c>
       <c r="B34" s="18" t="s">
+        <v>914</v>
+      </c>
+      <c r="C34" s="18" t="s">
         <v>915</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>916</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>240</v>
       </c>
       <c r="E34" s="18"/>
       <c r="F34" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G34" s="18"/>
     </row>
@@ -27687,17 +27689,17 @@
         <v>244</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C35" s="18" t="s">
+        <v>916</v>
+      </c>
+      <c r="D35" s="18" t="s">
         <v>917</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>918</v>
       </c>
       <c r="E35" s="18"/>
       <c r="F35" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G35" s="18"/>
     </row>
@@ -27706,17 +27708,17 @@
         <v>250</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>249</v>
       </c>
       <c r="E36" s="18"/>
       <c r="F36" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G36" s="18"/>
     </row>
@@ -27725,20 +27727,20 @@
         <v>253</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>252</v>
       </c>
       <c r="E37" s="18"/>
       <c r="F37" s="18" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -27746,17 +27748,17 @@
         <v>588</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>587</v>
       </c>
       <c r="E38" s="18"/>
       <c r="F38" s="18" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="G38" s="18"/>
     </row>
@@ -27765,17 +27767,17 @@
         <v>279</v>
       </c>
       <c r="B39" s="18" t="s">
+        <v>922</v>
+      </c>
+      <c r="C39" s="18" t="s">
         <v>923</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>924</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>278</v>
       </c>
       <c r="E39" s="18"/>
       <c r="F39" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G39" s="18"/>
     </row>
@@ -27784,17 +27786,17 @@
         <v>264</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C40" s="22" t="s">
+        <v>924</v>
+      </c>
+      <c r="D40" s="22" t="s">
         <v>925</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>926</v>
       </c>
       <c r="E40" s="18"/>
       <c r="F40" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G40" s="18"/>
     </row>
@@ -27803,17 +27805,17 @@
         <v>267</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C41" s="18" t="s">
+        <v>926</v>
+      </c>
+      <c r="D41" s="22" t="s">
         <v>927</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>928</v>
       </c>
       <c r="E41" s="18"/>
       <c r="F41" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G41" s="18"/>
     </row>
@@ -27822,17 +27824,17 @@
         <v>276</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C42" s="18" t="s">
+        <v>928</v>
+      </c>
+      <c r="D42" s="18" t="s">
         <v>929</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>930</v>
       </c>
       <c r="E42" s="18"/>
       <c r="F42" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G42" s="18"/>
     </row>
@@ -27841,17 +27843,17 @@
         <v>63</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C43" s="24" t="s">
+        <v>930</v>
+      </c>
+      <c r="D43" s="24" t="s">
         <v>931</v>
-      </c>
-      <c r="D43" s="24" t="s">
-        <v>932</v>
       </c>
       <c r="E43" s="24"/>
       <c r="F43" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G43" s="24"/>
     </row>
@@ -27860,17 +27862,17 @@
         <v>69</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C44" s="24" t="s">
+        <v>932</v>
+      </c>
+      <c r="D44" s="24" t="s">
         <v>933</v>
-      </c>
-      <c r="D44" s="24" t="s">
-        <v>934</v>
       </c>
       <c r="E44" s="24"/>
       <c r="F44" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G44" s="24"/>
     </row>
@@ -27879,17 +27881,17 @@
         <v>72</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C45" s="24" t="s">
+        <v>934</v>
+      </c>
+      <c r="D45" s="24" t="s">
         <v>935</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>936</v>
       </c>
       <c r="E45" s="24"/>
       <c r="F45" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G45" s="24"/>
     </row>
@@ -27898,17 +27900,17 @@
         <v>75</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C46" s="24" t="s">
+        <v>936</v>
+      </c>
+      <c r="D46" s="24" t="s">
         <v>937</v>
-      </c>
-      <c r="D46" s="24" t="s">
-        <v>938</v>
       </c>
       <c r="E46" s="24"/>
       <c r="F46" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G46" s="24"/>
     </row>
@@ -27917,17 +27919,17 @@
         <v>78</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C47" s="24" t="s">
+        <v>938</v>
+      </c>
+      <c r="D47" s="24" t="s">
         <v>939</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>940</v>
       </c>
       <c r="E47" s="24"/>
       <c r="F47" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G47" s="24"/>
     </row>
@@ -27936,17 +27938,17 @@
         <v>87</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C48" s="24" t="s">
+        <v>940</v>
+      </c>
+      <c r="D48" s="24" t="s">
         <v>941</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>942</v>
       </c>
       <c r="E48" s="24"/>
       <c r="F48" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G48" s="24"/>
     </row>
@@ -27955,17 +27957,17 @@
         <v>90</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C49" s="24" t="s">
+        <v>942</v>
+      </c>
+      <c r="D49" s="24" t="s">
         <v>943</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>944</v>
       </c>
       <c r="E49" s="24"/>
       <c r="F49" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G49" s="24"/>
     </row>
@@ -27974,17 +27976,17 @@
         <v>93</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C50" s="24" t="s">
+        <v>944</v>
+      </c>
+      <c r="D50" s="24" t="s">
         <v>945</v>
-      </c>
-      <c r="D50" s="24" t="s">
-        <v>946</v>
       </c>
       <c r="E50" s="24"/>
       <c r="F50" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G50" s="24"/>
     </row>
@@ -27993,17 +27995,17 @@
         <v>96</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C51" s="24" t="s">
+        <v>946</v>
+      </c>
+      <c r="D51" s="24" t="s">
         <v>947</v>
-      </c>
-      <c r="D51" s="24" t="s">
-        <v>948</v>
       </c>
       <c r="E51" s="24"/>
       <c r="F51" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G51" s="24"/>
     </row>
@@ -28012,17 +28014,17 @@
         <v>164</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D52" s="24" t="s">
         <v>163</v>
       </c>
       <c r="E52" s="24"/>
       <c r="F52" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G52" s="24"/>
     </row>
@@ -28031,17 +28033,17 @@
         <v>166</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C53" s="24" t="s">
+        <v>949</v>
+      </c>
+      <c r="D53" s="24" t="s">
         <v>950</v>
-      </c>
-      <c r="D53" s="24" t="s">
-        <v>951</v>
       </c>
       <c r="E53" s="24"/>
       <c r="F53" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G53" s="24"/>
     </row>
@@ -28050,17 +28052,17 @@
         <v>247</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C54" s="24" t="s">
+        <v>951</v>
+      </c>
+      <c r="D54" s="24" t="s">
         <v>952</v>
-      </c>
-      <c r="D54" s="24" t="s">
-        <v>953</v>
       </c>
       <c r="E54" s="24"/>
       <c r="F54" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G54" s="24"/>
     </row>
@@ -28069,17 +28071,17 @@
         <v>270</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D55" s="24" t="s">
         <v>269</v>
       </c>
       <c r="E55" s="24"/>
       <c r="F55" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G55" s="24"/>
     </row>
@@ -28088,17 +28090,17 @@
         <v>124</v>
       </c>
       <c r="B56" s="24" t="s">
+        <v>954</v>
+      </c>
+      <c r="C56" s="24" t="s">
         <v>955</v>
       </c>
-      <c r="C56" s="24" t="s">
-        <v>956</v>
-      </c>
       <c r="D56" s="60" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="E56" s="25"/>
       <c r="F56" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G56" s="25"/>
     </row>
@@ -28130,25 +28132,25 @@
   <sheetData>
     <row r="1" spans="1:256" s="29" customFormat="1" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
+        <v>840</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>841</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>842</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>843</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>844</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>845</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>846</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>847</v>
       </c>
       <c r="H1" s="28"/>
       <c r="I1" s="28"/>
@@ -28402,39 +28404,39 @@
     </row>
     <row r="2" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
+        <v>956</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>957</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="C2" s="18" t="s">
         <v>958</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>959</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>301</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
+        <v>959</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>960</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>958</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>961</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>303</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G3" s="18"/>
     </row>
@@ -28443,17 +28445,17 @@
         <v>306</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>305</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G4" s="18"/>
     </row>
@@ -28462,17 +28464,17 @@
         <v>312</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>311</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G5" s="18"/>
     </row>
@@ -28481,150 +28483,150 @@
         <v>317</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C6" s="18" t="s">
+        <v>963</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>964</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>965</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
+        <v>965</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>966</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>958</v>
-      </c>
-      <c r="C7" s="18" t="s">
+      <c r="D7" s="18" t="s">
         <v>967</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>968</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
+        <v>968</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>969</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>958</v>
-      </c>
-      <c r="C8" s="18" t="s">
+      <c r="D8" s="18" t="s">
         <v>970</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>971</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
+        <v>971</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>972</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>958</v>
-      </c>
-      <c r="C9" s="18" t="s">
+      <c r="D9" s="18" t="s">
         <v>973</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>974</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
+        <v>974</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>975</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>958</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>976</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>393</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
+        <v>976</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>977</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>958</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>978</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>395</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
+        <v>978</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>979</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>958</v>
-      </c>
-      <c r="C12" s="18" t="s">
+      <c r="D12" s="18" t="s">
         <v>980</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>981</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
+        <v>981</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>982</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>958</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>983</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>399</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G13" s="18"/>
     </row>
@@ -28633,150 +28635,150 @@
         <v>403</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>402</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
+        <v>984</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>985</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>958</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>986</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>405</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
+        <v>986</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="C16" s="22" t="s">
         <v>987</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>958</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>988</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>407</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
+        <v>988</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="C17" s="22" t="s">
         <v>989</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>958</v>
-      </c>
-      <c r="C17" s="22" t="s">
+      <c r="D17" s="22" t="s">
         <v>990</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>991</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
+        <v>991</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>992</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>958</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>993</v>
       </c>
       <c r="D18" s="22" t="s">
         <v>411</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
+        <v>993</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>994</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>958</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>995</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>413</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G19" s="18"/>
     </row>
     <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
+        <v>995</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>996</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>958</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>997</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>415</v>
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G20" s="18"/>
     </row>
     <row r="21" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
+        <v>997</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="C21" s="18" t="s">
         <v>998</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>958</v>
-      </c>
-      <c r="C21" s="18" t="s">
+      <c r="D21" s="18" t="s">
         <v>999</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>1000</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G21" s="18"/>
     </row>
@@ -28785,169 +28787,169 @@
         <v>422</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>421</v>
       </c>
       <c r="E22" s="18"/>
       <c r="F22" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G22" s="18"/>
     </row>
     <row r="23" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="C23" s="18" t="s">
         <v>1002</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>958</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>1003</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>424</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G23" s="18"/>
     </row>
     <row r="24" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="C24" s="18" t="s">
         <v>1004</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>958</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>1005</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>426</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G24" s="18"/>
     </row>
     <row r="25" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>1006</v>
       </c>
-      <c r="B25" s="18" t="s">
-        <v>958</v>
-      </c>
-      <c r="C25" s="18" t="s">
+      <c r="D25" s="18" t="s">
         <v>1007</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>1008</v>
       </c>
       <c r="E25" s="18"/>
       <c r="F25" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G25" s="18"/>
     </row>
     <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>1009</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>958</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>1010</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>433</v>
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G26" s="18"/>
     </row>
     <row r="27" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="C27" s="18" t="s">
         <v>1011</v>
       </c>
-      <c r="B27" s="18" t="s">
-        <v>958</v>
-      </c>
-      <c r="C27" s="18" t="s">
+      <c r="D27" s="18" t="s">
         <v>1012</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>1013</v>
       </c>
       <c r="E27" s="18"/>
       <c r="F27" s="18" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="G27" s="18"/>
     </row>
     <row r="28" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>1014</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>958</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>1015</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>437</v>
       </c>
       <c r="E28" s="18"/>
       <c r="F28" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G28" s="18"/>
     </row>
     <row r="29" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="C29" s="18" t="s">
         <v>1016</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>958</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>1017</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>439</v>
       </c>
       <c r="E29" s="18"/>
       <c r="F29" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>1018</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>958</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>1019</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>441</v>
       </c>
       <c r="E30" s="18"/>
       <c r="F30" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G30" s="18"/>
     </row>
@@ -28956,17 +28958,17 @@
         <v>457</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C31" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D31" s="18" t="s">
         <v>1020</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>1021</v>
       </c>
       <c r="E31" s="18"/>
       <c r="F31" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G31" s="18"/>
     </row>
@@ -28975,17 +28977,17 @@
         <v>460</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C32" s="18" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D32" s="18" t="s">
         <v>1022</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>1023</v>
       </c>
       <c r="E32" s="18"/>
       <c r="F32" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G32" s="18"/>
     </row>
@@ -28994,17 +28996,17 @@
         <v>463</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C33" s="18" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D33" s="18" t="s">
         <v>1024</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>1025</v>
       </c>
       <c r="E33" s="18"/>
       <c r="F33" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G33" s="18"/>
     </row>
@@ -29013,112 +29015,112 @@
         <v>466</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C34" s="18" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D34" s="18" t="s">
         <v>1026</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>1027</v>
       </c>
       <c r="E34" s="18"/>
       <c r="F34" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G34" s="18"/>
     </row>
     <row r="35" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="C35" s="18" t="s">
         <v>1028</v>
       </c>
-      <c r="B35" s="18" t="s">
-        <v>958</v>
-      </c>
-      <c r="C35" s="18" t="s">
+      <c r="D35" s="18" t="s">
         <v>1029</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>1030</v>
       </c>
       <c r="E35" s="18"/>
       <c r="F35" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G35" s="18"/>
     </row>
     <row r="36" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="C36" s="18" t="s">
         <v>1031</v>
       </c>
-      <c r="B36" s="18" t="s">
-        <v>958</v>
-      </c>
-      <c r="C36" s="18" t="s">
+      <c r="D36" s="18" t="s">
         <v>1032</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>1033</v>
       </c>
       <c r="E36" s="18"/>
       <c r="F36" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G36" s="18"/>
     </row>
     <row r="37" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="C37" s="18" t="s">
         <v>1034</v>
       </c>
-      <c r="B37" s="18" t="s">
-        <v>958</v>
-      </c>
-      <c r="C37" s="18" t="s">
+      <c r="D37" s="18" t="s">
         <v>1035</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>1036</v>
       </c>
       <c r="E37" s="18"/>
       <c r="F37" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G37" s="18"/>
     </row>
     <row r="38" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="C38" s="18" t="s">
         <v>1037</v>
       </c>
-      <c r="B38" s="18" t="s">
-        <v>958</v>
-      </c>
-      <c r="C38" s="18" t="s">
+      <c r="D38" s="18" t="s">
         <v>1038</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>1039</v>
       </c>
       <c r="E38" s="18"/>
       <c r="F38" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G38" s="18"/>
     </row>
     <row r="39" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="C39" s="18" t="s">
         <v>1040</v>
       </c>
-      <c r="B39" s="18" t="s">
-        <v>958</v>
-      </c>
-      <c r="C39" s="18" t="s">
+      <c r="D39" s="18" t="s">
         <v>1041</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>1042</v>
       </c>
       <c r="E39" s="18"/>
       <c r="F39" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G39" s="18"/>
     </row>
@@ -29127,32 +29129,32 @@
         <v>324</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C40" s="18" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D40" s="18" t="s">
         <v>1043</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="E40" s="18" t="s">
         <v>1044</v>
-      </c>
-      <c r="E40" s="18" t="s">
-        <v>1045</v>
       </c>
       <c r="F40" s="18"/>
       <c r="G40" s="18"/>
     </row>
     <row r="41" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="18" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="C41" s="18" t="s">
         <v>1046</v>
       </c>
-      <c r="B41" s="18" t="s">
-        <v>958</v>
-      </c>
-      <c r="C41" s="18" t="s">
+      <c r="D41" s="18" t="s">
         <v>1047</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>1048</v>
       </c>
       <c r="E41" s="18"/>
       <c r="F41" s="18"/>
@@ -29160,16 +29162,16 @@
     </row>
     <row r="42" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="18" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="C42" s="18" t="s">
         <v>1049</v>
       </c>
-      <c r="B42" s="18" t="s">
-        <v>958</v>
-      </c>
-      <c r="C42" s="18" t="s">
+      <c r="D42" s="18" t="s">
         <v>1050</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>1051</v>
       </c>
       <c r="E42" s="18"/>
       <c r="F42" s="18"/>
@@ -29177,73 +29179,73 @@
     </row>
     <row r="43" spans="1:7" ht="30.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="C43" s="18" t="s">
         <v>1052</v>
       </c>
-      <c r="B43" s="18" t="s">
-        <v>958</v>
-      </c>
-      <c r="C43" s="18" t="s">
+      <c r="D43" s="18" t="s">
         <v>1053</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="E43" s="18" t="s">
         <v>1054</v>
-      </c>
-      <c r="E43" s="18" t="s">
-        <v>1055</v>
       </c>
       <c r="F43" s="18"/>
       <c r="G43" s="18"/>
     </row>
     <row r="44" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="C44" s="18" t="s">
         <v>1056</v>
       </c>
-      <c r="B44" s="18" t="s">
-        <v>958</v>
-      </c>
-      <c r="C44" s="18" t="s">
+      <c r="D44" s="18" t="s">
         <v>1057</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="E44" s="18" t="s">
         <v>1058</v>
-      </c>
-      <c r="E44" s="18" t="s">
-        <v>1059</v>
       </c>
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
     </row>
     <row r="45" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="18" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="C45" s="18" t="s">
         <v>1060</v>
       </c>
-      <c r="B45" s="18" t="s">
-        <v>958</v>
-      </c>
-      <c r="C45" s="18" t="s">
+      <c r="D45" s="18" t="s">
         <v>1061</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="E45" s="18" t="s">
         <v>1062</v>
-      </c>
-      <c r="E45" s="18" t="s">
-        <v>1063</v>
       </c>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
     </row>
     <row r="46" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="18" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="C46" s="18" t="s">
         <v>1064</v>
       </c>
-      <c r="B46" s="18" t="s">
-        <v>958</v>
-      </c>
-      <c r="C46" s="18" t="s">
+      <c r="D46" s="18" t="s">
         <v>1065</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>1066</v>
       </c>
       <c r="E46" s="18"/>
       <c r="F46" s="18"/>
@@ -29251,16 +29253,16 @@
     </row>
     <row r="47" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="18" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="C47" s="18" t="s">
         <v>1067</v>
       </c>
-      <c r="B47" s="18" t="s">
-        <v>958</v>
-      </c>
-      <c r="C47" s="18" t="s">
+      <c r="D47" s="18" t="s">
         <v>1068</v>
-      </c>
-      <c r="D47" s="18" t="s">
-        <v>1069</v>
       </c>
       <c r="E47" s="18"/>
       <c r="F47" s="18"/>
@@ -29268,16 +29270,16 @@
     </row>
     <row r="48" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="18" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>957</v>
+      </c>
+      <c r="C48" s="18" t="s">
         <v>1070</v>
       </c>
-      <c r="B48" s="18" t="s">
-        <v>958</v>
-      </c>
-      <c r="C48" s="18" t="s">
+      <c r="D48" s="18" t="s">
         <v>1071</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>1072</v>
       </c>
       <c r="E48" s="18"/>
       <c r="F48" s="18"/>
@@ -29288,13 +29290,13 @@
         <v>429</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C49" s="31" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D49" s="31" t="s">
         <v>1073</v>
-      </c>
-      <c r="D49" s="31" t="s">
-        <v>1074</v>
       </c>
       <c r="E49" s="30"/>
       <c r="F49" s="30"/>
@@ -29554,13 +29556,13 @@
         <v>309</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C50" s="30" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D50" s="30" t="s">
         <v>1075</v>
-      </c>
-      <c r="D50" s="30" t="s">
-        <v>1076</v>
       </c>
       <c r="E50" s="32"/>
       <c r="F50" s="32"/>
@@ -29847,25 +29849,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
+        <v>840</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>841</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="22" t="s">
         <v>842</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="22" t="s">
         <v>843</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="22" t="s">
         <v>844</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="22" t="s">
         <v>845</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="22" t="s">
         <v>846</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
@@ -29873,17 +29875,17 @@
         <v>489</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>1077</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="D2" s="22" t="s">
         <v>1078</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>1079</v>
       </c>
       <c r="E2" s="22"/>
       <c r="F2" s="22" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G2" s="22"/>
     </row>
@@ -29892,17 +29894,17 @@
         <v>492</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C3" s="22" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>1080</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>1081</v>
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="22" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G3" s="22"/>
     </row>
@@ -29911,17 +29913,17 @@
         <v>495</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C4" s="22" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>1082</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>1083</v>
       </c>
       <c r="E4" s="22"/>
       <c r="F4" s="22" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G4" s="22"/>
     </row>
@@ -29930,17 +29932,17 @@
         <v>509</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C5" s="22" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>1084</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>1085</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="22" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G5" s="22"/>
     </row>
@@ -29949,19 +29951,19 @@
         <v>497</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C6" s="22" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>1086</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="E6" s="22" t="s">
         <v>1087</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>1088</v>
-      </c>
       <c r="F6" s="22" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G6" s="22"/>
     </row>
@@ -29970,17 +29972,17 @@
         <v>500</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C7" s="22" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>1089</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>1090</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="22" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G7" s="22"/>
     </row>
@@ -29989,17 +29991,17 @@
         <v>503</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C8" s="22" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D8" s="22" t="s">
         <v>1091</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>1092</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="22" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G8" s="22"/>
     </row>
@@ -30008,17 +30010,17 @@
         <v>506</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C9" s="22" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>1093</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>1094</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="22" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G9" s="22"/>
     </row>
@@ -30027,17 +30029,17 @@
         <v>540</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C10" s="25" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D10" s="25" t="s">
         <v>1095</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>1096</v>
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="22" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G10" s="22"/>
     </row>
@@ -30046,17 +30048,17 @@
         <v>592</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="24" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="G11" s="24"/>
     </row>
@@ -30065,17 +30067,17 @@
         <v>515</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C12" s="25" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D12" s="25" t="s">
         <v>1098</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>1099</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="22" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G12" s="22"/>
     </row>
@@ -30084,17 +30086,17 @@
         <v>518</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C13" s="22" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D13" s="22" t="s">
         <v>1100</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>1101</v>
       </c>
       <c r="E13" s="22"/>
       <c r="F13" s="22" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G13" s="22"/>
     </row>
@@ -30103,17 +30105,17 @@
         <v>521</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C14" s="22" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D14" s="22" t="s">
         <v>1102</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>1103</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="22" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G14" s="22"/>
     </row>
@@ -30122,17 +30124,17 @@
         <v>524</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>555</v>
       </c>
       <c r="E15" s="22"/>
       <c r="F15" s="22" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G15" s="22"/>
     </row>
@@ -30141,45 +30143,45 @@
         <v>558</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C16" s="22" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D16" s="22" t="s">
         <v>1105</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="E16" s="22" t="s">
         <v>1106</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="F16" s="22" t="s">
+        <v>850</v>
+      </c>
+      <c r="G16" s="22" t="s">
         <v>1107</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>851</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>1108</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C17" s="22" t="s">
         <v>1109</v>
       </c>
-      <c r="B17" s="22" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C17" s="22" t="s">
+      <c r="D17" s="22" t="s">
         <v>1110</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="E17" s="22" t="s">
         <v>1111</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="F17" s="22" t="s">
+        <v>850</v>
+      </c>
+      <c r="G17" s="22" t="s">
         <v>1112</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>851</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -30187,17 +30189,17 @@
         <v>595</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="D18" s="22" t="s">
         <v>594</v>
       </c>
       <c r="E18" s="22"/>
       <c r="F18" s="22" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G18" s="22"/>
     </row>
@@ -30206,17 +30208,17 @@
         <v>598</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="D19" s="22" t="s">
         <v>597</v>
       </c>
       <c r="E19" s="22"/>
       <c r="F19" s="22" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G19" s="22"/>
     </row>
@@ -30225,17 +30227,17 @@
         <v>601</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C20" s="22" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D20" s="22" t="s">
         <v>1116</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>1117</v>
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="22" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G20" s="22"/>
     </row>
@@ -30244,36 +30246,36 @@
         <v>604</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C21" s="22" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D21" s="22" t="s">
         <v>1118</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>1119</v>
       </c>
       <c r="E21" s="22"/>
       <c r="F21" s="22" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G21" s="22"/>
     </row>
     <row r="22" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C22" s="22" t="s">
         <v>1120</v>
       </c>
-      <c r="B22" s="22" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C22" s="22" t="s">
+      <c r="D22" s="22" t="s">
         <v>1121</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>1122</v>
       </c>
       <c r="E22" s="22"/>
       <c r="F22" s="22" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G22" s="22"/>
     </row>
@@ -30282,10 +30284,10 @@
         <v>545</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>544</v>
@@ -30296,16 +30298,16 @@
     </row>
     <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C24" s="24" t="s">
         <v>1124</v>
       </c>
-      <c r="B24" s="24" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C24" s="24" t="s">
+      <c r="D24" s="24" t="s">
         <v>1125</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>1126</v>
       </c>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
@@ -30316,13 +30318,13 @@
         <v>512</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C25" s="24" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D25" s="24" t="s">
         <v>1127</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>1128</v>
       </c>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
@@ -30330,16 +30332,16 @@
     </row>
     <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C26" s="24" t="s">
         <v>1129</v>
       </c>
-      <c r="B26" s="24" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C26" s="24" t="s">
+      <c r="D26" s="24" t="s">
         <v>1130</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>1131</v>
       </c>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
@@ -30347,16 +30349,16 @@
     </row>
     <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C27" s="24" t="s">
         <v>1132</v>
       </c>
-      <c r="B27" s="24" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C27" s="24" t="s">
+      <c r="D27" s="24" t="s">
         <v>1133</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>1134</v>
       </c>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
@@ -30364,16 +30366,16 @@
     </row>
     <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C28" s="24" t="s">
         <v>1135</v>
       </c>
-      <c r="B28" s="24" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C28" s="24" t="s">
+      <c r="D28" s="24" t="s">
         <v>1136</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>1137</v>
       </c>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
@@ -30381,19 +30383,19 @@
     </row>
     <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="24" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C29" s="24" t="s">
         <v>1138</v>
       </c>
-      <c r="B29" s="24" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C29" s="24" t="s">
+      <c r="D29" s="24" t="s">
         <v>1139</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="E29" s="24" t="s">
         <v>1140</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>1141</v>
       </c>
       <c r="F29" s="24"/>
       <c r="G29" s="24"/>
@@ -30403,16 +30405,16 @@
         <v>561</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C30" s="24" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D30" s="24" t="s">
         <v>1142</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="E30" s="24" t="s">
         <v>1143</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>1144</v>
       </c>
       <c r="F30" s="24"/>
       <c r="G30" s="24"/>
@@ -30445,81 +30447,81 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
+        <v>840</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>841</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="33" t="s">
         <v>842</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="D1" s="33" t="s">
         <v>843</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="E1" s="33" t="s">
         <v>844</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="F1" s="33" t="s">
         <v>845</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="G1" s="33" t="s">
         <v>846</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B2" s="19" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C2" s="34" t="s">
         <v>1145</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="D2" s="34" t="s">
         <v>1146</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>1147</v>
       </c>
       <c r="E2" s="30"/>
       <c r="F2" s="22" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>1148</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C3" s="33" t="s">
+      <c r="D3" s="33" t="s">
         <v>1149</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>1150</v>
       </c>
       <c r="E3" s="25"/>
       <c r="F3" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C4" s="33" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D4" s="34" t="s">
         <v>1151</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>1152</v>
       </c>
       <c r="E4" s="30"/>
       <c r="F4" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G4" s="18"/>
     </row>
@@ -30536,8 +30538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AMK32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:E13"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -30556,25 +30558,25 @@
   <sheetData>
     <row r="1" spans="1:256" s="50" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="47" t="s">
+        <v>840</v>
+      </c>
+      <c r="B1" s="47" t="s">
         <v>841</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="C1" s="47" t="s">
         <v>842</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="D1" s="47" t="s">
         <v>843</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="E1" s="48" t="s">
         <v>844</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="F1" s="47" t="s">
         <v>845</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="G1" s="47" t="s">
         <v>846</v>
-      </c>
-      <c r="G1" s="47" t="s">
-        <v>847</v>
       </c>
       <c r="H1" s="49"/>
       <c r="I1" s="49"/>
@@ -30828,39 +30830,39 @@
     </row>
     <row r="2" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="47" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B2" s="47" t="s">
         <v>1153</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="C2" s="47" t="s">
         <v>1154</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="D2" s="47" t="s">
         <v>1155</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>1156</v>
       </c>
       <c r="E2" s="48"/>
       <c r="F2" s="47" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G2" s="47"/>
     </row>
     <row r="3" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C3" s="47" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D3" s="47" t="s">
         <v>1157</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>1158</v>
       </c>
       <c r="E3" s="48"/>
       <c r="F3" s="47" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G3" s="47"/>
     </row>
@@ -30869,17 +30871,17 @@
         <v>643</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C4" s="47" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D4" s="47" t="s">
         <v>1159</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>1160</v>
       </c>
       <c r="E4" s="48"/>
       <c r="F4" s="47" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G4" s="47"/>
     </row>
@@ -30888,17 +30890,17 @@
         <v>646</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C5" s="47" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D5" s="47" t="s">
         <v>1161</v>
-      </c>
-      <c r="D5" s="47" t="s">
-        <v>1162</v>
       </c>
       <c r="E5" s="48"/>
       <c r="F5" s="47" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G5" s="47"/>
     </row>
@@ -30907,17 +30909,17 @@
         <v>649</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C6" s="47" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D6" s="47" t="s">
         <v>1163</v>
-      </c>
-      <c r="D6" s="47" t="s">
-        <v>1164</v>
       </c>
       <c r="E6" s="48"/>
       <c r="F6" s="47" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G6" s="47"/>
     </row>
@@ -30926,22 +30928,22 @@
         <v>651</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C7" s="47" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D7" s="47" t="s">
         <v>1165</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="E7" s="54" t="s">
         <v>1166</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="F7" s="47" t="s">
+        <v>850</v>
+      </c>
+      <c r="G7" s="55" t="s">
         <v>1167</v>
-      </c>
-      <c r="F7" s="47" t="s">
-        <v>851</v>
-      </c>
-      <c r="G7" s="55" t="s">
-        <v>1168</v>
       </c>
     </row>
     <row r="8" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
@@ -30949,17 +30951,17 @@
         <v>656</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="47" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G8" s="47"/>
     </row>
@@ -30968,17 +30970,17 @@
         <v>659</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D9" s="47" t="s">
         <v>658</v>
       </c>
       <c r="E9" s="48"/>
       <c r="F9" s="47" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G9" s="47"/>
     </row>
@@ -30987,36 +30989,36 @@
         <v>680</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="47" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G10" s="47"/>
     </row>
     <row r="11" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="47" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C11" s="47" t="s">
         <v>1172</v>
       </c>
-      <c r="B11" s="47" t="s">
-        <v>1154</v>
-      </c>
-      <c r="C11" s="47" t="s">
+      <c r="D11" s="47" t="s">
         <v>1173</v>
-      </c>
-      <c r="D11" s="47" t="s">
-        <v>1174</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="47" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G11" s="47"/>
     </row>
@@ -31025,35 +31027,35 @@
         <v>664</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="D12" s="47" t="s">
         <v>663</v>
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="47" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G12" s="47"/>
     </row>
     <row r="13" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="47" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C13" s="47" t="s">
         <v>1176</v>
       </c>
-      <c r="B13" s="47" t="s">
-        <v>1154</v>
-      </c>
-      <c r="C13" s="47" t="s">
+      <c r="D13" s="47" t="s">
         <v>1177</v>
       </c>
-      <c r="D13" s="47" t="s">
-        <v>1178</v>
-      </c>
       <c r="F13" s="47" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G13" s="55"/>
     </row>
@@ -31062,20 +31064,20 @@
         <v>672</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C14" s="47" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D14" s="47" t="s">
         <v>1179</v>
-      </c>
-      <c r="D14" s="47" t="s">
-        <v>1180</v>
       </c>
       <c r="E14" s="48"/>
       <c r="F14" s="47" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G14" s="47" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="15" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -31083,163 +31085,163 @@
         <v>675</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C15" s="47" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D15" s="47" t="s">
         <v>1182</v>
-      </c>
-      <c r="D15" s="47" t="s">
-        <v>1183</v>
       </c>
       <c r="E15" s="48"/>
       <c r="F15" s="47" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G15" s="47"/>
     </row>
     <row r="16" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="47" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C16" s="47" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D16" s="47" t="s">
         <v>1184</v>
-      </c>
-      <c r="D16" s="47" t="s">
-        <v>1185</v>
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="47" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G16" s="47"/>
     </row>
     <row r="17" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="47" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C17" s="47" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D17" s="47" t="s">
         <v>1186</v>
-      </c>
-      <c r="D17" s="47" t="s">
-        <v>1187</v>
       </c>
       <c r="E17" s="48"/>
       <c r="F17" s="47" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G17" s="47"/>
     </row>
     <row r="18" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="47" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C18" s="47" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D18" s="47" t="s">
         <v>1188</v>
-      </c>
-      <c r="D18" s="47" t="s">
-        <v>1189</v>
       </c>
       <c r="E18" s="48"/>
       <c r="F18" s="47" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G18" s="47"/>
     </row>
     <row r="19" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="47" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C19" s="47" t="s">
         <v>1190</v>
       </c>
-      <c r="B19" s="47" t="s">
-        <v>1154</v>
-      </c>
-      <c r="C19" s="47" t="s">
+      <c r="D19" s="47" t="s">
         <v>1191</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="E19" s="55" t="s">
         <v>1192</v>
       </c>
-      <c r="E19" s="55" t="s">
+      <c r="F19" s="47" t="s">
+        <v>850</v>
+      </c>
+      <c r="G19" s="55" t="s">
         <v>1193</v>
-      </c>
-      <c r="F19" s="47" t="s">
-        <v>851</v>
-      </c>
-      <c r="G19" s="55" t="s">
-        <v>1194</v>
       </c>
     </row>
     <row r="20" spans="1:256" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="47" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B20" s="47" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C20" s="47" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D20" s="47" t="s">
         <v>1195</v>
-      </c>
-      <c r="D20" s="47" t="s">
-        <v>1196</v>
       </c>
       <c r="E20" s="48"/>
       <c r="F20" s="47" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G20" s="47"/>
     </row>
     <row r="21" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="47" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B21" s="47" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C21" s="47" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D21" s="47" t="s">
         <v>1197</v>
       </c>
-      <c r="D21" s="47" t="s">
+      <c r="E21" s="55" t="s">
         <v>1198</v>
       </c>
-      <c r="E21" s="55" t="s">
+      <c r="F21" s="47" t="s">
+        <v>850</v>
+      </c>
+      <c r="G21" s="47" t="s">
         <v>1199</v>
-      </c>
-      <c r="F21" s="47" t="s">
-        <v>851</v>
-      </c>
-      <c r="G21" s="47" t="s">
-        <v>1200</v>
       </c>
     </row>
     <row r="22" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="47" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C22" s="47" t="s">
         <v>1201</v>
       </c>
-      <c r="B22" s="47" t="s">
-        <v>1154</v>
-      </c>
-      <c r="C22" s="47" t="s">
+      <c r="D22" s="47" t="s">
         <v>1202</v>
       </c>
-      <c r="D22" s="47" t="s">
+      <c r="E22" s="57" t="s">
         <v>1203</v>
       </c>
-      <c r="E22" s="57" t="s">
+      <c r="F22" s="47" t="s">
+        <v>850</v>
+      </c>
+      <c r="G22" s="55" t="s">
         <v>1204</v>
-      </c>
-      <c r="F22" s="47" t="s">
-        <v>851</v>
-      </c>
-      <c r="G22" s="55" t="s">
-        <v>1205</v>
       </c>
     </row>
     <row r="23" spans="1:256" s="52" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
@@ -31247,17 +31249,17 @@
         <v>689</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C23" s="47" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="D23" s="47" t="s">
         <v>688</v>
       </c>
       <c r="E23" s="47"/>
       <c r="F23" s="47" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G23" s="47"/>
       <c r="H23" s="51"/>
@@ -31515,17 +31517,17 @@
         <v>661</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C24" s="47" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D24" s="47" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="E24" s="47"/>
       <c r="F24" s="47" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G24" s="47"/>
       <c r="H24" s="51"/>
@@ -31783,17 +31785,17 @@
         <v>683</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C25" s="47" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D25" s="47" t="s">
         <v>682</v>
       </c>
       <c r="E25" s="47"/>
       <c r="F25" s="47" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G25" s="47"/>
       <c r="H25" s="51"/>
@@ -32048,20 +32050,20 @@
     </row>
     <row r="26" spans="1:256" s="52" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A26" s="47" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C26" s="47" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D26" s="47" t="s">
-        <v>693</v>
+        <v>1208</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>1309</v>
       </c>
       <c r="E26" s="47"/>
       <c r="F26" s="47" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G26" s="47"/>
       <c r="H26" s="51"/>
@@ -32316,20 +32318,20 @@
     </row>
     <row r="27" spans="1:256" s="52" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A27" s="47" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B27" s="47" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="D27" s="47" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E27" s="47"/>
       <c r="F27" s="47" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G27" s="47"/>
       <c r="H27" s="51"/>
@@ -32587,97 +32589,97 @@
         <v>669</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C28" s="47" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D28" s="47" t="s">
         <v>668</v>
       </c>
       <c r="E28" s="47" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="F28" s="47" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G28" s="55" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="29" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A29" s="47" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C29" s="47" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D29" s="47" t="s">
         <v>1213</v>
-      </c>
-      <c r="D29" s="47" t="s">
-        <v>1214</v>
       </c>
       <c r="E29" s="47"/>
       <c r="F29" s="47" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G29" s="47"/>
     </row>
     <row r="30" spans="1:256" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A30" s="56" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C30" s="56" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D30" s="56" t="s">
         <v>1291</v>
-      </c>
-      <c r="D30" s="56" t="s">
-        <v>1292</v>
       </c>
       <c r="E30" s="47"/>
       <c r="F30" s="47" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G30" s="47"/>
     </row>
     <row r="31" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A31" s="56" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C31" s="56" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D31" s="56" t="s">
         <v>1293</v>
-      </c>
-      <c r="D31" s="56" t="s">
-        <v>1294</v>
       </c>
       <c r="E31" s="55"/>
       <c r="F31" s="47" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G31" s="55"/>
     </row>
     <row r="32" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A32" s="56" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="B32" s="47" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C32" s="56" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D32" s="56" t="s">
         <v>1295</v>
-      </c>
-      <c r="D32" s="56" t="s">
-        <v>1296</v>
       </c>
       <c r="E32" s="55"/>
       <c r="F32" s="47" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G32" s="55"/>
     </row>
@@ -32709,25 +32711,25 @@
   <sheetData>
     <row r="1" spans="1:256" s="29" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
+        <v>840</v>
+      </c>
+      <c r="B1" s="33" t="s">
         <v>841</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="C1" s="33" t="s">
         <v>842</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="D1" s="33" t="s">
         <v>843</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="E1" s="33" t="s">
         <v>844</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="F1" s="33" t="s">
         <v>845</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="G1" s="33" t="s">
         <v>846</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>847</v>
       </c>
       <c r="H1" s="28"/>
       <c r="I1" s="28"/>
@@ -32984,61 +32986,61 @@
         <v>273</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>1215</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="D2" s="22" t="s">
         <v>1216</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>1217</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="3" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>1219</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C3" s="18" t="s">
+      <c r="D3" s="18" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>1220</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>1217</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>1221</v>
-      </c>
       <c r="F3" s="18" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="G3" s="18"/>
     </row>
     <row r="4" spans="1:256" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>1222</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C4" s="18" t="s">
+      <c r="D4" s="18" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>1223</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>1217</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>1224</v>
-      </c>
       <c r="F4" s="18" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="G4" s="18"/>
     </row>

--- a/conformancelib/testdata/PIV-I_ICAM_Test_Cards.xlsx
+++ b/conformancelib/testdata/PIV-I_ICAM_Test_Cards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\bf7450\git\piv-conformance\conformancelib\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DD5A97-B991-46C3-A316-8817FBDDCA8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC433F76-ABF2-426F-A26B-16AB33EB32BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="48" windowWidth="17280" windowHeight="13416" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Steps Overview" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3087" uniqueCount="1310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3087" uniqueCount="1311">
   <si>
     <t>Document</t>
   </si>
@@ -3962,6 +3962,9 @@
   </si>
   <si>
     <t>File has an extension of “.p7c” containing a certs-only CMS message (see RFC 3851)</t>
+  </si>
+  <si>
+    <t>No tags other than (0x01, 0x02, 0x04, 0x05, 0x06, 0x07, 0x08, 0xFE) are present</t>
   </si>
 </sst>
 </file>
@@ -4746,9 +4749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A376" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C381" sqref="C381"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6067,7 +6068,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A76" s="16" t="s">
         <v>6</v>
       </c>
@@ -6075,7 +6076,7 @@
         <v>171</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>910</v>
+        <v>1310</v>
       </c>
       <c r="D76" s="16" t="s">
         <v>172</v>
@@ -27016,8 +27017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMK56"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView showGridLines="0" topLeftCell="B25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
